--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R976"/>
+  <dimension ref="A1:R982"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E952" t="n">
         <v>4</v>
@@ -68892,41 +68892,41 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>660</v>
+        <v>760</v>
       </c>
       <c r="K952" t="n">
-        <v>17000</v>
+        <v>39000</v>
       </c>
       <c r="L952" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="M952" t="n">
-        <v>17500</v>
+        <v>39500</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>972</v>
+        <v>2633</v>
       </c>
       <c r="Q952" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R952" t="inlineStr">
         <is>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E953" t="n">
         <v>4</v>
@@ -68964,41 +68964,41 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J953" t="n">
         <v>480</v>
       </c>
       <c r="K953" t="n">
-        <v>14000</v>
+        <v>37000</v>
       </c>
       <c r="L953" t="n">
-        <v>15000</v>
+        <v>38000</v>
       </c>
       <c r="M953" t="n">
-        <v>14500</v>
+        <v>37500</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>806</v>
+        <v>2500</v>
       </c>
       <c r="Q953" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R953" t="inlineStr">
         <is>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E954" t="n">
         <v>4</v>
@@ -69041,20 +69041,20 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>800</v>
+        <v>360</v>
       </c>
       <c r="K954" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="L954" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="M954" t="n">
-        <v>24500</v>
+        <v>35500</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>1633</v>
+        <v>2367</v>
       </c>
       <c r="Q954" t="n">
         <v>15</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E955" t="n">
         <v>4</v>
@@ -69108,25 +69108,25 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="K955" t="n">
-        <v>19000</v>
+        <v>34000</v>
       </c>
       <c r="L955" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M955" t="n">
-        <v>19500</v>
+        <v>34500</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="Q955" t="n">
         <v>15</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E956" t="n">
         <v>4</v>
@@ -69180,7 +69180,7 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
@@ -69189,32 +69189,32 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K956" t="n">
-        <v>9500</v>
+        <v>32000</v>
       </c>
       <c r="L956" t="n">
-        <v>10000</v>
+        <v>33000</v>
       </c>
       <c r="M956" t="n">
-        <v>9750</v>
+        <v>32500</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>542</v>
+        <v>2167</v>
       </c>
       <c r="Q956" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R956" t="inlineStr">
         <is>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E957" t="n">
         <v>4</v>
@@ -69252,7 +69252,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -69261,32 +69261,32 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="K957" t="n">
-        <v>7000</v>
+        <v>28000</v>
       </c>
       <c r="L957" t="n">
-        <v>7500</v>
+        <v>29000</v>
       </c>
       <c r="M957" t="n">
-        <v>7250</v>
+        <v>28500</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>403</v>
+        <v>1900</v>
       </c>
       <c r="Q957" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R957" t="inlineStr">
         <is>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E958" t="n">
         <v>4</v>
@@ -69324,7 +69324,7 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
@@ -69333,32 +69333,32 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>720</v>
+        <v>660</v>
       </c>
       <c r="K958" t="n">
-        <v>19500</v>
+        <v>17000</v>
       </c>
       <c r="L958" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M958" t="n">
-        <v>19750</v>
+        <v>17500</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>1317</v>
+        <v>972</v>
       </c>
       <c r="Q958" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R958" t="inlineStr">
         <is>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E959" t="n">
         <v>4</v>
@@ -69396,7 +69396,7 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
@@ -69408,29 +69408,29 @@
         <v>480</v>
       </c>
       <c r="K959" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="L959" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M959" t="n">
-        <v>15750</v>
+        <v>14500</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>1050</v>
+        <v>806</v>
       </c>
       <c r="Q959" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R959" t="inlineStr">
         <is>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E960" t="n">
         <v>4</v>
@@ -69468,41 +69468,41 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K960" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="L960" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M960" t="n">
-        <v>19500</v>
+        <v>24500</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>1083</v>
+        <v>1633</v>
       </c>
       <c r="Q960" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R960" t="inlineStr">
         <is>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E961" t="n">
         <v>4</v>
@@ -69540,41 +69540,41 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K961" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L961" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M961" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>972</v>
+        <v>1300</v>
       </c>
       <c r="Q961" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R961" t="inlineStr">
         <is>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E962" t="n">
         <v>4</v>
@@ -69612,25 +69612,25 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K962" t="n">
-        <v>24000</v>
+        <v>9500</v>
       </c>
       <c r="L962" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M962" t="n">
-        <v>24500</v>
+        <v>9750</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>1361</v>
+        <v>542</v>
       </c>
       <c r="Q962" t="n">
         <v>18</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E963" t="n">
         <v>4</v>
@@ -69684,25 +69684,25 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="K963" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="L963" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="M963" t="n">
-        <v>19500</v>
+        <v>7250</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>1083</v>
+        <v>403</v>
       </c>
       <c r="Q963" t="n">
         <v>18</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E964" t="n">
         <v>4</v>
@@ -69756,41 +69756,41 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>300</v>
+        <v>720</v>
       </c>
       <c r="K964" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="L964" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M964" t="n">
-        <v>15500</v>
+        <v>19750</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>861</v>
+        <v>1317</v>
       </c>
       <c r="Q964" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R964" t="inlineStr">
         <is>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E965" t="n">
         <v>4</v>
@@ -69833,20 +69833,20 @@
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>700</v>
+        <v>480</v>
       </c>
       <c r="K965" t="n">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="L965" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M965" t="n">
-        <v>18500</v>
+        <v>15750</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>1233</v>
+        <v>1050</v>
       </c>
       <c r="Q965" t="n">
         <v>15</v>
@@ -69900,41 +69900,41 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J966" t="n">
         <v>500</v>
       </c>
       <c r="K966" t="n">
-        <v>16500</v>
+        <v>19000</v>
       </c>
       <c r="L966" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M966" t="n">
-        <v>16750</v>
+        <v>19500</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>1117</v>
+        <v>1083</v>
       </c>
       <c r="Q966" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R966" t="inlineStr">
         <is>
@@ -69972,41 +69972,41 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J967" t="n">
         <v>400</v>
       </c>
       <c r="K967" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="L967" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M967" t="n">
-        <v>14750</v>
+        <v>17500</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="Q967" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70044,7 +70044,7 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
@@ -70056,29 +70056,29 @@
         <v>600</v>
       </c>
       <c r="K968" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L968" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="M968" t="n">
-        <v>18500</v>
+        <v>24500</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>1233</v>
+        <v>1361</v>
       </c>
       <c r="Q968" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70116,7 +70116,7 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
@@ -70125,32 +70125,32 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K969" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L969" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M969" t="n">
-        <v>16500</v>
+        <v>19500</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>1100</v>
+        <v>1083</v>
       </c>
       <c r="Q969" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70188,7 +70188,7 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
@@ -70197,32 +70197,32 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K970" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L970" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M970" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>967</v>
+        <v>861</v>
       </c>
       <c r="Q970" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R970" t="inlineStr">
         <is>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E971" t="n">
         <v>4</v>
@@ -70260,7 +70260,7 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
@@ -70269,32 +70269,32 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K971" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L971" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="M971" t="n">
-        <v>24500</v>
+        <v>18500</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>1361</v>
+        <v>1233</v>
       </c>
       <c r="Q971" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R971" t="inlineStr">
         <is>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E972" t="n">
         <v>4</v>
@@ -70332,7 +70332,7 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
@@ -70344,29 +70344,29 @@
         <v>500</v>
       </c>
       <c r="K972" t="n">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="L972" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M972" t="n">
-        <v>19500</v>
+        <v>16750</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>1083</v>
+        <v>1117</v>
       </c>
       <c r="Q972" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E973" t="n">
         <v>4</v>
@@ -70404,7 +70404,7 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
@@ -70416,29 +70416,29 @@
         <v>400</v>
       </c>
       <c r="K973" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L973" t="n">
         <v>15000</v>
       </c>
-      <c r="L973" t="n">
-        <v>16000</v>
-      </c>
       <c r="M973" t="n">
-        <v>15500</v>
+        <v>14750</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>861</v>
+        <v>983</v>
       </c>
       <c r="Q973" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R973" t="inlineStr">
         <is>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E974" t="n">
         <v>4</v>
@@ -70476,7 +70476,7 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
@@ -70485,7 +70485,7 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K974" t="n">
         <v>18000</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E975" t="n">
         <v>4</v>
@@ -70548,7 +70548,7 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
@@ -70557,16 +70557,16 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K975" t="n">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="L975" t="n">
         <v>17000</v>
       </c>
       <c r="M975" t="n">
-        <v>16750</v>
+        <v>16500</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="Q975" t="n">
         <v>15</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E976" t="n">
         <v>4</v>
@@ -70620,7 +70620,7 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
@@ -70629,16 +70629,16 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K976" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L976" t="n">
         <v>15000</v>
       </c>
       <c r="M976" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,12 +70651,444 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="Q976" t="n">
         <v>15</v>
       </c>
       <c r="R976" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>8</v>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D977" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E977" t="n">
+        <v>4</v>
+      </c>
+      <c r="F977" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H977" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I977" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J977" t="n">
+        <v>600</v>
+      </c>
+      <c r="K977" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L977" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M977" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N977" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O977" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P977" t="n">
+        <v>1361</v>
+      </c>
+      <c r="Q977" t="n">
+        <v>18</v>
+      </c>
+      <c r="R977" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>8</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D978" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E978" t="n">
+        <v>4</v>
+      </c>
+      <c r="F978" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I978" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J978" t="n">
+        <v>500</v>
+      </c>
+      <c r="K978" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L978" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M978" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N978" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O978" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P978" t="n">
+        <v>1083</v>
+      </c>
+      <c r="Q978" t="n">
+        <v>18</v>
+      </c>
+      <c r="R978" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>8</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D979" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E979" t="n">
+        <v>4</v>
+      </c>
+      <c r="F979" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I979" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J979" t="n">
+        <v>400</v>
+      </c>
+      <c r="K979" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L979" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M979" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N979" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O979" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P979" t="n">
+        <v>861</v>
+      </c>
+      <c r="Q979" t="n">
+        <v>18</v>
+      </c>
+      <c r="R979" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>8</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D980" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E980" t="n">
+        <v>4</v>
+      </c>
+      <c r="F980" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I980" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J980" t="n">
+        <v>800</v>
+      </c>
+      <c r="K980" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L980" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M980" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N980" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O980" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P980" t="n">
+        <v>1233</v>
+      </c>
+      <c r="Q980" t="n">
+        <v>15</v>
+      </c>
+      <c r="R980" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>8</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D981" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E981" t="n">
+        <v>4</v>
+      </c>
+      <c r="F981" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G981" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I981" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J981" t="n">
+        <v>600</v>
+      </c>
+      <c r="K981" t="n">
+        <v>16500</v>
+      </c>
+      <c r="L981" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M981" t="n">
+        <v>16750</v>
+      </c>
+      <c r="N981" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O981" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P981" t="n">
+        <v>1117</v>
+      </c>
+      <c r="Q981" t="n">
+        <v>15</v>
+      </c>
+      <c r="R981" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>8</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D982" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E982" t="n">
+        <v>4</v>
+      </c>
+      <c r="F982" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G982" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I982" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J982" t="n">
+        <v>500</v>
+      </c>
+      <c r="K982" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L982" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M982" t="n">
+        <v>14750</v>
+      </c>
+      <c r="N982" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O982" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P982" t="n">
+        <v>983</v>
+      </c>
+      <c r="Q982" t="n">
+        <v>15</v>
+      </c>
+      <c r="R982" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1061"/>
+  <dimension ref="A1:R1064"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E924" t="n">
         <v>4</v>
@@ -66876,41 +66876,41 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>600</v>
+        <v>740</v>
       </c>
       <c r="K924" t="n">
-        <v>37000</v>
+        <v>41000</v>
       </c>
       <c r="L924" t="n">
-        <v>38000</v>
+        <v>42000</v>
       </c>
       <c r="M924" t="n">
-        <v>37500</v>
+        <v>41500</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>2083</v>
+        <v>2767</v>
       </c>
       <c r="Q924" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R924" t="inlineStr">
         <is>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E925" t="n">
         <v>4</v>
@@ -66948,7 +66948,7 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
@@ -66957,32 +66957,32 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K925" t="n">
-        <v>34000</v>
+        <v>31000</v>
       </c>
       <c r="L925" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M925" t="n">
-        <v>34500</v>
+        <v>31500</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>1917</v>
+        <v>2100</v>
       </c>
       <c r="Q925" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R925" t="inlineStr">
         <is>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E926" t="n">
         <v>4</v>
@@ -67020,7 +67020,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -67029,32 +67029,32 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K926" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L926" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="M926" t="n">
-        <v>29500</v>
+        <v>25500</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>1639</v>
+        <v>1700</v>
       </c>
       <c r="Q926" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R926" t="inlineStr">
         <is>
@@ -67092,7 +67092,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -67101,32 +67101,32 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K927" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="L927" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="M927" t="n">
-        <v>34500</v>
+        <v>37500</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>2300</v>
+        <v>2083</v>
       </c>
       <c r="Q927" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R927" t="inlineStr">
         <is>
@@ -67164,7 +67164,7 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
@@ -67173,32 +67173,32 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K928" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="L928" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M928" t="n">
-        <v>32500</v>
+        <v>34500</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>2167</v>
+        <v>1917</v>
       </c>
       <c r="Q928" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R928" t="inlineStr">
         <is>
@@ -67236,7 +67236,7 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
@@ -67245,32 +67245,32 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K929" t="n">
+        <v>29000</v>
+      </c>
+      <c r="L929" t="n">
         <v>30000</v>
       </c>
-      <c r="L929" t="n">
-        <v>31000</v>
-      </c>
       <c r="M929" t="n">
-        <v>30500</v>
+        <v>29500</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>2033</v>
+        <v>1639</v>
       </c>
       <c r="Q929" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R929" t="inlineStr">
         <is>
@@ -67308,7 +67308,7 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
@@ -67320,13 +67320,13 @@
         <v>800</v>
       </c>
       <c r="K930" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="L930" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M930" t="n">
-        <v>26500</v>
+        <v>34500</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>1767</v>
+        <v>2300</v>
       </c>
       <c r="Q930" t="n">
         <v>15</v>
@@ -67380,7 +67380,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K931" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="L931" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M931" t="n">
-        <v>24500</v>
+        <v>32500</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>1633</v>
+        <v>2167</v>
       </c>
       <c r="Q931" t="n">
         <v>15</v>
@@ -67452,7 +67452,7 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
@@ -67464,13 +67464,13 @@
         <v>400</v>
       </c>
       <c r="K932" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L932" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M932" t="n">
-        <v>21500</v>
+        <v>30500</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>1433</v>
+        <v>2033</v>
       </c>
       <c r="Q932" t="n">
         <v>15</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E933" t="n">
         <v>4</v>
@@ -67524,41 +67524,41 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K933" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L933" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="M933" t="n">
-        <v>17500</v>
+        <v>26500</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>972</v>
+        <v>1767</v>
       </c>
       <c r="Q933" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R933" t="inlineStr">
         <is>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E934" t="n">
         <v>4</v>
@@ -67596,41 +67596,41 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K934" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="L934" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M934" t="n">
-        <v>14500</v>
+        <v>24500</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>806</v>
+        <v>1633</v>
       </c>
       <c r="Q934" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R934" t="inlineStr">
         <is>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E935" t="n">
         <v>4</v>
@@ -67668,41 +67668,41 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K935" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L935" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M935" t="n">
-        <v>15500</v>
+        <v>21500</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>861</v>
+        <v>1433</v>
       </c>
       <c r="Q935" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R935" t="inlineStr">
         <is>
@@ -67740,25 +67740,25 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K936" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L936" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M936" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>694</v>
+        <v>972</v>
       </c>
       <c r="Q936" t="n">
         <v>18</v>
@@ -67812,41 +67812,41 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K937" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L937" t="n">
         <v>15000</v>
       </c>
-      <c r="L937" t="n">
-        <v>16000</v>
-      </c>
       <c r="M937" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>1033</v>
+        <v>806</v>
       </c>
       <c r="Q937" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R937" t="inlineStr">
         <is>
@@ -67884,41 +67884,41 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K938" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L938" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M938" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="Q938" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R938" t="inlineStr">
         <is>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E939" t="n">
         <v>4</v>
@@ -67956,25 +67956,25 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="K939" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L939" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="M939" t="n">
-        <v>8250</v>
+        <v>12500</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>458</v>
+        <v>694</v>
       </c>
       <c r="Q939" t="n">
         <v>18</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E940" t="n">
         <v>4</v>
@@ -68028,41 +68028,41 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K940" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L940" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="M940" t="n">
-        <v>6250</v>
+        <v>15500</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>347</v>
+        <v>1033</v>
       </c>
       <c r="Q940" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R940" t="inlineStr">
         <is>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E941" t="n">
         <v>4</v>
@@ -68100,41 +68100,41 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K941" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L941" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M941" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>542</v>
+        <v>833</v>
       </c>
       <c r="Q941" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R941" t="inlineStr">
         <is>
@@ -68172,25 +68172,25 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>440</v>
+        <v>720</v>
       </c>
       <c r="K942" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L942" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M942" t="n">
-        <v>7750</v>
+        <v>8250</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="Q942" t="n">
         <v>18</v>
@@ -68244,41 +68244,41 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>760</v>
+        <v>500</v>
       </c>
       <c r="K943" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L943" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M943" t="n">
-        <v>11500</v>
+        <v>6250</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>767</v>
+        <v>347</v>
       </c>
       <c r="Q943" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R943" t="inlineStr">
         <is>
@@ -68316,41 +68316,41 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="K944" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L944" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M944" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>583</v>
+        <v>542</v>
       </c>
       <c r="Q944" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R944" t="inlineStr">
         <is>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E945" t="n">
         <v>4</v>
@@ -68388,25 +68388,25 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="K945" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="L945" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M945" t="n">
-        <v>14500</v>
+        <v>7750</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>806</v>
+        <v>431</v>
       </c>
       <c r="Q945" t="n">
         <v>18</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E946" t="n">
         <v>4</v>
@@ -68460,7 +68460,7 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
@@ -68469,32 +68469,32 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>600</v>
+        <v>760</v>
       </c>
       <c r="K946" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L946" t="n">
         <v>12000</v>
       </c>
-      <c r="L946" t="n">
-        <v>12500</v>
-      </c>
       <c r="M946" t="n">
-        <v>12250</v>
+        <v>11500</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>681</v>
+        <v>767</v>
       </c>
       <c r="Q946" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R946" t="inlineStr">
         <is>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E947" t="n">
         <v>4</v>
@@ -68532,7 +68532,7 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
@@ -68541,7 +68541,7 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="K947" t="n">
         <v>8500</v>
@@ -68554,19 +68554,19 @@
       </c>
       <c r="N947" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>486</v>
+        <v>583</v>
       </c>
       <c r="Q947" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R947" t="inlineStr">
         <is>
@@ -68604,41 +68604,41 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J948" t="n">
         <v>800</v>
       </c>
       <c r="K948" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L948" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M948" t="n">
-        <v>21500</v>
+        <v>14500</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>1433</v>
+        <v>806</v>
       </c>
       <c r="Q948" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R948" t="inlineStr">
         <is>
@@ -68676,41 +68676,41 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K949" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="L949" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="M949" t="n">
-        <v>16750</v>
+        <v>12250</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>1117</v>
+        <v>681</v>
       </c>
       <c r="Q949" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R949" t="inlineStr">
         <is>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E950" t="n">
         <v>4</v>
@@ -68753,20 +68753,20 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>780</v>
+        <v>440</v>
       </c>
       <c r="K950" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L950" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M950" t="n">
-        <v>12500</v>
+        <v>8750</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>694</v>
+        <v>486</v>
       </c>
       <c r="Q950" t="n">
         <v>18</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E951" t="n">
         <v>4</v>
@@ -68820,41 +68820,41 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K951" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="L951" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="M951" t="n">
-        <v>10500</v>
+        <v>21500</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>583</v>
+        <v>1433</v>
       </c>
       <c r="Q951" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R951" t="inlineStr">
         <is>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E952" t="n">
         <v>4</v>
@@ -68892,41 +68892,41 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K952" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="L952" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M952" t="n">
-        <v>13750</v>
+        <v>16750</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>764</v>
+        <v>1117</v>
       </c>
       <c r="Q952" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R952" t="inlineStr">
         <is>
@@ -68964,25 +68964,25 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="K953" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L953" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M953" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>583</v>
+        <v>694</v>
       </c>
       <c r="Q953" t="n">
         <v>18</v>
@@ -69036,41 +69036,41 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>3300</v>
+        <v>400</v>
       </c>
       <c r="K954" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="L954" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="M954" t="n">
-        <v>27091</v>
+        <v>10500</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>1806</v>
+        <v>583</v>
       </c>
       <c r="Q954" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R954" t="inlineStr">
         <is>
@@ -69108,7 +69108,7 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
@@ -69117,32 +69117,32 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K955" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="L955" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M955" t="n">
-        <v>16500</v>
+        <v>13750</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>1100</v>
+        <v>764</v>
       </c>
       <c r="Q955" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R955" t="inlineStr">
         <is>
@@ -69180,7 +69180,7 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
@@ -69189,32 +69189,32 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K956" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L956" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M956" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>833</v>
+        <v>583</v>
       </c>
       <c r="Q956" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R956" t="inlineStr">
         <is>
@@ -69252,25 +69252,25 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>700</v>
+        <v>3300</v>
       </c>
       <c r="K957" t="n">
-        <v>12500</v>
+        <v>27000</v>
       </c>
       <c r="L957" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="M957" t="n">
-        <v>12750</v>
+        <v>27091</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>850</v>
+        <v>1806</v>
       </c>
       <c r="Q957" t="n">
         <v>15</v>
@@ -69324,25 +69324,25 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K958" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L958" t="n">
-        <v>10500</v>
+        <v>17000</v>
       </c>
       <c r="M958" t="n">
-        <v>10250</v>
+        <v>16500</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>683</v>
+        <v>1100</v>
       </c>
       <c r="Q958" t="n">
         <v>15</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E959" t="n">
         <v>4</v>
@@ -69396,41 +69396,41 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K959" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L959" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="M959" t="n">
-        <v>22500</v>
+        <v>12500</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>1250</v>
+        <v>833</v>
       </c>
       <c r="Q959" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R959" t="inlineStr">
         <is>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E960" t="n">
         <v>4</v>
@@ -69468,41 +69468,41 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>440</v>
+        <v>700</v>
       </c>
       <c r="K960" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="L960" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M960" t="n">
-        <v>19500</v>
+        <v>12750</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>1083</v>
+        <v>850</v>
       </c>
       <c r="Q960" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R960" t="inlineStr">
         <is>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E961" t="n">
         <v>4</v>
@@ -69540,25 +69540,25 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K961" t="n">
-        <v>34000</v>
+        <v>10000</v>
       </c>
       <c r="L961" t="n">
-        <v>35000</v>
+        <v>10500</v>
       </c>
       <c r="M961" t="n">
-        <v>34500</v>
+        <v>10250</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>2300</v>
+        <v>683</v>
       </c>
       <c r="Q961" t="n">
         <v>15</v>
@@ -69612,41 +69612,41 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K962" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L962" t="n">
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="M962" t="n">
-        <v>30500</v>
+        <v>22500</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>2033</v>
+        <v>1250</v>
       </c>
       <c r="Q962" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R962" t="inlineStr">
         <is>
@@ -69684,41 +69684,41 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="K963" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L963" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M963" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>1033</v>
+        <v>1083</v>
       </c>
       <c r="Q963" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R963" t="inlineStr">
         <is>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E964" t="n">
         <v>4</v>
@@ -69756,41 +69756,41 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K964" t="n">
-        <v>13000</v>
+        <v>34000</v>
       </c>
       <c r="L964" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="M964" t="n">
-        <v>13500</v>
+        <v>34500</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>750</v>
+        <v>2300</v>
       </c>
       <c r="Q964" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R964" t="inlineStr">
         <is>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E965" t="n">
         <v>4</v>
@@ -69828,41 +69828,41 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K965" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="L965" t="n">
-        <v>12000</v>
+        <v>31000</v>
       </c>
       <c r="M965" t="n">
-        <v>11500</v>
+        <v>30500</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>639</v>
+        <v>2033</v>
       </c>
       <c r="Q965" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R965" t="inlineStr">
         <is>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E966" t="n">
         <v>4</v>
@@ -69900,41 +69900,41 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K966" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L966" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M966" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>528</v>
+        <v>1033</v>
       </c>
       <c r="Q966" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R966" t="inlineStr">
         <is>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E967" t="n">
         <v>4</v>
@@ -69984,13 +69984,13 @@
         <v>700</v>
       </c>
       <c r="K967" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L967" t="n">
         <v>14000</v>
       </c>
-      <c r="L967" t="n">
-        <v>15000</v>
-      </c>
       <c r="M967" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="Q967" t="n">
         <v>18</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E968" t="n">
         <v>4</v>
@@ -70053,16 +70053,16 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K968" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L968" t="n">
         <v>12000</v>
       </c>
-      <c r="L968" t="n">
-        <v>13000</v>
-      </c>
       <c r="M968" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>694</v>
+        <v>639</v>
       </c>
       <c r="Q968" t="n">
         <v>18</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E969" t="n">
         <v>4</v>
@@ -70125,16 +70125,16 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K969" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L969" t="n">
         <v>10000</v>
       </c>
-      <c r="L969" t="n">
-        <v>11000</v>
-      </c>
       <c r="M969" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>583</v>
+        <v>528</v>
       </c>
       <c r="Q969" t="n">
         <v>18</v>
@@ -70188,25 +70188,25 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>660</v>
+        <v>700</v>
       </c>
       <c r="K970" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L970" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M970" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>917</v>
+        <v>806</v>
       </c>
       <c r="Q970" t="n">
         <v>18</v>
@@ -70260,16 +70260,16 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K971" t="n">
         <v>12000</v>
@@ -70332,41 +70332,41 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K972" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L972" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M972" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>1033</v>
+        <v>583</v>
       </c>
       <c r="Q972" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70404,41 +70404,41 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>520</v>
+        <v>660</v>
       </c>
       <c r="K973" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L973" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="M973" t="n">
-        <v>12250</v>
+        <v>16500</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>817</v>
+        <v>917</v>
       </c>
       <c r="Q973" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R973" t="inlineStr">
         <is>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E974" t="n">
         <v>4</v>
@@ -70476,7 +70476,7 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
@@ -70485,32 +70485,32 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K974" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L974" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M974" t="n">
-        <v>8750</v>
+        <v>12500</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>583</v>
+        <v>694</v>
       </c>
       <c r="Q974" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R974" t="inlineStr">
         <is>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E975" t="n">
         <v>4</v>
@@ -70548,7 +70548,7 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
@@ -70557,7 +70557,7 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K975" t="n">
         <v>15000</v>
@@ -70570,19 +70570,19 @@
       </c>
       <c r="N975" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>861</v>
+        <v>1033</v>
       </c>
       <c r="Q975" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R975" t="inlineStr">
         <is>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E976" t="n">
         <v>4</v>
@@ -70620,7 +70620,7 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
@@ -70629,32 +70629,32 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K976" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L976" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="M976" t="n">
-        <v>11500</v>
+        <v>12250</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>639</v>
+        <v>817</v>
       </c>
       <c r="Q976" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R976" t="inlineStr">
         <is>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E977" t="n">
         <v>4</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K977" t="n">
-        <v>22000</v>
+        <v>8500</v>
       </c>
       <c r="L977" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="M977" t="n">
-        <v>22500</v>
+        <v>8750</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>1500</v>
+        <v>583</v>
       </c>
       <c r="Q977" t="n">
         <v>15</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E978" t="n">
         <v>4</v>
@@ -70773,16 +70773,16 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K978" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L978" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M978" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>694</v>
+        <v>861</v>
       </c>
       <c r="Q978" t="n">
         <v>18</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E979" t="n">
         <v>4</v>
@@ -70845,16 +70845,16 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K979" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L979" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M979" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>583</v>
+        <v>639</v>
       </c>
       <c r="Q979" t="n">
         <v>18</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E980" t="n">
         <v>4</v>
@@ -70908,7 +70908,7 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
@@ -70917,32 +70917,32 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K980" t="n">
-        <v>13500</v>
+        <v>22000</v>
       </c>
       <c r="L980" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="M980" t="n">
-        <v>13750</v>
+        <v>22500</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>764</v>
+        <v>1500</v>
       </c>
       <c r="Q980" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R980" t="inlineStr">
         <is>
@@ -70980,25 +70980,25 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>360</v>
+        <v>520</v>
       </c>
       <c r="K981" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L981" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M981" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>583</v>
+        <v>694</v>
       </c>
       <c r="Q981" t="n">
         <v>18</v>
@@ -71052,41 +71052,41 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="K982" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L982" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M982" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>1100</v>
+        <v>583</v>
       </c>
       <c r="Q982" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R982" t="inlineStr">
         <is>
@@ -71124,41 +71124,41 @@
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K983" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="L983" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M983" t="n">
-        <v>12500</v>
+        <v>13750</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>833</v>
+        <v>764</v>
       </c>
       <c r="Q983" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R983" t="inlineStr">
         <is>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E984" t="n">
         <v>4</v>
@@ -71196,25 +71196,25 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>660</v>
+        <v>360</v>
       </c>
       <c r="K984" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="L984" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M984" t="n">
-        <v>12750</v>
+        <v>10500</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>708</v>
+        <v>583</v>
       </c>
       <c r="Q984" t="n">
         <v>18</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E985" t="n">
         <v>4</v>
@@ -71268,41 +71268,41 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="K985" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L985" t="n">
-        <v>10500</v>
+        <v>17000</v>
       </c>
       <c r="M985" t="n">
-        <v>10250</v>
+        <v>16500</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>569</v>
+        <v>1100</v>
       </c>
       <c r="Q985" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R985" t="inlineStr">
         <is>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E986" t="n">
         <v>4</v>
@@ -71345,20 +71345,20 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K986" t="n">
-        <v>21500</v>
+        <v>12000</v>
       </c>
       <c r="L986" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M986" t="n">
-        <v>21750</v>
+        <v>12500</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>1450</v>
+        <v>833</v>
       </c>
       <c r="Q986" t="n">
         <v>15</v>
@@ -71412,41 +71412,41 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>440</v>
+        <v>660</v>
       </c>
       <c r="K987" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="L987" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M987" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>1183</v>
+        <v>708</v>
       </c>
       <c r="Q987" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R987" t="inlineStr">
         <is>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E988" t="n">
         <v>4</v>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K988" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L988" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="M988" t="n">
-        <v>19500</v>
+        <v>10250</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>1083</v>
+        <v>569</v>
       </c>
       <c r="Q988" t="n">
         <v>18</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E989" t="n">
         <v>4</v>
@@ -71556,41 +71556,41 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K989" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="L989" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M989" t="n">
-        <v>16500</v>
+        <v>21750</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>917</v>
+        <v>1450</v>
       </c>
       <c r="Q989" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R989" t="inlineStr">
         <is>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E990" t="n">
         <v>4</v>
@@ -71633,20 +71633,20 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>760</v>
+        <v>440</v>
       </c>
       <c r="K990" t="n">
-        <v>31000</v>
+        <v>17500</v>
       </c>
       <c r="L990" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="M990" t="n">
-        <v>31500</v>
+        <v>17750</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>2100</v>
+        <v>1183</v>
       </c>
       <c r="Q990" t="n">
         <v>15</v>
@@ -71700,41 +71700,41 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K991" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="L991" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="M991" t="n">
-        <v>27500</v>
+        <v>19500</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>1833</v>
+        <v>1083</v>
       </c>
       <c r="Q991" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71772,41 +71772,41 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K992" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L992" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M992" t="n">
-        <v>15500</v>
+        <v>16500</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>1033</v>
+        <v>917</v>
       </c>
       <c r="Q992" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R992" t="inlineStr">
         <is>
@@ -71844,25 +71844,25 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K993" t="n">
-        <v>12000</v>
+        <v>31000</v>
       </c>
       <c r="L993" t="n">
-        <v>13000</v>
+        <v>32000</v>
       </c>
       <c r="M993" t="n">
-        <v>12500</v>
+        <v>31500</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>833</v>
+        <v>2100</v>
       </c>
       <c r="Q993" t="n">
         <v>15</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E994" t="n">
         <v>4</v>
@@ -71916,41 +71916,41 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K994" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="L994" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M994" t="n">
-        <v>26500</v>
+        <v>27500</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>1472</v>
+        <v>1833</v>
       </c>
       <c r="Q994" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R994" t="inlineStr">
         <is>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E995" t="n">
         <v>4</v>
@@ -71988,7 +71988,7 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
@@ -71997,32 +71997,32 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K995" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L995" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="M995" t="n">
-        <v>24500</v>
+        <v>15500</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>1361</v>
+        <v>1033</v>
       </c>
       <c r="Q995" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E996" t="n">
         <v>4</v>
@@ -72060,7 +72060,7 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
@@ -72069,32 +72069,32 @@
         </is>
       </c>
       <c r="J996" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K996" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L996" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="M996" t="n">
-        <v>22500</v>
+        <v>12500</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>1250</v>
+        <v>833</v>
       </c>
       <c r="Q996" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R996" t="inlineStr">
         <is>
@@ -72132,7 +72132,7 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
@@ -72141,32 +72141,32 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K997" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="L997" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M997" t="n">
-        <v>21500</v>
+        <v>26500</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>1433</v>
+        <v>1472</v>
       </c>
       <c r="Q997" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R997" t="inlineStr">
         <is>
@@ -72204,7 +72204,7 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
@@ -72213,32 +72213,32 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>640</v>
+        <v>360</v>
       </c>
       <c r="K998" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="L998" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M998" t="n">
-        <v>19500</v>
+        <v>24500</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>1300</v>
+        <v>1361</v>
       </c>
       <c r="Q998" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R998" t="inlineStr">
         <is>
@@ -72276,7 +72276,7 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
@@ -72285,32 +72285,32 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K999" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L999" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M999" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>1167</v>
+        <v>1250</v>
       </c>
       <c r="Q999" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72348,7 +72348,7 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
@@ -72357,16 +72357,16 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>840</v>
+        <v>900</v>
       </c>
       <c r="K1000" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="L1000" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M1000" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>1300</v>
+        <v>1433</v>
       </c>
       <c r="Q1000" t="n">
         <v>15</v>
@@ -72420,7 +72420,7 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
@@ -72429,16 +72429,16 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>520</v>
+        <v>640</v>
       </c>
       <c r="K1001" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L1001" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M1001" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>1167</v>
+        <v>1300</v>
       </c>
       <c r="Q1001" t="n">
         <v>15</v>
@@ -72492,7 +72492,7 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
@@ -72504,13 +72504,13 @@
         <v>400</v>
       </c>
       <c r="K1002" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L1002" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M1002" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>1033</v>
+        <v>1167</v>
       </c>
       <c r="Q1002" t="n">
         <v>15</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1003" t="n">
         <v>4</v>
@@ -72564,41 +72564,41 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>500</v>
+        <v>840</v>
       </c>
       <c r="K1003" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="L1003" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M1003" t="n">
-        <v>24500</v>
+        <v>19500</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>1361</v>
+        <v>1300</v>
       </c>
       <c r="Q1003" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1004" t="n">
         <v>4</v>
@@ -72636,41 +72636,41 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K1004" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L1004" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M1004" t="n">
-        <v>22500</v>
+        <v>17500</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>1250</v>
+        <v>1167</v>
       </c>
       <c r="Q1004" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1005" t="n">
         <v>4</v>
@@ -72708,25 +72708,25 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>660</v>
+        <v>400</v>
       </c>
       <c r="K1005" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="L1005" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M1005" t="n">
-        <v>21500</v>
+        <v>15500</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>1433</v>
+        <v>1033</v>
       </c>
       <c r="Q1005" t="n">
         <v>15</v>
@@ -72780,7 +72780,7 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
@@ -72789,32 +72789,32 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>760</v>
+        <v>500</v>
       </c>
       <c r="K1006" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="L1006" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M1006" t="n">
-        <v>19500</v>
+        <v>24500</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>1300</v>
+        <v>1361</v>
       </c>
       <c r="Q1006" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
@@ -72852,7 +72852,7 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
@@ -72864,29 +72864,29 @@
         <v>400</v>
       </c>
       <c r="K1007" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L1007" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M1007" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>1167</v>
+        <v>1250</v>
       </c>
       <c r="Q1007" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
@@ -72924,7 +72924,7 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
@@ -72933,16 +72933,16 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="K1008" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="L1008" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M1008" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>1300</v>
+        <v>1433</v>
       </c>
       <c r="Q1008" t="n">
         <v>15</v>
@@ -72996,7 +72996,7 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
@@ -73005,16 +73005,16 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>500</v>
+        <v>760</v>
       </c>
       <c r="K1009" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L1009" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M1009" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>1167</v>
+        <v>1300</v>
       </c>
       <c r="Q1009" t="n">
         <v>15</v>
@@ -73068,7 +73068,7 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
@@ -73077,16 +73077,16 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K1010" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L1010" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M1010" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>1033</v>
+        <v>1167</v>
       </c>
       <c r="Q1010" t="n">
         <v>15</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1011" t="n">
         <v>4</v>
@@ -73140,7 +73140,7 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
@@ -73149,32 +73149,32 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K1011" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L1011" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M1011" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>694</v>
+        <v>1300</v>
       </c>
       <c r="Q1011" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1011" t="inlineStr">
         <is>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1012" t="n">
         <v>4</v>
@@ -73212,25 +73212,25 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K1012" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L1012" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M1012" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>1100</v>
+        <v>1167</v>
       </c>
       <c r="Q1012" t="n">
         <v>15</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1013" t="n">
         <v>4</v>
@@ -73284,25 +73284,25 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="K1013" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L1013" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M1013" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>967</v>
+        <v>1033</v>
       </c>
       <c r="Q1013" t="n">
         <v>15</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1014" t="n">
         <v>4</v>
@@ -73356,25 +73356,25 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K1014" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L1014" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1014" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>542</v>
+        <v>694</v>
       </c>
       <c r="Q1014" t="n">
         <v>18</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1015" t="n">
         <v>4</v>
@@ -73428,41 +73428,41 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K1015" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L1015" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="M1015" t="n">
-        <v>7250</v>
+        <v>16500</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>403</v>
+        <v>1100</v>
       </c>
       <c r="Q1015" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1015" t="inlineStr">
         <is>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1016" t="n">
         <v>4</v>
@@ -73500,7 +73500,7 @@
       </c>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1016" t="inlineStr">
@@ -73509,32 +73509,32 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>700</v>
+        <v>480</v>
       </c>
       <c r="K1016" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L1016" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M1016" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>1083</v>
+        <v>967</v>
       </c>
       <c r="Q1016" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1016" t="inlineStr">
         <is>
@@ -73572,7 +73572,7 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
@@ -73584,29 +73584,29 @@
         <v>800</v>
       </c>
       <c r="K1017" t="n">
-        <v>19500</v>
+        <v>9500</v>
       </c>
       <c r="L1017" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M1017" t="n">
-        <v>19750</v>
+        <v>9750</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>1317</v>
+        <v>542</v>
       </c>
       <c r="Q1017" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
@@ -73644,7 +73644,7 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
@@ -73656,29 +73656,29 @@
         <v>520</v>
       </c>
       <c r="K1018" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="L1018" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="M1018" t="n">
-        <v>16500</v>
+        <v>7250</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>1100</v>
+        <v>403</v>
       </c>
       <c r="Q1018" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1019" t="n">
         <v>4</v>
@@ -73716,7 +73716,7 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
@@ -73725,16 +73725,16 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K1019" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L1019" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M1019" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>861</v>
+        <v>1083</v>
       </c>
       <c r="Q1019" t="n">
         <v>18</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1020" t="n">
         <v>4</v>
@@ -73788,41 +73788,41 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K1020" t="n">
-        <v>11000</v>
+        <v>19500</v>
       </c>
       <c r="L1020" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M1020" t="n">
-        <v>11500</v>
+        <v>19750</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1020" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>639</v>
+        <v>1317</v>
       </c>
       <c r="Q1020" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1020" t="inlineStr">
         <is>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1021" t="n">
         <v>4</v>
@@ -73865,20 +73865,20 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K1021" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="L1021" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="M1021" t="n">
-        <v>22500</v>
+        <v>16500</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="Q1021" t="n">
         <v>15</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1022" t="n">
         <v>4</v>
@@ -73941,16 +73941,16 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="K1022" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="L1022" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M1022" t="n">
-        <v>9750</v>
+        <v>15500</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>542</v>
+        <v>861</v>
       </c>
       <c r="Q1022" t="n">
         <v>18</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1023" t="n">
         <v>4</v>
@@ -74013,16 +74013,16 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="K1023" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L1023" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M1023" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>375</v>
+        <v>639</v>
       </c>
       <c r="Q1023" t="n">
         <v>18</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1024" t="n">
         <v>4</v>
@@ -74085,16 +74085,16 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K1024" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="L1024" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M1024" t="n">
-        <v>19750</v>
+        <v>22500</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>1317</v>
+        <v>1500</v>
       </c>
       <c r="Q1024" t="n">
         <v>15</v>
@@ -74148,41 +74148,41 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>500</v>
+        <v>660</v>
       </c>
       <c r="K1025" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="L1025" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M1025" t="n">
-        <v>15500</v>
+        <v>9750</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>1033</v>
+        <v>542</v>
       </c>
       <c r="Q1025" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1025" t="inlineStr">
         <is>
@@ -74220,41 +74220,41 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K1026" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L1026" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M1026" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>833</v>
+        <v>375</v>
       </c>
       <c r="Q1026" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1026" t="inlineStr">
         <is>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1027" t="n">
         <v>4</v>
@@ -74292,7 +74292,7 @@
       </c>
       <c r="H1027" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1027" t="inlineStr">
@@ -74301,32 +74301,32 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1027" t="n">
-        <v>17000</v>
+        <v>19500</v>
       </c>
       <c r="L1027" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M1027" t="n">
-        <v>17500</v>
+        <v>19750</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>972</v>
+        <v>1317</v>
       </c>
       <c r="Q1027" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1027" t="inlineStr">
         <is>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1028" t="n">
         <v>4</v>
@@ -74364,7 +74364,7 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
@@ -74373,32 +74373,32 @@
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K1028" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L1028" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M1028" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>806</v>
+        <v>1033</v>
       </c>
       <c r="Q1028" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1028" t="inlineStr">
         <is>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1029" t="n">
         <v>4</v>
@@ -74436,7 +74436,7 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
@@ -74445,32 +74445,32 @@
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K1029" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L1029" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M1029" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>639</v>
+        <v>833</v>
       </c>
       <c r="Q1029" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1029" t="inlineStr">
         <is>
@@ -74508,7 +74508,7 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
@@ -74517,32 +74517,32 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K1030" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L1030" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M1030" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="Q1030" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
@@ -74580,7 +74580,7 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
@@ -74589,32 +74589,32 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K1031" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L1031" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M1031" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>767</v>
+        <v>806</v>
       </c>
       <c r="Q1031" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1031" t="inlineStr">
         <is>
@@ -74652,41 +74652,41 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K1032" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L1032" t="n">
         <v>12000</v>
       </c>
-      <c r="L1032" t="n">
-        <v>13000</v>
-      </c>
       <c r="M1032" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>833</v>
+        <v>639</v>
       </c>
       <c r="Q1032" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1032" t="inlineStr">
         <is>
@@ -74724,25 +74724,25 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K1033" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L1033" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M1033" t="n">
-        <v>10250</v>
+        <v>14500</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>683</v>
+        <v>967</v>
       </c>
       <c r="Q1033" t="n">
         <v>15</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1034" t="n">
         <v>4</v>
@@ -74796,41 +74796,41 @@
       </c>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1034" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L1034" t="n">
         <v>12000</v>
       </c>
-      <c r="L1034" t="n">
-        <v>13000</v>
-      </c>
       <c r="M1034" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1034" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>694</v>
+        <v>767</v>
       </c>
       <c r="Q1034" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1034" t="inlineStr">
         <is>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1035" t="n">
         <v>4</v>
@@ -74868,41 +74868,41 @@
       </c>
       <c r="H1035" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K1035" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1035" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M1035" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1035" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>583</v>
+        <v>833</v>
       </c>
       <c r="Q1035" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1036" t="n">
         <v>4</v>
@@ -74940,41 +74940,41 @@
       </c>
       <c r="H1036" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1036" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L1036" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="M1036" t="n">
-        <v>13500</v>
+        <v>10250</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>750</v>
+        <v>683</v>
       </c>
       <c r="Q1036" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1036" t="inlineStr">
         <is>
@@ -75012,25 +75012,25 @@
       </c>
       <c r="H1037" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1037" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L1037" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1037" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>542</v>
+        <v>694</v>
       </c>
       <c r="Q1037" t="n">
         <v>18</v>
@@ -75084,41 +75084,41 @@
       </c>
       <c r="H1038" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K1038" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L1038" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M1038" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1038" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>1033</v>
+        <v>583</v>
       </c>
       <c r="Q1038" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
@@ -75156,41 +75156,41 @@
       </c>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1039" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L1039" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M1039" t="n">
-        <v>12250</v>
+        <v>13500</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1039" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>817</v>
+        <v>750</v>
       </c>
       <c r="Q1039" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1040" t="n">
         <v>4</v>
@@ -75228,25 +75228,25 @@
       </c>
       <c r="H1040" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1040" t="n">
         <v>400</v>
       </c>
       <c r="K1040" t="n">
-        <v>24000</v>
+        <v>9500</v>
       </c>
       <c r="L1040" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M1040" t="n">
-        <v>24500</v>
+        <v>9750</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>1361</v>
+        <v>542</v>
       </c>
       <c r="Q1040" t="n">
         <v>18</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1041" t="n">
         <v>4</v>
@@ -75300,41 +75300,41 @@
       </c>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K1041" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L1041" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M1041" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1041" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>1083</v>
+        <v>1033</v>
       </c>
       <c r="Q1041" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1041" t="inlineStr">
         <is>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1042" t="n">
         <v>4</v>
@@ -75372,41 +75372,41 @@
       </c>
       <c r="H1042" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1042" t="n">
         <v>400</v>
       </c>
       <c r="K1042" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1042" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M1042" t="n">
-        <v>12500</v>
+        <v>12250</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>694</v>
+        <v>817</v>
       </c>
       <c r="Q1042" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1042" t="inlineStr">
         <is>
@@ -75444,25 +75444,25 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1043" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="L1043" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M1043" t="n">
-        <v>14500</v>
+        <v>24500</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>806</v>
+        <v>1361</v>
       </c>
       <c r="Q1043" t="n">
         <v>18</v>
@@ -75516,25 +75516,25 @@
       </c>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K1044" t="n">
-        <v>11500</v>
+        <v>19000</v>
       </c>
       <c r="L1044" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M1044" t="n">
-        <v>11750</v>
+        <v>19500</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>653</v>
+        <v>1083</v>
       </c>
       <c r="Q1044" t="n">
         <v>18</v>
@@ -75588,25 +75588,25 @@
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1045" t="n">
         <v>400</v>
       </c>
       <c r="K1045" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L1045" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M1045" t="n">
-        <v>8750</v>
+        <v>12500</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>486</v>
+        <v>694</v>
       </c>
       <c r="Q1045" t="n">
         <v>18</v>
@@ -75660,41 +75660,41 @@
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K1046" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="L1046" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M1046" t="n">
-        <v>21500</v>
+        <v>14500</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1046" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>1433</v>
+        <v>806</v>
       </c>
       <c r="Q1046" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1046" t="inlineStr">
         <is>
@@ -75732,41 +75732,41 @@
       </c>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K1047" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="L1047" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M1047" t="n">
-        <v>16750</v>
+        <v>11750</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1047" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>1117</v>
+        <v>653</v>
       </c>
       <c r="Q1047" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1048" t="n">
         <v>4</v>
@@ -75804,25 +75804,25 @@
       </c>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K1048" t="n">
-        <v>34000</v>
+        <v>8500</v>
       </c>
       <c r="L1048" t="n">
-        <v>35000</v>
+        <v>9000</v>
       </c>
       <c r="M1048" t="n">
-        <v>34500</v>
+        <v>8750</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>1917</v>
+        <v>486</v>
       </c>
       <c r="Q1048" t="n">
         <v>18</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1049" t="n">
         <v>4</v>
@@ -75876,41 +75876,41 @@
       </c>
       <c r="H1049" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1049" t="n">
-        <v>32000</v>
+        <v>21000</v>
       </c>
       <c r="L1049" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="M1049" t="n">
-        <v>32500</v>
+        <v>21500</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1049" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>1806</v>
+        <v>1433</v>
       </c>
       <c r="Q1049" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1049" t="inlineStr">
         <is>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1050" t="n">
         <v>4</v>
@@ -75953,20 +75953,20 @@
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>700</v>
+        <v>480</v>
       </c>
       <c r="K1050" t="n">
-        <v>39000</v>
+        <v>16500</v>
       </c>
       <c r="L1050" t="n">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="M1050" t="n">
-        <v>39500</v>
+        <v>16750</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>2633</v>
+        <v>1117</v>
       </c>
       <c r="Q1050" t="n">
         <v>15</v>
@@ -76020,7 +76020,7 @@
       </c>
       <c r="H1051" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1051" t="inlineStr">
@@ -76029,32 +76029,32 @@
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K1051" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="L1051" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="M1051" t="n">
-        <v>37500</v>
+        <v>34500</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1051" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>2500</v>
+        <v>1917</v>
       </c>
       <c r="Q1051" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1051" t="inlineStr">
         <is>
@@ -76092,7 +76092,7 @@
       </c>
       <c r="H1052" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1052" t="inlineStr">
@@ -76101,32 +76101,32 @@
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K1052" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L1052" t="n">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="M1052" t="n">
-        <v>35500</v>
+        <v>32500</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1052" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>2367</v>
+        <v>1806</v>
       </c>
       <c r="Q1052" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1052" t="inlineStr">
         <is>
@@ -76164,7 +76164,7 @@
       </c>
       <c r="H1053" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1053" t="inlineStr">
@@ -76173,16 +76173,16 @@
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K1053" t="n">
-        <v>29000</v>
+        <v>39000</v>
       </c>
       <c r="L1053" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="M1053" t="n">
-        <v>29500</v>
+        <v>39500</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>1967</v>
+        <v>2633</v>
       </c>
       <c r="Q1053" t="n">
         <v>15</v>
@@ -76236,7 +76236,7 @@
       </c>
       <c r="H1054" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1054" t="inlineStr">
@@ -76245,16 +76245,16 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K1054" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="L1054" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="M1054" t="n">
-        <v>27500</v>
+        <v>37500</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>1833</v>
+        <v>2500</v>
       </c>
       <c r="Q1054" t="n">
         <v>15</v>
@@ -76308,7 +76308,7 @@
       </c>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1055" t="inlineStr">
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K1055" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L1055" t="n">
-        <v>26000</v>
+        <v>36000</v>
       </c>
       <c r="M1055" t="n">
-        <v>25500</v>
+        <v>35500</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>1700</v>
+        <v>2367</v>
       </c>
       <c r="Q1055" t="n">
         <v>15</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1056" t="n">
         <v>4</v>
@@ -76380,41 +76380,41 @@
       </c>
       <c r="H1056" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K1056" t="n">
-        <v>9000</v>
+        <v>29000</v>
       </c>
       <c r="L1056" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M1056" t="n">
-        <v>9500</v>
+        <v>29500</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1056" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>528</v>
+        <v>1967</v>
       </c>
       <c r="Q1056" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1056" t="inlineStr">
         <is>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1057" t="n">
         <v>4</v>
@@ -76452,41 +76452,41 @@
       </c>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K1057" t="n">
-        <v>7000</v>
+        <v>27000</v>
       </c>
       <c r="L1057" t="n">
-        <v>8000</v>
+        <v>28000</v>
       </c>
       <c r="M1057" t="n">
-        <v>7500</v>
+        <v>27500</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1057" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>417</v>
+        <v>1833</v>
       </c>
       <c r="Q1057" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1057" t="inlineStr">
         <is>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1058" t="n">
         <v>4</v>
@@ -76524,41 +76524,41 @@
       </c>
       <c r="H1058" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K1058" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="L1058" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="M1058" t="n">
-        <v>9500</v>
+        <v>25500</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1058" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>475</v>
+        <v>1700</v>
       </c>
       <c r="Q1058" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1058" t="inlineStr">
         <is>
@@ -76596,29 +76596,29 @@
       </c>
       <c r="H1059" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="K1059" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1059" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1059" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1059" t="inlineStr">
@@ -76627,10 +76627,10 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>375</v>
+        <v>528</v>
       </c>
       <c r="Q1059" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1059" t="inlineStr">
         <is>
@@ -76668,41 +76668,41 @@
       </c>
       <c r="H1060" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>660</v>
+        <v>480</v>
       </c>
       <c r="K1060" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L1060" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M1060" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1060" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>967</v>
+        <v>417</v>
       </c>
       <c r="Q1060" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1060" t="inlineStr">
         <is>
@@ -76740,43 +76740,259 @@
       </c>
       <c r="H1061" t="inlineStr">
         <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I1061" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1061" t="n">
+        <v>700</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N1061" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1061" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P1061" t="n">
+        <v>475</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1061" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1062" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1062" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1062" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I1062" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1062" t="n">
+        <v>480</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N1062" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1062" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P1062" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1062" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1063" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1063" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1063" t="inlineStr">
+        <is>
           <t>Zafiro rojo</t>
         </is>
       </c>
-      <c r="I1061" t="inlineStr">
+      <c r="I1063" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1063" t="n">
+        <v>660</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N1063" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1063" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1063" t="n">
+        <v>967</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1063" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1064" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1064" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1064" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1064" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1061" t="n">
+      <c r="J1064" t="n">
         <v>480</v>
       </c>
-      <c r="K1061" t="n">
+      <c r="K1064" t="n">
         <v>10000</v>
       </c>
-      <c r="L1061" t="n">
+      <c r="L1064" t="n">
         <v>10500</v>
       </c>
-      <c r="M1061" t="n">
+      <c r="M1064" t="n">
         <v>10250</v>
       </c>
-      <c r="N1061" t="inlineStr">
+      <c r="N1064" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O1061" t="inlineStr">
+      <c r="O1064" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P1061" t="n">
+      <c r="P1064" t="n">
         <v>683</v>
       </c>
-      <c r="Q1061" t="n">
+      <c r="Q1064" t="n">
         <v>15</v>
       </c>
-      <c r="R1061" t="inlineStr">
+      <c r="R1064" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1096"/>
+  <dimension ref="A1:R1099"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E944" t="n">
         <v>4</v>
@@ -68316,7 +68316,7 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
@@ -68325,32 +68325,32 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>760</v>
+        <v>640</v>
       </c>
       <c r="K944" t="n">
-        <v>15000</v>
+        <v>39000</v>
       </c>
       <c r="L944" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="M944" t="n">
-        <v>15500</v>
+        <v>39500</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>861</v>
+        <v>2633</v>
       </c>
       <c r="Q944" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R944" t="inlineStr">
         <is>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E945" t="n">
         <v>4</v>
@@ -68388,7 +68388,7 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
@@ -68397,32 +68397,32 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="K945" t="n">
-        <v>11500</v>
+        <v>34000</v>
       </c>
       <c r="L945" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="M945" t="n">
-        <v>11750</v>
+        <v>34500</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>653</v>
+        <v>2300</v>
       </c>
       <c r="Q945" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R945" t="inlineStr">
         <is>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E946" t="n">
         <v>4</v>
@@ -68460,7 +68460,7 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K946" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="L946" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M946" t="n">
-        <v>22500</v>
+        <v>27500</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>1500</v>
+        <v>1833</v>
       </c>
       <c r="Q946" t="n">
         <v>15</v>
@@ -68532,41 +68532,41 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>480</v>
+        <v>760</v>
       </c>
       <c r="K947" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L947" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M947" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>1167</v>
+        <v>861</v>
       </c>
       <c r="Q947" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R947" t="inlineStr">
         <is>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E948" t="n">
         <v>4</v>
@@ -68609,20 +68609,20 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K948" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L948" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M948" t="n">
-        <v>9500</v>
+        <v>11750</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>528</v>
+        <v>653</v>
       </c>
       <c r="Q948" t="n">
         <v>18</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E949" t="n">
         <v>4</v>
@@ -68676,41 +68676,41 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>460</v>
+        <v>800</v>
       </c>
       <c r="K949" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="L949" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="M949" t="n">
-        <v>7750</v>
+        <v>22500</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>431</v>
+        <v>1500</v>
       </c>
       <c r="Q949" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R949" t="inlineStr">
         <is>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E950" t="n">
         <v>4</v>
@@ -68748,41 +68748,41 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="K950" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L950" t="n">
-        <v>9500</v>
+        <v>18000</v>
       </c>
       <c r="M950" t="n">
-        <v>9250</v>
+        <v>17500</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>514</v>
+        <v>1167</v>
       </c>
       <c r="Q950" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R950" t="inlineStr">
         <is>
@@ -68820,25 +68820,25 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K951" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L951" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M951" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>403</v>
+        <v>528</v>
       </c>
       <c r="Q951" t="n">
         <v>18</v>
@@ -68892,41 +68892,41 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>720</v>
+        <v>460</v>
       </c>
       <c r="K952" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L952" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M952" t="n">
-        <v>13500</v>
+        <v>7750</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>900</v>
+        <v>431</v>
       </c>
       <c r="Q952" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R952" t="inlineStr">
         <is>
@@ -68964,41 +68964,41 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="K953" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L953" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="M953" t="n">
-        <v>10500</v>
+        <v>9250</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>700</v>
+        <v>514</v>
       </c>
       <c r="Q953" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R953" t="inlineStr">
         <is>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E954" t="n">
         <v>4</v>
@@ -69036,25 +69036,25 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K954" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L954" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M954" t="n">
-        <v>12500</v>
+        <v>7250</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>694</v>
+        <v>403</v>
       </c>
       <c r="Q954" t="n">
         <v>18</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E955" t="n">
         <v>4</v>
@@ -69108,41 +69108,41 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="K955" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L955" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M955" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>583</v>
+        <v>900</v>
       </c>
       <c r="Q955" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R955" t="inlineStr">
         <is>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E956" t="n">
         <v>4</v>
@@ -69180,41 +69180,41 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="K956" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="L956" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M956" t="n">
-        <v>13750</v>
+        <v>10500</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>764</v>
+        <v>700</v>
       </c>
       <c r="Q956" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R956" t="inlineStr">
         <is>
@@ -69252,25 +69252,25 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>360</v>
+        <v>520</v>
       </c>
       <c r="K957" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L957" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M957" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>583</v>
+        <v>694</v>
       </c>
       <c r="Q957" t="n">
         <v>18</v>
@@ -69324,41 +69324,41 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="K958" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L958" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M958" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>1100</v>
+        <v>583</v>
       </c>
       <c r="Q958" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R958" t="inlineStr">
         <is>
@@ -69396,41 +69396,41 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K959" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="L959" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M959" t="n">
-        <v>12500</v>
+        <v>13750</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>833</v>
+        <v>764</v>
       </c>
       <c r="Q959" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R959" t="inlineStr">
         <is>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E960" t="n">
         <v>4</v>
@@ -69468,25 +69468,25 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>760</v>
+        <v>360</v>
       </c>
       <c r="K960" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L960" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M960" t="n">
-        <v>11750</v>
+        <v>10500</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>653</v>
+        <v>583</v>
       </c>
       <c r="Q960" t="n">
         <v>18</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E961" t="n">
         <v>4</v>
@@ -69540,41 +69540,41 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="K961" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="L961" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M961" t="n">
-        <v>9750</v>
+        <v>16500</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>542</v>
+        <v>1100</v>
       </c>
       <c r="Q961" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R961" t="inlineStr">
         <is>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E962" t="n">
         <v>4</v>
@@ -69612,41 +69612,41 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>760</v>
+        <v>400</v>
       </c>
       <c r="K962" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L962" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M962" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>725</v>
+        <v>833</v>
       </c>
       <c r="Q962" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R962" t="inlineStr">
         <is>
@@ -69684,29 +69684,29 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>440</v>
+        <v>760</v>
       </c>
       <c r="K963" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L963" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M963" t="n">
-        <v>10500</v>
+        <v>11750</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O963" t="inlineStr">
@@ -69715,10 +69715,10 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>525</v>
+        <v>653</v>
       </c>
       <c r="Q963" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R963" t="inlineStr">
         <is>
@@ -69756,41 +69756,41 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="K964" t="n">
-        <v>24000</v>
+        <v>9500</v>
       </c>
       <c r="L964" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M964" t="n">
-        <v>24500</v>
+        <v>9750</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>1633</v>
+        <v>542</v>
       </c>
       <c r="Q964" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R964" t="inlineStr">
         <is>
@@ -69828,41 +69828,41 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>460</v>
+        <v>760</v>
       </c>
       <c r="K965" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L965" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M965" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>1300</v>
+        <v>725</v>
       </c>
       <c r="Q965" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R965" t="inlineStr">
         <is>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E966" t="n">
         <v>4</v>
@@ -69900,29 +69900,29 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>760</v>
+        <v>440</v>
       </c>
       <c r="K966" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L966" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M966" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
@@ -69931,10 +69931,10 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="Q966" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R966" t="inlineStr">
         <is>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E967" t="n">
         <v>4</v>
@@ -69972,41 +69972,41 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>470</v>
+        <v>800</v>
       </c>
       <c r="K967" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="L967" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="M967" t="n">
-        <v>7500</v>
+        <v>24500</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>417</v>
+        <v>1633</v>
       </c>
       <c r="Q967" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E968" t="n">
         <v>4</v>
@@ -70044,41 +70044,41 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>760</v>
+        <v>460</v>
       </c>
       <c r="K968" t="n">
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="L968" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M968" t="n">
-        <v>9750</v>
+        <v>19500</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>488</v>
+        <v>1300</v>
       </c>
       <c r="Q968" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70116,29 +70116,29 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>480</v>
+        <v>760</v>
       </c>
       <c r="K969" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L969" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M969" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
@@ -70147,10 +70147,10 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>388</v>
+        <v>528</v>
       </c>
       <c r="Q969" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70188,41 +70188,41 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>800</v>
+        <v>470</v>
       </c>
       <c r="K970" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L970" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M970" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>967</v>
+        <v>417</v>
       </c>
       <c r="Q970" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R970" t="inlineStr">
         <is>
@@ -70260,41 +70260,41 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>480</v>
+        <v>760</v>
       </c>
       <c r="K971" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L971" t="n">
         <v>10000</v>
       </c>
-      <c r="L971" t="n">
-        <v>10500</v>
-      </c>
       <c r="M971" t="n">
-        <v>10250</v>
+        <v>9750</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>683</v>
+        <v>488</v>
       </c>
       <c r="Q971" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R971" t="inlineStr">
         <is>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E972" t="n">
         <v>4</v>
@@ -70332,29 +70332,29 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>700</v>
+        <v>480</v>
       </c>
       <c r="K972" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L972" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M972" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
@@ -70363,10 +70363,10 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>653</v>
+        <v>388</v>
       </c>
       <c r="Q972" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E973" t="n">
         <v>4</v>
@@ -70404,41 +70404,41 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="K973" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="L973" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M973" t="n">
-        <v>8750</v>
+        <v>14500</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>486</v>
+        <v>967</v>
       </c>
       <c r="Q973" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R973" t="inlineStr">
         <is>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E974" t="n">
         <v>4</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="K974" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L974" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="M974" t="n">
-        <v>15500</v>
+        <v>10250</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>1033</v>
+        <v>683</v>
       </c>
       <c r="Q974" t="n">
         <v>15</v>
@@ -70548,41 +70548,41 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>520</v>
+        <v>700</v>
       </c>
       <c r="K975" t="n">
+        <v>11500</v>
+      </c>
+      <c r="L975" t="n">
         <v>12000</v>
       </c>
-      <c r="L975" t="n">
-        <v>13000</v>
-      </c>
       <c r="M975" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>833</v>
+        <v>653</v>
       </c>
       <c r="Q975" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R975" t="inlineStr">
         <is>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E976" t="n">
         <v>4</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>700</v>
+        <v>440</v>
       </c>
       <c r="K976" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L976" t="n">
         <v>9000</v>
       </c>
-      <c r="L976" t="n">
-        <v>10000</v>
-      </c>
       <c r="M976" t="n">
-        <v>9500</v>
+        <v>8750</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>528</v>
+        <v>486</v>
       </c>
       <c r="Q976" t="n">
         <v>18</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E977" t="n">
         <v>4</v>
@@ -70692,41 +70692,41 @@
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K977" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L977" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M977" t="n">
-        <v>7500</v>
+        <v>15500</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>417</v>
+        <v>1033</v>
       </c>
       <c r="Q977" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R977" t="inlineStr">
         <is>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E978" t="n">
         <v>4</v>
@@ -70764,41 +70764,41 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>680</v>
+        <v>520</v>
       </c>
       <c r="K978" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L978" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M978" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>542</v>
+        <v>833</v>
       </c>
       <c r="Q978" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R978" t="inlineStr">
         <is>
@@ -70836,7 +70836,7 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
@@ -70845,32 +70845,32 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K979" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L979" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M979" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>900</v>
+        <v>528</v>
       </c>
       <c r="Q979" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R979" t="inlineStr">
         <is>
@@ -70908,7 +70908,7 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
@@ -70920,29 +70920,29 @@
         <v>400</v>
       </c>
       <c r="K980" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L980" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M980" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>700</v>
+        <v>417</v>
       </c>
       <c r="Q980" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R980" t="inlineStr">
         <is>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E981" t="n">
         <v>4</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="K981" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="L981" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M981" t="n">
-        <v>15500</v>
+        <v>9750</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>861</v>
+        <v>542</v>
       </c>
       <c r="Q981" t="n">
         <v>18</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E982" t="n">
         <v>4</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J982" t="n">
         <v>600</v>
       </c>
       <c r="K982" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L982" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M982" t="n">
-        <v>18500</v>
+        <v>13500</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>1233</v>
+        <v>900</v>
       </c>
       <c r="Q982" t="n">
         <v>15</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E983" t="n">
         <v>4</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K983" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="L983" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M983" t="n">
-        <v>16750</v>
+        <v>10500</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>1117</v>
+        <v>700</v>
       </c>
       <c r="Q983" t="n">
         <v>15</v>
@@ -71196,7 +71196,7 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
@@ -71205,32 +71205,32 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K984" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="L984" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M984" t="n">
-        <v>14750</v>
+        <v>15500</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>983</v>
+        <v>861</v>
       </c>
       <c r="Q984" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R984" t="inlineStr">
         <is>
@@ -71268,7 +71268,7 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
@@ -71277,7 +71277,7 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K985" t="n">
         <v>18000</v>
@@ -71340,7 +71340,7 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
@@ -71349,16 +71349,16 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K986" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="L986" t="n">
         <v>17000</v>
       </c>
       <c r="M986" t="n">
-        <v>16500</v>
+        <v>16750</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>1100</v>
+        <v>1117</v>
       </c>
       <c r="Q986" t="n">
         <v>15</v>
@@ -71412,7 +71412,7 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
@@ -71424,13 +71424,13 @@
         <v>440</v>
       </c>
       <c r="K987" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="L987" t="n">
         <v>15000</v>
       </c>
       <c r="M987" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>967</v>
+        <v>983</v>
       </c>
       <c r="Q987" t="n">
         <v>15</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E988" t="n">
         <v>4</v>
@@ -71484,41 +71484,41 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K988" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L988" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M988" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>861</v>
+        <v>1233</v>
       </c>
       <c r="Q988" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R988" t="inlineStr">
         <is>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E989" t="n">
         <v>4</v>
@@ -71556,7 +71556,7 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
@@ -71565,32 +71565,32 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K989" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="L989" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M989" t="n">
-        <v>24500</v>
+        <v>16500</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>1361</v>
+        <v>1100</v>
       </c>
       <c r="Q989" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R989" t="inlineStr">
         <is>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E990" t="n">
         <v>4</v>
@@ -71628,7 +71628,7 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
@@ -71637,32 +71637,32 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K990" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="L990" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M990" t="n">
-        <v>22500</v>
+        <v>14500</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>1250</v>
+        <v>967</v>
       </c>
       <c r="Q990" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R990" t="inlineStr">
         <is>
@@ -71700,41 +71700,41 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K991" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L991" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="M991" t="n">
-        <v>23500</v>
+        <v>15500</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>1567</v>
+        <v>861</v>
       </c>
       <c r="Q991" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71772,7 +71772,7 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
@@ -71781,32 +71781,32 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K992" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="L992" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M992" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>1433</v>
+        <v>1361</v>
       </c>
       <c r="Q992" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R992" t="inlineStr">
         <is>
@@ -71844,7 +71844,7 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
@@ -71856,29 +71856,29 @@
         <v>400</v>
       </c>
       <c r="K993" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="L993" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M993" t="n">
-        <v>19500</v>
+        <v>22500</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>1300</v>
+        <v>1250</v>
       </c>
       <c r="Q993" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R993" t="inlineStr">
         <is>
@@ -71916,7 +71916,7 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
@@ -71928,13 +71928,13 @@
         <v>800</v>
       </c>
       <c r="K994" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L994" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="M994" t="n">
-        <v>22500</v>
+        <v>23500</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>1500</v>
+        <v>1567</v>
       </c>
       <c r="Q994" t="n">
         <v>15</v>
@@ -71988,7 +71988,7 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
@@ -72000,13 +72000,13 @@
         <v>600</v>
       </c>
       <c r="K995" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L995" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="M995" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>1367</v>
+        <v>1433</v>
       </c>
       <c r="Q995" t="n">
         <v>15</v>
@@ -72060,7 +72060,7 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
@@ -72072,13 +72072,13 @@
         <v>400</v>
       </c>
       <c r="K996" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L996" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M996" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>1233</v>
+        <v>1300</v>
       </c>
       <c r="Q996" t="n">
         <v>15</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E997" t="n">
         <v>4</v>
@@ -72132,41 +72132,41 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K997" t="n">
-        <v>10500</v>
+        <v>22000</v>
       </c>
       <c r="L997" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="M997" t="n">
-        <v>10750</v>
+        <v>22500</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>597</v>
+        <v>1500</v>
       </c>
       <c r="Q997" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R997" t="inlineStr">
         <is>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E998" t="n">
         <v>4</v>
@@ -72204,41 +72204,41 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K998" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="L998" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="M998" t="n">
-        <v>8750</v>
+        <v>20500</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>486</v>
+        <v>1367</v>
       </c>
       <c r="Q998" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R998" t="inlineStr">
         <is>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E999" t="n">
         <v>4</v>
@@ -72276,41 +72276,41 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K999" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="L999" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M999" t="n">
-        <v>14750</v>
+        <v>18500</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>738</v>
+        <v>1233</v>
       </c>
       <c r="Q999" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1000" t="n">
         <v>4</v>
@@ -72357,16 +72357,16 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>760</v>
+        <v>600</v>
       </c>
       <c r="K1000" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="L1000" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M1000" t="n">
-        <v>9500</v>
+        <v>10750</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="Q1000" t="n">
         <v>18</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1001" t="n">
         <v>4</v>
@@ -72429,16 +72429,16 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K1001" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L1001" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M1001" t="n">
-        <v>7500</v>
+        <v>8750</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="Q1001" t="n">
         <v>18</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1002" t="n">
         <v>4</v>
@@ -72501,16 +72501,16 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>760</v>
+        <v>600</v>
       </c>
       <c r="K1002" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="L1002" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M1002" t="n">
-        <v>9500</v>
+        <v>14750</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>475</v>
+        <v>738</v>
       </c>
       <c r="Q1002" t="n">
         <v>20</v>
@@ -72564,29 +72564,29 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>480</v>
+        <v>760</v>
       </c>
       <c r="K1003" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1003" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1003" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1003" t="inlineStr">
@@ -72595,10 +72595,10 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>375</v>
+        <v>528</v>
       </c>
       <c r="Q1003" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
@@ -72636,41 +72636,41 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K1004" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L1004" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M1004" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>967</v>
+        <v>417</v>
       </c>
       <c r="Q1004" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
@@ -72708,41 +72708,41 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>500</v>
+        <v>760</v>
       </c>
       <c r="K1005" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1005" t="n">
         <v>10000</v>
       </c>
-      <c r="L1005" t="n">
-        <v>10500</v>
-      </c>
       <c r="M1005" t="n">
-        <v>10250</v>
+        <v>9500</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>683</v>
+        <v>475</v>
       </c>
       <c r="Q1005" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1006" t="n">
         <v>4</v>
@@ -72780,29 +72780,29 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K1006" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L1006" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M1006" t="n">
-        <v>17500</v>
+        <v>7500</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1006" t="inlineStr">
@@ -72811,10 +72811,10 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>972</v>
+        <v>375</v>
       </c>
       <c r="Q1006" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1007" t="n">
         <v>4</v>
@@ -72852,41 +72852,41 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K1007" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L1007" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M1007" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>1028</v>
+        <v>967</v>
       </c>
       <c r="Q1007" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1008" t="n">
         <v>4</v>
@@ -72924,41 +72924,41 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1008" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L1008" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="M1008" t="n">
-        <v>16500</v>
+        <v>10250</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>917</v>
+        <v>683</v>
       </c>
       <c r="Q1008" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
@@ -72996,25 +72996,25 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K1009" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L1009" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M1009" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q1009" t="n">
         <v>18</v>
@@ -73068,7 +73068,7 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
@@ -73077,32 +73077,32 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K1010" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L1010" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M1010" t="n">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>1167</v>
+        <v>1028</v>
       </c>
       <c r="Q1010" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1010" t="inlineStr">
         <is>
@@ -73140,7 +73140,7 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
@@ -73149,32 +73149,32 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K1011" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L1011" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M1011" t="n">
-        <v>15500</v>
+        <v>16500</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>1033</v>
+        <v>917</v>
       </c>
       <c r="Q1011" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1011" t="inlineStr">
         <is>
@@ -73212,7 +73212,7 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
@@ -73221,32 +73221,32 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K1012" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L1012" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M1012" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>900</v>
+        <v>806</v>
       </c>
       <c r="Q1012" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1012" t="inlineStr">
         <is>
@@ -73284,7 +73284,7 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
@@ -73296,13 +73296,13 @@
         <v>700</v>
       </c>
       <c r="K1013" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L1013" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M1013" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>1033</v>
+        <v>1167</v>
       </c>
       <c r="Q1013" t="n">
         <v>15</v>
@@ -73356,7 +73356,7 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
@@ -73365,16 +73365,16 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K1014" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L1014" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M1014" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>900</v>
+        <v>1033</v>
       </c>
       <c r="Q1014" t="n">
         <v>15</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1015" t="n">
         <v>4</v>
@@ -73428,41 +73428,41 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K1015" t="n">
-        <v>34000</v>
+        <v>13000</v>
       </c>
       <c r="L1015" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="M1015" t="n">
-        <v>34500</v>
+        <v>13500</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>1917</v>
+        <v>900</v>
       </c>
       <c r="Q1015" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1015" t="inlineStr">
         <is>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1016" t="n">
         <v>4</v>
@@ -73500,41 +73500,41 @@
       </c>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K1016" t="n">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="L1016" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="M1016" t="n">
-        <v>32500</v>
+        <v>15500</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>1806</v>
+        <v>1033</v>
       </c>
       <c r="Q1016" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1016" t="inlineStr">
         <is>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1017" t="n">
         <v>4</v>
@@ -73572,25 +73572,25 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K1017" t="n">
-        <v>39000</v>
+        <v>13000</v>
       </c>
       <c r="L1017" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="M1017" t="n">
-        <v>39500</v>
+        <v>13500</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>2633</v>
+        <v>900</v>
       </c>
       <c r="Q1017" t="n">
         <v>15</v>
@@ -73644,7 +73644,7 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
@@ -73653,32 +73653,32 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K1018" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="L1018" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="M1018" t="n">
-        <v>37500</v>
+        <v>34500</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>2500</v>
+        <v>1917</v>
       </c>
       <c r="Q1018" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
@@ -73716,7 +73716,7 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
@@ -73725,32 +73725,32 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K1019" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L1019" t="n">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="M1019" t="n">
-        <v>35500</v>
+        <v>32500</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1019" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>2367</v>
+        <v>1806</v>
       </c>
       <c r="Q1019" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
@@ -73788,7 +73788,7 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
@@ -73797,16 +73797,16 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K1020" t="n">
-        <v>29000</v>
+        <v>39000</v>
       </c>
       <c r="L1020" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="M1020" t="n">
-        <v>29500</v>
+        <v>39500</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>1967</v>
+        <v>2633</v>
       </c>
       <c r="Q1020" t="n">
         <v>15</v>
@@ -73860,7 +73860,7 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
@@ -73869,16 +73869,16 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K1021" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="L1021" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="M1021" t="n">
-        <v>27500</v>
+        <v>37500</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>1833</v>
+        <v>2500</v>
       </c>
       <c r="Q1021" t="n">
         <v>15</v>
@@ -73932,7 +73932,7 @@
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
@@ -73941,16 +73941,16 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K1022" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L1022" t="n">
-        <v>26000</v>
+        <v>36000</v>
       </c>
       <c r="M1022" t="n">
-        <v>25500</v>
+        <v>35500</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>1700</v>
+        <v>2367</v>
       </c>
       <c r="Q1022" t="n">
         <v>15</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1023" t="n">
         <v>4</v>
@@ -74004,41 +74004,41 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K1023" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L1023" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M1023" t="n">
-        <v>16500</v>
+        <v>29500</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>917</v>
+        <v>1967</v>
       </c>
       <c r="Q1023" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1023" t="inlineStr">
         <is>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1024" t="n">
         <v>4</v>
@@ -74076,41 +74076,41 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K1024" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="L1024" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="M1024" t="n">
-        <v>14500</v>
+        <v>27500</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1024" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>806</v>
+        <v>1833</v>
       </c>
       <c r="Q1024" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1024" t="inlineStr">
         <is>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1025" t="n">
         <v>4</v>
@@ -74148,25 +74148,25 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K1025" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L1025" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="M1025" t="n">
-        <v>15500</v>
+        <v>25500</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>1033</v>
+        <v>1700</v>
       </c>
       <c r="Q1025" t="n">
         <v>15</v>
@@ -74220,7 +74220,7 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
@@ -74229,32 +74229,32 @@
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K1026" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L1026" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M1026" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>900</v>
+        <v>917</v>
       </c>
       <c r="Q1026" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1026" t="inlineStr">
         <is>
@@ -74292,7 +74292,7 @@
       </c>
       <c r="H1027" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1027" t="inlineStr">
@@ -74301,32 +74301,32 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K1027" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L1027" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M1027" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>767</v>
+        <v>806</v>
       </c>
       <c r="Q1027" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1027" t="inlineStr">
         <is>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1028" t="n">
         <v>4</v>
@@ -74364,41 +74364,41 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>560</v>
+        <v>700</v>
       </c>
       <c r="K1028" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L1028" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M1028" t="n">
-        <v>12750</v>
+        <v>15500</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>708</v>
+        <v>1033</v>
       </c>
       <c r="Q1028" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1028" t="inlineStr">
         <is>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1029" t="n">
         <v>4</v>
@@ -74436,41 +74436,41 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="K1029" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L1029" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M1029" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>542</v>
+        <v>900</v>
       </c>
       <c r="Q1029" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1029" t="inlineStr">
         <is>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1030" t="n">
         <v>4</v>
@@ -74513,20 +74513,20 @@
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>660</v>
+        <v>400</v>
       </c>
       <c r="K1030" t="n">
-        <v>27000</v>
+        <v>11000</v>
       </c>
       <c r="L1030" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="M1030" t="n">
-        <v>27500</v>
+        <v>11500</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>1833</v>
+        <v>767</v>
       </c>
       <c r="Q1030" t="n">
         <v>15</v>
@@ -74580,41 +74580,41 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K1031" t="n">
-        <v>23000</v>
+        <v>12500</v>
       </c>
       <c r="L1031" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M1031" t="n">
-        <v>23500</v>
+        <v>12750</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>1567</v>
+        <v>708</v>
       </c>
       <c r="Q1031" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1031" t="inlineStr">
         <is>
@@ -74652,41 +74652,41 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K1032" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="L1032" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M1032" t="n">
-        <v>19500</v>
+        <v>9750</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>1300</v>
+        <v>542</v>
       </c>
       <c r="Q1032" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1032" t="inlineStr">
         <is>
@@ -74724,7 +74724,7 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
@@ -74733,16 +74733,16 @@
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="K1033" t="n">
-        <v>11500</v>
+        <v>27000</v>
       </c>
       <c r="L1033" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="M1033" t="n">
-        <v>11750</v>
+        <v>27500</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>783</v>
+        <v>1833</v>
       </c>
       <c r="Q1033" t="n">
         <v>15</v>
@@ -74796,7 +74796,7 @@
       </c>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
@@ -74805,16 +74805,16 @@
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1034" t="n">
-        <v>8500</v>
+        <v>23000</v>
       </c>
       <c r="L1034" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="M1034" t="n">
-        <v>8750</v>
+        <v>23500</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>583</v>
+        <v>1567</v>
       </c>
       <c r="Q1034" t="n">
         <v>15</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1035" t="n">
         <v>4</v>
@@ -74873,20 +74873,20 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>840</v>
+        <v>400</v>
       </c>
       <c r="K1035" t="n">
-        <v>41000</v>
+        <v>19000</v>
       </c>
       <c r="L1035" t="n">
-        <v>42000</v>
+        <v>20000</v>
       </c>
       <c r="M1035" t="n">
-        <v>41500</v>
+        <v>19500</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>2767</v>
+        <v>1300</v>
       </c>
       <c r="Q1035" t="n">
         <v>15</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1036" t="n">
         <v>4</v>
@@ -74940,7 +74940,7 @@
       </c>
       <c r="H1036" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
@@ -74952,13 +74952,13 @@
         <v>600</v>
       </c>
       <c r="K1036" t="n">
-        <v>39000</v>
+        <v>11500</v>
       </c>
       <c r="L1036" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="M1036" t="n">
-        <v>39500</v>
+        <v>11750</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>2633</v>
+        <v>783</v>
       </c>
       <c r="Q1036" t="n">
         <v>15</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1037" t="n">
         <v>4</v>
@@ -75012,7 +75012,7 @@
       </c>
       <c r="H1037" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1037" t="inlineStr">
@@ -75021,16 +75021,16 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K1037" t="n">
-        <v>35000</v>
+        <v>8500</v>
       </c>
       <c r="L1037" t="n">
-        <v>36000</v>
+        <v>9000</v>
       </c>
       <c r="M1037" t="n">
-        <v>35500</v>
+        <v>8750</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>2367</v>
+        <v>583</v>
       </c>
       <c r="Q1037" t="n">
         <v>15</v>
@@ -75084,7 +75084,7 @@
       </c>
       <c r="H1038" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1038" t="inlineStr">
@@ -75093,16 +75093,16 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>800</v>
+        <v>840</v>
       </c>
       <c r="K1038" t="n">
-        <v>34000</v>
+        <v>41000</v>
       </c>
       <c r="L1038" t="n">
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="M1038" t="n">
-        <v>34500</v>
+        <v>41500</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>2300</v>
+        <v>2767</v>
       </c>
       <c r="Q1038" t="n">
         <v>15</v>
@@ -75156,7 +75156,7 @@
       </c>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
@@ -75168,13 +75168,13 @@
         <v>600</v>
       </c>
       <c r="K1039" t="n">
-        <v>32000</v>
+        <v>39000</v>
       </c>
       <c r="L1039" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="M1039" t="n">
-        <v>32500</v>
+        <v>39500</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>2167</v>
+        <v>2633</v>
       </c>
       <c r="Q1039" t="n">
         <v>15</v>
@@ -75228,7 +75228,7 @@
       </c>
       <c r="H1040" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1040" t="inlineStr">
@@ -75237,16 +75237,16 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K1040" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L1040" t="n">
-        <v>26000</v>
+        <v>36000</v>
       </c>
       <c r="M1040" t="n">
-        <v>25500</v>
+        <v>35500</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>1700</v>
+        <v>2367</v>
       </c>
       <c r="Q1040" t="n">
         <v>15</v>
@@ -75305,20 +75305,20 @@
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1041" t="n">
-        <v>21000</v>
+        <v>34000</v>
       </c>
       <c r="L1041" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M1041" t="n">
-        <v>21500</v>
+        <v>34500</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75331,7 +75331,7 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>1433</v>
+        <v>2300</v>
       </c>
       <c r="Q1041" t="n">
         <v>15</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1042" t="n">
         <v>4</v>
@@ -75372,7 +75372,7 @@
       </c>
       <c r="H1042" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1042" t="inlineStr">
@@ -75381,32 +75381,32 @@
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K1042" t="n">
-        <v>8000</v>
+        <v>32000</v>
       </c>
       <c r="L1042" t="n">
-        <v>9000</v>
+        <v>33000</v>
       </c>
       <c r="M1042" t="n">
-        <v>8500</v>
+        <v>32500</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>472</v>
+        <v>2167</v>
       </c>
       <c r="Q1042" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1042" t="inlineStr">
         <is>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1043" t="n">
         <v>4</v>
@@ -75444,7 +75444,7 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
@@ -75453,32 +75453,32 @@
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K1043" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="L1043" t="n">
-        <v>6000</v>
+        <v>26000</v>
       </c>
       <c r="M1043" t="n">
-        <v>5500</v>
+        <v>25500</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1043" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>306</v>
+        <v>1700</v>
       </c>
       <c r="Q1043" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1043" t="inlineStr">
         <is>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1044" t="n">
         <v>4</v>
@@ -75516,41 +75516,41 @@
       </c>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K1044" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="L1044" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="M1044" t="n">
-        <v>10750</v>
+        <v>21500</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1044" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>597</v>
+        <v>1433</v>
       </c>
       <c r="Q1044" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1044" t="inlineStr">
         <is>
@@ -75588,16 +75588,16 @@
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>380</v>
+        <v>520</v>
       </c>
       <c r="K1045" t="n">
         <v>8000</v>
@@ -75660,41 +75660,41 @@
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1046" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L1046" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M1046" t="n">
-        <v>13500</v>
+        <v>5500</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1046" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>900</v>
+        <v>306</v>
       </c>
       <c r="Q1046" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1046" t="inlineStr">
         <is>
@@ -75732,41 +75732,41 @@
       </c>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K1047" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="L1047" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="M1047" t="n">
-        <v>10250</v>
+        <v>10750</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1047" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>683</v>
+        <v>597</v>
       </c>
       <c r="Q1047" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1048" t="n">
         <v>4</v>
@@ -75804,41 +75804,41 @@
       </c>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="K1048" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L1048" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="M1048" t="n">
-        <v>18500</v>
+        <v>8500</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1048" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>1233</v>
+        <v>472</v>
       </c>
       <c r="Q1048" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1048" t="inlineStr">
         <is>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1049" t="n">
         <v>4</v>
@@ -75881,11 +75881,11 @@
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K1049" t="n">
         <v>13000</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E1050" t="n">
         <v>4</v>
@@ -75948,41 +75948,41 @@
       </c>
       <c r="H1050" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1050" t="n">
-        <v>37000</v>
+        <v>10000</v>
       </c>
       <c r="L1050" t="n">
-        <v>38000</v>
+        <v>10500</v>
       </c>
       <c r="M1050" t="n">
-        <v>37500</v>
+        <v>10250</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1050" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>2083</v>
+        <v>683</v>
       </c>
       <c r="Q1050" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1050" t="inlineStr">
         <is>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1051" t="n">
         <v>4</v>
@@ -76020,7 +76020,7 @@
       </c>
       <c r="H1051" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1051" t="inlineStr">
@@ -76029,32 +76029,32 @@
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K1051" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="L1051" t="n">
-        <v>35000</v>
+        <v>19000</v>
       </c>
       <c r="M1051" t="n">
-        <v>34500</v>
+        <v>18500</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1051" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>1917</v>
+        <v>1233</v>
       </c>
       <c r="Q1051" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1051" t="inlineStr">
         <is>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1052" t="n">
         <v>4</v>
@@ -76092,7 +76092,7 @@
       </c>
       <c r="H1052" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1052" t="inlineStr">
@@ -76101,32 +76101,32 @@
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="K1052" t="n">
-        <v>29000</v>
+        <v>13000</v>
       </c>
       <c r="L1052" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="M1052" t="n">
-        <v>29500</v>
+        <v>13500</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1052" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>1639</v>
+        <v>900</v>
       </c>
       <c r="Q1052" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1052" t="inlineStr">
         <is>
@@ -76164,7 +76164,7 @@
       </c>
       <c r="H1053" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1053" t="inlineStr">
@@ -76173,32 +76173,32 @@
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K1053" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="L1053" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="M1053" t="n">
-        <v>34500</v>
+        <v>37500</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1053" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>2300</v>
+        <v>2083</v>
       </c>
       <c r="Q1053" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1053" t="inlineStr">
         <is>
@@ -76236,7 +76236,7 @@
       </c>
       <c r="H1054" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1054" t="inlineStr">
@@ -76245,32 +76245,32 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1054" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="L1054" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M1054" t="n">
-        <v>32500</v>
+        <v>34500</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1054" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>2167</v>
+        <v>1917</v>
       </c>
       <c r="Q1054" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1054" t="inlineStr">
         <is>
@@ -76308,7 +76308,7 @@
       </c>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1055" t="inlineStr">
@@ -76317,32 +76317,32 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K1055" t="n">
+        <v>29000</v>
+      </c>
+      <c r="L1055" t="n">
         <v>30000</v>
       </c>
-      <c r="L1055" t="n">
-        <v>31000</v>
-      </c>
       <c r="M1055" t="n">
-        <v>30500</v>
+        <v>29500</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1055" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>2033</v>
+        <v>1639</v>
       </c>
       <c r="Q1055" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1055" t="inlineStr">
         <is>
@@ -76380,7 +76380,7 @@
       </c>
       <c r="H1056" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1056" t="inlineStr">
@@ -76392,13 +76392,13 @@
         <v>800</v>
       </c>
       <c r="K1056" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="L1056" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M1056" t="n">
-        <v>26500</v>
+        <v>34500</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>1767</v>
+        <v>2300</v>
       </c>
       <c r="Q1056" t="n">
         <v>15</v>
@@ -76452,7 +76452,7 @@
       </c>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1057" t="inlineStr">
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K1057" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="L1057" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M1057" t="n">
-        <v>24500</v>
+        <v>32500</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>1633</v>
+        <v>2167</v>
       </c>
       <c r="Q1057" t="n">
         <v>15</v>
@@ -76524,7 +76524,7 @@
       </c>
       <c r="H1058" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1058" t="inlineStr">
@@ -76536,13 +76536,13 @@
         <v>400</v>
       </c>
       <c r="K1058" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L1058" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M1058" t="n">
-        <v>21500</v>
+        <v>30500</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>1433</v>
+        <v>2033</v>
       </c>
       <c r="Q1058" t="n">
         <v>15</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E1059" t="n">
         <v>4</v>
@@ -76596,12 +76596,12 @@
       </c>
       <c r="H1059" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1059" t="n">
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E1060" t="n">
         <v>4</v>
@@ -76668,25 +76668,25 @@
       </c>
       <c r="H1060" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="K1060" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L1060" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M1060" t="n">
-        <v>22500</v>
+        <v>24500</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76699,7 +76699,7 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>1500</v>
+        <v>1633</v>
       </c>
       <c r="Q1060" t="n">
         <v>15</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E1061" t="n">
         <v>4</v>
@@ -76740,41 +76740,41 @@
       </c>
       <c r="H1061" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="K1061" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="L1061" t="n">
-        <v>8500</v>
+        <v>22000</v>
       </c>
       <c r="M1061" t="n">
-        <v>8250</v>
+        <v>21500</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1061" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>458</v>
+        <v>1433</v>
       </c>
       <c r="Q1061" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1061" t="inlineStr">
         <is>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1062" t="n">
         <v>4</v>
@@ -76812,41 +76812,41 @@
       </c>
       <c r="H1062" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K1062" t="n">
-        <v>6000</v>
+        <v>26000</v>
       </c>
       <c r="L1062" t="n">
-        <v>6500</v>
+        <v>27000</v>
       </c>
       <c r="M1062" t="n">
-        <v>6250</v>
+        <v>26500</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1062" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>347</v>
+        <v>1767</v>
       </c>
       <c r="Q1062" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1062" t="inlineStr">
         <is>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1063" t="n">
         <v>4</v>
@@ -76884,41 +76884,41 @@
       </c>
       <c r="H1063" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>700</v>
+        <v>480</v>
       </c>
       <c r="K1063" t="n">
-        <v>9500</v>
+        <v>22000</v>
       </c>
       <c r="L1063" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="M1063" t="n">
-        <v>9750</v>
+        <v>22500</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1063" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>542</v>
+        <v>1500</v>
       </c>
       <c r="Q1063" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1063" t="inlineStr">
         <is>
@@ -76956,25 +76956,25 @@
       </c>
       <c r="H1064" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>440</v>
+        <v>720</v>
       </c>
       <c r="K1064" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L1064" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M1064" t="n">
-        <v>7750</v>
+        <v>8250</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="Q1064" t="n">
         <v>18</v>
@@ -77028,41 +77028,41 @@
       </c>
       <c r="H1065" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>760</v>
+        <v>500</v>
       </c>
       <c r="K1065" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L1065" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M1065" t="n">
-        <v>11500</v>
+        <v>6250</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1065" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>767</v>
+        <v>347</v>
       </c>
       <c r="Q1065" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1065" t="inlineStr">
         <is>
@@ -77100,41 +77100,41 @@
       </c>
       <c r="H1066" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="K1066" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L1066" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M1066" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1066" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>583</v>
+        <v>542</v>
       </c>
       <c r="Q1066" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1066" t="inlineStr">
         <is>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1067" t="n">
         <v>4</v>
@@ -77172,25 +77172,25 @@
       </c>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K1067" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="L1067" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M1067" t="n">
-        <v>16500</v>
+        <v>7750</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>917</v>
+        <v>431</v>
       </c>
       <c r="Q1067" t="n">
         <v>18</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1068" t="n">
         <v>4</v>
@@ -77244,41 +77244,41 @@
       </c>
       <c r="H1068" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K1068" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L1068" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="M1068" t="n">
-        <v>18500</v>
+        <v>11500</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1068" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>1028</v>
+        <v>767</v>
       </c>
       <c r="Q1068" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1068" t="inlineStr">
         <is>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1069" t="n">
         <v>4</v>
@@ -77316,41 +77316,41 @@
       </c>
       <c r="H1069" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K1069" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="L1069" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M1069" t="n">
-        <v>16500</v>
+        <v>8750</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1069" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>917</v>
+        <v>583</v>
       </c>
       <c r="Q1069" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1069" t="inlineStr">
         <is>
@@ -77388,25 +77388,25 @@
       </c>
       <c r="H1070" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K1070" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L1070" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M1070" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>806</v>
+        <v>917</v>
       </c>
       <c r="Q1070" t="n">
         <v>18</v>
@@ -77460,7 +77460,7 @@
       </c>
       <c r="H1071" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1071" t="inlineStr">
@@ -77469,32 +77469,32 @@
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1071" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L1071" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M1071" t="n">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1071" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>1167</v>
+        <v>1028</v>
       </c>
       <c r="Q1071" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1071" t="inlineStr">
         <is>
@@ -77532,7 +77532,7 @@
       </c>
       <c r="H1072" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1072" t="inlineStr">
@@ -77544,29 +77544,29 @@
         <v>600</v>
       </c>
       <c r="K1072" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L1072" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M1072" t="n">
-        <v>15500</v>
+        <v>16500</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1072" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>1033</v>
+        <v>917</v>
       </c>
       <c r="Q1072" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1072" t="inlineStr">
         <is>
@@ -77604,7 +77604,7 @@
       </c>
       <c r="H1073" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1073" t="inlineStr">
@@ -77613,32 +77613,32 @@
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K1073" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L1073" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M1073" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1073" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>900</v>
+        <v>806</v>
       </c>
       <c r="Q1073" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1073" t="inlineStr">
         <is>
@@ -77676,7 +77676,7 @@
       </c>
       <c r="H1074" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1074" t="inlineStr">
@@ -77688,13 +77688,13 @@
         <v>800</v>
       </c>
       <c r="K1074" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L1074" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M1074" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>1033</v>
+        <v>1167</v>
       </c>
       <c r="Q1074" t="n">
         <v>15</v>
@@ -77748,7 +77748,7 @@
       </c>
       <c r="H1075" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1075" t="inlineStr">
@@ -77760,13 +77760,13 @@
         <v>600</v>
       </c>
       <c r="K1075" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L1075" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M1075" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>900</v>
+        <v>1033</v>
       </c>
       <c r="Q1075" t="n">
         <v>15</v>
@@ -77820,7 +77820,7 @@
       </c>
       <c r="H1076" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1076" t="inlineStr">
@@ -77829,16 +77829,16 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K1076" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L1076" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M1076" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>767</v>
+        <v>900</v>
       </c>
       <c r="Q1076" t="n">
         <v>15</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1077" t="n">
         <v>4</v>
@@ -77892,41 +77892,41 @@
       </c>
       <c r="H1077" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="K1077" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="L1077" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M1077" t="n">
-        <v>9750</v>
+        <v>15500</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1077" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>542</v>
+        <v>1033</v>
       </c>
       <c r="Q1077" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1077" t="inlineStr">
         <is>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1078" t="n">
         <v>4</v>
@@ -77964,41 +77964,41 @@
       </c>
       <c r="H1078" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K1078" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L1078" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M1078" t="n">
-        <v>7750</v>
+        <v>13500</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1078" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>431</v>
+        <v>900</v>
       </c>
       <c r="Q1078" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1079" t="n">
         <v>4</v>
@@ -78036,41 +78036,41 @@
       </c>
       <c r="H1079" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K1079" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L1079" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M1079" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1079" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>488</v>
+        <v>767</v>
       </c>
       <c r="Q1079" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1079" t="inlineStr">
         <is>
@@ -78108,29 +78108,29 @@
       </c>
       <c r="H1080" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="K1080" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L1080" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1080" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1080" t="inlineStr">
@@ -78139,10 +78139,10 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>388</v>
+        <v>542</v>
       </c>
       <c r="Q1080" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1080" t="inlineStr">
         <is>
@@ -78180,41 +78180,41 @@
       </c>
       <c r="H1081" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>700</v>
+        <v>440</v>
       </c>
       <c r="K1081" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="L1081" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M1081" t="n">
-        <v>15500</v>
+        <v>7750</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1081" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>1033</v>
+        <v>431</v>
       </c>
       <c r="Q1081" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1081" t="inlineStr">
         <is>
@@ -78252,41 +78252,41 @@
       </c>
       <c r="H1082" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K1082" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L1082" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M1082" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1082" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>717</v>
+        <v>488</v>
       </c>
       <c r="Q1082" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1082" t="inlineStr">
         <is>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1083" t="n">
         <v>4</v>
@@ -78324,29 +78324,29 @@
       </c>
       <c r="H1083" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1083" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L1083" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M1083" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1083" t="inlineStr">
@@ -78355,10 +78355,10 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>528</v>
+        <v>388</v>
       </c>
       <c r="Q1083" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1083" t="inlineStr">
         <is>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1084" t="n">
         <v>4</v>
@@ -78396,41 +78396,41 @@
       </c>
       <c r="H1084" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K1084" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="L1084" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M1084" t="n">
-        <v>7750</v>
+        <v>15500</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1084" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>431</v>
+        <v>1033</v>
       </c>
       <c r="Q1084" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1084" t="inlineStr">
         <is>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1085" t="n">
         <v>4</v>
@@ -78468,41 +78468,41 @@
       </c>
       <c r="H1085" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K1085" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="L1085" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M1085" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1085" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>588</v>
+        <v>717</v>
       </c>
       <c r="Q1085" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1085" t="inlineStr">
         <is>
@@ -78540,29 +78540,29 @@
       </c>
       <c r="H1086" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1086" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L1086" t="n">
         <v>10000</v>
       </c>
       <c r="M1086" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1086" t="inlineStr">
@@ -78571,10 +78571,10 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>488</v>
+        <v>528</v>
       </c>
       <c r="Q1086" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1086" t="inlineStr">
         <is>
@@ -78612,41 +78612,41 @@
       </c>
       <c r="H1087" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1087" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="L1087" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M1087" t="n">
-        <v>18500</v>
+        <v>7750</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1087" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>1233</v>
+        <v>431</v>
       </c>
       <c r="Q1087" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1087" t="inlineStr">
         <is>
@@ -78684,41 +78684,41 @@
       </c>
       <c r="H1088" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K1088" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L1088" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M1088" t="n">
-        <v>14500</v>
+        <v>11750</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1088" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>967</v>
+        <v>588</v>
       </c>
       <c r="Q1088" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1088" t="inlineStr">
         <is>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1089" t="n">
         <v>4</v>
@@ -78761,24 +78761,24 @@
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K1089" t="n">
-        <v>34000</v>
+        <v>9500</v>
       </c>
       <c r="L1089" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="M1089" t="n">
-        <v>34500</v>
+        <v>9750</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1089" t="inlineStr">
@@ -78787,10 +78787,10 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>1917</v>
+        <v>488</v>
       </c>
       <c r="Q1089" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1089" t="inlineStr">
         <is>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1090" t="n">
         <v>4</v>
@@ -78828,41 +78828,41 @@
       </c>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1090" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="L1090" t="n">
-        <v>33000</v>
+        <v>19000</v>
       </c>
       <c r="M1090" t="n">
-        <v>32500</v>
+        <v>18500</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1090" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>1806</v>
+        <v>1233</v>
       </c>
       <c r="Q1090" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1090" t="inlineStr">
         <is>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1091" t="n">
         <v>4</v>
@@ -78905,20 +78905,20 @@
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>700</v>
+        <v>440</v>
       </c>
       <c r="K1091" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="L1091" t="n">
-        <v>29000</v>
+        <v>15000</v>
       </c>
       <c r="M1091" t="n">
-        <v>28500</v>
+        <v>14500</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>1900</v>
+        <v>967</v>
       </c>
       <c r="Q1091" t="n">
         <v>15</v>
@@ -78972,7 +78972,7 @@
       </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1092" t="inlineStr">
@@ -78981,32 +78981,32 @@
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K1092" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="L1092" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M1092" t="n">
-        <v>25500</v>
+        <v>34500</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1092" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>1700</v>
+        <v>1917</v>
       </c>
       <c r="Q1092" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
@@ -79044,7 +79044,7 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
@@ -79053,32 +79053,32 @@
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K1093" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L1093" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="M1093" t="n">
-        <v>23500</v>
+        <v>32500</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1093" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>1567</v>
+        <v>1806</v>
       </c>
       <c r="Q1093" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1093" t="inlineStr">
         <is>
@@ -79116,7 +79116,7 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
@@ -79125,16 +79125,16 @@
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K1094" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="L1094" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="M1094" t="n">
-        <v>26500</v>
+        <v>28500</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>1767</v>
+        <v>1900</v>
       </c>
       <c r="Q1094" t="n">
         <v>15</v>
@@ -79188,7 +79188,7 @@
       </c>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
@@ -79197,16 +79197,16 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K1095" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L1095" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M1095" t="n">
-        <v>23500</v>
+        <v>25500</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>1567</v>
+        <v>1700</v>
       </c>
       <c r="Q1095" t="n">
         <v>15</v>
@@ -79260,7 +79260,7 @@
       </c>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
@@ -79269,16 +79269,16 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K1096" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L1096" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="M1096" t="n">
-        <v>20500</v>
+        <v>23500</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,12 +79291,228 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>1367</v>
+        <v>1567</v>
       </c>
       <c r="Q1096" t="n">
         <v>15</v>
       </c>
       <c r="R1096" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1097" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1097" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1097" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1097" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1097" t="n">
+        <v>800</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L1097" t="n">
+        <v>27000</v>
+      </c>
+      <c r="M1097" t="n">
+        <v>26500</v>
+      </c>
+      <c r="N1097" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1097" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1097" t="n">
+        <v>1767</v>
+      </c>
+      <c r="Q1097" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1097" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1098" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1098" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1098" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1098" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1098" t="n">
+        <v>600</v>
+      </c>
+      <c r="K1098" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L1098" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M1098" t="n">
+        <v>23500</v>
+      </c>
+      <c r="N1098" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1098" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1098" t="n">
+        <v>1567</v>
+      </c>
+      <c r="Q1098" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1098" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1099" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1099" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1099" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1099" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1099" t="n">
+        <v>400</v>
+      </c>
+      <c r="K1099" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L1099" t="n">
+        <v>21000</v>
+      </c>
+      <c r="M1099" t="n">
+        <v>20500</v>
+      </c>
+      <c r="N1099" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1099" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1099" t="n">
+        <v>1367</v>
+      </c>
+      <c r="Q1099" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1099" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1127"/>
+  <dimension ref="A1:R1131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E942" t="n">
         <v>4</v>
@@ -68172,41 +68172,41 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K942" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="L942" t="n">
-        <v>18000</v>
+        <v>41000</v>
       </c>
       <c r="M942" t="n">
-        <v>17500</v>
+        <v>40500</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>972</v>
+        <v>2700</v>
       </c>
       <c r="Q942" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R942" t="inlineStr">
         <is>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E943" t="n">
         <v>4</v>
@@ -68244,41 +68244,41 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K943" t="n">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="L943" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="M943" t="n">
-        <v>15500</v>
+        <v>34500</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>861</v>
+        <v>2300</v>
       </c>
       <c r="Q943" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R943" t="inlineStr">
         <is>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E944" t="n">
         <v>4</v>
@@ -68316,41 +68316,41 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K944" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="L944" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="M944" t="n">
-        <v>13500</v>
+        <v>24500</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>750</v>
+        <v>1633</v>
       </c>
       <c r="Q944" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R944" t="inlineStr">
         <is>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E945" t="n">
         <v>4</v>
@@ -68388,41 +68388,41 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K945" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L945" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M945" t="n">
-        <v>17500</v>
+        <v>20500</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>972</v>
+        <v>1367</v>
       </c>
       <c r="Q945" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R945" t="inlineStr">
         <is>
@@ -68460,25 +68460,25 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K946" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L946" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M946" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q946" t="n">
         <v>18</v>
@@ -68532,25 +68532,25 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K947" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L947" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="M947" t="n">
-        <v>12250</v>
+        <v>15500</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>681</v>
+        <v>861</v>
       </c>
       <c r="Q947" t="n">
         <v>18</v>
@@ -68604,41 +68604,41 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K948" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="L948" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M948" t="n">
-        <v>16750</v>
+        <v>13500</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>1117</v>
+        <v>750</v>
       </c>
       <c r="Q948" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R948" t="inlineStr">
         <is>
@@ -68676,41 +68676,41 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J949" t="n">
         <v>600</v>
       </c>
       <c r="K949" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L949" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M949" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="Q949" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R949" t="inlineStr">
         <is>
@@ -68748,41 +68748,41 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K950" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L950" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M950" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="Q950" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R950" t="inlineStr">
         <is>
@@ -68820,41 +68820,41 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K951" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L951" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M951" t="n">
-        <v>13786</v>
+        <v>12250</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>919</v>
+        <v>681</v>
       </c>
       <c r="Q951" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R951" t="inlineStr">
         <is>
@@ -68892,25 +68892,25 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="K952" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="L952" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M952" t="n">
-        <v>11556</v>
+        <v>16750</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>770</v>
+        <v>1117</v>
       </c>
       <c r="Q952" t="n">
         <v>15</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E953" t="n">
         <v>4</v>
@@ -68964,7 +68964,7 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
@@ -68973,32 +68973,32 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="K953" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L953" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M953" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>528</v>
+        <v>967</v>
       </c>
       <c r="Q953" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R953" t="inlineStr">
         <is>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E954" t="n">
         <v>4</v>
@@ -69036,7 +69036,7 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
@@ -69045,32 +69045,32 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K954" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L954" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M954" t="n">
-        <v>6750</v>
+        <v>12500</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>375</v>
+        <v>833</v>
       </c>
       <c r="Q954" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R954" t="inlineStr">
         <is>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E955" t="n">
         <v>4</v>
@@ -69108,41 +69108,41 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>560</v>
+        <v>700</v>
       </c>
       <c r="K955" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="L955" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M955" t="n">
-        <v>19500</v>
+        <v>13786</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>1083</v>
+        <v>919</v>
       </c>
       <c r="Q955" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R955" t="inlineStr">
         <is>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E956" t="n">
         <v>4</v>
@@ -69180,7 +69180,7 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
@@ -69189,16 +69189,16 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="K956" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L956" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="M956" t="n">
-        <v>18500</v>
+        <v>11556</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>1233</v>
+        <v>770</v>
       </c>
       <c r="Q956" t="n">
         <v>15</v>
@@ -69252,41 +69252,41 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>520</v>
+        <v>680</v>
       </c>
       <c r="K957" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L957" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M957" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>900</v>
+        <v>528</v>
       </c>
       <c r="Q957" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R957" t="inlineStr">
         <is>
@@ -69324,41 +69324,41 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K958" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L958" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M958" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>700</v>
+        <v>375</v>
       </c>
       <c r="Q958" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R958" t="inlineStr">
         <is>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E959" t="n">
         <v>4</v>
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K959" t="n">
-        <v>34000</v>
+        <v>19000</v>
       </c>
       <c r="L959" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M959" t="n">
-        <v>34500</v>
+        <v>19500</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>1917</v>
+        <v>1083</v>
       </c>
       <c r="Q959" t="n">
         <v>18</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E960" t="n">
         <v>4</v>
@@ -69468,41 +69468,41 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K960" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="L960" t="n">
-        <v>33000</v>
+        <v>19000</v>
       </c>
       <c r="M960" t="n">
-        <v>32500</v>
+        <v>18500</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>1806</v>
+        <v>1233</v>
       </c>
       <c r="Q960" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R960" t="inlineStr">
         <is>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E961" t="n">
         <v>4</v>
@@ -69545,20 +69545,20 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K961" t="n">
-        <v>39000</v>
+        <v>13000</v>
       </c>
       <c r="L961" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="M961" t="n">
-        <v>39500</v>
+        <v>13500</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>2633</v>
+        <v>900</v>
       </c>
       <c r="Q961" t="n">
         <v>15</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E962" t="n">
         <v>4</v>
@@ -69617,20 +69617,20 @@
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K962" t="n">
-        <v>37000</v>
+        <v>10000</v>
       </c>
       <c r="L962" t="n">
-        <v>38000</v>
+        <v>11000</v>
       </c>
       <c r="M962" t="n">
-        <v>37500</v>
+        <v>10500</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="Q962" t="n">
         <v>15</v>
@@ -69684,41 +69684,41 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K963" t="n">
+        <v>34000</v>
+      </c>
+      <c r="L963" t="n">
         <v>35000</v>
       </c>
-      <c r="L963" t="n">
-        <v>36000</v>
-      </c>
       <c r="M963" t="n">
-        <v>35500</v>
+        <v>34500</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>2367</v>
+        <v>1917</v>
       </c>
       <c r="Q963" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R963" t="inlineStr">
         <is>
@@ -69756,41 +69756,41 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K964" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L964" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M964" t="n">
-        <v>29500</v>
+        <v>32500</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>1967</v>
+        <v>1806</v>
       </c>
       <c r="Q964" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R964" t="inlineStr">
         <is>
@@ -69828,25 +69828,25 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K965" t="n">
-        <v>27000</v>
+        <v>39000</v>
       </c>
       <c r="L965" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="M965" t="n">
-        <v>27500</v>
+        <v>39500</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>1833</v>
+        <v>2633</v>
       </c>
       <c r="Q965" t="n">
         <v>15</v>
@@ -69900,25 +69900,25 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K966" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="L966" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="M966" t="n">
-        <v>25500</v>
+        <v>37500</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="Q966" t="n">
         <v>15</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E967" t="n">
         <v>4</v>
@@ -69972,41 +69972,41 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K967" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="L967" t="n">
-        <v>15000</v>
+        <v>36000</v>
       </c>
       <c r="M967" t="n">
-        <v>14500</v>
+        <v>35500</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>806</v>
+        <v>2367</v>
       </c>
       <c r="Q967" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E968" t="n">
         <v>4</v>
@@ -70044,41 +70044,41 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K968" t="n">
-        <v>12000</v>
+        <v>29000</v>
       </c>
       <c r="L968" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="M968" t="n">
-        <v>12500</v>
+        <v>29500</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>694</v>
+        <v>1967</v>
       </c>
       <c r="Q968" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E969" t="n">
         <v>4</v>
@@ -70116,41 +70116,41 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K969" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="L969" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="M969" t="n">
-        <v>10500</v>
+        <v>27500</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>583</v>
+        <v>1833</v>
       </c>
       <c r="Q969" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E970" t="n">
         <v>4</v>
@@ -70188,41 +70188,41 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K970" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="L970" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="M970" t="n">
-        <v>19500</v>
+        <v>25500</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>975</v>
+        <v>1700</v>
       </c>
       <c r="Q970" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R970" t="inlineStr">
         <is>
@@ -70260,29 +70260,29 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K971" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L971" t="n">
         <v>15000</v>
       </c>
-      <c r="L971" t="n">
-        <v>16000</v>
-      </c>
       <c r="M971" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O971" t="inlineStr">
@@ -70291,10 +70291,10 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>775</v>
+        <v>806</v>
       </c>
       <c r="Q971" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R971" t="inlineStr">
         <is>
@@ -70332,7 +70332,7 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
@@ -70341,32 +70341,32 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>760</v>
+        <v>500</v>
       </c>
       <c r="K972" t="n">
-        <v>21500</v>
+        <v>12000</v>
       </c>
       <c r="L972" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M972" t="n">
-        <v>21750</v>
+        <v>12500</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>1450</v>
+        <v>694</v>
       </c>
       <c r="Q972" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70404,7 +70404,7 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
@@ -70416,29 +70416,29 @@
         <v>400</v>
       </c>
       <c r="K973" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L973" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M973" t="n">
-        <v>19500</v>
+        <v>10500</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>1300</v>
+        <v>583</v>
       </c>
       <c r="Q973" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R973" t="inlineStr">
         <is>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E974" t="n">
         <v>4</v>
@@ -70476,16 +70476,16 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K974" t="n">
         <v>19000</v>
@@ -70498,7 +70498,7 @@
       </c>
       <c r="N974" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O974" t="inlineStr">
@@ -70507,10 +70507,10 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>1083</v>
+        <v>975</v>
       </c>
       <c r="Q974" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R974" t="inlineStr">
         <is>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E975" t="n">
         <v>4</v>
@@ -70548,29 +70548,29 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K975" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L975" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M975" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O975" t="inlineStr">
@@ -70579,10 +70579,10 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>972</v>
+        <v>775</v>
       </c>
       <c r="Q975" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R975" t="inlineStr">
         <is>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E976" t="n">
         <v>4</v>
@@ -70620,41 +70620,41 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>300</v>
+        <v>760</v>
       </c>
       <c r="K976" t="n">
-        <v>15000</v>
+        <v>21500</v>
       </c>
       <c r="L976" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M976" t="n">
-        <v>15500</v>
+        <v>21750</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>861</v>
+        <v>1450</v>
       </c>
       <c r="Q976" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R976" t="inlineStr">
         <is>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E977" t="n">
         <v>4</v>
@@ -70692,41 +70692,41 @@
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K977" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L977" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M977" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>861</v>
+        <v>1300</v>
       </c>
       <c r="Q977" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R977" t="inlineStr">
         <is>
@@ -70764,25 +70764,25 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K978" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L978" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M978" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>639</v>
+        <v>1083</v>
       </c>
       <c r="Q978" t="n">
         <v>18</v>
@@ -70836,7 +70836,7 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
@@ -70845,32 +70845,32 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K979" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L979" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M979" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>1033</v>
+        <v>972</v>
       </c>
       <c r="Q979" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R979" t="inlineStr">
         <is>
@@ -70908,7 +70908,7 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
@@ -70917,32 +70917,32 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K980" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L980" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M980" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="Q980" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R980" t="inlineStr">
         <is>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E981" t="n">
         <v>4</v>
@@ -70980,41 +70980,41 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K981" t="n">
-        <v>39000</v>
+        <v>15000</v>
       </c>
       <c r="L981" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="M981" t="n">
-        <v>39500</v>
+        <v>15500</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>2633</v>
+        <v>861</v>
       </c>
       <c r="Q981" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R981" t="inlineStr">
         <is>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E982" t="n">
         <v>4</v>
@@ -71052,41 +71052,41 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K982" t="n">
-        <v>37000</v>
+        <v>11000</v>
       </c>
       <c r="L982" t="n">
-        <v>38000</v>
+        <v>12000</v>
       </c>
       <c r="M982" t="n">
-        <v>37500</v>
+        <v>11500</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>2500</v>
+        <v>639</v>
       </c>
       <c r="Q982" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R982" t="inlineStr">
         <is>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E983" t="n">
         <v>4</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>460</v>
+        <v>800</v>
       </c>
       <c r="K983" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L983" t="n">
-        <v>36000</v>
+        <v>16000</v>
       </c>
       <c r="M983" t="n">
-        <v>35500</v>
+        <v>15500</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>2367</v>
+        <v>1033</v>
       </c>
       <c r="Q983" t="n">
         <v>15</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E984" t="n">
         <v>4</v>
@@ -71196,25 +71196,25 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K984" t="n">
-        <v>34000</v>
+        <v>12000</v>
       </c>
       <c r="L984" t="n">
-        <v>35000</v>
+        <v>13000</v>
       </c>
       <c r="M984" t="n">
-        <v>34500</v>
+        <v>12500</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>2300</v>
+        <v>833</v>
       </c>
       <c r="Q984" t="n">
         <v>15</v>
@@ -71268,25 +71268,25 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K985" t="n">
-        <v>32000</v>
+        <v>39000</v>
       </c>
       <c r="L985" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="M985" t="n">
-        <v>32500</v>
+        <v>39500</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>2167</v>
+        <v>2633</v>
       </c>
       <c r="Q985" t="n">
         <v>15</v>
@@ -71340,25 +71340,25 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>440</v>
+        <v>700</v>
       </c>
       <c r="K986" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="L986" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="M986" t="n">
-        <v>28500</v>
+        <v>37500</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="Q986" t="n">
         <v>15</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E987" t="n">
         <v>4</v>
@@ -71412,41 +71412,41 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>600</v>
+        <v>460</v>
       </c>
       <c r="K987" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L987" t="n">
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="M987" t="n">
-        <v>17500</v>
+        <v>35500</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>972</v>
+        <v>2367</v>
       </c>
       <c r="Q987" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R987" t="inlineStr">
         <is>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E988" t="n">
         <v>4</v>
@@ -71484,41 +71484,41 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K988" t="n">
-        <v>14000</v>
+        <v>34000</v>
       </c>
       <c r="L988" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M988" t="n">
-        <v>14500</v>
+        <v>34500</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>806</v>
+        <v>2300</v>
       </c>
       <c r="Q988" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R988" t="inlineStr">
         <is>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E989" t="n">
         <v>4</v>
@@ -71556,7 +71556,7 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
@@ -71565,16 +71565,16 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="K989" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="L989" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M989" t="n">
-        <v>24500</v>
+        <v>32500</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>1633</v>
+        <v>2167</v>
       </c>
       <c r="Q989" t="n">
         <v>15</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E990" t="n">
         <v>4</v>
@@ -71628,7 +71628,7 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
@@ -71637,16 +71637,16 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K990" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="L990" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="M990" t="n">
-        <v>19500</v>
+        <v>28500</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="Q990" t="n">
         <v>15</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E991" t="n">
         <v>4</v>
@@ -71712,13 +71712,13 @@
         <v>600</v>
       </c>
       <c r="K991" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L991" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M991" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71731,7 +71731,7 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q991" t="n">
         <v>18</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E992" t="n">
         <v>4</v>
@@ -71784,13 +71784,13 @@
         <v>400</v>
       </c>
       <c r="K992" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L992" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M992" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>639</v>
+        <v>806</v>
       </c>
       <c r="Q992" t="n">
         <v>18</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E993" t="n">
         <v>4</v>
@@ -71853,16 +71853,16 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="K993" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L993" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M993" t="n">
-        <v>22500</v>
+        <v>24500</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>1500</v>
+        <v>1633</v>
       </c>
       <c r="Q993" t="n">
         <v>15</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E994" t="n">
         <v>4</v>
@@ -71916,41 +71916,41 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J994" t="n">
         <v>400</v>
       </c>
       <c r="K994" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L994" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M994" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>972</v>
+        <v>1300</v>
       </c>
       <c r="Q994" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R994" t="inlineStr">
         <is>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E995" t="n">
         <v>4</v>
@@ -71988,25 +71988,25 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K995" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L995" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M995" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>1028</v>
+        <v>861</v>
       </c>
       <c r="Q995" t="n">
         <v>18</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E996" t="n">
         <v>4</v>
@@ -72060,25 +72060,25 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J996" t="n">
         <v>400</v>
       </c>
       <c r="K996" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L996" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M996" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>917</v>
+        <v>639</v>
       </c>
       <c r="Q996" t="n">
         <v>18</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E997" t="n">
         <v>4</v>
@@ -72132,41 +72132,41 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K997" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="L997" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="M997" t="n">
-        <v>14500</v>
+        <v>22500</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>806</v>
+        <v>1500</v>
       </c>
       <c r="Q997" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R997" t="inlineStr">
         <is>
@@ -72204,7 +72204,7 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
@@ -72213,7 +72213,7 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K998" t="n">
         <v>17000</v>
@@ -72226,19 +72226,19 @@
       </c>
       <c r="N998" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>1167</v>
+        <v>972</v>
       </c>
       <c r="Q998" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R998" t="inlineStr">
         <is>
@@ -72276,41 +72276,41 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="K999" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L999" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M999" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="Q999" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72348,41 +72348,41 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K1000" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L1000" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M1000" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>900</v>
+        <v>917</v>
       </c>
       <c r="Q1000" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72420,41 +72420,41 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K1001" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L1001" t="n">
         <v>15000</v>
       </c>
-      <c r="L1001" t="n">
-        <v>16000</v>
-      </c>
       <c r="M1001" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>1033</v>
+        <v>806</v>
       </c>
       <c r="Q1001" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
@@ -72492,25 +72492,25 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K1002" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L1002" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M1002" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>900</v>
+        <v>1167</v>
       </c>
       <c r="Q1002" t="n">
         <v>15</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1003" t="n">
         <v>4</v>
@@ -72564,7 +72564,7 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
@@ -72573,32 +72573,32 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>720</v>
+        <v>460</v>
       </c>
       <c r="K1003" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L1003" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="M1003" t="n">
-        <v>8250</v>
+        <v>15500</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>458</v>
+        <v>1033</v>
       </c>
       <c r="Q1003" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1004" t="n">
         <v>4</v>
@@ -72636,7 +72636,7 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
@@ -72645,32 +72645,32 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K1004" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L1004" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="M1004" t="n">
-        <v>6250</v>
+        <v>13500</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>347</v>
+        <v>900</v>
       </c>
       <c r="Q1004" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1005" t="n">
         <v>4</v>
@@ -72708,41 +72708,41 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1005" t="n">
         <v>700</v>
       </c>
       <c r="K1005" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="L1005" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M1005" t="n">
-        <v>9750</v>
+        <v>15500</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>542</v>
+        <v>1033</v>
       </c>
       <c r="Q1005" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1006" t="n">
         <v>4</v>
@@ -72780,41 +72780,41 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K1006" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L1006" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M1006" t="n">
-        <v>7750</v>
+        <v>13500</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>431</v>
+        <v>900</v>
       </c>
       <c r="Q1006" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
@@ -72852,7 +72852,7 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
@@ -72861,32 +72861,32 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="K1007" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L1007" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M1007" t="n">
-        <v>11500</v>
+        <v>8250</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>767</v>
+        <v>458</v>
       </c>
       <c r="Q1007" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
@@ -72924,7 +72924,7 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
@@ -72933,32 +72933,32 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K1008" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L1008" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M1008" t="n">
-        <v>8750</v>
+        <v>6250</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>583</v>
+        <v>347</v>
       </c>
       <c r="Q1008" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1009" t="n">
         <v>4</v>
@@ -72996,7 +72996,7 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
@@ -73005,32 +73005,32 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K1009" t="n">
-        <v>41000</v>
+        <v>9500</v>
       </c>
       <c r="L1009" t="n">
-        <v>42000</v>
+        <v>10000</v>
       </c>
       <c r="M1009" t="n">
-        <v>41500</v>
+        <v>9750</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>2767</v>
+        <v>542</v>
       </c>
       <c r="Q1009" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1010" t="n">
         <v>4</v>
@@ -73068,41 +73068,41 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>760</v>
+        <v>440</v>
       </c>
       <c r="K1010" t="n">
-        <v>31000</v>
+        <v>7500</v>
       </c>
       <c r="L1010" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="M1010" t="n">
-        <v>31500</v>
+        <v>7750</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>2100</v>
+        <v>431</v>
       </c>
       <c r="Q1010" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1010" t="inlineStr">
         <is>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1011" t="n">
         <v>4</v>
@@ -73140,25 +73140,25 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>500</v>
+        <v>760</v>
       </c>
       <c r="K1011" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="L1011" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="M1011" t="n">
-        <v>25500</v>
+        <v>11500</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>1700</v>
+        <v>767</v>
       </c>
       <c r="Q1011" t="n">
         <v>15</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E1012" t="n">
         <v>4</v>
@@ -73212,41 +73212,41 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K1012" t="n">
-        <v>24000</v>
+        <v>8500</v>
       </c>
       <c r="L1012" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="M1012" t="n">
-        <v>24500</v>
+        <v>8750</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>1361</v>
+        <v>583</v>
       </c>
       <c r="Q1012" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1012" t="inlineStr">
         <is>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1013" t="n">
         <v>4</v>
@@ -73284,7 +73284,7 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
@@ -73293,32 +73293,32 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K1013" t="n">
-        <v>19000</v>
+        <v>41000</v>
       </c>
       <c r="L1013" t="n">
-        <v>20000</v>
+        <v>42000</v>
       </c>
       <c r="M1013" t="n">
-        <v>19500</v>
+        <v>41500</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>1083</v>
+        <v>2767</v>
       </c>
       <c r="Q1013" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1014" t="n">
         <v>4</v>
@@ -73356,41 +73356,41 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K1014" t="n">
-        <v>15000</v>
+        <v>31000</v>
       </c>
       <c r="L1014" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="M1014" t="n">
-        <v>15500</v>
+        <v>31500</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>861</v>
+        <v>2100</v>
       </c>
       <c r="Q1014" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1015" t="n">
         <v>4</v>
@@ -73428,25 +73428,25 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K1015" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L1015" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="M1015" t="n">
-        <v>18500</v>
+        <v>25500</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>1233</v>
+        <v>1700</v>
       </c>
       <c r="Q1015" t="n">
         <v>15</v>
@@ -73500,41 +73500,41 @@
       </c>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1016" t="n">
         <v>600</v>
       </c>
       <c r="K1016" t="n">
-        <v>16500</v>
+        <v>24000</v>
       </c>
       <c r="L1016" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M1016" t="n">
-        <v>16750</v>
+        <v>24500</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>1117</v>
+        <v>1361</v>
       </c>
       <c r="Q1016" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1016" t="inlineStr">
         <is>
@@ -73572,41 +73572,41 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1017" t="n">
         <v>500</v>
       </c>
       <c r="K1017" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="L1017" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M1017" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>983</v>
+        <v>1083</v>
       </c>
       <c r="Q1017" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1018" t="n">
         <v>4</v>
@@ -73644,41 +73644,41 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>740</v>
+        <v>400</v>
       </c>
       <c r="K1018" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="L1018" t="n">
-        <v>41000</v>
+        <v>16000</v>
       </c>
       <c r="M1018" t="n">
-        <v>40500</v>
+        <v>15500</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>2700</v>
+        <v>861</v>
       </c>
       <c r="Q1018" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1019" t="n">
         <v>4</v>
@@ -73721,20 +73721,20 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="K1019" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="L1019" t="n">
-        <v>35000</v>
+        <v>19000</v>
       </c>
       <c r="M1019" t="n">
-        <v>34500</v>
+        <v>18500</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>2300</v>
+        <v>1233</v>
       </c>
       <c r="Q1019" t="n">
         <v>15</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1020" t="n">
         <v>4</v>
@@ -73788,7 +73788,7 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
@@ -73797,16 +73797,16 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="K1020" t="n">
-        <v>30000</v>
+        <v>16500</v>
       </c>
       <c r="L1020" t="n">
-        <v>31000</v>
+        <v>17000</v>
       </c>
       <c r="M1020" t="n">
-        <v>30500</v>
+        <v>16750</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>2033</v>
+        <v>1117</v>
       </c>
       <c r="Q1020" t="n">
         <v>15</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1021" t="n">
         <v>4</v>
@@ -73860,7 +73860,7 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
@@ -73869,16 +73869,16 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1021" t="n">
-        <v>24000</v>
+        <v>14500</v>
       </c>
       <c r="L1021" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M1021" t="n">
-        <v>24500</v>
+        <v>14750</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>1633</v>
+        <v>983</v>
       </c>
       <c r="Q1021" t="n">
         <v>15</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1022" t="n">
         <v>4</v>
@@ -73941,16 +73941,16 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>500</v>
+        <v>740</v>
       </c>
       <c r="K1022" t="n">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="L1022" t="n">
-        <v>27000</v>
+        <v>41000</v>
       </c>
       <c r="M1022" t="n">
-        <v>26500</v>
+        <v>40500</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>1767</v>
+        <v>2700</v>
       </c>
       <c r="Q1022" t="n">
         <v>15</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1023" t="n">
         <v>4</v>
@@ -74013,16 +74013,16 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K1023" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="L1023" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M1023" t="n">
-        <v>22500</v>
+        <v>34500</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="Q1023" t="n">
         <v>15</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1024" t="n">
         <v>4</v>
@@ -74076,7 +74076,7 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
@@ -74085,16 +74085,16 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="K1024" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="L1024" t="n">
-        <v>41000</v>
+        <v>31000</v>
       </c>
       <c r="M1024" t="n">
-        <v>40500</v>
+        <v>30500</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>2700</v>
+        <v>2033</v>
       </c>
       <c r="Q1024" t="n">
         <v>15</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1025" t="n">
         <v>4</v>
@@ -74148,7 +74148,7 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
@@ -74160,13 +74160,13 @@
         <v>400</v>
       </c>
       <c r="K1025" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="L1025" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="M1025" t="n">
-        <v>35500</v>
+        <v>24500</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>2367</v>
+        <v>1633</v>
       </c>
       <c r="Q1025" t="n">
         <v>15</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E1026" t="n">
         <v>4</v>
@@ -74220,41 +74220,41 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>760</v>
+        <v>500</v>
       </c>
       <c r="K1026" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="L1026" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="M1026" t="n">
-        <v>14500</v>
+        <v>26500</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>806</v>
+        <v>1767</v>
       </c>
       <c r="Q1026" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1026" t="inlineStr">
         <is>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E1027" t="n">
         <v>4</v>
@@ -74292,41 +74292,41 @@
       </c>
       <c r="H1027" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K1027" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L1027" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M1027" t="n">
-        <v>12500</v>
+        <v>22500</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>694</v>
+        <v>1500</v>
       </c>
       <c r="Q1027" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1027" t="inlineStr">
         <is>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1028" t="n">
         <v>4</v>
@@ -74364,41 +74364,41 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1028" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="L1028" t="n">
-        <v>11000</v>
+        <v>41000</v>
       </c>
       <c r="M1028" t="n">
-        <v>10500</v>
+        <v>40500</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>583</v>
+        <v>2700</v>
       </c>
       <c r="Q1028" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1028" t="inlineStr">
         <is>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1029" t="n">
         <v>4</v>
@@ -74436,41 +74436,41 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1029" t="n">
-        <v>19000</v>
+        <v>35000</v>
       </c>
       <c r="L1029" t="n">
-        <v>20000</v>
+        <v>36000</v>
       </c>
       <c r="M1029" t="n">
-        <v>19500</v>
+        <v>35500</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>975</v>
+        <v>2367</v>
       </c>
       <c r="Q1029" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1029" t="inlineStr">
         <is>
@@ -74508,29 +74508,29 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K1030" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L1030" t="n">
         <v>15000</v>
       </c>
-      <c r="L1030" t="n">
-        <v>16000</v>
-      </c>
       <c r="M1030" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1030" t="inlineStr">
@@ -74539,10 +74539,10 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>775</v>
+        <v>806</v>
       </c>
       <c r="Q1030" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
@@ -74580,7 +74580,7 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
@@ -74589,32 +74589,32 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K1031" t="n">
-        <v>21500</v>
+        <v>12000</v>
       </c>
       <c r="L1031" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M1031" t="n">
-        <v>21750</v>
+        <v>12500</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>1450</v>
+        <v>694</v>
       </c>
       <c r="Q1031" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1031" t="inlineStr">
         <is>
@@ -74652,7 +74652,7 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
@@ -74661,32 +74661,32 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K1032" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L1032" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M1032" t="n">
-        <v>19500</v>
+        <v>10500</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>1300</v>
+        <v>583</v>
       </c>
       <c r="Q1032" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1032" t="inlineStr">
         <is>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1033" t="n">
         <v>4</v>
@@ -74729,24 +74729,24 @@
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1033" t="n">
-        <v>42000</v>
+        <v>19000</v>
       </c>
       <c r="L1033" t="n">
-        <v>43000</v>
+        <v>20000</v>
       </c>
       <c r="M1033" t="n">
-        <v>42500</v>
+        <v>19500</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1033" t="inlineStr">
@@ -74755,10 +74755,10 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>2361</v>
+        <v>975</v>
       </c>
       <c r="Q1033" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1033" t="inlineStr">
         <is>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1034" t="n">
         <v>4</v>
@@ -74801,24 +74801,24 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K1034" t="n">
-        <v>39000</v>
+        <v>15000</v>
       </c>
       <c r="L1034" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="M1034" t="n">
-        <v>39500</v>
+        <v>15500</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1034" t="inlineStr">
@@ -74827,10 +74827,10 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>2194</v>
+        <v>775</v>
       </c>
       <c r="Q1034" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1034" t="inlineStr">
         <is>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1035" t="n">
         <v>4</v>
@@ -74873,20 +74873,20 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1035" t="n">
-        <v>39000</v>
+        <v>21500</v>
       </c>
       <c r="L1035" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="M1035" t="n">
-        <v>39500</v>
+        <v>21750</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>2633</v>
+        <v>1450</v>
       </c>
       <c r="Q1035" t="n">
         <v>15</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1036" t="n">
         <v>4</v>
@@ -74945,20 +74945,20 @@
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K1036" t="n">
-        <v>37000</v>
+        <v>19000</v>
       </c>
       <c r="L1036" t="n">
-        <v>38000</v>
+        <v>20000</v>
       </c>
       <c r="M1036" t="n">
-        <v>37500</v>
+        <v>19500</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="Q1036" t="n">
         <v>15</v>
@@ -75012,41 +75012,41 @@
       </c>
       <c r="H1037" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1037" t="n">
         <v>400</v>
       </c>
       <c r="K1037" t="n">
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="L1037" t="n">
-        <v>36000</v>
+        <v>43000</v>
       </c>
       <c r="M1037" t="n">
-        <v>35500</v>
+        <v>42500</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1037" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>2367</v>
+        <v>2361</v>
       </c>
       <c r="Q1037" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1037" t="inlineStr">
         <is>
@@ -75084,41 +75084,41 @@
       </c>
       <c r="H1038" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="K1038" t="n">
-        <v>34000</v>
+        <v>39000</v>
       </c>
       <c r="L1038" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M1038" t="n">
-        <v>34500</v>
+        <v>39500</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1038" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>2300</v>
+        <v>2194</v>
       </c>
       <c r="Q1038" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
@@ -75156,25 +75156,25 @@
       </c>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="K1039" t="n">
-        <v>32000</v>
+        <v>39000</v>
       </c>
       <c r="L1039" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="M1039" t="n">
-        <v>32500</v>
+        <v>39500</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>2167</v>
+        <v>2633</v>
       </c>
       <c r="Q1039" t="n">
         <v>15</v>
@@ -75228,25 +75228,25 @@
       </c>
       <c r="H1040" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1040" t="n">
-        <v>29000</v>
+        <v>37000</v>
       </c>
       <c r="L1040" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="M1040" t="n">
-        <v>29500</v>
+        <v>37500</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>1967</v>
+        <v>2500</v>
       </c>
       <c r="Q1040" t="n">
         <v>15</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1041" t="n">
         <v>4</v>
@@ -75300,41 +75300,41 @@
       </c>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>760</v>
+        <v>400</v>
       </c>
       <c r="K1041" t="n">
-        <v>11500</v>
+        <v>35000</v>
       </c>
       <c r="L1041" t="n">
-        <v>12000</v>
+        <v>36000</v>
       </c>
       <c r="M1041" t="n">
-        <v>11750</v>
+        <v>35500</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1041" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>653</v>
+        <v>2367</v>
       </c>
       <c r="Q1041" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1041" t="inlineStr">
         <is>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1042" t="n">
         <v>4</v>
@@ -75372,41 +75372,41 @@
       </c>
       <c r="H1042" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="K1042" t="n">
-        <v>9500</v>
+        <v>34000</v>
       </c>
       <c r="L1042" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="M1042" t="n">
-        <v>9750</v>
+        <v>34500</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>542</v>
+        <v>2300</v>
       </c>
       <c r="Q1042" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1042" t="inlineStr">
         <is>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1043" t="n">
         <v>4</v>
@@ -75444,7 +75444,7 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
@@ -75453,32 +75453,32 @@
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>760</v>
+        <v>540</v>
       </c>
       <c r="K1043" t="n">
-        <v>14000</v>
+        <v>32000</v>
       </c>
       <c r="L1043" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="M1043" t="n">
-        <v>14500</v>
+        <v>32500</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1043" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>725</v>
+        <v>2167</v>
       </c>
       <c r="Q1043" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1043" t="inlineStr">
         <is>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1044" t="n">
         <v>4</v>
@@ -75516,7 +75516,7 @@
       </c>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr">
@@ -75525,32 +75525,32 @@
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K1044" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="L1044" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="M1044" t="n">
-        <v>10500</v>
+        <v>29500</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1044" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>525</v>
+        <v>1967</v>
       </c>
       <c r="Q1044" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1044" t="inlineStr">
         <is>
@@ -75588,7 +75588,7 @@
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1045" t="inlineStr">
@@ -75597,32 +75597,32 @@
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="K1045" t="n">
-        <v>24000</v>
+        <v>11500</v>
       </c>
       <c r="L1045" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M1045" t="n">
-        <v>24500</v>
+        <v>11750</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1045" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>1633</v>
+        <v>653</v>
       </c>
       <c r="Q1045" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1045" t="inlineStr">
         <is>
@@ -75660,7 +75660,7 @@
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1046" t="inlineStr">
@@ -75669,32 +75669,32 @@
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="K1046" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="L1046" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M1046" t="n">
-        <v>19500</v>
+        <v>9750</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1046" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>1300</v>
+        <v>542</v>
       </c>
       <c r="Q1046" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1046" t="inlineStr">
         <is>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1047" t="n">
         <v>4</v>
@@ -75732,7 +75732,7 @@
       </c>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1047" t="inlineStr">
@@ -75741,20 +75741,20 @@
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>600</v>
+        <v>760</v>
       </c>
       <c r="K1047" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L1047" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M1047" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1047" t="inlineStr">
@@ -75763,10 +75763,10 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>528</v>
+        <v>725</v>
       </c>
       <c r="Q1047" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1048" t="n">
         <v>4</v>
@@ -75804,7 +75804,7 @@
       </c>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
@@ -75813,20 +75813,20 @@
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="K1048" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L1048" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M1048" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1048" t="inlineStr">
@@ -75835,10 +75835,10 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>431</v>
+        <v>525</v>
       </c>
       <c r="Q1048" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1048" t="inlineStr">
         <is>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1049" t="n">
         <v>4</v>
@@ -75876,7 +75876,7 @@
       </c>
       <c r="H1049" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1049" t="inlineStr">
@@ -75885,32 +75885,32 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="K1049" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L1049" t="n">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="M1049" t="n">
-        <v>9250</v>
+        <v>24500</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1049" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>514</v>
+        <v>1633</v>
       </c>
       <c r="Q1049" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1049" t="inlineStr">
         <is>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1050" t="n">
         <v>4</v>
@@ -75948,7 +75948,7 @@
       </c>
       <c r="H1050" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1050" t="inlineStr">
@@ -75957,32 +75957,32 @@
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K1050" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L1050" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="M1050" t="n">
-        <v>7250</v>
+        <v>19500</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1050" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>403</v>
+        <v>1300</v>
       </c>
       <c r="Q1050" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1050" t="inlineStr">
         <is>
@@ -76020,7 +76020,7 @@
       </c>
       <c r="H1051" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1051" t="inlineStr">
@@ -76029,32 +76029,32 @@
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="K1051" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L1051" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M1051" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1051" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>900</v>
+        <v>528</v>
       </c>
       <c r="Q1051" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1051" t="inlineStr">
         <is>
@@ -76092,7 +76092,7 @@
       </c>
       <c r="H1052" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1052" t="inlineStr">
@@ -76104,29 +76104,29 @@
         <v>460</v>
       </c>
       <c r="K1052" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L1052" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M1052" t="n">
-        <v>10500</v>
+        <v>7750</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1052" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>700</v>
+        <v>431</v>
       </c>
       <c r="Q1052" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1052" t="inlineStr">
         <is>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1053" t="n">
         <v>4</v>
@@ -76164,7 +76164,7 @@
       </c>
       <c r="H1053" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1053" t="inlineStr">
@@ -76173,16 +76173,16 @@
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="K1053" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L1053" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="M1053" t="n">
-        <v>11750</v>
+        <v>9250</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>653</v>
+        <v>514</v>
       </c>
       <c r="Q1053" t="n">
         <v>18</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1054" t="n">
         <v>4</v>
@@ -76236,7 +76236,7 @@
       </c>
       <c r="H1054" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1054" t="inlineStr">
@@ -76245,16 +76245,16 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K1054" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L1054" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M1054" t="n">
-        <v>9750</v>
+        <v>7250</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>542</v>
+        <v>403</v>
       </c>
       <c r="Q1054" t="n">
         <v>18</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1055" t="n">
         <v>4</v>
@@ -76308,7 +76308,7 @@
       </c>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1055" t="inlineStr">
@@ -76317,32 +76317,32 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="K1055" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="L1055" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M1055" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1055" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>738</v>
+        <v>900</v>
       </c>
       <c r="Q1055" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1055" t="inlineStr">
         <is>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1056" t="n">
         <v>4</v>
@@ -76380,7 +76380,7 @@
       </c>
       <c r="H1056" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1056" t="inlineStr">
@@ -76395,26 +76395,26 @@
         <v>10000</v>
       </c>
       <c r="L1056" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M1056" t="n">
         <v>10500</v>
       </c>
-      <c r="M1056" t="n">
-        <v>10250</v>
-      </c>
       <c r="N1056" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1056" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>512</v>
+        <v>700</v>
       </c>
       <c r="Q1056" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1056" t="inlineStr">
         <is>
@@ -76452,7 +76452,7 @@
       </c>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1057" t="inlineStr">
@@ -76461,32 +76461,32 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>660</v>
+        <v>700</v>
       </c>
       <c r="K1057" t="n">
-        <v>24000</v>
+        <v>11500</v>
       </c>
       <c r="L1057" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M1057" t="n">
-        <v>24500</v>
+        <v>11750</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1057" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>1633</v>
+        <v>653</v>
       </c>
       <c r="Q1057" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1057" t="inlineStr">
         <is>
@@ -76524,7 +76524,7 @@
       </c>
       <c r="H1058" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1058" t="inlineStr">
@@ -76533,32 +76533,32 @@
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K1058" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="L1058" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M1058" t="n">
-        <v>19500</v>
+        <v>9750</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1058" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>1300</v>
+        <v>542</v>
       </c>
       <c r="Q1058" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1058" t="inlineStr">
         <is>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1059" t="n">
         <v>4</v>
@@ -76596,7 +76596,7 @@
       </c>
       <c r="H1059" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1059" t="inlineStr">
@@ -76605,20 +76605,20 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>520</v>
+        <v>700</v>
       </c>
       <c r="K1059" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="L1059" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M1059" t="n">
-        <v>8500</v>
+        <v>14750</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1059" t="inlineStr">
@@ -76627,10 +76627,10 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>472</v>
+        <v>738</v>
       </c>
       <c r="Q1059" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1059" t="inlineStr">
         <is>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1060" t="n">
         <v>4</v>
@@ -76668,7 +76668,7 @@
       </c>
       <c r="H1060" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1060" t="inlineStr">
@@ -76677,20 +76677,20 @@
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K1060" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L1060" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="M1060" t="n">
-        <v>5500</v>
+        <v>10250</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1060" t="inlineStr">
@@ -76699,10 +76699,10 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>306</v>
+        <v>512</v>
       </c>
       <c r="Q1060" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1060" t="inlineStr">
         <is>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1061" t="n">
         <v>4</v>
@@ -76740,7 +76740,7 @@
       </c>
       <c r="H1061" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1061" t="inlineStr">
@@ -76749,32 +76749,32 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>520</v>
+        <v>660</v>
       </c>
       <c r="K1061" t="n">
-        <v>10500</v>
+        <v>24000</v>
       </c>
       <c r="L1061" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="M1061" t="n">
-        <v>10750</v>
+        <v>24500</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1061" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>597</v>
+        <v>1633</v>
       </c>
       <c r="Q1061" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1061" t="inlineStr">
         <is>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1062" t="n">
         <v>4</v>
@@ -76812,7 +76812,7 @@
       </c>
       <c r="H1062" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1062" t="inlineStr">
@@ -76821,32 +76821,32 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="K1062" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="L1062" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M1062" t="n">
-        <v>8500</v>
+        <v>19500</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1062" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>472</v>
+        <v>1300</v>
       </c>
       <c r="Q1062" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1062" t="inlineStr">
         <is>
@@ -76884,7 +76884,7 @@
       </c>
       <c r="H1063" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1063" t="inlineStr">
@@ -76893,32 +76893,32 @@
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K1063" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L1063" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M1063" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1063" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>900</v>
+        <v>472</v>
       </c>
       <c r="Q1063" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1063" t="inlineStr">
         <is>
@@ -76956,7 +76956,7 @@
       </c>
       <c r="H1064" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1064" t="inlineStr">
@@ -76968,29 +76968,29 @@
         <v>400</v>
       </c>
       <c r="K1064" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L1064" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="M1064" t="n">
-        <v>10250</v>
+        <v>5500</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1064" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>683</v>
+        <v>306</v>
       </c>
       <c r="Q1064" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1064" t="inlineStr">
         <is>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1065" t="n">
         <v>4</v>
@@ -77028,7 +77028,7 @@
       </c>
       <c r="H1065" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1065" t="inlineStr">
@@ -77037,16 +77037,16 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K1065" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L1065" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M1065" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q1065" t="n">
         <v>18</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1066" t="n">
         <v>4</v>
@@ -77100,7 +77100,7 @@
       </c>
       <c r="H1066" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1066" t="inlineStr">
@@ -77109,16 +77109,16 @@
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="K1066" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L1066" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M1066" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77131,7 +77131,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="Q1066" t="n">
         <v>18</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1067" t="n">
         <v>4</v>
@@ -77172,7 +77172,7 @@
       </c>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1067" t="inlineStr">
@@ -77181,32 +77181,32 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K1067" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L1067" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M1067" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1067" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>542</v>
+        <v>900</v>
       </c>
       <c r="Q1067" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1067" t="inlineStr">
         <is>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1068" t="n">
         <v>4</v>
@@ -77244,7 +77244,7 @@
       </c>
       <c r="H1068" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1068" t="inlineStr">
@@ -77253,32 +77253,32 @@
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K1068" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L1068" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M1068" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1068" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>431</v>
+        <v>683</v>
       </c>
       <c r="Q1068" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1068" t="inlineStr">
         <is>
@@ -77316,25 +77316,25 @@
       </c>
       <c r="H1069" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K1069" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L1069" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M1069" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77347,7 +77347,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q1069" t="n">
         <v>18</v>
@@ -77388,41 +77388,41 @@
       </c>
       <c r="H1070" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>700</v>
+        <v>480</v>
       </c>
       <c r="K1070" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="L1070" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M1070" t="n">
-        <v>13750</v>
+        <v>7750</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1070" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>917</v>
+        <v>431</v>
       </c>
       <c r="Q1070" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1070" t="inlineStr">
         <is>
@@ -77460,16 +77460,16 @@
       </c>
       <c r="H1071" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="K1071" t="n">
         <v>9500</v>
@@ -77482,19 +77482,19 @@
       </c>
       <c r="N1071" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1071" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>650</v>
+        <v>542</v>
       </c>
       <c r="Q1071" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1071" t="inlineStr">
         <is>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1072" t="n">
         <v>4</v>
@@ -77532,25 +77532,25 @@
       </c>
       <c r="H1072" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>640</v>
+        <v>500</v>
       </c>
       <c r="K1072" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L1072" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M1072" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q1072" t="n">
         <v>18</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1073" t="n">
         <v>4</v>
@@ -77604,25 +77604,25 @@
       </c>
       <c r="H1073" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1073" t="n">
         <v>400</v>
       </c>
       <c r="K1073" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L1073" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M1073" t="n">
-        <v>8750</v>
+        <v>5750</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="Q1073" t="n">
         <v>18</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1074" t="n">
         <v>4</v>
@@ -77685,16 +77685,16 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K1074" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="L1074" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M1074" t="n">
-        <v>16500</v>
+        <v>13750</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>1100</v>
+        <v>917</v>
       </c>
       <c r="Q1074" t="n">
         <v>15</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1075" t="n">
         <v>4</v>
@@ -77757,16 +77757,16 @@
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K1075" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L1075" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="M1075" t="n">
-        <v>13250</v>
+        <v>9750</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>883</v>
+        <v>650</v>
       </c>
       <c r="Q1075" t="n">
         <v>15</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1076" t="n">
         <v>4</v>
@@ -77820,25 +77820,25 @@
       </c>
       <c r="H1076" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="K1076" t="n">
-        <v>34000</v>
+        <v>11500</v>
       </c>
       <c r="L1076" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="M1076" t="n">
-        <v>34500</v>
+        <v>11750</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>1917</v>
+        <v>653</v>
       </c>
       <c r="Q1076" t="n">
         <v>18</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1077" t="n">
         <v>4</v>
@@ -77892,25 +77892,25 @@
       </c>
       <c r="H1077" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1077" t="n">
         <v>400</v>
       </c>
       <c r="K1077" t="n">
-        <v>32000</v>
+        <v>8500</v>
       </c>
       <c r="L1077" t="n">
-        <v>33000</v>
+        <v>9000</v>
       </c>
       <c r="M1077" t="n">
-        <v>32500</v>
+        <v>8750</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>1806</v>
+        <v>486</v>
       </c>
       <c r="Q1077" t="n">
         <v>18</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1078" t="n">
         <v>4</v>
@@ -77964,41 +77964,41 @@
       </c>
       <c r="H1078" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1078" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="L1078" t="n">
-        <v>31000</v>
+        <v>17000</v>
       </c>
       <c r="M1078" t="n">
-        <v>30500</v>
+        <v>16500</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1078" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>1694</v>
+        <v>1100</v>
       </c>
       <c r="Q1078" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1079" t="n">
         <v>4</v>
@@ -78041,20 +78041,20 @@
       </c>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1079" t="n">
-        <v>40000</v>
+        <v>13000</v>
       </c>
       <c r="L1079" t="n">
-        <v>41000</v>
+        <v>13500</v>
       </c>
       <c r="M1079" t="n">
-        <v>40500</v>
+        <v>13250</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>2700</v>
+        <v>883</v>
       </c>
       <c r="Q1079" t="n">
         <v>15</v>
@@ -78108,41 +78108,41 @@
       </c>
       <c r="H1080" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1080" t="n">
         <v>600</v>
       </c>
       <c r="K1080" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="L1080" t="n">
-        <v>39000</v>
+        <v>35000</v>
       </c>
       <c r="M1080" t="n">
-        <v>38500</v>
+        <v>34500</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1080" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>2567</v>
+        <v>1917</v>
       </c>
       <c r="Q1080" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1080" t="inlineStr">
         <is>
@@ -78180,41 +78180,41 @@
       </c>
       <c r="H1081" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K1081" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L1081" t="n">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="M1081" t="n">
-        <v>35500</v>
+        <v>32500</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1081" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>2367</v>
+        <v>1806</v>
       </c>
       <c r="Q1081" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1081" t="inlineStr">
         <is>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1082" t="n">
         <v>4</v>
@@ -78257,20 +78257,20 @@
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K1082" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L1082" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="M1082" t="n">
-        <v>15500</v>
+        <v>30500</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78283,7 +78283,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>861</v>
+        <v>1694</v>
       </c>
       <c r="Q1082" t="n">
         <v>18</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1083" t="n">
         <v>4</v>
@@ -78324,41 +78324,41 @@
       </c>
       <c r="H1083" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="K1083" t="n">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="L1083" t="n">
-        <v>12500</v>
+        <v>41000</v>
       </c>
       <c r="M1083" t="n">
-        <v>12250</v>
+        <v>40500</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1083" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>681</v>
+        <v>2700</v>
       </c>
       <c r="Q1083" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1083" t="inlineStr">
         <is>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1084" t="n">
         <v>4</v>
@@ -78405,16 +78405,16 @@
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="K1084" t="n">
-        <v>15000</v>
+        <v>38000</v>
       </c>
       <c r="L1084" t="n">
-        <v>16000</v>
+        <v>39000</v>
       </c>
       <c r="M1084" t="n">
-        <v>15500</v>
+        <v>38500</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>1033</v>
+        <v>2567</v>
       </c>
       <c r="Q1084" t="n">
         <v>15</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1085" t="n">
         <v>4</v>
@@ -78477,16 +78477,16 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K1085" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="L1085" t="n">
-        <v>12500</v>
+        <v>36000</v>
       </c>
       <c r="M1085" t="n">
-        <v>12250</v>
+        <v>35500</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>817</v>
+        <v>2367</v>
       </c>
       <c r="Q1085" t="n">
         <v>15</v>
@@ -78540,7 +78540,7 @@
       </c>
       <c r="H1086" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1086" t="inlineStr">
@@ -78549,32 +78549,32 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K1086" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1086" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M1086" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1086" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="Q1086" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1086" t="inlineStr">
         <is>
@@ -78612,7 +78612,7 @@
       </c>
       <c r="H1087" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1087" t="inlineStr">
@@ -78621,32 +78621,32 @@
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K1087" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1087" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="M1087" t="n">
-        <v>10250</v>
+        <v>12250</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1087" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="Q1087" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1087" t="inlineStr">
         <is>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1088" t="n">
         <v>4</v>
@@ -78684,7 +78684,7 @@
       </c>
       <c r="H1088" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1088" t="inlineStr">
@@ -78693,32 +78693,32 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="K1088" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="L1088" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M1088" t="n">
-        <v>9750</v>
+        <v>15500</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1088" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>542</v>
+        <v>1033</v>
       </c>
       <c r="Q1088" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1088" t="inlineStr">
         <is>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1089" t="n">
         <v>4</v>
@@ -78756,7 +78756,7 @@
       </c>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1089" t="inlineStr">
@@ -78765,32 +78765,32 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K1089" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L1089" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="M1089" t="n">
-        <v>7250</v>
+        <v>12250</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1089" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>403</v>
+        <v>817</v>
       </c>
       <c r="Q1089" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1089" t="inlineStr">
         <is>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1090" t="n">
         <v>4</v>
@@ -78828,7 +78828,7 @@
       </c>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
@@ -78837,32 +78837,32 @@
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K1090" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L1090" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M1090" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1090" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>1083</v>
+        <v>833</v>
       </c>
       <c r="Q1090" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1090" t="inlineStr">
         <is>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1091" t="n">
         <v>4</v>
@@ -78900,25 +78900,25 @@
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1091" t="n">
-        <v>19500</v>
+        <v>10000</v>
       </c>
       <c r="L1091" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="M1091" t="n">
-        <v>19750</v>
+        <v>10250</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>1317</v>
+        <v>683</v>
       </c>
       <c r="Q1091" t="n">
         <v>15</v>
@@ -78972,41 +78972,41 @@
       </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K1092" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="L1092" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M1092" t="n">
-        <v>16500</v>
+        <v>9750</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1092" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>1100</v>
+        <v>542</v>
       </c>
       <c r="Q1092" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1093" t="n">
         <v>4</v>
@@ -79049,20 +79049,20 @@
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>740</v>
+        <v>520</v>
       </c>
       <c r="K1093" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L1093" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M1093" t="n">
-        <v>8750</v>
+        <v>7250</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>486</v>
+        <v>403</v>
       </c>
       <c r="Q1093" t="n">
         <v>18</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1094" t="n">
         <v>4</v>
@@ -79116,25 +79116,25 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="K1094" t="n">
-        <v>6500</v>
+        <v>19000</v>
       </c>
       <c r="L1094" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M1094" t="n">
-        <v>6750</v>
+        <v>19500</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>375</v>
+        <v>1083</v>
       </c>
       <c r="Q1094" t="n">
         <v>18</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1095" t="n">
         <v>4</v>
@@ -79188,7 +79188,7 @@
       </c>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
@@ -79197,32 +79197,32 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K1095" t="n">
-        <v>9500</v>
+        <v>19500</v>
       </c>
       <c r="L1095" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M1095" t="n">
-        <v>9750</v>
+        <v>19750</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1095" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>488</v>
+        <v>1317</v>
       </c>
       <c r="Q1095" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1095" t="inlineStr">
         <is>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1096" t="n">
         <v>4</v>
@@ -79260,7 +79260,7 @@
       </c>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
@@ -79269,32 +79269,32 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="K1096" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="L1096" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M1096" t="n">
-        <v>7750</v>
+        <v>16500</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1096" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>388</v>
+        <v>1100</v>
       </c>
       <c r="Q1096" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1096" t="inlineStr">
         <is>
@@ -79332,7 +79332,7 @@
       </c>
       <c r="H1097" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1097" t="inlineStr">
@@ -79341,32 +79341,32 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="K1097" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L1097" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M1097" t="n">
-        <v>13500</v>
+        <v>8750</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1097" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>900</v>
+        <v>486</v>
       </c>
       <c r="Q1097" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1097" t="inlineStr">
         <is>
@@ -79404,7 +79404,7 @@
       </c>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1098" t="inlineStr">
@@ -79413,32 +79413,32 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K1098" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L1098" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M1098" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1098" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>633</v>
+        <v>375</v>
       </c>
       <c r="Q1098" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1099" t="n">
         <v>4</v>
@@ -79476,7 +79476,7 @@
       </c>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1099" t="inlineStr">
@@ -79485,20 +79485,20 @@
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="K1099" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L1099" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M1099" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1099" t="inlineStr">
@@ -79507,10 +79507,10 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="Q1099" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1099" t="inlineStr">
         <is>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1100" t="n">
         <v>4</v>
@@ -79548,7 +79548,7 @@
       </c>
       <c r="H1100" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1100" t="inlineStr">
@@ -79557,20 +79557,20 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="K1100" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L1100" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1100" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1100" t="inlineStr">
@@ -79579,10 +79579,10 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>319</v>
+        <v>388</v>
       </c>
       <c r="Q1100" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1101" t="n">
         <v>4</v>
@@ -79620,7 +79620,7 @@
       </c>
       <c r="H1101" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1101" t="inlineStr">
@@ -79629,32 +79629,32 @@
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>508</v>
+        <v>760</v>
       </c>
       <c r="K1101" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L1101" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M1101" t="n">
-        <v>11492</v>
+        <v>13500</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1101" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>638</v>
+        <v>900</v>
       </c>
       <c r="Q1101" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1101" t="inlineStr">
         <is>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1102" t="n">
         <v>4</v>
@@ -79692,7 +79692,7 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
@@ -79701,32 +79701,32 @@
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1102" t="n">
         <v>9000</v>
       </c>
       <c r="L1102" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M1102" t="n">
         <v>9500</v>
       </c>
-      <c r="M1102" t="n">
-        <v>9250</v>
-      </c>
       <c r="N1102" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1102" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>514</v>
+        <v>633</v>
       </c>
       <c r="Q1102" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1102" t="inlineStr">
         <is>
@@ -79764,7 +79764,7 @@
       </c>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1103" t="inlineStr">
@@ -79773,32 +79773,32 @@
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="K1103" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L1103" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M1103" t="n">
-        <v>13500</v>
+        <v>8750</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1103" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>900</v>
+        <v>486</v>
       </c>
       <c r="Q1103" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
@@ -79836,7 +79836,7 @@
       </c>
       <c r="H1104" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1104" t="inlineStr">
@@ -79845,32 +79845,32 @@
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="K1104" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L1104" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M1104" t="n">
-        <v>10500</v>
+        <v>5750</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1104" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>700</v>
+        <v>319</v>
       </c>
       <c r="Q1104" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1105" t="n">
         <v>4</v>
@@ -79917,16 +79917,16 @@
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>300</v>
+        <v>508</v>
       </c>
       <c r="K1105" t="n">
-        <v>34000</v>
+        <v>11000</v>
       </c>
       <c r="L1105" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="M1105" t="n">
-        <v>34500</v>
+        <v>11492</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79939,7 +79939,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>1917</v>
+        <v>638</v>
       </c>
       <c r="Q1105" t="n">
         <v>18</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1106" t="n">
         <v>4</v>
@@ -79989,16 +79989,16 @@
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K1106" t="n">
-        <v>29000</v>
+        <v>9000</v>
       </c>
       <c r="L1106" t="n">
-        <v>30000</v>
+        <v>9500</v>
       </c>
       <c r="M1106" t="n">
-        <v>29500</v>
+        <v>9250</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>1639</v>
+        <v>514</v>
       </c>
       <c r="Q1106" t="n">
         <v>18</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1107" t="n">
         <v>4</v>
@@ -80057,20 +80057,20 @@
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="K1107" t="n">
-        <v>27000</v>
+        <v>13000</v>
       </c>
       <c r="L1107" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="M1107" t="n">
-        <v>27500</v>
+        <v>13500</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>1833</v>
+        <v>900</v>
       </c>
       <c r="Q1107" t="n">
         <v>15</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1108" t="n">
         <v>4</v>
@@ -80129,20 +80129,20 @@
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>600</v>
+        <v>460</v>
       </c>
       <c r="K1108" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="L1108" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="M1108" t="n">
-        <v>24500</v>
+        <v>10500</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>1633</v>
+        <v>700</v>
       </c>
       <c r="Q1108" t="n">
         <v>15</v>
@@ -80196,41 +80196,41 @@
       </c>
       <c r="H1109" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K1109" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="L1109" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M1109" t="n">
-        <v>22500</v>
+        <v>34500</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1109" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>1500</v>
+        <v>1917</v>
       </c>
       <c r="Q1109" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1109" t="inlineStr">
         <is>
@@ -80268,41 +80268,41 @@
       </c>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="K1110" t="n">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="L1110" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M1110" t="n">
-        <v>26500</v>
+        <v>29500</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1110" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>1767</v>
+        <v>1639</v>
       </c>
       <c r="Q1110" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1110" t="inlineStr">
         <is>
@@ -80340,25 +80340,25 @@
       </c>
       <c r="H1111" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K1111" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L1111" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M1111" t="n">
-        <v>23500</v>
+        <v>27500</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>1567</v>
+        <v>1833</v>
       </c>
       <c r="Q1111" t="n">
         <v>15</v>
@@ -80412,25 +80412,25 @@
       </c>
       <c r="H1112" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1112" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L1112" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M1112" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>1367</v>
+        <v>1633</v>
       </c>
       <c r="Q1112" t="n">
         <v>15</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1113" t="n">
         <v>4</v>
@@ -80484,41 +80484,41 @@
       </c>
       <c r="H1113" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K1113" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="L1113" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="M1113" t="n">
-        <v>9500</v>
+        <v>22500</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1113" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>528</v>
+        <v>1500</v>
       </c>
       <c r="Q1113" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1113" t="inlineStr">
         <is>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1114" t="n">
         <v>4</v>
@@ -80556,41 +80556,41 @@
       </c>
       <c r="H1114" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>480</v>
+        <v>900</v>
       </c>
       <c r="K1114" t="n">
-        <v>7500</v>
+        <v>26000</v>
       </c>
       <c r="L1114" t="n">
-        <v>8000</v>
+        <v>27000</v>
       </c>
       <c r="M1114" t="n">
-        <v>7750</v>
+        <v>26500</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1114" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>431</v>
+        <v>1767</v>
       </c>
       <c r="Q1114" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1114" t="inlineStr">
         <is>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1115" t="n">
         <v>4</v>
@@ -80628,7 +80628,7 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
@@ -80637,32 +80637,32 @@
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="K1115" t="n">
-        <v>9500</v>
+        <v>23000</v>
       </c>
       <c r="L1115" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="M1115" t="n">
-        <v>9750</v>
+        <v>23500</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1115" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>542</v>
+        <v>1567</v>
       </c>
       <c r="Q1115" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1115" t="inlineStr">
         <is>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1116" t="n">
         <v>4</v>
@@ -80700,7 +80700,7 @@
       </c>
       <c r="H1116" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1116" t="inlineStr">
@@ -80709,32 +80709,32 @@
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K1116" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="L1116" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="M1116" t="n">
-        <v>7250</v>
+        <v>20500</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1116" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>403</v>
+        <v>1367</v>
       </c>
       <c r="Q1116" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1116" t="inlineStr">
         <is>
@@ -80772,7 +80772,7 @@
       </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
@@ -80781,32 +80781,32 @@
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K1117" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L1117" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M1117" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1117" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>900</v>
+        <v>528</v>
       </c>
       <c r="Q1117" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1117" t="inlineStr">
         <is>
@@ -80844,7 +80844,7 @@
       </c>
       <c r="H1118" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1118" t="inlineStr">
@@ -80856,29 +80856,29 @@
         <v>480</v>
       </c>
       <c r="K1118" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L1118" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M1118" t="n">
-        <v>10500</v>
+        <v>7750</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1118" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>700</v>
+        <v>431</v>
       </c>
       <c r="Q1118" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1118" t="inlineStr">
         <is>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1119" t="n">
         <v>4</v>
@@ -80916,7 +80916,7 @@
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1119" t="inlineStr">
@@ -80925,16 +80925,16 @@
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="K1119" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L1119" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M1119" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80947,7 +80947,7 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>750</v>
+        <v>542</v>
       </c>
       <c r="Q1119" t="n">
         <v>18</v>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1120" t="n">
         <v>4</v>
@@ -80988,7 +80988,7 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
@@ -80997,16 +80997,16 @@
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K1120" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L1120" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="M1120" t="n">
-        <v>10250</v>
+        <v>7250</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>569</v>
+        <v>403</v>
       </c>
       <c r="Q1120" t="n">
         <v>18</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1121" t="n">
         <v>4</v>
@@ -81072,13 +81072,13 @@
         <v>800</v>
       </c>
       <c r="K1121" t="n">
-        <v>26500</v>
+        <v>13000</v>
       </c>
       <c r="L1121" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="M1121" t="n">
-        <v>26750</v>
+        <v>13500</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>1783</v>
+        <v>900</v>
       </c>
       <c r="Q1121" t="n">
         <v>15</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1122" t="n">
         <v>4</v>
@@ -81141,16 +81141,16 @@
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K1122" t="n">
-        <v>22500</v>
+        <v>10000</v>
       </c>
       <c r="L1122" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="M1122" t="n">
-        <v>22750</v>
+        <v>10500</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>1517</v>
+        <v>700</v>
       </c>
       <c r="Q1122" t="n">
         <v>15</v>
@@ -81204,41 +81204,41 @@
       </c>
       <c r="H1123" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K1123" t="n">
-        <v>18500</v>
+        <v>13000</v>
       </c>
       <c r="L1123" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M1123" t="n">
-        <v>18750</v>
+        <v>13500</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1123" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="Q1123" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1123" t="inlineStr">
         <is>
@@ -81276,41 +81276,41 @@
       </c>
       <c r="H1124" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1124" t="n">
         <v>600</v>
       </c>
       <c r="K1124" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1124" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M1124" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1124" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>833</v>
+        <v>569</v>
       </c>
       <c r="Q1124" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1124" t="inlineStr">
         <is>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1125" t="n">
         <v>4</v>
@@ -81357,16 +81357,16 @@
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="K1125" t="n">
-        <v>39000</v>
+        <v>26500</v>
       </c>
       <c r="L1125" t="n">
-        <v>40000</v>
+        <v>27000</v>
       </c>
       <c r="M1125" t="n">
-        <v>39500</v>
+        <v>26750</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81379,7 +81379,7 @@
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>2633</v>
+        <v>1783</v>
       </c>
       <c r="Q1125" t="n">
         <v>15</v>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1126" t="n">
         <v>4</v>
@@ -81429,16 +81429,16 @@
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>460</v>
+        <v>600</v>
       </c>
       <c r="K1126" t="n">
-        <v>34000</v>
+        <v>22500</v>
       </c>
       <c r="L1126" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M1126" t="n">
-        <v>34500</v>
+        <v>22750</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81451,7 +81451,7 @@
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>2300</v>
+        <v>1517</v>
       </c>
       <c r="Q1126" t="n">
         <v>15</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1127" t="n">
         <v>4</v>
@@ -81492,25 +81492,25 @@
       </c>
       <c r="H1127" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1127" t="n">
-        <v>27000</v>
+        <v>18500</v>
       </c>
       <c r="L1127" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="M1127" t="n">
-        <v>27500</v>
+        <v>18750</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81523,12 +81523,300 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>1833</v>
+        <v>1250</v>
       </c>
       <c r="Q1127" t="n">
         <v>15</v>
       </c>
       <c r="R1127" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1128" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1128" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1128" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1128" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1128" t="n">
+        <v>600</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L1128" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M1128" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N1128" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1128" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1128" t="n">
+        <v>833</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1128" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1129" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1129" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1129" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1129" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1129" t="n">
+        <v>640</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L1129" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>39500</v>
+      </c>
+      <c r="N1129" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1129" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1129" t="n">
+        <v>2633</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1129" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1130" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1130" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1130" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1130" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1130" t="n">
+        <v>460</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>34000</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>34500</v>
+      </c>
+      <c r="N1130" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1130" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1130" t="n">
+        <v>2300</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1130" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1131" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1131" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1131" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1131" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1131" t="n">
+        <v>600</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>27500</v>
+      </c>
+      <c r="N1131" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1131" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1131" t="n">
+        <v>1833</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1131" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1131"/>
+  <dimension ref="A1:R1138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E963" t="n">
         <v>4</v>
@@ -69684,7 +69684,7 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K963" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="L963" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M963" t="n">
-        <v>34500</v>
+        <v>29500</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>1917</v>
+        <v>1639</v>
       </c>
       <c r="Q963" t="n">
         <v>18</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E964" t="n">
         <v>4</v>
@@ -69756,7 +69756,7 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K964" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L964" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="M964" t="n">
-        <v>32500</v>
+        <v>25500</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>1806</v>
+        <v>1417</v>
       </c>
       <c r="Q964" t="n">
         <v>18</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E965" t="n">
         <v>4</v>
@@ -69840,13 +69840,13 @@
         <v>700</v>
       </c>
       <c r="K965" t="n">
-        <v>39000</v>
+        <v>42000</v>
       </c>
       <c r="L965" t="n">
-        <v>40000</v>
+        <v>43000</v>
       </c>
       <c r="M965" t="n">
-        <v>39500</v>
+        <v>42500</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>2633</v>
+        <v>2833</v>
       </c>
       <c r="Q965" t="n">
         <v>15</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E966" t="n">
         <v>4</v>
@@ -69909,16 +69909,16 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K966" t="n">
-        <v>37000</v>
+        <v>39000</v>
       </c>
       <c r="L966" t="n">
-        <v>38000</v>
+        <v>40000</v>
       </c>
       <c r="M966" t="n">
-        <v>37500</v>
+        <v>39500</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>2500</v>
+        <v>2633</v>
       </c>
       <c r="Q966" t="n">
         <v>15</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E967" t="n">
         <v>4</v>
@@ -69984,13 +69984,13 @@
         <v>440</v>
       </c>
       <c r="K967" t="n">
+        <v>34000</v>
+      </c>
+      <c r="L967" t="n">
         <v>35000</v>
       </c>
-      <c r="L967" t="n">
-        <v>36000</v>
-      </c>
       <c r="M967" t="n">
-        <v>35500</v>
+        <v>34500</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>2367</v>
+        <v>2300</v>
       </c>
       <c r="Q967" t="n">
         <v>15</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E968" t="n">
         <v>4</v>
@@ -70049,20 +70049,20 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K968" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L968" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M968" t="n">
-        <v>29500</v>
+        <v>23500</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>1967</v>
+        <v>1567</v>
       </c>
       <c r="Q968" t="n">
         <v>15</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E969" t="n">
         <v>4</v>
@@ -70121,20 +70121,20 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K969" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="L969" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="M969" t="n">
-        <v>27500</v>
+        <v>19500</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>1833</v>
+        <v>1300</v>
       </c>
       <c r="Q969" t="n">
         <v>15</v>
@@ -70188,41 +70188,41 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K970" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="L970" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M970" t="n">
-        <v>25500</v>
+        <v>34500</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>1700</v>
+        <v>1917</v>
       </c>
       <c r="Q970" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R970" t="inlineStr">
         <is>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E971" t="n">
         <v>4</v>
@@ -70260,25 +70260,25 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K971" t="n">
-        <v>14000</v>
+        <v>32000</v>
       </c>
       <c r="L971" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="M971" t="n">
-        <v>14500</v>
+        <v>32500</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>806</v>
+        <v>1806</v>
       </c>
       <c r="Q971" t="n">
         <v>18</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E972" t="n">
         <v>4</v>
@@ -70332,41 +70332,41 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K972" t="n">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="L972" t="n">
-        <v>13000</v>
+        <v>40000</v>
       </c>
       <c r="M972" t="n">
-        <v>12500</v>
+        <v>39500</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>694</v>
+        <v>2633</v>
       </c>
       <c r="Q972" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E973" t="n">
         <v>4</v>
@@ -70404,41 +70404,41 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K973" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="L973" t="n">
-        <v>11000</v>
+        <v>38000</v>
       </c>
       <c r="M973" t="n">
-        <v>10500</v>
+        <v>37500</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>583</v>
+        <v>2500</v>
       </c>
       <c r="Q973" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R973" t="inlineStr">
         <is>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E974" t="n">
         <v>4</v>
@@ -70476,41 +70476,41 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K974" t="n">
-        <v>19000</v>
+        <v>35000</v>
       </c>
       <c r="L974" t="n">
-        <v>20000</v>
+        <v>36000</v>
       </c>
       <c r="M974" t="n">
-        <v>19500</v>
+        <v>35500</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>975</v>
+        <v>2367</v>
       </c>
       <c r="Q974" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R974" t="inlineStr">
         <is>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E975" t="n">
         <v>4</v>
@@ -70548,41 +70548,41 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K975" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="L975" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M975" t="n">
-        <v>15500</v>
+        <v>29500</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>775</v>
+        <v>1967</v>
       </c>
       <c r="Q975" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R975" t="inlineStr">
         <is>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E976" t="n">
         <v>4</v>
@@ -70620,7 +70620,7 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
@@ -70629,16 +70629,16 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>760</v>
+        <v>600</v>
       </c>
       <c r="K976" t="n">
-        <v>21500</v>
+        <v>27000</v>
       </c>
       <c r="L976" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M976" t="n">
-        <v>21750</v>
+        <v>27500</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>1450</v>
+        <v>1833</v>
       </c>
       <c r="Q976" t="n">
         <v>15</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E977" t="n">
         <v>4</v>
@@ -70692,7 +70692,7 @@
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I977" t="inlineStr">
@@ -70704,13 +70704,13 @@
         <v>400</v>
       </c>
       <c r="K977" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="L977" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="M977" t="n">
-        <v>19500</v>
+        <v>25500</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="Q977" t="n">
         <v>15</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E978" t="n">
         <v>4</v>
@@ -70773,16 +70773,16 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K978" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L978" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M978" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>1083</v>
+        <v>806</v>
       </c>
       <c r="Q978" t="n">
         <v>18</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E979" t="n">
         <v>4</v>
@@ -70848,13 +70848,13 @@
         <v>500</v>
       </c>
       <c r="K979" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L979" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M979" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>972</v>
+        <v>694</v>
       </c>
       <c r="Q979" t="n">
         <v>18</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E980" t="n">
         <v>4</v>
@@ -70917,16 +70917,16 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K980" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L980" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M980" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>861</v>
+        <v>583</v>
       </c>
       <c r="Q980" t="n">
         <v>18</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E981" t="n">
         <v>4</v>
@@ -70989,20 +70989,20 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K981" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L981" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M981" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O981" t="inlineStr">
@@ -71011,10 +71011,10 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>861</v>
+        <v>975</v>
       </c>
       <c r="Q981" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R981" t="inlineStr">
         <is>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E982" t="n">
         <v>4</v>
@@ -71064,17 +71064,17 @@
         <v>400</v>
       </c>
       <c r="K982" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L982" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M982" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O982" t="inlineStr">
@@ -71083,10 +71083,10 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>639</v>
+        <v>775</v>
       </c>
       <c r="Q982" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R982" t="inlineStr">
         <is>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E983" t="n">
         <v>4</v>
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="K983" t="n">
-        <v>15000</v>
+        <v>21500</v>
       </c>
       <c r="L983" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M983" t="n">
-        <v>15500</v>
+        <v>21750</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>1033</v>
+        <v>1450</v>
       </c>
       <c r="Q983" t="n">
         <v>15</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E984" t="n">
         <v>4</v>
@@ -71208,13 +71208,13 @@
         <v>400</v>
       </c>
       <c r="K984" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L984" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M984" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>833</v>
+        <v>1300</v>
       </c>
       <c r="Q984" t="n">
         <v>15</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E985" t="n">
         <v>4</v>
@@ -71268,7 +71268,7 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
@@ -71277,32 +71277,32 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K985" t="n">
-        <v>39000</v>
+        <v>19000</v>
       </c>
       <c r="L985" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M985" t="n">
-        <v>39500</v>
+        <v>19500</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>2633</v>
+        <v>1083</v>
       </c>
       <c r="Q985" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R985" t="inlineStr">
         <is>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E986" t="n">
         <v>4</v>
@@ -71340,7 +71340,7 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
@@ -71349,32 +71349,32 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K986" t="n">
-        <v>37000</v>
+        <v>17000</v>
       </c>
       <c r="L986" t="n">
-        <v>38000</v>
+        <v>18000</v>
       </c>
       <c r="M986" t="n">
-        <v>37500</v>
+        <v>17500</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>2500</v>
+        <v>972</v>
       </c>
       <c r="Q986" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R986" t="inlineStr">
         <is>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E987" t="n">
         <v>4</v>
@@ -71412,7 +71412,7 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
@@ -71421,32 +71421,32 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="K987" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L987" t="n">
-        <v>36000</v>
+        <v>16000</v>
       </c>
       <c r="M987" t="n">
-        <v>35500</v>
+        <v>15500</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>2367</v>
+        <v>861</v>
       </c>
       <c r="Q987" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R987" t="inlineStr">
         <is>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E988" t="n">
         <v>4</v>
@@ -71484,41 +71484,41 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K988" t="n">
-        <v>34000</v>
+        <v>15000</v>
       </c>
       <c r="L988" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="M988" t="n">
-        <v>34500</v>
+        <v>15500</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>2300</v>
+        <v>861</v>
       </c>
       <c r="Q988" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R988" t="inlineStr">
         <is>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E989" t="n">
         <v>4</v>
@@ -71556,41 +71556,41 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K989" t="n">
-        <v>32000</v>
+        <v>11000</v>
       </c>
       <c r="L989" t="n">
-        <v>33000</v>
+        <v>12000</v>
       </c>
       <c r="M989" t="n">
-        <v>32500</v>
+        <v>11500</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>2167</v>
+        <v>639</v>
       </c>
       <c r="Q989" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R989" t="inlineStr">
         <is>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E990" t="n">
         <v>4</v>
@@ -71628,25 +71628,25 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="K990" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="L990" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="M990" t="n">
-        <v>28500</v>
+        <v>15500</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>1900</v>
+        <v>1033</v>
       </c>
       <c r="Q990" t="n">
         <v>15</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E991" t="n">
         <v>4</v>
@@ -71700,41 +71700,41 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K991" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L991" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M991" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>972</v>
+        <v>833</v>
       </c>
       <c r="Q991" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E992" t="n">
         <v>4</v>
@@ -71772,41 +71772,41 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K992" t="n">
-        <v>14000</v>
+        <v>39000</v>
       </c>
       <c r="L992" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="M992" t="n">
-        <v>14500</v>
+        <v>39500</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>806</v>
+        <v>2633</v>
       </c>
       <c r="Q992" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R992" t="inlineStr">
         <is>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E993" t="n">
         <v>4</v>
@@ -71853,16 +71853,16 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="K993" t="n">
-        <v>24000</v>
+        <v>37000</v>
       </c>
       <c r="L993" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M993" t="n">
-        <v>24500</v>
+        <v>37500</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>1633</v>
+        <v>2500</v>
       </c>
       <c r="Q993" t="n">
         <v>15</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E994" t="n">
         <v>4</v>
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K994" t="n">
-        <v>19000</v>
+        <v>35000</v>
       </c>
       <c r="L994" t="n">
-        <v>20000</v>
+        <v>36000</v>
       </c>
       <c r="M994" t="n">
-        <v>19500</v>
+        <v>35500</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>1300</v>
+        <v>2367</v>
       </c>
       <c r="Q994" t="n">
         <v>15</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E995" t="n">
         <v>4</v>
@@ -71988,41 +71988,41 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K995" t="n">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="L995" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="M995" t="n">
-        <v>15500</v>
+        <v>34500</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>861</v>
+        <v>2300</v>
       </c>
       <c r="Q995" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E996" t="n">
         <v>4</v>
@@ -72060,41 +72060,41 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K996" t="n">
-        <v>11000</v>
+        <v>32000</v>
       </c>
       <c r="L996" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="M996" t="n">
-        <v>11500</v>
+        <v>32500</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>639</v>
+        <v>2167</v>
       </c>
       <c r="Q996" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R996" t="inlineStr">
         <is>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E997" t="n">
         <v>4</v>
@@ -72132,25 +72132,25 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K997" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L997" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M997" t="n">
-        <v>22500</v>
+        <v>28500</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="Q997" t="n">
         <v>15</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E998" t="n">
         <v>4</v>
@@ -72209,11 +72209,11 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K998" t="n">
         <v>17000</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E999" t="n">
         <v>4</v>
@@ -72276,25 +72276,25 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K999" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L999" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M999" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>1028</v>
+        <v>806</v>
       </c>
       <c r="Q999" t="n">
         <v>18</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1000" t="n">
         <v>4</v>
@@ -72348,7 +72348,7 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
@@ -72357,32 +72357,32 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="K1000" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="L1000" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M1000" t="n">
-        <v>16500</v>
+        <v>24500</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>917</v>
+        <v>1633</v>
       </c>
       <c r="Q1000" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1001" t="n">
         <v>4</v>
@@ -72420,7 +72420,7 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
@@ -72429,32 +72429,32 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K1001" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L1001" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M1001" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>806</v>
+        <v>1300</v>
       </c>
       <c r="Q1001" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1002" t="n">
         <v>4</v>
@@ -72492,41 +72492,41 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K1002" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L1002" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M1002" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>1167</v>
+        <v>861</v>
       </c>
       <c r="Q1002" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1003" t="n">
         <v>4</v>
@@ -72564,41 +72564,41 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K1003" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L1003" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M1003" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>1033</v>
+        <v>639</v>
       </c>
       <c r="Q1003" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1004" t="n">
         <v>4</v>
@@ -72641,20 +72641,20 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K1004" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L1004" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="M1004" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="Q1004" t="n">
         <v>15</v>
@@ -72708,7 +72708,7 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
@@ -72717,32 +72717,32 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K1005" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L1005" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M1005" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>1033</v>
+        <v>972</v>
       </c>
       <c r="Q1005" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
@@ -72780,41 +72780,41 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K1006" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L1006" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M1006" t="n">
-        <v>13500</v>
+        <v>18500</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>900</v>
+        <v>1028</v>
       </c>
       <c r="Q1006" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1007" t="n">
         <v>4</v>
@@ -72852,7 +72852,7 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
@@ -72861,16 +72861,16 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="K1007" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L1007" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="M1007" t="n">
-        <v>8250</v>
+        <v>16500</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>458</v>
+        <v>917</v>
       </c>
       <c r="Q1007" t="n">
         <v>18</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1008" t="n">
         <v>4</v>
@@ -72924,7 +72924,7 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
@@ -72933,16 +72933,16 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K1008" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L1008" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="M1008" t="n">
-        <v>6250</v>
+        <v>14500</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>347</v>
+        <v>806</v>
       </c>
       <c r="Q1008" t="n">
         <v>18</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1009" t="n">
         <v>4</v>
@@ -72996,41 +72996,41 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1009" t="n">
         <v>700</v>
       </c>
       <c r="K1009" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="L1009" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M1009" t="n">
-        <v>9750</v>
+        <v>17500</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>542</v>
+        <v>1167</v>
       </c>
       <c r="Q1009" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1010" t="n">
         <v>4</v>
@@ -73068,41 +73068,41 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="K1010" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="L1010" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M1010" t="n">
-        <v>7750</v>
+        <v>15500</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>431</v>
+        <v>1033</v>
       </c>
       <c r="Q1010" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1010" t="inlineStr">
         <is>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1011" t="n">
         <v>4</v>
@@ -73145,20 +73145,20 @@
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>760</v>
+        <v>360</v>
       </c>
       <c r="K1011" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L1011" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M1011" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>767</v>
+        <v>900</v>
       </c>
       <c r="Q1011" t="n">
         <v>15</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1012" t="n">
         <v>4</v>
@@ -73212,25 +73212,25 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="K1012" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="L1012" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M1012" t="n">
-        <v>8750</v>
+        <v>15500</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>583</v>
+        <v>1033</v>
       </c>
       <c r="Q1012" t="n">
         <v>15</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1013" t="n">
         <v>4</v>
@@ -73284,7 +73284,7 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
@@ -73293,16 +73293,16 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1013" t="n">
-        <v>41000</v>
+        <v>13000</v>
       </c>
       <c r="L1013" t="n">
-        <v>42000</v>
+        <v>14000</v>
       </c>
       <c r="M1013" t="n">
-        <v>41500</v>
+        <v>13500</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>2767</v>
+        <v>900</v>
       </c>
       <c r="Q1013" t="n">
         <v>15</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1014" t="n">
         <v>4</v>
@@ -73356,7 +73356,7 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
@@ -73365,32 +73365,32 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="K1014" t="n">
-        <v>31000</v>
+        <v>8000</v>
       </c>
       <c r="L1014" t="n">
-        <v>32000</v>
+        <v>8500</v>
       </c>
       <c r="M1014" t="n">
-        <v>31500</v>
+        <v>8250</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>2100</v>
+        <v>458</v>
       </c>
       <c r="Q1014" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1015" t="n">
         <v>4</v>
@@ -73428,7 +73428,7 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
@@ -73440,29 +73440,29 @@
         <v>500</v>
       </c>
       <c r="K1015" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="L1015" t="n">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="M1015" t="n">
-        <v>25500</v>
+        <v>6250</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>1700</v>
+        <v>347</v>
       </c>
       <c r="Q1015" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1015" t="inlineStr">
         <is>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E1016" t="n">
         <v>4</v>
@@ -73505,20 +73505,20 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K1016" t="n">
-        <v>24000</v>
+        <v>9500</v>
       </c>
       <c r="L1016" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M1016" t="n">
-        <v>24500</v>
+        <v>9750</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>1361</v>
+        <v>542</v>
       </c>
       <c r="Q1016" t="n">
         <v>18</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E1017" t="n">
         <v>4</v>
@@ -73577,20 +73577,20 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K1017" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="L1017" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M1017" t="n">
-        <v>19500</v>
+        <v>7750</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>1083</v>
+        <v>431</v>
       </c>
       <c r="Q1017" t="n">
         <v>18</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E1018" t="n">
         <v>4</v>
@@ -73644,41 +73644,41 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K1018" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L1018" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M1018" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>861</v>
+        <v>767</v>
       </c>
       <c r="Q1018" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E1019" t="n">
         <v>4</v>
@@ -73721,20 +73721,20 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="K1019" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="L1019" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="M1019" t="n">
-        <v>18500</v>
+        <v>8750</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>1233</v>
+        <v>583</v>
       </c>
       <c r="Q1019" t="n">
         <v>15</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1020" t="n">
         <v>4</v>
@@ -73800,13 +73800,13 @@
         <v>600</v>
       </c>
       <c r="K1020" t="n">
-        <v>16500</v>
+        <v>41000</v>
       </c>
       <c r="L1020" t="n">
-        <v>17000</v>
+        <v>42000</v>
       </c>
       <c r="M1020" t="n">
-        <v>16750</v>
+        <v>41500</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>1117</v>
+        <v>2767</v>
       </c>
       <c r="Q1020" t="n">
         <v>15</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1021" t="n">
         <v>4</v>
@@ -73860,25 +73860,25 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>500</v>
+        <v>760</v>
       </c>
       <c r="K1021" t="n">
-        <v>14500</v>
+        <v>31000</v>
       </c>
       <c r="L1021" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="M1021" t="n">
-        <v>14750</v>
+        <v>31500</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>983</v>
+        <v>2100</v>
       </c>
       <c r="Q1021" t="n">
         <v>15</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E1022" t="n">
         <v>4</v>
@@ -73932,25 +73932,25 @@
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>740</v>
+        <v>500</v>
       </c>
       <c r="K1022" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="L1022" t="n">
-        <v>41000</v>
+        <v>26000</v>
       </c>
       <c r="M1022" t="n">
-        <v>40500</v>
+        <v>25500</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="Q1022" t="n">
         <v>15</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1023" t="n">
         <v>4</v>
@@ -74004,41 +74004,41 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K1023" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="L1023" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M1023" t="n">
-        <v>34500</v>
+        <v>24500</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>2300</v>
+        <v>1361</v>
       </c>
       <c r="Q1023" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1023" t="inlineStr">
         <is>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1024" t="n">
         <v>4</v>
@@ -74076,7 +74076,7 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
@@ -74085,32 +74085,32 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>660</v>
+        <v>500</v>
       </c>
       <c r="K1024" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="L1024" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="M1024" t="n">
-        <v>30500</v>
+        <v>19500</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1024" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>2033</v>
+        <v>1083</v>
       </c>
       <c r="Q1024" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1024" t="inlineStr">
         <is>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1025" t="n">
         <v>4</v>
@@ -74148,7 +74148,7 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
@@ -74160,29 +74160,29 @@
         <v>400</v>
       </c>
       <c r="K1025" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L1025" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="M1025" t="n">
-        <v>24500</v>
+        <v>15500</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>1633</v>
+        <v>861</v>
       </c>
       <c r="Q1025" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1025" t="inlineStr">
         <is>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E1026" t="n">
         <v>4</v>
@@ -74225,20 +74225,20 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K1026" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="L1026" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="M1026" t="n">
-        <v>26500</v>
+        <v>18500</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>1767</v>
+        <v>1233</v>
       </c>
       <c r="Q1026" t="n">
         <v>15</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E1027" t="n">
         <v>4</v>
@@ -74297,20 +74297,20 @@
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1027" t="n">
-        <v>22000</v>
+        <v>16500</v>
       </c>
       <c r="L1027" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="M1027" t="n">
-        <v>22500</v>
+        <v>16750</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>1500</v>
+        <v>1117</v>
       </c>
       <c r="Q1027" t="n">
         <v>15</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44494</v>
+        <v>44400</v>
       </c>
       <c r="E1028" t="n">
         <v>4</v>
@@ -74369,20 +74369,20 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K1028" t="n">
-        <v>40000</v>
+        <v>14500</v>
       </c>
       <c r="L1028" t="n">
-        <v>41000</v>
+        <v>15000</v>
       </c>
       <c r="M1028" t="n">
-        <v>40500</v>
+        <v>14750</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>2700</v>
+        <v>983</v>
       </c>
       <c r="Q1028" t="n">
         <v>15</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1029" t="n">
         <v>4</v>
@@ -74441,20 +74441,20 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>400</v>
+        <v>740</v>
       </c>
       <c r="K1029" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="L1029" t="n">
-        <v>36000</v>
+        <v>41000</v>
       </c>
       <c r="M1029" t="n">
-        <v>35500</v>
+        <v>40500</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>2367</v>
+        <v>2700</v>
       </c>
       <c r="Q1029" t="n">
         <v>15</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E1030" t="n">
         <v>4</v>
@@ -74508,41 +74508,41 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>760</v>
+        <v>480</v>
       </c>
       <c r="K1030" t="n">
-        <v>14000</v>
+        <v>34000</v>
       </c>
       <c r="L1030" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M1030" t="n">
-        <v>14500</v>
+        <v>34500</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>806</v>
+        <v>2300</v>
       </c>
       <c r="Q1030" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E1031" t="n">
         <v>4</v>
@@ -74580,7 +74580,7 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
@@ -74589,32 +74589,32 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="K1031" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L1031" t="n">
-        <v>13000</v>
+        <v>31000</v>
       </c>
       <c r="M1031" t="n">
-        <v>12500</v>
+        <v>30500</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>694</v>
+        <v>2033</v>
       </c>
       <c r="Q1031" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1031" t="inlineStr">
         <is>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E1032" t="n">
         <v>4</v>
@@ -74652,7 +74652,7 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
@@ -74664,29 +74664,29 @@
         <v>400</v>
       </c>
       <c r="K1032" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="L1032" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="M1032" t="n">
-        <v>10500</v>
+        <v>24500</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>583</v>
+        <v>1633</v>
       </c>
       <c r="Q1032" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1032" t="inlineStr">
         <is>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E1033" t="n">
         <v>4</v>
@@ -74724,7 +74724,7 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
@@ -74733,32 +74733,32 @@
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K1033" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="L1033" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M1033" t="n">
-        <v>19500</v>
+        <v>26500</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1033" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>975</v>
+        <v>1767</v>
       </c>
       <c r="Q1033" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1033" t="inlineStr">
         <is>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E1034" t="n">
         <v>4</v>
@@ -74796,7 +74796,7 @@
       </c>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
@@ -74808,29 +74808,29 @@
         <v>400</v>
       </c>
       <c r="K1034" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="L1034" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="M1034" t="n">
-        <v>15500</v>
+        <v>22500</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1034" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>775</v>
+        <v>1500</v>
       </c>
       <c r="Q1034" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1034" t="inlineStr">
         <is>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1035" t="n">
         <v>4</v>
@@ -74877,16 +74877,16 @@
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1035" t="n">
-        <v>21500</v>
+        <v>40000</v>
       </c>
       <c r="L1035" t="n">
-        <v>22000</v>
+        <v>41000</v>
       </c>
       <c r="M1035" t="n">
-        <v>21750</v>
+        <v>40500</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>1450</v>
+        <v>2700</v>
       </c>
       <c r="Q1035" t="n">
         <v>15</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1036" t="n">
         <v>4</v>
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K1036" t="n">
-        <v>19000</v>
+        <v>35000</v>
       </c>
       <c r="L1036" t="n">
-        <v>20000</v>
+        <v>36000</v>
       </c>
       <c r="M1036" t="n">
-        <v>19500</v>
+        <v>35500</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>1300</v>
+        <v>2367</v>
       </c>
       <c r="Q1036" t="n">
         <v>15</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1037" t="n">
         <v>4</v>
@@ -75012,7 +75012,7 @@
       </c>
       <c r="H1037" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1037" t="inlineStr">
@@ -75021,16 +75021,16 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K1037" t="n">
-        <v>42000</v>
+        <v>14000</v>
       </c>
       <c r="L1037" t="n">
-        <v>43000</v>
+        <v>15000</v>
       </c>
       <c r="M1037" t="n">
-        <v>42500</v>
+        <v>14500</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>2361</v>
+        <v>806</v>
       </c>
       <c r="Q1037" t="n">
         <v>18</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1038" t="n">
         <v>4</v>
@@ -75084,7 +75084,7 @@
       </c>
       <c r="H1038" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1038" t="inlineStr">
@@ -75093,16 +75093,16 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>240</v>
+        <v>560</v>
       </c>
       <c r="K1038" t="n">
-        <v>39000</v>
+        <v>12000</v>
       </c>
       <c r="L1038" t="n">
-        <v>40000</v>
+        <v>13000</v>
       </c>
       <c r="M1038" t="n">
-        <v>39500</v>
+        <v>12500</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>2194</v>
+        <v>694</v>
       </c>
       <c r="Q1038" t="n">
         <v>18</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1039" t="n">
         <v>4</v>
@@ -75156,41 +75156,41 @@
       </c>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1039" t="n">
-        <v>39000</v>
+        <v>10000</v>
       </c>
       <c r="L1039" t="n">
-        <v>40000</v>
+        <v>11000</v>
       </c>
       <c r="M1039" t="n">
-        <v>39500</v>
+        <v>10500</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1039" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>2633</v>
+        <v>583</v>
       </c>
       <c r="Q1039" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1040" t="n">
         <v>4</v>
@@ -75228,7 +75228,7 @@
       </c>
       <c r="H1040" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1040" t="inlineStr">
@@ -75240,29 +75240,29 @@
         <v>600</v>
       </c>
       <c r="K1040" t="n">
-        <v>37000</v>
+        <v>19000</v>
       </c>
       <c r="L1040" t="n">
-        <v>38000</v>
+        <v>20000</v>
       </c>
       <c r="M1040" t="n">
-        <v>37500</v>
+        <v>19500</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1040" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>2500</v>
+        <v>975</v>
       </c>
       <c r="Q1040" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1040" t="inlineStr">
         <is>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1041" t="n">
         <v>4</v>
@@ -75300,7 +75300,7 @@
       </c>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
@@ -75312,29 +75312,29 @@
         <v>400</v>
       </c>
       <c r="K1041" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L1041" t="n">
-        <v>36000</v>
+        <v>16000</v>
       </c>
       <c r="M1041" t="n">
-        <v>35500</v>
+        <v>15500</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1041" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>2367</v>
+        <v>775</v>
       </c>
       <c r="Q1041" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1041" t="inlineStr">
         <is>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1042" t="n">
         <v>4</v>
@@ -75372,25 +75372,25 @@
       </c>
       <c r="H1042" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1042" t="n">
-        <v>34000</v>
+        <v>21500</v>
       </c>
       <c r="L1042" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M1042" t="n">
-        <v>34500</v>
+        <v>21750</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>2300</v>
+        <v>1450</v>
       </c>
       <c r="Q1042" t="n">
         <v>15</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1043" t="n">
         <v>4</v>
@@ -75444,25 +75444,25 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="K1043" t="n">
-        <v>32000</v>
+        <v>19000</v>
       </c>
       <c r="L1043" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="M1043" t="n">
-        <v>32500</v>
+        <v>19500</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>2167</v>
+        <v>1300</v>
       </c>
       <c r="Q1043" t="n">
         <v>15</v>
@@ -75516,41 +75516,41 @@
       </c>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1044" t="n">
         <v>400</v>
       </c>
       <c r="K1044" t="n">
-        <v>29000</v>
+        <v>42000</v>
       </c>
       <c r="L1044" t="n">
-        <v>30000</v>
+        <v>43000</v>
       </c>
       <c r="M1044" t="n">
-        <v>29500</v>
+        <v>42500</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1044" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>1967</v>
+        <v>2361</v>
       </c>
       <c r="Q1044" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1044" t="inlineStr">
         <is>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1045" t="n">
         <v>4</v>
@@ -75588,7 +75588,7 @@
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1045" t="inlineStr">
@@ -75597,16 +75597,16 @@
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>760</v>
+        <v>240</v>
       </c>
       <c r="K1045" t="n">
-        <v>11500</v>
+        <v>39000</v>
       </c>
       <c r="L1045" t="n">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="M1045" t="n">
-        <v>11750</v>
+        <v>39500</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>653</v>
+        <v>2194</v>
       </c>
       <c r="Q1045" t="n">
         <v>18</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1046" t="n">
         <v>4</v>
@@ -75660,41 +75660,41 @@
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="K1046" t="n">
-        <v>9500</v>
+        <v>39000</v>
       </c>
       <c r="L1046" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="M1046" t="n">
-        <v>9750</v>
+        <v>39500</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1046" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>542</v>
+        <v>2633</v>
       </c>
       <c r="Q1046" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1046" t="inlineStr">
         <is>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1047" t="n">
         <v>4</v>
@@ -75732,7 +75732,7 @@
       </c>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1047" t="inlineStr">
@@ -75741,32 +75741,32 @@
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>760</v>
+        <v>600</v>
       </c>
       <c r="K1047" t="n">
-        <v>14000</v>
+        <v>37000</v>
       </c>
       <c r="L1047" t="n">
-        <v>15000</v>
+        <v>38000</v>
       </c>
       <c r="M1047" t="n">
-        <v>14500</v>
+        <v>37500</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1047" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>725</v>
+        <v>2500</v>
       </c>
       <c r="Q1047" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1048" t="n">
         <v>4</v>
@@ -75804,7 +75804,7 @@
       </c>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
@@ -75813,32 +75813,32 @@
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K1048" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="L1048" t="n">
-        <v>11000</v>
+        <v>36000</v>
       </c>
       <c r="M1048" t="n">
-        <v>10500</v>
+        <v>35500</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1048" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>525</v>
+        <v>2367</v>
       </c>
       <c r="Q1048" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1048" t="inlineStr">
         <is>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1049" t="n">
         <v>4</v>
@@ -75876,25 +75876,25 @@
       </c>
       <c r="H1049" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1049" t="n">
         <v>800</v>
       </c>
       <c r="K1049" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L1049" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M1049" t="n">
-        <v>24500</v>
+        <v>34500</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>1633</v>
+        <v>2300</v>
       </c>
       <c r="Q1049" t="n">
         <v>15</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1050" t="n">
         <v>4</v>
@@ -75948,25 +75948,25 @@
       </c>
       <c r="H1050" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="K1050" t="n">
-        <v>19000</v>
+        <v>32000</v>
       </c>
       <c r="L1050" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="M1050" t="n">
-        <v>19500</v>
+        <v>32500</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>1300</v>
+        <v>2167</v>
       </c>
       <c r="Q1050" t="n">
         <v>15</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1051" t="n">
         <v>4</v>
@@ -76020,41 +76020,41 @@
       </c>
       <c r="H1051" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1051" t="n">
-        <v>9000</v>
+        <v>29000</v>
       </c>
       <c r="L1051" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M1051" t="n">
-        <v>9500</v>
+        <v>29500</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1051" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>528</v>
+        <v>1967</v>
       </c>
       <c r="Q1051" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1051" t="inlineStr">
         <is>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1052" t="n">
         <v>4</v>
@@ -76097,20 +76097,20 @@
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>460</v>
+        <v>760</v>
       </c>
       <c r="K1052" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L1052" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M1052" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q1052" t="n">
         <v>18</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1053" t="n">
         <v>4</v>
@@ -76164,25 +76164,25 @@
       </c>
       <c r="H1053" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="K1053" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L1053" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="M1053" t="n">
-        <v>9250</v>
+        <v>9750</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="Q1053" t="n">
         <v>18</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1054" t="n">
         <v>4</v>
@@ -76241,24 +76241,24 @@
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K1054" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L1054" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="M1054" t="n">
-        <v>7250</v>
+        <v>14500</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1054" t="inlineStr">
@@ -76267,10 +76267,10 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>403</v>
+        <v>725</v>
       </c>
       <c r="Q1054" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1054" t="inlineStr">
         <is>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1055" t="n">
         <v>4</v>
@@ -76308,41 +76308,41 @@
       </c>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>720</v>
+        <v>440</v>
       </c>
       <c r="K1055" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L1055" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M1055" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1055" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>900</v>
+        <v>525</v>
       </c>
       <c r="Q1055" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1055" t="inlineStr">
         <is>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1056" t="n">
         <v>4</v>
@@ -76385,20 +76385,20 @@
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>460</v>
+        <v>800</v>
       </c>
       <c r="K1056" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="L1056" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="M1056" t="n">
-        <v>10500</v>
+        <v>24500</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>700</v>
+        <v>1633</v>
       </c>
       <c r="Q1056" t="n">
         <v>15</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E1057" t="n">
         <v>4</v>
@@ -76452,41 +76452,41 @@
       </c>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>700</v>
+        <v>460</v>
       </c>
       <c r="K1057" t="n">
-        <v>11500</v>
+        <v>19000</v>
       </c>
       <c r="L1057" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M1057" t="n">
-        <v>11750</v>
+        <v>19500</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1057" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>653</v>
+        <v>1300</v>
       </c>
       <c r="Q1057" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1057" t="inlineStr">
         <is>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1058" t="n">
         <v>4</v>
@@ -76529,20 +76529,20 @@
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K1058" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L1058" t="n">
         <v>10000</v>
       </c>
       <c r="M1058" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="Q1058" t="n">
         <v>18</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1059" t="n">
         <v>4</v>
@@ -76596,29 +76596,29 @@
       </c>
       <c r="H1059" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>700</v>
+        <v>460</v>
       </c>
       <c r="K1059" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="L1059" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M1059" t="n">
-        <v>14750</v>
+        <v>7750</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1059" t="inlineStr">
@@ -76627,10 +76627,10 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>738</v>
+        <v>431</v>
       </c>
       <c r="Q1059" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1059" t="inlineStr">
         <is>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1060" t="n">
         <v>4</v>
@@ -76673,24 +76673,24 @@
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="K1060" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L1060" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="M1060" t="n">
-        <v>10250</v>
+        <v>9250</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1060" t="inlineStr">
@@ -76699,10 +76699,10 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="Q1060" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1060" t="inlineStr">
         <is>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1061" t="n">
         <v>4</v>
@@ -76740,41 +76740,41 @@
       </c>
       <c r="H1061" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>660</v>
+        <v>400</v>
       </c>
       <c r="K1061" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="L1061" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="M1061" t="n">
-        <v>24500</v>
+        <v>7250</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1061" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>1633</v>
+        <v>403</v>
       </c>
       <c r="Q1061" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1061" t="inlineStr">
         <is>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1062" t="n">
         <v>4</v>
@@ -76817,20 +76817,20 @@
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="K1062" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L1062" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M1062" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76843,7 +76843,7 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="Q1062" t="n">
         <v>15</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1063" t="n">
         <v>4</v>
@@ -76884,41 +76884,41 @@
       </c>
       <c r="H1063" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="K1063" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L1063" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1063" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1063" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>472</v>
+        <v>700</v>
       </c>
       <c r="Q1063" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1063" t="inlineStr">
         <is>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1064" t="n">
         <v>4</v>
@@ -76961,20 +76961,20 @@
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K1064" t="n">
-        <v>5000</v>
+        <v>11500</v>
       </c>
       <c r="L1064" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M1064" t="n">
-        <v>5500</v>
+        <v>11750</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>306</v>
+        <v>653</v>
       </c>
       <c r="Q1064" t="n">
         <v>18</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1065" t="n">
         <v>4</v>
@@ -77028,25 +77028,25 @@
       </c>
       <c r="H1065" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="K1065" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L1065" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M1065" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q1065" t="n">
         <v>18</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1066" t="n">
         <v>4</v>
@@ -77105,24 +77105,24 @@
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>380</v>
+        <v>700</v>
       </c>
       <c r="K1066" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="L1066" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M1066" t="n">
-        <v>8500</v>
+        <v>14750</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1066" t="inlineStr">
@@ -77131,10 +77131,10 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>472</v>
+        <v>738</v>
       </c>
       <c r="Q1066" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1066" t="inlineStr">
         <is>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1067" t="n">
         <v>4</v>
@@ -77172,41 +77172,41 @@
       </c>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>600</v>
+        <v>460</v>
       </c>
       <c r="K1067" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L1067" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="M1067" t="n">
-        <v>13500</v>
+        <v>10250</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1067" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>900</v>
+        <v>512</v>
       </c>
       <c r="Q1067" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1067" t="inlineStr">
         <is>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1068" t="n">
         <v>4</v>
@@ -77249,20 +77249,20 @@
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>400</v>
+        <v>660</v>
       </c>
       <c r="K1068" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="L1068" t="n">
-        <v>10500</v>
+        <v>25000</v>
       </c>
       <c r="M1068" t="n">
-        <v>10250</v>
+        <v>24500</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>683</v>
+        <v>1633</v>
       </c>
       <c r="Q1068" t="n">
         <v>15</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1069" t="n">
         <v>4</v>
@@ -77316,41 +77316,41 @@
       </c>
       <c r="H1069" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K1069" t="n">
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="L1069" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M1069" t="n">
-        <v>9750</v>
+        <v>19500</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1069" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>542</v>
+        <v>1300</v>
       </c>
       <c r="Q1069" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1069" t="inlineStr">
         <is>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1070" t="n">
         <v>4</v>
@@ -77393,20 +77393,20 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="K1070" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L1070" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M1070" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="Q1070" t="n">
         <v>18</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1071" t="n">
         <v>4</v>
@@ -77460,25 +77460,25 @@
       </c>
       <c r="H1071" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K1071" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L1071" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M1071" t="n">
-        <v>9750</v>
+        <v>5500</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>542</v>
+        <v>306</v>
       </c>
       <c r="Q1071" t="n">
         <v>18</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1072" t="n">
         <v>4</v>
@@ -77537,20 +77537,20 @@
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K1072" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L1072" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M1072" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q1072" t="n">
         <v>18</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1073" t="n">
         <v>4</v>
@@ -77609,20 +77609,20 @@
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K1073" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L1073" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1073" t="n">
-        <v>5750</v>
+        <v>8500</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>319</v>
+        <v>472</v>
       </c>
       <c r="Q1073" t="n">
         <v>18</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1074" t="n">
         <v>4</v>
@@ -77685,16 +77685,16 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K1074" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="L1074" t="n">
         <v>14000</v>
       </c>
       <c r="M1074" t="n">
-        <v>13750</v>
+        <v>13500</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="Q1074" t="n">
         <v>15</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1075" t="n">
         <v>4</v>
@@ -77757,16 +77757,16 @@
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K1075" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L1075" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="M1075" t="n">
-        <v>9750</v>
+        <v>10250</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>650</v>
+        <v>683</v>
       </c>
       <c r="Q1075" t="n">
         <v>15</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1076" t="n">
         <v>4</v>
@@ -77829,16 +77829,16 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="K1076" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L1076" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M1076" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q1076" t="n">
         <v>18</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1077" t="n">
         <v>4</v>
@@ -77901,16 +77901,16 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K1077" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L1077" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M1077" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q1077" t="n">
         <v>18</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1078" t="n">
         <v>4</v>
@@ -77964,7 +77964,7 @@
       </c>
       <c r="H1078" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1078" t="inlineStr">
@@ -77973,32 +77973,32 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K1078" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="L1078" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M1078" t="n">
-        <v>16500</v>
+        <v>9750</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1078" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>1100</v>
+        <v>542</v>
       </c>
       <c r="Q1078" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1079" t="n">
         <v>4</v>
@@ -78036,7 +78036,7 @@
       </c>
       <c r="H1079" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1079" t="inlineStr">
@@ -78045,32 +78045,32 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1079" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L1079" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="M1079" t="n">
-        <v>13250</v>
+        <v>7750</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1079" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>883</v>
+        <v>431</v>
       </c>
       <c r="Q1079" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1079" t="inlineStr">
         <is>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E1080" t="n">
         <v>4</v>
@@ -78113,20 +78113,20 @@
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1080" t="n">
-        <v>34000</v>
+        <v>5500</v>
       </c>
       <c r="L1080" t="n">
-        <v>35000</v>
+        <v>6000</v>
       </c>
       <c r="M1080" t="n">
-        <v>34500</v>
+        <v>5750</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>1917</v>
+        <v>319</v>
       </c>
       <c r="Q1080" t="n">
         <v>18</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E1081" t="n">
         <v>4</v>
@@ -78180,7 +78180,7 @@
       </c>
       <c r="H1081" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1081" t="inlineStr">
@@ -78189,32 +78189,32 @@
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K1081" t="n">
-        <v>32000</v>
+        <v>13500</v>
       </c>
       <c r="L1081" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="M1081" t="n">
-        <v>32500</v>
+        <v>13750</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1081" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>1806</v>
+        <v>917</v>
       </c>
       <c r="Q1081" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1081" t="inlineStr">
         <is>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E1082" t="n">
         <v>4</v>
@@ -78252,7 +78252,7 @@
       </c>
       <c r="H1082" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1082" t="inlineStr">
@@ -78261,32 +78261,32 @@
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K1082" t="n">
-        <v>30000</v>
+        <v>9500</v>
       </c>
       <c r="L1082" t="n">
-        <v>31000</v>
+        <v>10000</v>
       </c>
       <c r="M1082" t="n">
-        <v>30500</v>
+        <v>9750</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1082" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>1694</v>
+        <v>650</v>
       </c>
       <c r="Q1082" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1082" t="inlineStr">
         <is>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1083" t="n">
         <v>4</v>
@@ -78324,41 +78324,41 @@
       </c>
       <c r="H1083" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="K1083" t="n">
-        <v>40000</v>
+        <v>11500</v>
       </c>
       <c r="L1083" t="n">
-        <v>41000</v>
+        <v>12000</v>
       </c>
       <c r="M1083" t="n">
-        <v>40500</v>
+        <v>11750</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1083" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>2700</v>
+        <v>653</v>
       </c>
       <c r="Q1083" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1083" t="inlineStr">
         <is>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1084" t="n">
         <v>4</v>
@@ -78396,41 +78396,41 @@
       </c>
       <c r="H1084" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1084" t="n">
-        <v>38000</v>
+        <v>8500</v>
       </c>
       <c r="L1084" t="n">
-        <v>39000</v>
+        <v>9000</v>
       </c>
       <c r="M1084" t="n">
-        <v>38500</v>
+        <v>8750</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1084" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>2567</v>
+        <v>486</v>
       </c>
       <c r="Q1084" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1084" t="inlineStr">
         <is>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1085" t="n">
         <v>4</v>
@@ -78473,20 +78473,20 @@
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K1085" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="L1085" t="n">
-        <v>36000</v>
+        <v>17000</v>
       </c>
       <c r="M1085" t="n">
-        <v>35500</v>
+        <v>16500</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>2367</v>
+        <v>1100</v>
       </c>
       <c r="Q1085" t="n">
         <v>15</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E1086" t="n">
         <v>4</v>
@@ -78540,41 +78540,41 @@
       </c>
       <c r="H1086" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K1086" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L1086" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="M1086" t="n">
-        <v>15500</v>
+        <v>13250</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1086" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>861</v>
+        <v>883</v>
       </c>
       <c r="Q1086" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1086" t="inlineStr">
         <is>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1087" t="n">
         <v>4</v>
@@ -78617,20 +78617,20 @@
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K1087" t="n">
-        <v>12000</v>
+        <v>34000</v>
       </c>
       <c r="L1087" t="n">
-        <v>12500</v>
+        <v>35000</v>
       </c>
       <c r="M1087" t="n">
-        <v>12250</v>
+        <v>34500</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78643,7 +78643,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>681</v>
+        <v>1917</v>
       </c>
       <c r="Q1087" t="n">
         <v>18</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1088" t="n">
         <v>4</v>
@@ -78684,7 +78684,7 @@
       </c>
       <c r="H1088" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1088" t="inlineStr">
@@ -78693,32 +78693,32 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="K1088" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="L1088" t="n">
-        <v>16000</v>
+        <v>33000</v>
       </c>
       <c r="M1088" t="n">
-        <v>15500</v>
+        <v>32500</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1088" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>1033</v>
+        <v>1806</v>
       </c>
       <c r="Q1088" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1088" t="inlineStr">
         <is>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1089" t="n">
         <v>4</v>
@@ -78756,7 +78756,7 @@
       </c>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1089" t="inlineStr">
@@ -78768,29 +78768,29 @@
         <v>400</v>
       </c>
       <c r="K1089" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L1089" t="n">
-        <v>12500</v>
+        <v>31000</v>
       </c>
       <c r="M1089" t="n">
-        <v>12250</v>
+        <v>30500</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1089" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>817</v>
+        <v>1694</v>
       </c>
       <c r="Q1089" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1089" t="inlineStr">
         <is>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1090" t="n">
         <v>4</v>
@@ -78828,25 +78828,25 @@
       </c>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K1090" t="n">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="L1090" t="n">
-        <v>13000</v>
+        <v>41000</v>
       </c>
       <c r="M1090" t="n">
-        <v>12500</v>
+        <v>40500</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>833</v>
+        <v>2700</v>
       </c>
       <c r="Q1090" t="n">
         <v>15</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1091" t="n">
         <v>4</v>
@@ -78900,25 +78900,25 @@
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1091" t="n">
-        <v>10000</v>
+        <v>38000</v>
       </c>
       <c r="L1091" t="n">
-        <v>10500</v>
+        <v>39000</v>
       </c>
       <c r="M1091" t="n">
-        <v>10250</v>
+        <v>38500</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>683</v>
+        <v>2567</v>
       </c>
       <c r="Q1091" t="n">
         <v>15</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1092" t="n">
         <v>4</v>
@@ -78972,41 +78972,41 @@
       </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="K1092" t="n">
-        <v>9500</v>
+        <v>35000</v>
       </c>
       <c r="L1092" t="n">
-        <v>10000</v>
+        <v>36000</v>
       </c>
       <c r="M1092" t="n">
-        <v>9750</v>
+        <v>35500</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1092" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>542</v>
+        <v>2367</v>
       </c>
       <c r="Q1092" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1093" t="n">
         <v>4</v>
@@ -79044,25 +79044,25 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K1093" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L1093" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="M1093" t="n">
-        <v>7250</v>
+        <v>15500</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>403</v>
+        <v>861</v>
       </c>
       <c r="Q1093" t="n">
         <v>18</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1094" t="n">
         <v>4</v>
@@ -79121,20 +79121,20 @@
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>700</v>
+        <v>440</v>
       </c>
       <c r="K1094" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L1094" t="n">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="M1094" t="n">
-        <v>19500</v>
+        <v>12250</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>1083</v>
+        <v>681</v>
       </c>
       <c r="Q1094" t="n">
         <v>18</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1095" t="n">
         <v>4</v>
@@ -79197,16 +79197,16 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="K1095" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="L1095" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M1095" t="n">
-        <v>19750</v>
+        <v>15500</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>1317</v>
+        <v>1033</v>
       </c>
       <c r="Q1095" t="n">
         <v>15</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1096" t="n">
         <v>4</v>
@@ -79269,16 +79269,16 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K1096" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L1096" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="M1096" t="n">
-        <v>16500</v>
+        <v>12250</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>1100</v>
+        <v>817</v>
       </c>
       <c r="Q1096" t="n">
         <v>15</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1097" t="n">
         <v>4</v>
@@ -79332,7 +79332,7 @@
       </c>
       <c r="H1097" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1097" t="inlineStr">
@@ -79341,32 +79341,32 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>740</v>
+        <v>600</v>
       </c>
       <c r="K1097" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L1097" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M1097" t="n">
-        <v>8750</v>
+        <v>12500</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1097" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>486</v>
+        <v>833</v>
       </c>
       <c r="Q1097" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1097" t="inlineStr">
         <is>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1098" t="n">
         <v>4</v>
@@ -79404,7 +79404,7 @@
       </c>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1098" t="inlineStr">
@@ -79413,32 +79413,32 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K1098" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L1098" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="M1098" t="n">
-        <v>6750</v>
+        <v>10250</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1098" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>375</v>
+        <v>683</v>
       </c>
       <c r="Q1098" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1099" t="n">
         <v>4</v>
@@ -79476,7 +79476,7 @@
       </c>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1099" t="inlineStr">
@@ -79485,7 +79485,7 @@
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K1099" t="n">
         <v>9500</v>
@@ -79498,7 +79498,7 @@
       </c>
       <c r="N1099" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1099" t="inlineStr">
@@ -79507,10 +79507,10 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="Q1099" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1099" t="inlineStr">
         <is>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1100" t="n">
         <v>4</v>
@@ -79548,7 +79548,7 @@
       </c>
       <c r="H1100" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1100" t="inlineStr">
@@ -79557,20 +79557,20 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="K1100" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1100" t="n">
         <v>7500</v>
       </c>
-      <c r="L1100" t="n">
-        <v>8000</v>
-      </c>
       <c r="M1100" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1100" t="inlineStr">
@@ -79579,10 +79579,10 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="Q1100" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1101" t="n">
         <v>4</v>
@@ -79620,7 +79620,7 @@
       </c>
       <c r="H1101" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1101" t="inlineStr">
@@ -79629,32 +79629,32 @@
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="K1101" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L1101" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M1101" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1101" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>900</v>
+        <v>1083</v>
       </c>
       <c r="Q1101" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1101" t="inlineStr">
         <is>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1102" t="n">
         <v>4</v>
@@ -79697,20 +79697,20 @@
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K1102" t="n">
-        <v>9000</v>
+        <v>19500</v>
       </c>
       <c r="L1102" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M1102" t="n">
-        <v>9500</v>
+        <v>19750</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>633</v>
+        <v>1317</v>
       </c>
       <c r="Q1102" t="n">
         <v>15</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1103" t="n">
         <v>4</v>
@@ -79764,41 +79764,41 @@
       </c>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K1103" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="L1103" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M1103" t="n">
-        <v>8750</v>
+        <v>16500</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1103" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>486</v>
+        <v>1100</v>
       </c>
       <c r="Q1103" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1104" t="n">
         <v>4</v>
@@ -79841,20 +79841,20 @@
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>480</v>
+        <v>740</v>
       </c>
       <c r="K1104" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L1104" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1104" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q1104" t="n">
         <v>18</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1105" t="n">
         <v>4</v>
@@ -79908,25 +79908,25 @@
       </c>
       <c r="H1105" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="K1105" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L1105" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M1105" t="n">
-        <v>11492</v>
+        <v>6750</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79939,7 +79939,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>638</v>
+        <v>375</v>
       </c>
       <c r="Q1105" t="n">
         <v>18</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1106" t="n">
         <v>4</v>
@@ -79985,24 +79985,24 @@
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="K1106" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L1106" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="M1106" t="n">
-        <v>9250</v>
+        <v>9750</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1106" t="inlineStr">
@@ -80011,10 +80011,10 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="Q1106" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1106" t="inlineStr">
         <is>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1107" t="n">
         <v>4</v>
@@ -80052,41 +80052,41 @@
       </c>
       <c r="H1107" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>720</v>
+        <v>460</v>
       </c>
       <c r="K1107" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L1107" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M1107" t="n">
-        <v>13500</v>
+        <v>7750</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1107" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>900</v>
+        <v>388</v>
       </c>
       <c r="Q1107" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1107" t="inlineStr">
         <is>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1108" t="n">
         <v>4</v>
@@ -80129,20 +80129,20 @@
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>460</v>
+        <v>760</v>
       </c>
       <c r="K1108" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L1108" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M1108" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q1108" t="n">
         <v>15</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1109" t="n">
         <v>4</v>
@@ -80196,41 +80196,41 @@
       </c>
       <c r="H1109" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K1109" t="n">
-        <v>34000</v>
+        <v>9000</v>
       </c>
       <c r="L1109" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="M1109" t="n">
-        <v>34500</v>
+        <v>9500</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1109" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>1917</v>
+        <v>633</v>
       </c>
       <c r="Q1109" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1109" t="inlineStr">
         <is>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1110" t="n">
         <v>4</v>
@@ -80268,25 +80268,25 @@
       </c>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K1110" t="n">
-        <v>29000</v>
+        <v>8500</v>
       </c>
       <c r="L1110" t="n">
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="M1110" t="n">
-        <v>29500</v>
+        <v>8750</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>1639</v>
+        <v>486</v>
       </c>
       <c r="Q1110" t="n">
         <v>18</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1111" t="n">
         <v>4</v>
@@ -80340,41 +80340,41 @@
       </c>
       <c r="H1111" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="K1111" t="n">
-        <v>27000</v>
+        <v>5500</v>
       </c>
       <c r="L1111" t="n">
-        <v>28000</v>
+        <v>6000</v>
       </c>
       <c r="M1111" t="n">
-        <v>27500</v>
+        <v>5750</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1111" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>1833</v>
+        <v>319</v>
       </c>
       <c r="Q1111" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1111" t="inlineStr">
         <is>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1112" t="n">
         <v>4</v>
@@ -80412,7 +80412,7 @@
       </c>
       <c r="H1112" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1112" t="inlineStr">
@@ -80421,32 +80421,32 @@
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>600</v>
+        <v>508</v>
       </c>
       <c r="K1112" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="L1112" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M1112" t="n">
-        <v>24500</v>
+        <v>11492</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1112" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>1633</v>
+        <v>638</v>
       </c>
       <c r="Q1112" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1112" t="inlineStr">
         <is>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1113" t="n">
         <v>4</v>
@@ -80484,7 +80484,7 @@
       </c>
       <c r="H1113" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1113" t="inlineStr">
@@ -80493,32 +80493,32 @@
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K1113" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="L1113" t="n">
-        <v>23000</v>
+        <v>9500</v>
       </c>
       <c r="M1113" t="n">
-        <v>22500</v>
+        <v>9250</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1113" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>1500</v>
+        <v>514</v>
       </c>
       <c r="Q1113" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1113" t="inlineStr">
         <is>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1114" t="n">
         <v>4</v>
@@ -80556,38 +80556,38 @@
       </c>
       <c r="H1114" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1114" t="n">
+        <v>720</v>
+      </c>
+      <c r="K1114" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L1114" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M1114" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N1114" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1114" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1114" t="n">
         <v>900</v>
-      </c>
-      <c r="K1114" t="n">
-        <v>26000</v>
-      </c>
-      <c r="L1114" t="n">
-        <v>27000</v>
-      </c>
-      <c r="M1114" t="n">
-        <v>26500</v>
-      </c>
-      <c r="N1114" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="O1114" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P1114" t="n">
-        <v>1767</v>
       </c>
       <c r="Q1114" t="n">
         <v>15</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1115" t="n">
         <v>4</v>
@@ -80628,25 +80628,25 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>600</v>
+        <v>460</v>
       </c>
       <c r="K1115" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="L1115" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="M1115" t="n">
-        <v>23500</v>
+        <v>10500</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>1567</v>
+        <v>700</v>
       </c>
       <c r="Q1115" t="n">
         <v>15</v>
@@ -80700,41 +80700,41 @@
       </c>
       <c r="H1116" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K1116" t="n">
-        <v>20000</v>
+        <v>34000</v>
       </c>
       <c r="L1116" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="M1116" t="n">
-        <v>20500</v>
+        <v>34500</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1116" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>1367</v>
+        <v>1917</v>
       </c>
       <c r="Q1116" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1116" t="inlineStr">
         <is>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1117" t="n">
         <v>4</v>
@@ -80772,25 +80772,25 @@
       </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K1117" t="n">
-        <v>9000</v>
+        <v>29000</v>
       </c>
       <c r="L1117" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M1117" t="n">
-        <v>9500</v>
+        <v>29500</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80803,7 +80803,7 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>528</v>
+        <v>1639</v>
       </c>
       <c r="Q1117" t="n">
         <v>18</v>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1118" t="n">
         <v>4</v>
@@ -80844,41 +80844,41 @@
       </c>
       <c r="H1118" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="K1118" t="n">
-        <v>7500</v>
+        <v>27000</v>
       </c>
       <c r="L1118" t="n">
-        <v>8000</v>
+        <v>28000</v>
       </c>
       <c r="M1118" t="n">
-        <v>7750</v>
+        <v>27500</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1118" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>431</v>
+        <v>1833</v>
       </c>
       <c r="Q1118" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1118" t="inlineStr">
         <is>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1119" t="n">
         <v>4</v>
@@ -80916,7 +80916,7 @@
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1119" t="inlineStr">
@@ -80925,32 +80925,32 @@
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="K1119" t="n">
-        <v>9500</v>
+        <v>24000</v>
       </c>
       <c r="L1119" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M1119" t="n">
-        <v>9750</v>
+        <v>24500</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1119" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>542</v>
+        <v>1633</v>
       </c>
       <c r="Q1119" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1119" t="inlineStr">
         <is>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1120" t="n">
         <v>4</v>
@@ -80988,7 +80988,7 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
@@ -80997,32 +80997,32 @@
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>440</v>
+        <v>360</v>
       </c>
       <c r="K1120" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="L1120" t="n">
-        <v>7500</v>
+        <v>23000</v>
       </c>
       <c r="M1120" t="n">
-        <v>7250</v>
+        <v>22500</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1120" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>403</v>
+        <v>1500</v>
       </c>
       <c r="Q1120" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1120" t="inlineStr">
         <is>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1121" t="n">
         <v>4</v>
@@ -81060,25 +81060,25 @@
       </c>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K1121" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="L1121" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="M1121" t="n">
-        <v>13500</v>
+        <v>26500</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>900</v>
+        <v>1767</v>
       </c>
       <c r="Q1121" t="n">
         <v>15</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1122" t="n">
         <v>4</v>
@@ -81132,25 +81132,25 @@
       </c>
       <c r="H1122" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K1122" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="L1122" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="M1122" t="n">
-        <v>10500</v>
+        <v>23500</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>700</v>
+        <v>1567</v>
       </c>
       <c r="Q1122" t="n">
         <v>15</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1123" t="n">
         <v>4</v>
@@ -81204,41 +81204,41 @@
       </c>
       <c r="H1123" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K1123" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L1123" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M1123" t="n">
-        <v>13500</v>
+        <v>20500</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1123" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>750</v>
+        <v>1367</v>
       </c>
       <c r="Q1123" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1123" t="inlineStr">
         <is>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1124" t="n">
         <v>4</v>
@@ -81281,20 +81281,20 @@
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1124" t="n">
         <v>600</v>
       </c>
       <c r="K1124" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1124" t="n">
         <v>10000</v>
       </c>
-      <c r="L1124" t="n">
-        <v>10500</v>
-      </c>
       <c r="M1124" t="n">
-        <v>10250</v>
+        <v>9500</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81307,7 +81307,7 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>569</v>
+        <v>528</v>
       </c>
       <c r="Q1124" t="n">
         <v>18</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1125" t="n">
         <v>4</v>
@@ -81348,41 +81348,41 @@
       </c>
       <c r="H1125" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="K1125" t="n">
-        <v>26500</v>
+        <v>7500</v>
       </c>
       <c r="L1125" t="n">
-        <v>27000</v>
+        <v>8000</v>
       </c>
       <c r="M1125" t="n">
-        <v>26750</v>
+        <v>7750</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1125" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>1783</v>
+        <v>431</v>
       </c>
       <c r="Q1125" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1125" t="inlineStr">
         <is>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1126" t="n">
         <v>4</v>
@@ -81420,41 +81420,41 @@
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="K1126" t="n">
-        <v>22500</v>
+        <v>9500</v>
       </c>
       <c r="L1126" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="M1126" t="n">
-        <v>22750</v>
+        <v>9750</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1126" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>1517</v>
+        <v>542</v>
       </c>
       <c r="Q1126" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1126" t="inlineStr">
         <is>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1127" t="n">
         <v>4</v>
@@ -81492,41 +81492,41 @@
       </c>
       <c r="H1127" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K1127" t="n">
-        <v>18500</v>
+        <v>7000</v>
       </c>
       <c r="L1127" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="M1127" t="n">
-        <v>18750</v>
+        <v>7250</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1127" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>1250</v>
+        <v>403</v>
       </c>
       <c r="Q1127" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1127" t="inlineStr">
         <is>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1128" t="n">
         <v>4</v>
@@ -81564,7 +81564,7 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
@@ -81573,16 +81573,16 @@
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K1128" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L1128" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M1128" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81595,7 +81595,7 @@
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>833</v>
+        <v>900</v>
       </c>
       <c r="Q1128" t="n">
         <v>15</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1129" t="n">
         <v>4</v>
@@ -81641,20 +81641,20 @@
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="K1129" t="n">
-        <v>39000</v>
+        <v>10000</v>
       </c>
       <c r="L1129" t="n">
-        <v>40000</v>
+        <v>11000</v>
       </c>
       <c r="M1129" t="n">
-        <v>39500</v>
+        <v>10500</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81667,7 +81667,7 @@
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>2633</v>
+        <v>700</v>
       </c>
       <c r="Q1129" t="n">
         <v>15</v>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1130" t="n">
         <v>4</v>
@@ -81708,41 +81708,41 @@
       </c>
       <c r="H1130" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="K1130" t="n">
-        <v>34000</v>
+        <v>13000</v>
       </c>
       <c r="L1130" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="M1130" t="n">
-        <v>34500</v>
+        <v>13500</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1130" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>2300</v>
+        <v>750</v>
       </c>
       <c r="Q1130" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1130" t="inlineStr">
         <is>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1131" t="n">
         <v>4</v>
@@ -81780,43 +81780,547 @@
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1131" t="n">
         <v>600</v>
       </c>
       <c r="K1131" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>10500</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>10250</v>
+      </c>
+      <c r="N1131" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1131" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P1131" t="n">
+        <v>569</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1131" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1132" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1132" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1132" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1132" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1132" t="n">
+        <v>800</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>26500</v>
+      </c>
+      <c r="L1132" t="n">
         <v>27000</v>
       </c>
-      <c r="L1131" t="n">
+      <c r="M1132" t="n">
+        <v>26750</v>
+      </c>
+      <c r="N1132" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1132" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1132" t="n">
+        <v>1783</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1132" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1133" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1133" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1133" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1133" t="n">
+        <v>600</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>22500</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>22750</v>
+      </c>
+      <c r="N1133" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1133" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1133" t="n">
+        <v>1517</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1133" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1134" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1134" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1134" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1134" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1134" t="n">
+        <v>400</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>18500</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>18750</v>
+      </c>
+      <c r="N1134" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1134" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1134" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1134" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1135" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1135" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1135" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1135" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1135" t="n">
+        <v>600</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L1135" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M1135" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N1135" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1135" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1135" t="n">
+        <v>833</v>
+      </c>
+      <c r="Q1135" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1135" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1136" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1136" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1136" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1136" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1136" t="n">
+        <v>640</v>
+      </c>
+      <c r="K1136" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L1136" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M1136" t="n">
+        <v>39500</v>
+      </c>
+      <c r="N1136" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1136" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1136" t="n">
+        <v>2633</v>
+      </c>
+      <c r="Q1136" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1136" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1137" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1137" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1137" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1137" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1137" t="n">
+        <v>460</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>34000</v>
+      </c>
+      <c r="L1137" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M1137" t="n">
+        <v>34500</v>
+      </c>
+      <c r="N1137" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1137" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1137" t="n">
+        <v>2300</v>
+      </c>
+      <c r="Q1137" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1137" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1138" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1138" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1138" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1138" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1138" t="n">
+        <v>600</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L1138" t="n">
         <v>28000</v>
       </c>
-      <c r="M1131" t="n">
+      <c r="M1138" t="n">
         <v>27500</v>
       </c>
-      <c r="N1131" t="inlineStr">
+      <c r="N1138" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O1131" t="inlineStr">
+      <c r="O1138" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P1131" t="n">
+      <c r="P1138" t="n">
         <v>1833</v>
       </c>
-      <c r="Q1131" t="n">
+      <c r="Q1138" t="n">
         <v>15</v>
       </c>
-      <c r="R1131" t="inlineStr">
+      <c r="R1138" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1142"/>
+  <dimension ref="A1:R1144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1091" t="n">
         <v>4</v>
@@ -78900,41 +78900,41 @@
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>600</v>
+        <v>760</v>
       </c>
       <c r="K1091" t="n">
-        <v>34000</v>
+        <v>41000</v>
       </c>
       <c r="L1091" t="n">
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="M1091" t="n">
-        <v>34500</v>
+        <v>41500</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1091" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>1917</v>
+        <v>2767</v>
       </c>
       <c r="Q1091" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1091" t="inlineStr">
         <is>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1092" t="n">
         <v>4</v>
@@ -78972,41 +78972,41 @@
       </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1092" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L1092" t="n">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="M1092" t="n">
-        <v>32500</v>
+        <v>35500</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1092" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>1806</v>
+        <v>2367</v>
       </c>
       <c r="Q1092" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
@@ -79049,20 +79049,20 @@
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1093" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="L1093" t="n">
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="M1093" t="n">
-        <v>30500</v>
+        <v>34500</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>1694</v>
+        <v>1917</v>
       </c>
       <c r="Q1093" t="n">
         <v>18</v>
@@ -79116,41 +79116,41 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1094" t="n">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="L1094" t="n">
-        <v>41000</v>
+        <v>33000</v>
       </c>
       <c r="M1094" t="n">
-        <v>40500</v>
+        <v>32500</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1094" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>2700</v>
+        <v>1806</v>
       </c>
       <c r="Q1094" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1094" t="inlineStr">
         <is>
@@ -79188,41 +79188,41 @@
       </c>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1095" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="L1095" t="n">
-        <v>39000</v>
+        <v>31000</v>
       </c>
       <c r="M1095" t="n">
-        <v>38500</v>
+        <v>30500</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1095" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>2567</v>
+        <v>1694</v>
       </c>
       <c r="Q1095" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1095" t="inlineStr">
         <is>
@@ -79265,20 +79265,20 @@
       </c>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="K1096" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="L1096" t="n">
-        <v>36000</v>
+        <v>41000</v>
       </c>
       <c r="M1096" t="n">
-        <v>35500</v>
+        <v>40500</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>2367</v>
+        <v>2700</v>
       </c>
       <c r="Q1096" t="n">
         <v>15</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1097" t="n">
         <v>4</v>
@@ -79332,7 +79332,7 @@
       </c>
       <c r="H1097" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1097" t="inlineStr">
@@ -79341,32 +79341,32 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K1097" t="n">
-        <v>15000</v>
+        <v>38000</v>
       </c>
       <c r="L1097" t="n">
-        <v>16000</v>
+        <v>39000</v>
       </c>
       <c r="M1097" t="n">
-        <v>15500</v>
+        <v>38500</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1097" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>861</v>
+        <v>2567</v>
       </c>
       <c r="Q1097" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1097" t="inlineStr">
         <is>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1098" t="n">
         <v>4</v>
@@ -79404,7 +79404,7 @@
       </c>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1098" t="inlineStr">
@@ -79413,32 +79413,32 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="K1098" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="L1098" t="n">
-        <v>12500</v>
+        <v>36000</v>
       </c>
       <c r="M1098" t="n">
-        <v>12250</v>
+        <v>35500</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1098" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>681</v>
+        <v>2367</v>
       </c>
       <c r="Q1098" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
@@ -79476,7 +79476,7 @@
       </c>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1099" t="inlineStr">
@@ -79485,7 +79485,7 @@
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>720</v>
+        <v>500</v>
       </c>
       <c r="K1099" t="n">
         <v>15000</v>
@@ -79498,19 +79498,19 @@
       </c>
       <c r="N1099" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1099" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>1033</v>
+        <v>861</v>
       </c>
       <c r="Q1099" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1099" t="inlineStr">
         <is>
@@ -79548,7 +79548,7 @@
       </c>
       <c r="H1100" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1100" t="inlineStr">
@@ -79557,7 +79557,7 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K1100" t="n">
         <v>12000</v>
@@ -79570,19 +79570,19 @@
       </c>
       <c r="N1100" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1100" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>817</v>
+        <v>681</v>
       </c>
       <c r="Q1100" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
@@ -79620,7 +79620,7 @@
       </c>
       <c r="H1101" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1101" t="inlineStr">
@@ -79629,16 +79629,16 @@
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="K1101" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1101" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M1101" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>833</v>
+        <v>1033</v>
       </c>
       <c r="Q1101" t="n">
         <v>15</v>
@@ -79692,7 +79692,7 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
@@ -79704,13 +79704,13 @@
         <v>400</v>
       </c>
       <c r="K1102" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1102" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="M1102" t="n">
-        <v>10250</v>
+        <v>12250</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>683</v>
+        <v>817</v>
       </c>
       <c r="Q1102" t="n">
         <v>15</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1103" t="n">
         <v>4</v>
@@ -79764,7 +79764,7 @@
       </c>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1103" t="inlineStr">
@@ -79773,32 +79773,32 @@
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K1103" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L1103" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1103" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1103" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>542</v>
+        <v>833</v>
       </c>
       <c r="Q1103" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1104" t="n">
         <v>4</v>
@@ -79836,7 +79836,7 @@
       </c>
       <c r="H1104" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1104" t="inlineStr">
@@ -79845,32 +79845,32 @@
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K1104" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L1104" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="M1104" t="n">
-        <v>7250</v>
+        <v>10250</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1104" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>403</v>
+        <v>683</v>
       </c>
       <c r="Q1104" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
@@ -79908,7 +79908,7 @@
       </c>
       <c r="H1105" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1105" t="inlineStr">
@@ -79917,16 +79917,16 @@
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K1105" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="L1105" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M1105" t="n">
-        <v>19500</v>
+        <v>9750</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79939,7 +79939,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>1083</v>
+        <v>542</v>
       </c>
       <c r="Q1105" t="n">
         <v>18</v>
@@ -79980,41 +79980,41 @@
       </c>
       <c r="H1106" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K1106" t="n">
-        <v>19500</v>
+        <v>7000</v>
       </c>
       <c r="L1106" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="M1106" t="n">
-        <v>19750</v>
+        <v>7250</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1106" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>1317</v>
+        <v>403</v>
       </c>
       <c r="Q1106" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1106" t="inlineStr">
         <is>
@@ -80052,41 +80052,41 @@
       </c>
       <c r="H1107" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>520</v>
+        <v>700</v>
       </c>
       <c r="K1107" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L1107" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M1107" t="n">
-        <v>16500</v>
+        <v>19500</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1107" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>1100</v>
+        <v>1083</v>
       </c>
       <c r="Q1107" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1107" t="inlineStr">
         <is>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1108" t="n">
         <v>4</v>
@@ -80124,7 +80124,7 @@
       </c>
       <c r="H1108" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1108" t="inlineStr">
@@ -80133,32 +80133,32 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>740</v>
+        <v>800</v>
       </c>
       <c r="K1108" t="n">
-        <v>8500</v>
+        <v>19500</v>
       </c>
       <c r="L1108" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M1108" t="n">
-        <v>8750</v>
+        <v>19750</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1108" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>486</v>
+        <v>1317</v>
       </c>
       <c r="Q1108" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1108" t="inlineStr">
         <is>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1109" t="n">
         <v>4</v>
@@ -80196,7 +80196,7 @@
       </c>
       <c r="H1109" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1109" t="inlineStr">
@@ -80205,32 +80205,32 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="K1109" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="L1109" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M1109" t="n">
-        <v>6750</v>
+        <v>16500</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1109" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>375</v>
+        <v>1100</v>
       </c>
       <c r="Q1109" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1109" t="inlineStr">
         <is>
@@ -80268,7 +80268,7 @@
       </c>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
@@ -80277,20 +80277,20 @@
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="K1110" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L1110" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M1110" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1110" t="inlineStr">
@@ -80299,10 +80299,10 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="Q1110" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1110" t="inlineStr">
         <is>
@@ -80340,7 +80340,7 @@
       </c>
       <c r="H1111" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1111" t="inlineStr">
@@ -80349,20 +80349,20 @@
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="K1111" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L1111" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M1111" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1111" t="inlineStr">
@@ -80371,10 +80371,10 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="Q1111" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1111" t="inlineStr">
         <is>
@@ -80412,7 +80412,7 @@
       </c>
       <c r="H1112" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1112" t="inlineStr">
@@ -80421,32 +80421,32 @@
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="K1112" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L1112" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M1112" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1112" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>900</v>
+        <v>488</v>
       </c>
       <c r="Q1112" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1112" t="inlineStr">
         <is>
@@ -80484,7 +80484,7 @@
       </c>
       <c r="H1113" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1113" t="inlineStr">
@@ -80493,32 +80493,32 @@
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="K1113" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L1113" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M1113" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1113" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>633</v>
+        <v>388</v>
       </c>
       <c r="Q1113" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1113" t="inlineStr">
         <is>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1114" t="n">
         <v>4</v>
@@ -80556,7 +80556,7 @@
       </c>
       <c r="H1114" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1114" t="inlineStr">
@@ -80565,32 +80565,32 @@
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>600</v>
+        <v>760</v>
       </c>
       <c r="K1114" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L1114" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M1114" t="n">
-        <v>8750</v>
+        <v>13500</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1114" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>486</v>
+        <v>900</v>
       </c>
       <c r="Q1114" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1114" t="inlineStr">
         <is>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1115" t="n">
         <v>4</v>
@@ -80628,7 +80628,7 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
@@ -80637,32 +80637,32 @@
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K1115" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L1115" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M1115" t="n">
-        <v>5750</v>
+        <v>9500</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1115" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>319</v>
+        <v>633</v>
       </c>
       <c r="Q1115" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1115" t="inlineStr">
         <is>
@@ -80700,7 +80700,7 @@
       </c>
       <c r="H1116" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1116" t="inlineStr">
@@ -80709,16 +80709,16 @@
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>508</v>
+        <v>600</v>
       </c>
       <c r="K1116" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L1116" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M1116" t="n">
-        <v>11492</v>
+        <v>8750</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>638</v>
+        <v>486</v>
       </c>
       <c r="Q1116" t="n">
         <v>18</v>
@@ -80772,7 +80772,7 @@
       </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
@@ -80781,16 +80781,16 @@
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K1117" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L1117" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="M1117" t="n">
-        <v>9250</v>
+        <v>5750</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80803,7 +80803,7 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>514</v>
+        <v>319</v>
       </c>
       <c r="Q1117" t="n">
         <v>18</v>
@@ -80844,7 +80844,7 @@
       </c>
       <c r="H1118" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1118" t="inlineStr">
@@ -80853,32 +80853,32 @@
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>720</v>
+        <v>508</v>
       </c>
       <c r="K1118" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L1118" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M1118" t="n">
-        <v>13500</v>
+        <v>11492</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1118" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>900</v>
+        <v>638</v>
       </c>
       <c r="Q1118" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1118" t="inlineStr">
         <is>
@@ -80916,7 +80916,7 @@
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1119" t="inlineStr">
@@ -80925,32 +80925,32 @@
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K1119" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L1119" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="M1119" t="n">
-        <v>10500</v>
+        <v>9250</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1119" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>700</v>
+        <v>514</v>
       </c>
       <c r="Q1119" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1119" t="inlineStr">
         <is>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1120" t="n">
         <v>4</v>
@@ -80988,7 +80988,7 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
@@ -80997,32 +80997,32 @@
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>300</v>
+        <v>720</v>
       </c>
       <c r="K1120" t="n">
-        <v>34000</v>
+        <v>13000</v>
       </c>
       <c r="L1120" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="M1120" t="n">
-        <v>34500</v>
+        <v>13500</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1120" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>1917</v>
+        <v>900</v>
       </c>
       <c r="Q1120" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1120" t="inlineStr">
         <is>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1121" t="n">
         <v>4</v>
@@ -81060,7 +81060,7 @@
       </c>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1121" t="inlineStr">
@@ -81069,32 +81069,32 @@
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="K1121" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="L1121" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="M1121" t="n">
-        <v>29500</v>
+        <v>10500</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1121" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>1639</v>
+        <v>700</v>
       </c>
       <c r="Q1121" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1121" t="inlineStr">
         <is>
@@ -81132,41 +81132,41 @@
       </c>
       <c r="H1122" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K1122" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="L1122" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M1122" t="n">
-        <v>27500</v>
+        <v>34500</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1122" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>1833</v>
+        <v>1917</v>
       </c>
       <c r="Q1122" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1122" t="inlineStr">
         <is>
@@ -81204,41 +81204,41 @@
       </c>
       <c r="H1123" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K1123" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L1123" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M1123" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1123" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>1633</v>
+        <v>1639</v>
       </c>
       <c r="Q1123" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1123" t="inlineStr">
         <is>
@@ -81281,20 +81281,20 @@
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="K1124" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="L1124" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M1124" t="n">
-        <v>22500</v>
+        <v>27500</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81307,7 +81307,7 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>1500</v>
+        <v>1833</v>
       </c>
       <c r="Q1124" t="n">
         <v>15</v>
@@ -81348,25 +81348,25 @@
       </c>
       <c r="H1125" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K1125" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="L1125" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M1125" t="n">
-        <v>26500</v>
+        <v>24500</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81379,7 +81379,7 @@
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>1767</v>
+        <v>1633</v>
       </c>
       <c r="Q1125" t="n">
         <v>15</v>
@@ -81420,25 +81420,25 @@
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K1126" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L1126" t="n">
         <v>23000</v>
       </c>
-      <c r="L1126" t="n">
-        <v>24000</v>
-      </c>
       <c r="M1126" t="n">
-        <v>23500</v>
+        <v>22500</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81451,7 +81451,7 @@
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>1567</v>
+        <v>1500</v>
       </c>
       <c r="Q1126" t="n">
         <v>15</v>
@@ -81497,20 +81497,20 @@
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K1127" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="L1127" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="M1127" t="n">
-        <v>20500</v>
+        <v>26500</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81523,7 +81523,7 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>1367</v>
+        <v>1767</v>
       </c>
       <c r="Q1127" t="n">
         <v>15</v>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1128" t="n">
         <v>4</v>
@@ -81564,7 +81564,7 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
@@ -81576,29 +81576,29 @@
         <v>600</v>
       </c>
       <c r="K1128" t="n">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="L1128" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="M1128" t="n">
-        <v>9500</v>
+        <v>23500</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1128" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>528</v>
+        <v>1567</v>
       </c>
       <c r="Q1128" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1128" t="inlineStr">
         <is>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1129" t="n">
         <v>4</v>
@@ -81636,7 +81636,7 @@
       </c>
       <c r="H1129" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1129" t="inlineStr">
@@ -81645,32 +81645,32 @@
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K1129" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="L1129" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="M1129" t="n">
-        <v>7750</v>
+        <v>20500</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1129" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>431</v>
+        <v>1367</v>
       </c>
       <c r="Q1129" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1129" t="inlineStr">
         <is>
@@ -81708,7 +81708,7 @@
       </c>
       <c r="H1130" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1130" t="inlineStr">
@@ -81717,16 +81717,16 @@
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="K1130" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L1130" t="n">
         <v>10000</v>
       </c>
       <c r="M1130" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81739,7 +81739,7 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="Q1130" t="n">
         <v>18</v>
@@ -81780,7 +81780,7 @@
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1131" t="inlineStr">
@@ -81789,16 +81789,16 @@
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="K1131" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L1131" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M1131" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81811,7 +81811,7 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="Q1131" t="n">
         <v>18</v>
@@ -81852,7 +81852,7 @@
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1132" t="inlineStr">
@@ -81861,32 +81861,32 @@
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>800</v>
+        <v>660</v>
       </c>
       <c r="K1132" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L1132" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M1132" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1132" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>900</v>
+        <v>542</v>
       </c>
       <c r="Q1132" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1132" t="inlineStr">
         <is>
@@ -81924,7 +81924,7 @@
       </c>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1133" t="inlineStr">
@@ -81933,32 +81933,32 @@
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="K1133" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L1133" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M1133" t="n">
-        <v>10500</v>
+        <v>7250</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1133" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>700</v>
+        <v>403</v>
       </c>
       <c r="Q1133" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1133" t="inlineStr">
         <is>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1134" t="n">
         <v>4</v>
@@ -81996,7 +81996,7 @@
       </c>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1134" t="inlineStr">
@@ -82005,7 +82005,7 @@
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K1134" t="n">
         <v>13000</v>
@@ -82018,19 +82018,19 @@
       </c>
       <c r="N1134" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1134" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="Q1134" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1134" t="inlineStr">
         <is>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1135" t="n">
         <v>4</v>
@@ -82068,7 +82068,7 @@
       </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1135" t="inlineStr">
@@ -82077,32 +82077,32 @@
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K1135" t="n">
         <v>10000</v>
       </c>
       <c r="L1135" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M1135" t="n">
         <v>10500</v>
       </c>
-      <c r="M1135" t="n">
-        <v>10250</v>
-      </c>
       <c r="N1135" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1135" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>569</v>
+        <v>700</v>
       </c>
       <c r="Q1135" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1135" t="inlineStr">
         <is>
@@ -82140,7 +82140,7 @@
       </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1136" t="inlineStr">
@@ -82149,32 +82149,32 @@
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K1136" t="n">
-        <v>26500</v>
+        <v>13000</v>
       </c>
       <c r="L1136" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="M1136" t="n">
-        <v>26750</v>
+        <v>13500</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1136" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>1783</v>
+        <v>750</v>
       </c>
       <c r="Q1136" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1136" t="inlineStr">
         <is>
@@ -82212,7 +82212,7 @@
       </c>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1137" t="inlineStr">
@@ -82224,29 +82224,29 @@
         <v>600</v>
       </c>
       <c r="K1137" t="n">
-        <v>22500</v>
+        <v>10000</v>
       </c>
       <c r="L1137" t="n">
-        <v>23000</v>
+        <v>10500</v>
       </c>
       <c r="M1137" t="n">
-        <v>22750</v>
+        <v>10250</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1137" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>1517</v>
+        <v>569</v>
       </c>
       <c r="Q1137" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1137" t="inlineStr">
         <is>
@@ -82289,20 +82289,20 @@
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1138" t="n">
-        <v>18500</v>
+        <v>26500</v>
       </c>
       <c r="L1138" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="M1138" t="n">
-        <v>18750</v>
+        <v>26750</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82315,7 +82315,7 @@
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>1250</v>
+        <v>1783</v>
       </c>
       <c r="Q1138" t="n">
         <v>15</v>
@@ -82356,25 +82356,25 @@
       </c>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1139" t="n">
         <v>600</v>
       </c>
       <c r="K1139" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="L1139" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M1139" t="n">
-        <v>12500</v>
+        <v>22750</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82387,7 +82387,7 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>833</v>
+        <v>1517</v>
       </c>
       <c r="Q1139" t="n">
         <v>15</v>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1140" t="n">
         <v>4</v>
@@ -82433,20 +82433,20 @@
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>640</v>
+        <v>400</v>
       </c>
       <c r="K1140" t="n">
-        <v>39000</v>
+        <v>18500</v>
       </c>
       <c r="L1140" t="n">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="M1140" t="n">
-        <v>39500</v>
+        <v>18750</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82459,7 +82459,7 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>2633</v>
+        <v>1250</v>
       </c>
       <c r="Q1140" t="n">
         <v>15</v>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1141" t="n">
         <v>4</v>
@@ -82500,25 +82500,25 @@
       </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>460</v>
+        <v>600</v>
       </c>
       <c r="K1141" t="n">
-        <v>34000</v>
+        <v>12000</v>
       </c>
       <c r="L1141" t="n">
-        <v>35000</v>
+        <v>13000</v>
       </c>
       <c r="M1141" t="n">
-        <v>34500</v>
+        <v>12500</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82531,7 +82531,7 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>2300</v>
+        <v>833</v>
       </c>
       <c r="Q1141" t="n">
         <v>15</v>
@@ -82572,7 +82572,7 @@
       </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1142" t="inlineStr">
@@ -82581,16 +82581,16 @@
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="K1142" t="n">
-        <v>27000</v>
+        <v>39000</v>
       </c>
       <c r="L1142" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="M1142" t="n">
-        <v>27500</v>
+        <v>39500</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82603,12 +82603,156 @@
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>1833</v>
+        <v>2633</v>
       </c>
       <c r="Q1142" t="n">
         <v>15</v>
       </c>
       <c r="R1142" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1143" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1143" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1143" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1143" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1143" t="n">
+        <v>460</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>34000</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>34500</v>
+      </c>
+      <c r="N1143" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1143" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1143" t="n">
+        <v>2300</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1143" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1144" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1144" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1144" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1144" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1144" t="n">
+        <v>600</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>27500</v>
+      </c>
+      <c r="N1144" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1144" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1144" t="n">
+        <v>1833</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1144" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1171"/>
+  <dimension ref="A1:R1177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1101" t="n">
         <v>4</v>
@@ -79620,41 +79620,41 @@
       </c>
       <c r="H1101" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K1101" t="n">
-        <v>8000</v>
+        <v>45000</v>
       </c>
       <c r="L1101" t="n">
-        <v>9000</v>
+        <v>46000</v>
       </c>
       <c r="M1101" t="n">
-        <v>8500</v>
+        <v>45500</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1101" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>472</v>
+        <v>3033</v>
       </c>
       <c r="Q1101" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1101" t="inlineStr">
         <is>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1102" t="n">
         <v>4</v>
@@ -79692,41 +79692,41 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K1102" t="n">
-        <v>5000</v>
+        <v>42000</v>
       </c>
       <c r="L1102" t="n">
-        <v>6000</v>
+        <v>43000</v>
       </c>
       <c r="M1102" t="n">
-        <v>5500</v>
+        <v>42500</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1102" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>306</v>
+        <v>2833</v>
       </c>
       <c r="Q1102" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1102" t="inlineStr">
         <is>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1103" t="n">
         <v>4</v>
@@ -79764,41 +79764,41 @@
       </c>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K1103" t="n">
-        <v>10500</v>
+        <v>35000</v>
       </c>
       <c r="L1103" t="n">
-        <v>11000</v>
+        <v>36000</v>
       </c>
       <c r="M1103" t="n">
-        <v>10750</v>
+        <v>35500</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1103" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>597</v>
+        <v>2367</v>
       </c>
       <c r="Q1103" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1104" t="n">
         <v>4</v>
@@ -79836,41 +79836,41 @@
       </c>
       <c r="H1104" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>380</v>
+        <v>3300</v>
       </c>
       <c r="K1104" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L1104" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M1104" t="n">
-        <v>8500</v>
+        <v>16091</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1104" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>472</v>
+        <v>1073</v>
       </c>
       <c r="Q1104" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1105" t="n">
         <v>4</v>
@@ -79908,25 +79908,25 @@
       </c>
       <c r="H1105" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1105" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L1105" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M1105" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79939,7 +79939,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="Q1105" t="n">
         <v>15</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1106" t="n">
         <v>4</v>
@@ -79980,25 +79980,25 @@
       </c>
       <c r="H1106" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K1106" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L1106" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="M1106" t="n">
-        <v>10250</v>
+        <v>8500</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>683</v>
+        <v>567</v>
       </c>
       <c r="Q1106" t="n">
         <v>15</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1107" t="n">
         <v>4</v>
@@ -80061,16 +80061,16 @@
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K1107" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L1107" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M1107" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>542</v>
+        <v>472</v>
       </c>
       <c r="Q1107" t="n">
         <v>18</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1108" t="n">
         <v>4</v>
@@ -80133,16 +80133,16 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K1108" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L1108" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M1108" t="n">
-        <v>7750</v>
+        <v>5500</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>431</v>
+        <v>306</v>
       </c>
       <c r="Q1108" t="n">
         <v>18</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1109" t="n">
         <v>4</v>
@@ -80205,16 +80205,16 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="K1109" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L1109" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M1109" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q1109" t="n">
         <v>18</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1110" t="n">
         <v>4</v>
@@ -80277,16 +80277,16 @@
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="K1110" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L1110" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M1110" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="Q1110" t="n">
         <v>18</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1111" t="n">
         <v>4</v>
@@ -80340,41 +80340,41 @@
       </c>
       <c r="H1111" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1111" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="L1111" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M1111" t="n">
-        <v>5750</v>
+        <v>13500</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1111" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>319</v>
+        <v>900</v>
       </c>
       <c r="Q1111" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1111" t="inlineStr">
         <is>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1112" t="n">
         <v>4</v>
@@ -80417,20 +80417,20 @@
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K1112" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="L1112" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="M1112" t="n">
-        <v>13750</v>
+        <v>10250</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>917</v>
+        <v>683</v>
       </c>
       <c r="Q1112" t="n">
         <v>15</v>
@@ -80484,16 +80484,16 @@
       </c>
       <c r="H1113" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="K1113" t="n">
         <v>9500</v>
@@ -80506,19 +80506,19 @@
       </c>
       <c r="N1113" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1113" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>650</v>
+        <v>542</v>
       </c>
       <c r="Q1113" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1113" t="inlineStr">
         <is>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1114" t="n">
         <v>4</v>
@@ -80561,20 +80561,20 @@
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="K1114" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L1114" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M1114" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80587,7 +80587,7 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q1114" t="n">
         <v>18</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1115" t="n">
         <v>4</v>
@@ -80628,25 +80628,25 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K1115" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L1115" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M1115" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q1115" t="n">
         <v>18</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1116" t="n">
         <v>4</v>
@@ -80700,41 +80700,41 @@
       </c>
       <c r="H1116" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K1116" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="L1116" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M1116" t="n">
-        <v>16500</v>
+        <v>7750</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1116" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>1100</v>
+        <v>431</v>
       </c>
       <c r="Q1116" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1116" t="inlineStr">
         <is>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1117" t="n">
         <v>4</v>
@@ -80772,41 +80772,41 @@
       </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1117" t="n">
         <v>400</v>
       </c>
       <c r="K1117" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="L1117" t="n">
-        <v>13500</v>
+        <v>6000</v>
       </c>
       <c r="M1117" t="n">
-        <v>13250</v>
+        <v>5750</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1117" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>883</v>
+        <v>319</v>
       </c>
       <c r="Q1117" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1117" t="inlineStr">
         <is>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E1118" t="n">
         <v>4</v>
@@ -80853,16 +80853,16 @@
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="K1118" t="n">
-        <v>41000</v>
+        <v>13500</v>
       </c>
       <c r="L1118" t="n">
-        <v>42000</v>
+        <v>14000</v>
       </c>
       <c r="M1118" t="n">
-        <v>41500</v>
+        <v>13750</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80875,7 +80875,7 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>2767</v>
+        <v>917</v>
       </c>
       <c r="Q1118" t="n">
         <v>15</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E1119" t="n">
         <v>4</v>
@@ -80925,16 +80925,16 @@
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K1119" t="n">
-        <v>35000</v>
+        <v>9500</v>
       </c>
       <c r="L1119" t="n">
-        <v>36000</v>
+        <v>10000</v>
       </c>
       <c r="M1119" t="n">
-        <v>35500</v>
+        <v>9750</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80947,7 +80947,7 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>2367</v>
+        <v>650</v>
       </c>
       <c r="Q1119" t="n">
         <v>15</v>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1120" t="n">
         <v>4</v>
@@ -80988,25 +80988,25 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="K1120" t="n">
-        <v>34000</v>
+        <v>11500</v>
       </c>
       <c r="L1120" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="M1120" t="n">
-        <v>34500</v>
+        <v>11750</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>1917</v>
+        <v>653</v>
       </c>
       <c r="Q1120" t="n">
         <v>18</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1121" t="n">
         <v>4</v>
@@ -81060,25 +81060,25 @@
       </c>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1121" t="n">
         <v>400</v>
       </c>
       <c r="K1121" t="n">
-        <v>32000</v>
+        <v>8500</v>
       </c>
       <c r="L1121" t="n">
-        <v>33000</v>
+        <v>9000</v>
       </c>
       <c r="M1121" t="n">
-        <v>32500</v>
+        <v>8750</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>1806</v>
+        <v>486</v>
       </c>
       <c r="Q1121" t="n">
         <v>18</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1122" t="n">
         <v>4</v>
@@ -81132,41 +81132,41 @@
       </c>
       <c r="H1122" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1122" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="L1122" t="n">
-        <v>31000</v>
+        <v>17000</v>
       </c>
       <c r="M1122" t="n">
-        <v>30500</v>
+        <v>16500</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1122" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>1694</v>
+        <v>1100</v>
       </c>
       <c r="Q1122" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1122" t="inlineStr">
         <is>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1123" t="n">
         <v>4</v>
@@ -81209,20 +81209,20 @@
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1123" t="n">
-        <v>40000</v>
+        <v>13000</v>
       </c>
       <c r="L1123" t="n">
-        <v>41000</v>
+        <v>13500</v>
       </c>
       <c r="M1123" t="n">
-        <v>40500</v>
+        <v>13250</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81235,7 +81235,7 @@
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>2700</v>
+        <v>883</v>
       </c>
       <c r="Q1123" t="n">
         <v>15</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1124" t="n">
         <v>4</v>
@@ -81285,16 +81285,16 @@
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>600</v>
+        <v>760</v>
       </c>
       <c r="K1124" t="n">
-        <v>38000</v>
+        <v>41000</v>
       </c>
       <c r="L1124" t="n">
-        <v>39000</v>
+        <v>42000</v>
       </c>
       <c r="M1124" t="n">
-        <v>38500</v>
+        <v>41500</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81307,7 +81307,7 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>2567</v>
+        <v>2767</v>
       </c>
       <c r="Q1124" t="n">
         <v>15</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1125" t="n">
         <v>4</v>
@@ -81357,7 +81357,7 @@
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K1125" t="n">
         <v>35000</v>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1126" t="n">
         <v>4</v>
@@ -81425,20 +81425,20 @@
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K1126" t="n">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="L1126" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="M1126" t="n">
-        <v>15500</v>
+        <v>34500</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81451,7 +81451,7 @@
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>861</v>
+        <v>1917</v>
       </c>
       <c r="Q1126" t="n">
         <v>18</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1127" t="n">
         <v>4</v>
@@ -81497,20 +81497,20 @@
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K1127" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="L1127" t="n">
-        <v>12500</v>
+        <v>33000</v>
       </c>
       <c r="M1127" t="n">
-        <v>12250</v>
+        <v>32500</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81523,7 +81523,7 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>681</v>
+        <v>1806</v>
       </c>
       <c r="Q1127" t="n">
         <v>18</v>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1128" t="n">
         <v>4</v>
@@ -81564,41 +81564,41 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="K1128" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L1128" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="M1128" t="n">
-        <v>15500</v>
+        <v>30500</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1128" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>1033</v>
+        <v>1694</v>
       </c>
       <c r="Q1128" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1128" t="inlineStr">
         <is>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1129" t="n">
         <v>4</v>
@@ -81641,20 +81641,20 @@
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1129" t="n">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="L1129" t="n">
-        <v>12500</v>
+        <v>41000</v>
       </c>
       <c r="M1129" t="n">
-        <v>12250</v>
+        <v>40500</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81667,7 +81667,7 @@
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>817</v>
+        <v>2700</v>
       </c>
       <c r="Q1129" t="n">
         <v>15</v>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1130" t="n">
         <v>4</v>
@@ -81708,7 +81708,7 @@
       </c>
       <c r="H1130" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1130" t="inlineStr">
@@ -81720,13 +81720,13 @@
         <v>600</v>
       </c>
       <c r="K1130" t="n">
-        <v>12000</v>
+        <v>38000</v>
       </c>
       <c r="L1130" t="n">
-        <v>13000</v>
+        <v>39000</v>
       </c>
       <c r="M1130" t="n">
-        <v>12500</v>
+        <v>38500</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81739,7 +81739,7 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>833</v>
+        <v>2567</v>
       </c>
       <c r="Q1130" t="n">
         <v>15</v>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1131" t="n">
         <v>4</v>
@@ -81780,7 +81780,7 @@
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1131" t="inlineStr">
@@ -81789,16 +81789,16 @@
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K1131" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="L1131" t="n">
-        <v>10500</v>
+        <v>36000</v>
       </c>
       <c r="M1131" t="n">
-        <v>10250</v>
+        <v>35500</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81811,7 +81811,7 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>683</v>
+        <v>2367</v>
       </c>
       <c r="Q1131" t="n">
         <v>15</v>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1132" t="n">
         <v>4</v>
@@ -81852,7 +81852,7 @@
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1132" t="inlineStr">
@@ -81861,16 +81861,16 @@
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K1132" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="L1132" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M1132" t="n">
-        <v>9750</v>
+        <v>15500</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81883,7 +81883,7 @@
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>542</v>
+        <v>861</v>
       </c>
       <c r="Q1132" t="n">
         <v>18</v>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1133" t="n">
         <v>4</v>
@@ -81924,7 +81924,7 @@
       </c>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1133" t="inlineStr">
@@ -81933,16 +81933,16 @@
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="K1133" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L1133" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="M1133" t="n">
-        <v>7250</v>
+        <v>12250</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81955,7 +81955,7 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>403</v>
+        <v>681</v>
       </c>
       <c r="Q1133" t="n">
         <v>18</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1134" t="n">
         <v>4</v>
@@ -81996,7 +81996,7 @@
       </c>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1134" t="inlineStr">
@@ -82005,32 +82005,32 @@
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="K1134" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L1134" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M1134" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1134" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>1083</v>
+        <v>1033</v>
       </c>
       <c r="Q1134" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1134" t="inlineStr">
         <is>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1135" t="n">
         <v>4</v>
@@ -82073,20 +82073,20 @@
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1135" t="n">
-        <v>19500</v>
+        <v>12000</v>
       </c>
       <c r="L1135" t="n">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="M1135" t="n">
-        <v>19750</v>
+        <v>12250</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82099,7 +82099,7 @@
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>1317</v>
+        <v>817</v>
       </c>
       <c r="Q1135" t="n">
         <v>15</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1136" t="n">
         <v>4</v>
@@ -82140,25 +82140,25 @@
       </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K1136" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L1136" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M1136" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82171,7 +82171,7 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>1100</v>
+        <v>833</v>
       </c>
       <c r="Q1136" t="n">
         <v>15</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1137" t="n">
         <v>4</v>
@@ -82212,41 +82212,41 @@
       </c>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>740</v>
+        <v>400</v>
       </c>
       <c r="K1137" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L1137" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="M1137" t="n">
-        <v>8750</v>
+        <v>10250</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1137" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>486</v>
+        <v>683</v>
       </c>
       <c r="Q1137" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1137" t="inlineStr">
         <is>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1138" t="n">
         <v>4</v>
@@ -82289,20 +82289,20 @@
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="K1138" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L1138" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M1138" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82315,7 +82315,7 @@
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q1138" t="n">
         <v>18</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1139" t="n">
         <v>4</v>
@@ -82356,29 +82356,29 @@
       </c>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>720</v>
+        <v>520</v>
       </c>
       <c r="K1139" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L1139" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M1139" t="n">
-        <v>9750</v>
+        <v>7250</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1139" t="inlineStr">
@@ -82387,10 +82387,10 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>488</v>
+        <v>403</v>
       </c>
       <c r="Q1139" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1139" t="inlineStr">
         <is>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1140" t="n">
         <v>4</v>
@@ -82433,24 +82433,24 @@
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="K1140" t="n">
-        <v>7500</v>
+        <v>19000</v>
       </c>
       <c r="L1140" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M1140" t="n">
-        <v>7750</v>
+        <v>19500</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1140" t="inlineStr">
@@ -82459,10 +82459,10 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>388</v>
+        <v>1083</v>
       </c>
       <c r="Q1140" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1140" t="inlineStr">
         <is>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1141" t="n">
         <v>4</v>
@@ -82509,16 +82509,16 @@
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="K1141" t="n">
-        <v>13000</v>
+        <v>19500</v>
       </c>
       <c r="L1141" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M1141" t="n">
-        <v>13500</v>
+        <v>19750</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82531,7 +82531,7 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>900</v>
+        <v>1317</v>
       </c>
       <c r="Q1141" t="n">
         <v>15</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1142" t="n">
         <v>4</v>
@@ -82581,16 +82581,16 @@
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K1142" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L1142" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M1142" t="n">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82603,7 +82603,7 @@
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>633</v>
+        <v>1100</v>
       </c>
       <c r="Q1142" t="n">
         <v>15</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1143" t="n">
         <v>4</v>
@@ -82653,7 +82653,7 @@
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>600</v>
+        <v>740</v>
       </c>
       <c r="K1143" t="n">
         <v>8500</v>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1144" t="n">
         <v>4</v>
@@ -82728,13 +82728,13 @@
         <v>480</v>
       </c>
       <c r="K1144" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1144" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1144" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82747,7 +82747,7 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q1144" t="n">
         <v>18</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1145" t="n">
         <v>4</v>
@@ -82797,20 +82797,20 @@
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>508</v>
+        <v>720</v>
       </c>
       <c r="K1145" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L1145" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M1145" t="n">
-        <v>11492</v>
+        <v>9750</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1145" t="inlineStr">
@@ -82819,10 +82819,10 @@
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>638</v>
+        <v>488</v>
       </c>
       <c r="Q1145" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1145" t="inlineStr">
         <is>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1146" t="n">
         <v>4</v>
@@ -82869,20 +82869,20 @@
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K1146" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L1146" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="M1146" t="n">
-        <v>9250</v>
+        <v>7750</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1146" t="inlineStr">
@@ -82891,10 +82891,10 @@
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>514</v>
+        <v>388</v>
       </c>
       <c r="Q1146" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1146" t="inlineStr">
         <is>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1147" t="n">
         <v>4</v>
@@ -82941,7 +82941,7 @@
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="K1147" t="n">
         <v>13000</v>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1148" t="n">
         <v>4</v>
@@ -83013,16 +83013,16 @@
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="K1148" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1148" t="n">
         <v>10000</v>
       </c>
-      <c r="L1148" t="n">
-        <v>11000</v>
-      </c>
       <c r="M1148" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
@@ -83035,7 +83035,7 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>700</v>
+        <v>633</v>
       </c>
       <c r="Q1148" t="n">
         <v>15</v>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1149" t="n">
         <v>4</v>
@@ -83076,7 +83076,7 @@
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
@@ -83085,16 +83085,16 @@
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K1149" t="n">
-        <v>34000</v>
+        <v>8500</v>
       </c>
       <c r="L1149" t="n">
-        <v>35000</v>
+        <v>9000</v>
       </c>
       <c r="M1149" t="n">
-        <v>34500</v>
+        <v>8750</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
@@ -83107,7 +83107,7 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>1917</v>
+        <v>486</v>
       </c>
       <c r="Q1149" t="n">
         <v>18</v>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1150" t="n">
         <v>4</v>
@@ -83148,7 +83148,7 @@
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1150" t="inlineStr">
@@ -83157,16 +83157,16 @@
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="K1150" t="n">
-        <v>29000</v>
+        <v>5500</v>
       </c>
       <c r="L1150" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="M1150" t="n">
-        <v>29500</v>
+        <v>5750</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
@@ -83179,7 +83179,7 @@
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>1639</v>
+        <v>319</v>
       </c>
       <c r="Q1150" t="n">
         <v>18</v>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1151" t="n">
         <v>4</v>
@@ -83220,41 +83220,41 @@
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>800</v>
+        <v>508</v>
       </c>
       <c r="K1151" t="n">
-        <v>27000</v>
+        <v>11000</v>
       </c>
       <c r="L1151" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="M1151" t="n">
-        <v>27500</v>
+        <v>11492</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1151" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>1833</v>
+        <v>638</v>
       </c>
       <c r="Q1151" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1151" t="inlineStr">
         <is>
@@ -83277,7 +83277,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1152" t="n">
         <v>4</v>
@@ -83292,41 +83292,41 @@
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1152" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="L1152" t="n">
-        <v>25000</v>
+        <v>9500</v>
       </c>
       <c r="M1152" t="n">
-        <v>24500</v>
+        <v>9250</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1152" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>1633</v>
+        <v>514</v>
       </c>
       <c r="Q1152" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1152" t="inlineStr">
         <is>
@@ -83349,7 +83349,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1153" t="n">
         <v>4</v>
@@ -83369,20 +83369,20 @@
       </c>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="K1153" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L1153" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M1153" t="n">
-        <v>22500</v>
+        <v>13500</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
@@ -83395,7 +83395,7 @@
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="Q1153" t="n">
         <v>15</v>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1154" t="n">
         <v>4</v>
@@ -83436,25 +83436,25 @@
       </c>
       <c r="H1154" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1154" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>900</v>
+        <v>460</v>
       </c>
       <c r="K1154" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="L1154" t="n">
-        <v>27000</v>
+        <v>11000</v>
       </c>
       <c r="M1154" t="n">
-        <v>26500</v>
+        <v>10500</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
@@ -83467,7 +83467,7 @@
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>1767</v>
+        <v>700</v>
       </c>
       <c r="Q1154" t="n">
         <v>15</v>
@@ -83508,7 +83508,7 @@
       </c>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1155" t="inlineStr">
@@ -83517,32 +83517,32 @@
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K1155" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="L1155" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M1155" t="n">
-        <v>23500</v>
+        <v>34500</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1155" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>1567</v>
+        <v>1917</v>
       </c>
       <c r="Q1155" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1155" t="inlineStr">
         <is>
@@ -83580,7 +83580,7 @@
       </c>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1156" t="inlineStr">
@@ -83589,32 +83589,32 @@
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K1156" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L1156" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="M1156" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1156" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>1367</v>
+        <v>1639</v>
       </c>
       <c r="Q1156" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1156" t="inlineStr">
         <is>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1157" t="n">
         <v>4</v>
@@ -83652,41 +83652,41 @@
       </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K1157" t="n">
-        <v>9000</v>
+        <v>27000</v>
       </c>
       <c r="L1157" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="M1157" t="n">
-        <v>9500</v>
+        <v>27500</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1157" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>528</v>
+        <v>1833</v>
       </c>
       <c r="Q1157" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1157" t="inlineStr">
         <is>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1158" t="n">
         <v>4</v>
@@ -83724,41 +83724,41 @@
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K1158" t="n">
-        <v>7500</v>
+        <v>24000</v>
       </c>
       <c r="L1158" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="M1158" t="n">
-        <v>7750</v>
+        <v>24500</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1158" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>431</v>
+        <v>1633</v>
       </c>
       <c r="Q1158" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1158" t="inlineStr">
         <is>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1159" t="n">
         <v>4</v>
@@ -83796,41 +83796,41 @@
       </c>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>660</v>
+        <v>360</v>
       </c>
       <c r="K1159" t="n">
-        <v>9500</v>
+        <v>22000</v>
       </c>
       <c r="L1159" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="M1159" t="n">
-        <v>9750</v>
+        <v>22500</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1159" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>542</v>
+        <v>1500</v>
       </c>
       <c r="Q1159" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1159" t="inlineStr">
         <is>
@@ -83853,7 +83853,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1160" t="n">
         <v>4</v>
@@ -83868,41 +83868,41 @@
       </c>
       <c r="H1160" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>440</v>
+        <v>900</v>
       </c>
       <c r="K1160" t="n">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="L1160" t="n">
-        <v>7500</v>
+        <v>27000</v>
       </c>
       <c r="M1160" t="n">
-        <v>7250</v>
+        <v>26500</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1160" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>403</v>
+        <v>1767</v>
       </c>
       <c r="Q1160" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1160" t="inlineStr">
         <is>
@@ -83925,7 +83925,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1161" t="n">
         <v>4</v>
@@ -83940,7 +83940,7 @@
       </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1161" t="inlineStr">
@@ -83949,16 +83949,16 @@
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K1161" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L1161" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M1161" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
@@ -83971,7 +83971,7 @@
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>900</v>
+        <v>1567</v>
       </c>
       <c r="Q1161" t="n">
         <v>15</v>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1162" t="n">
         <v>4</v>
@@ -84012,7 +84012,7 @@
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1162" t="inlineStr">
@@ -84021,16 +84021,16 @@
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K1162" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L1162" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="M1162" t="n">
-        <v>10500</v>
+        <v>20500</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
@@ -84043,7 +84043,7 @@
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>700</v>
+        <v>1367</v>
       </c>
       <c r="Q1162" t="n">
         <v>15</v>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1163" t="n">
         <v>4</v>
@@ -84093,16 +84093,16 @@
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K1163" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L1163" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M1163" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
@@ -84115,7 +84115,7 @@
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>750</v>
+        <v>528</v>
       </c>
       <c r="Q1163" t="n">
         <v>18</v>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1164" t="n">
         <v>4</v>
@@ -84165,16 +84165,16 @@
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K1164" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L1164" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="M1164" t="n">
-        <v>10250</v>
+        <v>7750</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
@@ -84187,7 +84187,7 @@
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>569</v>
+        <v>431</v>
       </c>
       <c r="Q1164" t="n">
         <v>18</v>
@@ -84213,7 +84213,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1165" t="n">
         <v>4</v>
@@ -84228,7 +84228,7 @@
       </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1165" t="inlineStr">
@@ -84237,32 +84237,32 @@
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>800</v>
+        <v>660</v>
       </c>
       <c r="K1165" t="n">
-        <v>26500</v>
+        <v>9500</v>
       </c>
       <c r="L1165" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="M1165" t="n">
-        <v>26750</v>
+        <v>9750</v>
       </c>
       <c r="N1165" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1165" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>1783</v>
+        <v>542</v>
       </c>
       <c r="Q1165" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1165" t="inlineStr">
         <is>
@@ -84285,7 +84285,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1166" t="n">
         <v>4</v>
@@ -84300,7 +84300,7 @@
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1166" t="inlineStr">
@@ -84309,32 +84309,32 @@
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K1166" t="n">
-        <v>22500</v>
+        <v>7000</v>
       </c>
       <c r="L1166" t="n">
-        <v>23000</v>
+        <v>7500</v>
       </c>
       <c r="M1166" t="n">
-        <v>22750</v>
+        <v>7250</v>
       </c>
       <c r="N1166" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1166" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1166" t="n">
-        <v>1517</v>
+        <v>403</v>
       </c>
       <c r="Q1166" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1166" t="inlineStr">
         <is>
@@ -84357,7 +84357,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1167" t="n">
         <v>4</v>
@@ -84377,20 +84377,20 @@
       </c>
       <c r="I1167" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1167" t="n">
-        <v>18500</v>
+        <v>13000</v>
       </c>
       <c r="L1167" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M1167" t="n">
-        <v>18750</v>
+        <v>13500</v>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
@@ -84403,7 +84403,7 @@
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>1250</v>
+        <v>900</v>
       </c>
       <c r="Q1167" t="n">
         <v>15</v>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1168" t="n">
         <v>4</v>
@@ -84444,25 +84444,25 @@
       </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1168" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K1168" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1168" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M1168" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
@@ -84475,7 +84475,7 @@
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>833</v>
+        <v>700</v>
       </c>
       <c r="Q1168" t="n">
         <v>15</v>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1169" t="n">
         <v>4</v>
@@ -84516,7 +84516,7 @@
       </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1169" t="inlineStr">
@@ -84525,32 +84525,32 @@
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="K1169" t="n">
-        <v>39000</v>
+        <v>13000</v>
       </c>
       <c r="L1169" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="M1169" t="n">
-        <v>39500</v>
+        <v>13500</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1169" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>2633</v>
+        <v>750</v>
       </c>
       <c r="Q1169" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1169" t="inlineStr">
         <is>
@@ -84573,7 +84573,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1170" t="n">
         <v>4</v>
@@ -84588,7 +84588,7 @@
       </c>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1170" t="inlineStr">
@@ -84597,32 +84597,32 @@
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>460</v>
+        <v>600</v>
       </c>
       <c r="K1170" t="n">
-        <v>34000</v>
+        <v>10000</v>
       </c>
       <c r="L1170" t="n">
-        <v>35000</v>
+        <v>10500</v>
       </c>
       <c r="M1170" t="n">
-        <v>34500</v>
+        <v>10250</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1170" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>2300</v>
+        <v>569</v>
       </c>
       <c r="Q1170" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1170" t="inlineStr">
         <is>
@@ -84645,7 +84645,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1171" t="n">
         <v>4</v>
@@ -84660,7 +84660,7 @@
       </c>
       <c r="H1171" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1171" t="inlineStr">
@@ -84669,16 +84669,16 @@
         </is>
       </c>
       <c r="J1171" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K1171" t="n">
+        <v>26500</v>
+      </c>
+      <c r="L1171" t="n">
         <v>27000</v>
       </c>
-      <c r="L1171" t="n">
-        <v>28000</v>
-      </c>
       <c r="M1171" t="n">
-        <v>27500</v>
+        <v>26750</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
@@ -84691,12 +84691,444 @@
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>1833</v>
+        <v>1783</v>
       </c>
       <c r="Q1171" t="n">
         <v>15</v>
       </c>
       <c r="R1171" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1172" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1172" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1172" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1172" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1172" t="n">
+        <v>600</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>22500</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>22750</v>
+      </c>
+      <c r="N1172" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1172" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1172" t="n">
+        <v>1517</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1172" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1173" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1173" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1173" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1173" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1173" t="n">
+        <v>400</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>18500</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>18750</v>
+      </c>
+      <c r="N1173" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1173" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1173" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1173" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1174" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1174" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1174" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1174" t="n">
+        <v>600</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N1174" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1174" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1174" t="n">
+        <v>833</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1174" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1175" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1175" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1175" t="n">
+        <v>640</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>39500</v>
+      </c>
+      <c r="N1175" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1175" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1175" t="n">
+        <v>2633</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1175" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1176" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1176" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1176" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1176" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1176" t="n">
+        <v>460</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>34000</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>34500</v>
+      </c>
+      <c r="N1176" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1176" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1176" t="n">
+        <v>2300</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1176" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1177" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1177" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1177" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1177" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1177" t="n">
+        <v>600</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>27500</v>
+      </c>
+      <c r="N1177" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1177" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1177" t="n">
+        <v>1833</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1177" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1196"/>
+  <dimension ref="A1:R1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1026" t="n">
         <v>4</v>
@@ -74229,16 +74229,16 @@
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>680</v>
+        <v>800</v>
       </c>
       <c r="K1026" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L1026" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M1026" t="n">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>528</v>
+        <v>917</v>
       </c>
       <c r="Q1026" t="n">
         <v>18</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1027" t="n">
         <v>4</v>
@@ -74301,16 +74301,16 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K1027" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L1027" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M1027" t="n">
-        <v>6750</v>
+        <v>12500</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>375</v>
+        <v>694</v>
       </c>
       <c r="Q1027" t="n">
         <v>18</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1028" t="n">
         <v>4</v>
@@ -74364,7 +74364,7 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
@@ -74373,32 +74373,32 @@
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K1028" t="n">
-        <v>19000</v>
+        <v>31000</v>
       </c>
       <c r="L1028" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="M1028" t="n">
-        <v>19500</v>
+        <v>31500</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>1083</v>
+        <v>2100</v>
       </c>
       <c r="Q1028" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1028" t="inlineStr">
         <is>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1029" t="n">
         <v>4</v>
@@ -74441,20 +74441,20 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K1029" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L1029" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="M1029" t="n">
-        <v>18500</v>
+        <v>24500</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>1233</v>
+        <v>1633</v>
       </c>
       <c r="Q1029" t="n">
         <v>15</v>
@@ -74508,41 +74508,41 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>520</v>
+        <v>680</v>
       </c>
       <c r="K1030" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L1030" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M1030" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>900</v>
+        <v>528</v>
       </c>
       <c r="Q1030" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
@@ -74580,41 +74580,41 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K1031" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L1031" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M1031" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>700</v>
+        <v>375</v>
       </c>
       <c r="Q1031" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1031" t="inlineStr">
         <is>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E1032" t="n">
         <v>4</v>
@@ -74652,7 +74652,7 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
@@ -74661,32 +74661,32 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="K1032" t="n">
-        <v>39000</v>
+        <v>19000</v>
       </c>
       <c r="L1032" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M1032" t="n">
-        <v>39500</v>
+        <v>19500</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>2633</v>
+        <v>1083</v>
       </c>
       <c r="Q1032" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1032" t="inlineStr">
         <is>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E1033" t="n">
         <v>4</v>
@@ -74729,20 +74729,20 @@
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>460</v>
+        <v>800</v>
       </c>
       <c r="K1033" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="L1033" t="n">
-        <v>35000</v>
+        <v>19000</v>
       </c>
       <c r="M1033" t="n">
-        <v>34500</v>
+        <v>18500</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>2300</v>
+        <v>1233</v>
       </c>
       <c r="Q1033" t="n">
         <v>15</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E1034" t="n">
         <v>4</v>
@@ -74796,25 +74796,25 @@
       </c>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="K1034" t="n">
-        <v>27000</v>
+        <v>13000</v>
       </c>
       <c r="L1034" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="M1034" t="n">
-        <v>27500</v>
+        <v>13500</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>1833</v>
+        <v>900</v>
       </c>
       <c r="Q1034" t="n">
         <v>15</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E1035" t="n">
         <v>4</v>
@@ -74868,41 +74868,41 @@
       </c>
       <c r="H1035" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>660</v>
+        <v>400</v>
       </c>
       <c r="K1035" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L1035" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1035" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1035" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>472</v>
+        <v>700</v>
       </c>
       <c r="Q1035" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E1036" t="n">
         <v>4</v>
@@ -74940,41 +74940,41 @@
       </c>
       <c r="H1036" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="K1036" t="n">
-        <v>5000</v>
+        <v>39000</v>
       </c>
       <c r="L1036" t="n">
-        <v>6000</v>
+        <v>40000</v>
       </c>
       <c r="M1036" t="n">
-        <v>5500</v>
+        <v>39500</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>306</v>
+        <v>2633</v>
       </c>
       <c r="Q1036" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1036" t="inlineStr">
         <is>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E1037" t="n">
         <v>4</v>
@@ -75012,41 +75012,41 @@
       </c>
       <c r="H1037" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>600</v>
+        <v>460</v>
       </c>
       <c r="K1037" t="n">
-        <v>11000</v>
+        <v>34000</v>
       </c>
       <c r="L1037" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="M1037" t="n">
-        <v>11500</v>
+        <v>34500</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1037" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>639</v>
+        <v>2300</v>
       </c>
       <c r="Q1037" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1037" t="inlineStr">
         <is>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E1038" t="n">
         <v>4</v>
@@ -75084,41 +75084,41 @@
       </c>
       <c r="H1038" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1038" t="n">
-        <v>9000</v>
+        <v>27000</v>
       </c>
       <c r="L1038" t="n">
-        <v>9500</v>
+        <v>28000</v>
       </c>
       <c r="M1038" t="n">
-        <v>9250</v>
+        <v>27500</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1038" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>514</v>
+        <v>1833</v>
       </c>
       <c r="Q1038" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
@@ -75156,7 +75156,7 @@
       </c>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
@@ -75165,32 +75165,32 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="K1039" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L1039" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M1039" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1039" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>900</v>
+        <v>472</v>
       </c>
       <c r="Q1039" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
@@ -75228,7 +75228,7 @@
       </c>
       <c r="H1040" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1040" t="inlineStr">
@@ -75237,32 +75237,32 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K1040" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L1040" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M1040" t="n">
-        <v>10500</v>
+        <v>5500</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1040" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>700</v>
+        <v>306</v>
       </c>
       <c r="Q1040" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1040" t="inlineStr">
         <is>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E1041" t="n">
         <v>4</v>
@@ -75300,7 +75300,7 @@
       </c>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
@@ -75312,13 +75312,13 @@
         <v>600</v>
       </c>
       <c r="K1041" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L1041" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M1041" t="n">
-        <v>8750</v>
+        <v>11500</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75331,7 +75331,7 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>486</v>
+        <v>639</v>
       </c>
       <c r="Q1041" t="n">
         <v>18</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E1042" t="n">
         <v>4</v>
@@ -75372,7 +75372,7 @@
       </c>
       <c r="H1042" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1042" t="inlineStr">
@@ -75384,13 +75384,13 @@
         <v>400</v>
       </c>
       <c r="K1042" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L1042" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M1042" t="n">
-        <v>6750</v>
+        <v>9250</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>375</v>
+        <v>514</v>
       </c>
       <c r="Q1042" t="n">
         <v>18</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E1043" t="n">
         <v>4</v>
@@ -75444,7 +75444,7 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
@@ -75453,32 +75453,32 @@
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K1043" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L1043" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="M1043" t="n">
-        <v>9250</v>
+        <v>13500</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1043" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>462</v>
+        <v>900</v>
       </c>
       <c r="Q1043" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1043" t="inlineStr">
         <is>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E1044" t="n">
         <v>4</v>
@@ -75516,7 +75516,7 @@
       </c>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr">
@@ -75525,32 +75525,32 @@
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1044" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L1044" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M1044" t="n">
-        <v>7250</v>
+        <v>10500</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1044" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>362</v>
+        <v>700</v>
       </c>
       <c r="Q1044" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1044" t="inlineStr">
         <is>
@@ -75588,16 +75588,16 @@
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K1045" t="n">
         <v>8500</v>
@@ -75610,19 +75610,19 @@
       </c>
       <c r="N1045" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1045" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>583</v>
+        <v>486</v>
       </c>
       <c r="Q1045" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1045" t="inlineStr">
         <is>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1046" t="n">
         <v>4</v>
@@ -75660,41 +75660,41 @@
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1046" t="n">
-        <v>29000</v>
+        <v>6500</v>
       </c>
       <c r="L1046" t="n">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="M1046" t="n">
-        <v>29500</v>
+        <v>6750</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1046" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>1967</v>
+        <v>375</v>
       </c>
       <c r="Q1046" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1046" t="inlineStr">
         <is>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1047" t="n">
         <v>4</v>
@@ -75732,41 +75732,41 @@
       </c>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1047" t="n">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="L1047" t="n">
-        <v>27000</v>
+        <v>9500</v>
       </c>
       <c r="M1047" t="n">
-        <v>26500</v>
+        <v>9250</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1047" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>1767</v>
+        <v>462</v>
       </c>
       <c r="Q1047" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E1048" t="n">
         <v>4</v>
@@ -75804,29 +75804,29 @@
       </c>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1048" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L1048" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M1048" t="n">
-        <v>11500</v>
+        <v>7250</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1048" t="inlineStr">
@@ -75835,10 +75835,10 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>639</v>
+        <v>362</v>
       </c>
       <c r="Q1048" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1048" t="inlineStr">
         <is>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E1049" t="n">
         <v>4</v>
@@ -75876,7 +75876,7 @@
       </c>
       <c r="H1049" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1049" t="inlineStr">
@@ -75885,32 +75885,32 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K1049" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L1049" t="n">
         <v>9000</v>
       </c>
       <c r="M1049" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1049" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>472</v>
+        <v>583</v>
       </c>
       <c r="Q1049" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1049" t="inlineStr">
         <is>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1050" t="n">
         <v>4</v>
@@ -75957,16 +75957,16 @@
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K1050" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="L1050" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M1050" t="n">
-        <v>15500</v>
+        <v>29500</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>1033</v>
+        <v>1967</v>
       </c>
       <c r="Q1050" t="n">
         <v>15</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1051" t="n">
         <v>4</v>
@@ -76029,16 +76029,16 @@
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K1051" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="L1051" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="M1051" t="n">
-        <v>12500</v>
+        <v>26500</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>833</v>
+        <v>1767</v>
       </c>
       <c r="Q1051" t="n">
         <v>15</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1052" t="n">
         <v>4</v>
@@ -76092,41 +76092,41 @@
       </c>
       <c r="H1052" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>860</v>
+        <v>600</v>
       </c>
       <c r="K1052" t="n">
-        <v>39000</v>
+        <v>11000</v>
       </c>
       <c r="L1052" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="M1052" t="n">
-        <v>39500</v>
+        <v>11500</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1052" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>2633</v>
+        <v>639</v>
       </c>
       <c r="Q1052" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1052" t="inlineStr">
         <is>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1053" t="n">
         <v>4</v>
@@ -76164,41 +76164,41 @@
       </c>
       <c r="H1053" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>640</v>
+        <v>400</v>
       </c>
       <c r="K1053" t="n">
-        <v>37000</v>
+        <v>8000</v>
       </c>
       <c r="L1053" t="n">
-        <v>38000</v>
+        <v>9000</v>
       </c>
       <c r="M1053" t="n">
-        <v>37500</v>
+        <v>8500</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1053" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>2500</v>
+        <v>472</v>
       </c>
       <c r="Q1053" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1053" t="inlineStr">
         <is>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1054" t="n">
         <v>4</v>
@@ -76241,20 +76241,20 @@
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1054" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L1054" t="n">
-        <v>36000</v>
+        <v>16000</v>
       </c>
       <c r="M1054" t="n">
-        <v>35500</v>
+        <v>15500</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>2367</v>
+        <v>1033</v>
       </c>
       <c r="Q1054" t="n">
         <v>15</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1055" t="n">
         <v>4</v>
@@ -76308,25 +76308,25 @@
       </c>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K1055" t="n">
-        <v>34000</v>
+        <v>12000</v>
       </c>
       <c r="L1055" t="n">
-        <v>35000</v>
+        <v>13000</v>
       </c>
       <c r="M1055" t="n">
-        <v>34500</v>
+        <v>12500</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>2300</v>
+        <v>833</v>
       </c>
       <c r="Q1055" t="n">
         <v>15</v>
@@ -76380,25 +76380,25 @@
       </c>
       <c r="H1056" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>600</v>
+        <v>860</v>
       </c>
       <c r="K1056" t="n">
-        <v>32000</v>
+        <v>39000</v>
       </c>
       <c r="L1056" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="M1056" t="n">
-        <v>32500</v>
+        <v>39500</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>2167</v>
+        <v>2633</v>
       </c>
       <c r="Q1056" t="n">
         <v>15</v>
@@ -76452,25 +76452,25 @@
       </c>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="K1057" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="L1057" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="M1057" t="n">
-        <v>28500</v>
+        <v>37500</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="Q1057" t="n">
         <v>15</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1058" t="n">
         <v>4</v>
@@ -76524,41 +76524,41 @@
       </c>
       <c r="H1058" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K1058" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="L1058" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M1058" t="n">
-        <v>34500</v>
+        <v>35500</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1058" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>1917</v>
+        <v>2367</v>
       </c>
       <c r="Q1058" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1058" t="inlineStr">
         <is>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1059" t="n">
         <v>4</v>
@@ -76596,41 +76596,41 @@
       </c>
       <c r="H1059" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K1059" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="L1059" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M1059" t="n">
-        <v>32500</v>
+        <v>34500</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1059" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>1806</v>
+        <v>2300</v>
       </c>
       <c r="Q1059" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1059" t="inlineStr">
         <is>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1060" t="n">
         <v>4</v>
@@ -76668,25 +76668,25 @@
       </c>
       <c r="H1060" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K1060" t="n">
-        <v>39000</v>
+        <v>32000</v>
       </c>
       <c r="L1060" t="n">
-        <v>40000</v>
+        <v>33000</v>
       </c>
       <c r="M1060" t="n">
-        <v>39500</v>
+        <v>32500</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76699,7 +76699,7 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>2633</v>
+        <v>2167</v>
       </c>
       <c r="Q1060" t="n">
         <v>15</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1061" t="n">
         <v>4</v>
@@ -76740,25 +76740,25 @@
       </c>
       <c r="H1061" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1061" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="L1061" t="n">
-        <v>38000</v>
+        <v>29000</v>
       </c>
       <c r="M1061" t="n">
-        <v>37500</v>
+        <v>28500</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76771,7 +76771,7 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="Q1061" t="n">
         <v>15</v>
@@ -76812,41 +76812,41 @@
       </c>
       <c r="H1062" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K1062" t="n">
+        <v>34000</v>
+      </c>
+      <c r="L1062" t="n">
         <v>35000</v>
       </c>
-      <c r="L1062" t="n">
-        <v>36000</v>
-      </c>
       <c r="M1062" t="n">
-        <v>35500</v>
+        <v>34500</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1062" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>2367</v>
+        <v>1917</v>
       </c>
       <c r="Q1062" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1062" t="inlineStr">
         <is>
@@ -76884,41 +76884,41 @@
       </c>
       <c r="H1063" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1063" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L1063" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M1063" t="n">
-        <v>29500</v>
+        <v>32500</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1063" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>1967</v>
+        <v>1806</v>
       </c>
       <c r="Q1063" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1063" t="inlineStr">
         <is>
@@ -76956,25 +76956,25 @@
       </c>
       <c r="H1064" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K1064" t="n">
-        <v>27000</v>
+        <v>39000</v>
       </c>
       <c r="L1064" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="M1064" t="n">
-        <v>27500</v>
+        <v>39500</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>1833</v>
+        <v>2633</v>
       </c>
       <c r="Q1064" t="n">
         <v>15</v>
@@ -77028,25 +77028,25 @@
       </c>
       <c r="H1065" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1065" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="L1065" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="M1065" t="n">
-        <v>25500</v>
+        <v>37500</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="Q1065" t="n">
         <v>15</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1066" t="n">
         <v>4</v>
@@ -77100,41 +77100,41 @@
       </c>
       <c r="H1066" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>660</v>
+        <v>440</v>
       </c>
       <c r="K1066" t="n">
-        <v>9000</v>
+        <v>35000</v>
       </c>
       <c r="L1066" t="n">
-        <v>10000</v>
+        <v>36000</v>
       </c>
       <c r="M1066" t="n">
-        <v>9500</v>
+        <v>35500</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1066" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>528</v>
+        <v>2367</v>
       </c>
       <c r="Q1066" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1066" t="inlineStr">
         <is>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1067" t="n">
         <v>4</v>
@@ -77172,41 +77172,41 @@
       </c>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="K1067" t="n">
-        <v>7000</v>
+        <v>29000</v>
       </c>
       <c r="L1067" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="M1067" t="n">
-        <v>7500</v>
+        <v>29500</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1067" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>417</v>
+        <v>1967</v>
       </c>
       <c r="Q1067" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1067" t="inlineStr">
         <is>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1068" t="n">
         <v>4</v>
@@ -77244,7 +77244,7 @@
       </c>
       <c r="H1068" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1068" t="inlineStr">
@@ -77256,29 +77256,29 @@
         <v>600</v>
       </c>
       <c r="K1068" t="n">
-        <v>9000</v>
+        <v>27000</v>
       </c>
       <c r="L1068" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="M1068" t="n">
-        <v>9500</v>
+        <v>27500</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1068" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>475</v>
+        <v>1833</v>
       </c>
       <c r="Q1068" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1068" t="inlineStr">
         <is>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1069" t="n">
         <v>4</v>
@@ -77316,7 +77316,7 @@
       </c>
       <c r="H1069" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1069" t="inlineStr">
@@ -77328,29 +77328,29 @@
         <v>400</v>
       </c>
       <c r="K1069" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="L1069" t="n">
-        <v>8000</v>
+        <v>26000</v>
       </c>
       <c r="M1069" t="n">
-        <v>7500</v>
+        <v>25500</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1069" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>375</v>
+        <v>1700</v>
       </c>
       <c r="Q1069" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1069" t="inlineStr">
         <is>
@@ -77388,7 +77388,7 @@
       </c>
       <c r="H1070" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1070" t="inlineStr">
@@ -77397,32 +77397,32 @@
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>720</v>
+        <v>660</v>
       </c>
       <c r="K1070" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L1070" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M1070" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1070" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>967</v>
+        <v>528</v>
       </c>
       <c r="Q1070" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1070" t="inlineStr">
         <is>
@@ -77460,7 +77460,7 @@
       </c>
       <c r="H1071" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1071" t="inlineStr">
@@ -77472,29 +77472,29 @@
         <v>440</v>
       </c>
       <c r="K1071" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L1071" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="M1071" t="n">
-        <v>10250</v>
+        <v>7500</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1071" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>683</v>
+        <v>417</v>
       </c>
       <c r="Q1071" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1071" t="inlineStr">
         <is>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E1072" t="n">
         <v>4</v>
@@ -77532,7 +77532,7 @@
       </c>
       <c r="H1072" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1072" t="inlineStr">
@@ -77541,7 +77541,7 @@
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="K1072" t="n">
         <v>9000</v>
@@ -77554,7 +77554,7 @@
       </c>
       <c r="N1072" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1072" t="inlineStr">
@@ -77563,10 +77563,10 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>528</v>
+        <v>475</v>
       </c>
       <c r="Q1072" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1072" t="inlineStr">
         <is>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E1073" t="n">
         <v>4</v>
@@ -77604,7 +77604,7 @@
       </c>
       <c r="H1073" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1073" t="inlineStr">
@@ -77613,7 +77613,7 @@
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K1073" t="n">
         <v>7000</v>
@@ -77626,7 +77626,7 @@
       </c>
       <c r="N1073" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1073" t="inlineStr">
@@ -77635,10 +77635,10 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q1073" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1073" t="inlineStr">
         <is>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E1074" t="n">
         <v>4</v>
@@ -77676,7 +77676,7 @@
       </c>
       <c r="H1074" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1074" t="inlineStr">
@@ -77685,32 +77685,32 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="K1074" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L1074" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M1074" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1074" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>475</v>
+        <v>967</v>
       </c>
       <c r="Q1074" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1074" t="inlineStr">
         <is>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E1075" t="n">
         <v>4</v>
@@ -77748,7 +77748,7 @@
       </c>
       <c r="H1075" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1075" t="inlineStr">
@@ -77757,32 +77757,32 @@
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K1075" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L1075" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M1075" t="n">
-        <v>7500</v>
+        <v>10250</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1075" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>375</v>
+        <v>683</v>
       </c>
       <c r="Q1075" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1075" t="inlineStr">
         <is>
@@ -77820,7 +77820,7 @@
       </c>
       <c r="H1076" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1076" t="inlineStr">
@@ -77829,32 +77829,32 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>760</v>
+        <v>660</v>
       </c>
       <c r="K1076" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L1076" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M1076" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1076" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>967</v>
+        <v>528</v>
       </c>
       <c r="Q1076" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1076" t="inlineStr">
         <is>
@@ -77892,7 +77892,7 @@
       </c>
       <c r="H1077" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1077" t="inlineStr">
@@ -77901,32 +77901,32 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="K1077" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L1077" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="M1077" t="n">
-        <v>10250</v>
+        <v>7500</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1077" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>683</v>
+        <v>417</v>
       </c>
       <c r="Q1077" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1077" t="inlineStr">
         <is>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1078" t="n">
         <v>4</v>
@@ -77964,7 +77964,7 @@
       </c>
       <c r="H1078" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1078" t="inlineStr">
@@ -77976,29 +77976,29 @@
         <v>600</v>
       </c>
       <c r="K1078" t="n">
-        <v>40000</v>
+        <v>9000</v>
       </c>
       <c r="L1078" t="n">
-        <v>41000</v>
+        <v>10000</v>
       </c>
       <c r="M1078" t="n">
-        <v>40500</v>
+        <v>9500</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1078" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>2700</v>
+        <v>475</v>
       </c>
       <c r="Q1078" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1079" t="n">
         <v>4</v>
@@ -78036,7 +78036,7 @@
       </c>
       <c r="H1079" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1079" t="inlineStr">
@@ -78048,29 +78048,29 @@
         <v>400</v>
       </c>
       <c r="K1079" t="n">
-        <v>35000</v>
+        <v>7000</v>
       </c>
       <c r="L1079" t="n">
-        <v>36000</v>
+        <v>8000</v>
       </c>
       <c r="M1079" t="n">
-        <v>35500</v>
+        <v>7500</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1079" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>2367</v>
+        <v>375</v>
       </c>
       <c r="Q1079" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1079" t="inlineStr">
         <is>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E1080" t="n">
         <v>4</v>
@@ -78108,7 +78108,7 @@
       </c>
       <c r="H1080" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1080" t="inlineStr">
@@ -78117,32 +78117,32 @@
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="K1080" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L1080" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M1080" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1080" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>542</v>
+        <v>967</v>
       </c>
       <c r="Q1080" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1080" t="inlineStr">
         <is>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E1081" t="n">
         <v>4</v>
@@ -78180,7 +78180,7 @@
       </c>
       <c r="H1081" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1081" t="inlineStr">
@@ -78189,32 +78189,32 @@
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K1081" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L1081" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="M1081" t="n">
-        <v>6750</v>
+        <v>10250</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1081" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>375</v>
+        <v>683</v>
       </c>
       <c r="Q1081" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1081" t="inlineStr">
         <is>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1082" t="n">
         <v>4</v>
@@ -78261,16 +78261,16 @@
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K1082" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="L1082" t="n">
-        <v>15000</v>
+        <v>41000</v>
       </c>
       <c r="M1082" t="n">
-        <v>14500</v>
+        <v>40500</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78283,7 +78283,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>967</v>
+        <v>2700</v>
       </c>
       <c r="Q1082" t="n">
         <v>15</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1083" t="n">
         <v>4</v>
@@ -78333,16 +78333,16 @@
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K1083" t="n">
-        <v>11500</v>
+        <v>35000</v>
       </c>
       <c r="L1083" t="n">
-        <v>12000</v>
+        <v>36000</v>
       </c>
       <c r="M1083" t="n">
-        <v>11750</v>
+        <v>35500</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>783</v>
+        <v>2367</v>
       </c>
       <c r="Q1083" t="n">
         <v>15</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1084" t="n">
         <v>4</v>
@@ -78396,7 +78396,7 @@
       </c>
       <c r="H1084" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1084" t="inlineStr">
@@ -78405,32 +78405,32 @@
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K1084" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="L1084" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M1084" t="n">
-        <v>19500</v>
+        <v>9750</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1084" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>1300</v>
+        <v>542</v>
       </c>
       <c r="Q1084" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1084" t="inlineStr">
         <is>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1085" t="n">
         <v>4</v>
@@ -78468,7 +78468,7 @@
       </c>
       <c r="H1085" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1085" t="inlineStr">
@@ -78477,32 +78477,32 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K1085" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L1085" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M1085" t="n">
-        <v>15500</v>
+        <v>6750</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1085" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>1033</v>
+        <v>375</v>
       </c>
       <c r="Q1085" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1085" t="inlineStr">
         <is>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E1086" t="n">
         <v>4</v>
@@ -78540,7 +78540,7 @@
       </c>
       <c r="H1086" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1086" t="inlineStr">
@@ -78549,32 +78549,32 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K1086" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="L1086" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M1086" t="n">
-        <v>24500</v>
+        <v>14500</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1086" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>1361</v>
+        <v>967</v>
       </c>
       <c r="Q1086" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1086" t="inlineStr">
         <is>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E1087" t="n">
         <v>4</v>
@@ -78612,7 +78612,7 @@
       </c>
       <c r="H1087" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1087" t="inlineStr">
@@ -78624,29 +78624,29 @@
         <v>500</v>
       </c>
       <c r="K1087" t="n">
-        <v>19000</v>
+        <v>11500</v>
       </c>
       <c r="L1087" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M1087" t="n">
-        <v>19500</v>
+        <v>11750</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1087" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>1083</v>
+        <v>783</v>
       </c>
       <c r="Q1087" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1087" t="inlineStr">
         <is>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1088" t="n">
         <v>4</v>
@@ -78693,16 +78693,16 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K1088" t="n">
-        <v>42000</v>
+        <v>19000</v>
       </c>
       <c r="L1088" t="n">
-        <v>43000</v>
+        <v>20000</v>
       </c>
       <c r="M1088" t="n">
-        <v>42500</v>
+        <v>19500</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78715,7 +78715,7 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>2833</v>
+        <v>1300</v>
       </c>
       <c r="Q1088" t="n">
         <v>15</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1089" t="n">
         <v>4</v>
@@ -78765,16 +78765,16 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K1089" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L1089" t="n">
-        <v>36000</v>
+        <v>16000</v>
       </c>
       <c r="M1089" t="n">
-        <v>35500</v>
+        <v>15500</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>2367</v>
+        <v>1033</v>
       </c>
       <c r="Q1089" t="n">
         <v>15</v>
@@ -78828,41 +78828,41 @@
       </c>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="K1090" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="L1090" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M1090" t="n">
-        <v>31500</v>
+        <v>24500</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1090" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>2100</v>
+        <v>1361</v>
       </c>
       <c r="Q1090" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1090" t="inlineStr">
         <is>
@@ -78900,16 +78900,16 @@
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>760</v>
+        <v>500</v>
       </c>
       <c r="K1091" t="n">
         <v>19000</v>
@@ -78922,19 +78922,19 @@
       </c>
       <c r="N1091" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1091" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>1300</v>
+        <v>1083</v>
       </c>
       <c r="Q1091" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1091" t="inlineStr">
         <is>
@@ -78972,25 +78972,25 @@
       </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K1092" t="n">
-        <v>14000</v>
+        <v>42000</v>
       </c>
       <c r="L1092" t="n">
-        <v>15000</v>
+        <v>43000</v>
       </c>
       <c r="M1092" t="n">
-        <v>14500</v>
+        <v>42500</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>967</v>
+        <v>2833</v>
       </c>
       <c r="Q1092" t="n">
         <v>15</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1093" t="n">
         <v>4</v>
@@ -79044,41 +79044,41 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1093" t="n">
         <v>600</v>
       </c>
       <c r="K1093" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="L1093" t="n">
-        <v>22000</v>
+        <v>36000</v>
       </c>
       <c r="M1093" t="n">
-        <v>21500</v>
+        <v>35500</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1093" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>1194</v>
+        <v>2367</v>
       </c>
       <c r="Q1093" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1093" t="inlineStr">
         <is>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1094" t="n">
         <v>4</v>
@@ -79116,41 +79116,41 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K1094" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="L1094" t="n">
-        <v>19000</v>
+        <v>32000</v>
       </c>
       <c r="M1094" t="n">
-        <v>18500</v>
+        <v>31500</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1094" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>1028</v>
+        <v>2100</v>
       </c>
       <c r="Q1094" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1094" t="inlineStr">
         <is>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1095" t="n">
         <v>4</v>
@@ -79188,7 +79188,7 @@
       </c>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
@@ -79197,16 +79197,16 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>640</v>
+        <v>760</v>
       </c>
       <c r="K1095" t="n">
-        <v>33500</v>
+        <v>19000</v>
       </c>
       <c r="L1095" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="M1095" t="n">
-        <v>33750</v>
+        <v>19500</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>2250</v>
+        <v>1300</v>
       </c>
       <c r="Q1095" t="n">
         <v>15</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1096" t="n">
         <v>4</v>
@@ -79260,7 +79260,7 @@
       </c>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
@@ -79269,16 +79269,16 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1096" t="n">
-        <v>29000</v>
+        <v>14000</v>
       </c>
       <c r="L1096" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M1096" t="n">
-        <v>29500</v>
+        <v>14500</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>1967</v>
+        <v>967</v>
       </c>
       <c r="Q1096" t="n">
         <v>15</v>
@@ -79332,7 +79332,7 @@
       </c>
       <c r="H1097" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1097" t="inlineStr">
@@ -79344,29 +79344,29 @@
         <v>600</v>
       </c>
       <c r="K1097" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L1097" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M1097" t="n">
-        <v>15500</v>
+        <v>21500</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1097" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>1033</v>
+        <v>1194</v>
       </c>
       <c r="Q1097" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1097" t="inlineStr">
         <is>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1098" t="n">
         <v>4</v>
@@ -79404,41 +79404,41 @@
       </c>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1098" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="L1098" t="n">
-        <v>44000</v>
+        <v>19000</v>
       </c>
       <c r="M1098" t="n">
-        <v>43500</v>
+        <v>18500</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1098" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>2900</v>
+        <v>1028</v>
       </c>
       <c r="Q1098" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1099" t="n">
         <v>4</v>
@@ -79485,16 +79485,16 @@
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="K1099" t="n">
-        <v>41000</v>
+        <v>33500</v>
       </c>
       <c r="L1099" t="n">
-        <v>42000</v>
+        <v>34000</v>
       </c>
       <c r="M1099" t="n">
-        <v>41500</v>
+        <v>33750</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79507,7 +79507,7 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>2767</v>
+        <v>2250</v>
       </c>
       <c r="Q1099" t="n">
         <v>15</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1100" t="n">
         <v>4</v>
@@ -79557,16 +79557,16 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K1100" t="n">
-        <v>39000</v>
+        <v>29000</v>
       </c>
       <c r="L1100" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="M1100" t="n">
-        <v>39500</v>
+        <v>29500</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79579,7 +79579,7 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>2633</v>
+        <v>1967</v>
       </c>
       <c r="Q1100" t="n">
         <v>15</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1101" t="n">
         <v>4</v>
@@ -79625,20 +79625,20 @@
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K1101" t="n">
-        <v>34000</v>
+        <v>15000</v>
       </c>
       <c r="L1101" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="M1101" t="n">
-        <v>34500</v>
+        <v>15500</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>2300</v>
+        <v>1033</v>
       </c>
       <c r="Q1101" t="n">
         <v>15</v>
@@ -79692,25 +79692,25 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K1102" t="n">
-        <v>32000</v>
+        <v>43000</v>
       </c>
       <c r="L1102" t="n">
-        <v>33000</v>
+        <v>44000</v>
       </c>
       <c r="M1102" t="n">
-        <v>32500</v>
+        <v>43500</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>2167</v>
+        <v>2900</v>
       </c>
       <c r="Q1102" t="n">
         <v>15</v>
@@ -79764,25 +79764,25 @@
       </c>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1103" t="n">
-        <v>25000</v>
+        <v>41000</v>
       </c>
       <c r="L1103" t="n">
-        <v>26000</v>
+        <v>42000</v>
       </c>
       <c r="M1103" t="n">
-        <v>25500</v>
+        <v>41500</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79795,7 +79795,7 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>1700</v>
+        <v>2767</v>
       </c>
       <c r="Q1103" t="n">
         <v>15</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1104" t="n">
         <v>4</v>
@@ -79836,41 +79836,41 @@
       </c>
       <c r="H1104" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>680</v>
+        <v>440</v>
       </c>
       <c r="K1104" t="n">
-        <v>17000</v>
+        <v>39000</v>
       </c>
       <c r="L1104" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="M1104" t="n">
-        <v>17500</v>
+        <v>39500</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1104" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>972</v>
+        <v>2633</v>
       </c>
       <c r="Q1104" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1105" t="n">
         <v>4</v>
@@ -79908,41 +79908,41 @@
       </c>
       <c r="H1105" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1105" t="n">
-        <v>13000</v>
+        <v>34000</v>
       </c>
       <c r="L1105" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="M1105" t="n">
-        <v>13500</v>
+        <v>34500</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1105" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>750</v>
+        <v>2300</v>
       </c>
       <c r="Q1105" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1105" t="inlineStr">
         <is>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1106" t="n">
         <v>4</v>
@@ -79980,7 +79980,7 @@
       </c>
       <c r="H1106" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1106" t="inlineStr">
@@ -79989,16 +79989,16 @@
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>700</v>
+        <v>560</v>
       </c>
       <c r="K1106" t="n">
-        <v>42000</v>
+        <v>32000</v>
       </c>
       <c r="L1106" t="n">
-        <v>43000</v>
+        <v>33000</v>
       </c>
       <c r="M1106" t="n">
-        <v>42500</v>
+        <v>32500</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>2833</v>
+        <v>2167</v>
       </c>
       <c r="Q1106" t="n">
         <v>15</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1107" t="n">
         <v>4</v>
@@ -80052,7 +80052,7 @@
       </c>
       <c r="H1107" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1107" t="inlineStr">
@@ -80064,13 +80064,13 @@
         <v>400</v>
       </c>
       <c r="K1107" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L1107" t="n">
-        <v>36000</v>
+        <v>26000</v>
       </c>
       <c r="M1107" t="n">
-        <v>35500</v>
+        <v>25500</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>2367</v>
+        <v>1700</v>
       </c>
       <c r="Q1107" t="n">
         <v>15</v>
@@ -80124,7 +80124,7 @@
       </c>
       <c r="H1108" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1108" t="inlineStr">
@@ -80133,32 +80133,32 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="K1108" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L1108" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M1108" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1108" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>1100</v>
+        <v>972</v>
       </c>
       <c r="Q1108" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1108" t="inlineStr">
         <is>
@@ -80196,7 +80196,7 @@
       </c>
       <c r="H1109" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1109" t="inlineStr">
@@ -80208,29 +80208,29 @@
         <v>400</v>
       </c>
       <c r="K1109" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L1109" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M1109" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1109" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="Q1109" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1109" t="inlineStr">
         <is>
@@ -80268,25 +80268,25 @@
       </c>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K1110" t="n">
-        <v>8000</v>
+        <v>42000</v>
       </c>
       <c r="L1110" t="n">
-        <v>9000</v>
+        <v>43000</v>
       </c>
       <c r="M1110" t="n">
-        <v>8500</v>
+        <v>42500</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>567</v>
+        <v>2833</v>
       </c>
       <c r="Q1110" t="n">
         <v>15</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1111" t="n">
         <v>4</v>
@@ -80340,41 +80340,41 @@
       </c>
       <c r="H1111" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K1111" t="n">
-        <v>9500</v>
+        <v>35000</v>
       </c>
       <c r="L1111" t="n">
-        <v>10000</v>
+        <v>36000</v>
       </c>
       <c r="M1111" t="n">
-        <v>9750</v>
+        <v>35500</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1111" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>542</v>
+        <v>2367</v>
       </c>
       <c r="Q1111" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1111" t="inlineStr">
         <is>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1112" t="n">
         <v>4</v>
@@ -80412,41 +80412,41 @@
       </c>
       <c r="H1112" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="K1112" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L1112" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="M1112" t="n">
-        <v>7250</v>
+        <v>16500</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1112" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>403</v>
+        <v>1100</v>
       </c>
       <c r="Q1112" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1112" t="inlineStr">
         <is>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1113" t="n">
         <v>4</v>
@@ -80484,25 +80484,25 @@
       </c>
       <c r="H1113" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="K1113" t="n">
-        <v>19500</v>
+        <v>10000</v>
       </c>
       <c r="L1113" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M1113" t="n">
-        <v>19750</v>
+        <v>10500</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>1317</v>
+        <v>700</v>
       </c>
       <c r="Q1113" t="n">
         <v>15</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1114" t="n">
         <v>4</v>
@@ -80556,25 +80556,25 @@
       </c>
       <c r="H1114" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="K1114" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="L1114" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M1114" t="n">
-        <v>15750</v>
+        <v>8500</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80587,7 +80587,7 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>1050</v>
+        <v>567</v>
       </c>
       <c r="Q1114" t="n">
         <v>15</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1115" t="n">
         <v>4</v>
@@ -80628,25 +80628,25 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K1115" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="L1115" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="M1115" t="n">
-        <v>18500</v>
+        <v>9750</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>1028</v>
+        <v>542</v>
       </c>
       <c r="Q1115" t="n">
         <v>18</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1116" t="n">
         <v>4</v>
@@ -80700,25 +80700,25 @@
       </c>
       <c r="H1116" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="K1116" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="L1116" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="M1116" t="n">
-        <v>16500</v>
+        <v>7250</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>917</v>
+        <v>403</v>
       </c>
       <c r="Q1116" t="n">
         <v>18</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1117" t="n">
         <v>4</v>
@@ -80772,41 +80772,41 @@
       </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>300</v>
+        <v>720</v>
       </c>
       <c r="K1117" t="n">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="L1117" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M1117" t="n">
-        <v>14500</v>
+        <v>19750</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1117" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>806</v>
+        <v>1317</v>
       </c>
       <c r="Q1117" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1117" t="inlineStr">
         <is>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1118" t="n">
         <v>4</v>
@@ -80849,20 +80849,20 @@
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="K1118" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="L1118" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M1118" t="n">
-        <v>17500</v>
+        <v>15750</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80875,7 +80875,7 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>1167</v>
+        <v>1050</v>
       </c>
       <c r="Q1118" t="n">
         <v>15</v>
@@ -80916,41 +80916,41 @@
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1119" t="n">
         <v>600</v>
       </c>
       <c r="K1119" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L1119" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M1119" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1119" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="Q1119" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1119" t="inlineStr">
         <is>
@@ -80988,41 +80988,41 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1120" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L1120" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M1120" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1120" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>900</v>
+        <v>917</v>
       </c>
       <c r="Q1120" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1120" t="inlineStr">
         <is>
@@ -81060,41 +81060,41 @@
       </c>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K1121" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L1121" t="n">
         <v>15000</v>
       </c>
-      <c r="L1121" t="n">
-        <v>16000</v>
-      </c>
       <c r="M1121" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1121" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>1033</v>
+        <v>806</v>
       </c>
       <c r="Q1121" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1121" t="inlineStr">
         <is>
@@ -81132,25 +81132,25 @@
       </c>
       <c r="H1122" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K1122" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L1122" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M1122" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>900</v>
+        <v>1167</v>
       </c>
       <c r="Q1122" t="n">
         <v>15</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1123" t="n">
         <v>4</v>
@@ -81216,13 +81216,13 @@
         <v>600</v>
       </c>
       <c r="K1123" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L1123" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M1123" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81235,7 +81235,7 @@
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>1233</v>
+        <v>1033</v>
       </c>
       <c r="Q1123" t="n">
         <v>15</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1124" t="n">
         <v>4</v>
@@ -81288,13 +81288,13 @@
         <v>400</v>
       </c>
       <c r="K1124" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="L1124" t="n">
         <v>14000</v>
       </c>
       <c r="M1124" t="n">
-        <v>13750</v>
+        <v>13500</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81307,7 +81307,7 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="Q1124" t="n">
         <v>15</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E1125" t="n">
         <v>4</v>
@@ -81348,41 +81348,41 @@
       </c>
       <c r="H1125" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K1125" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L1125" t="n">
         <v>16000</v>
       </c>
-      <c r="L1125" t="n">
-        <v>17000</v>
-      </c>
       <c r="M1125" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1125" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>917</v>
+        <v>1033</v>
       </c>
       <c r="Q1125" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1125" t="inlineStr">
         <is>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E1126" t="n">
         <v>4</v>
@@ -81420,41 +81420,41 @@
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1126" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L1126" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M1126" t="n">
-        <v>18500</v>
+        <v>13500</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1126" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>1028</v>
+        <v>900</v>
       </c>
       <c r="Q1126" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1126" t="inlineStr">
         <is>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1127" t="n">
         <v>4</v>
@@ -81492,7 +81492,7 @@
       </c>
       <c r="H1127" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1127" t="inlineStr">
@@ -81504,29 +81504,29 @@
         <v>600</v>
       </c>
       <c r="K1127" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L1127" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M1127" t="n">
-        <v>16500</v>
+        <v>18500</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1127" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>917</v>
+        <v>1233</v>
       </c>
       <c r="Q1127" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1127" t="inlineStr">
         <is>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1128" t="n">
         <v>4</v>
@@ -81564,7 +81564,7 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
@@ -81573,32 +81573,32 @@
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K1128" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L1128" t="n">
         <v>14000</v>
       </c>
-      <c r="L1128" t="n">
-        <v>15000</v>
-      </c>
       <c r="M1128" t="n">
-        <v>14500</v>
+        <v>13750</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1128" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>806</v>
+        <v>917</v>
       </c>
       <c r="Q1128" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1128" t="inlineStr">
         <is>
@@ -81636,41 +81636,41 @@
       </c>
       <c r="H1129" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K1129" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L1129" t="n">
         <v>17000</v>
       </c>
-      <c r="L1129" t="n">
-        <v>18000</v>
-      </c>
       <c r="M1129" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1129" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>1167</v>
+        <v>917</v>
       </c>
       <c r="Q1129" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1129" t="inlineStr">
         <is>
@@ -81708,41 +81708,41 @@
       </c>
       <c r="H1130" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1130" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L1130" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M1130" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1130" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="Q1130" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1130" t="inlineStr">
         <is>
@@ -81780,41 +81780,41 @@
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1131" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L1131" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M1131" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1131" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>900</v>
+        <v>917</v>
       </c>
       <c r="Q1131" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1131" t="inlineStr">
         <is>
@@ -81852,41 +81852,41 @@
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K1132" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L1132" t="n">
         <v>15000</v>
       </c>
-      <c r="L1132" t="n">
-        <v>16000</v>
-      </c>
       <c r="M1132" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1132" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>1033</v>
+        <v>806</v>
       </c>
       <c r="Q1132" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1132" t="inlineStr">
         <is>
@@ -81924,25 +81924,25 @@
       </c>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K1133" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L1133" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M1133" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81955,7 +81955,7 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>900</v>
+        <v>1167</v>
       </c>
       <c r="Q1133" t="n">
         <v>15</v>
@@ -81996,25 +81996,25 @@
       </c>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K1134" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L1134" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M1134" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82027,7 +82027,7 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>767</v>
+        <v>1033</v>
       </c>
       <c r="Q1134" t="n">
         <v>15</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1135" t="n">
         <v>4</v>
@@ -82068,41 +82068,41 @@
       </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>840</v>
+        <v>400</v>
       </c>
       <c r="K1135" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L1135" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M1135" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1135" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>472</v>
+        <v>900</v>
       </c>
       <c r="Q1135" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1135" t="inlineStr">
         <is>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1136" t="n">
         <v>4</v>
@@ -82140,41 +82140,41 @@
       </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K1136" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="L1136" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M1136" t="n">
-        <v>5750</v>
+        <v>15500</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1136" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>319</v>
+        <v>1033</v>
       </c>
       <c r="Q1136" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1136" t="inlineStr">
         <is>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1137" t="n">
         <v>4</v>
@@ -82212,7 +82212,7 @@
       </c>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1137" t="inlineStr">
@@ -82221,32 +82221,32 @@
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>760</v>
+        <v>600</v>
       </c>
       <c r="K1137" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L1137" t="n">
         <v>14000</v>
       </c>
-      <c r="L1137" t="n">
-        <v>15000</v>
-      </c>
       <c r="M1137" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1137" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>806</v>
+        <v>900</v>
       </c>
       <c r="Q1137" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1137" t="inlineStr">
         <is>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1138" t="n">
         <v>4</v>
@@ -82284,7 +82284,7 @@
       </c>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1138" t="inlineStr">
@@ -82293,7 +82293,7 @@
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K1138" t="n">
         <v>11000</v>
@@ -82306,19 +82306,19 @@
       </c>
       <c r="N1138" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1138" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>639</v>
+        <v>767</v>
       </c>
       <c r="Q1138" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1138" t="inlineStr">
         <is>
@@ -82356,7 +82356,7 @@
       </c>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1139" t="inlineStr">
@@ -82365,32 +82365,32 @@
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>900</v>
+        <v>840</v>
       </c>
       <c r="K1139" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L1139" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M1139" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1139" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>1100</v>
+        <v>472</v>
       </c>
       <c r="Q1139" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1139" t="inlineStr">
         <is>
@@ -82428,7 +82428,7 @@
       </c>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1140" t="inlineStr">
@@ -82437,32 +82437,32 @@
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="K1140" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L1140" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M1140" t="n">
-        <v>12500</v>
+        <v>5750</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1140" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>833</v>
+        <v>319</v>
       </c>
       <c r="Q1140" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1140" t="inlineStr">
         <is>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1141" t="n">
         <v>4</v>
@@ -82500,25 +82500,25 @@
       </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="K1141" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L1141" t="n">
         <v>15000</v>
       </c>
       <c r="M1141" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82531,7 +82531,7 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="Q1141" t="n">
         <v>18</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1142" t="n">
         <v>4</v>
@@ -82572,25 +82572,25 @@
       </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K1142" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L1142" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M1142" t="n">
-        <v>12750</v>
+        <v>11500</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82603,7 +82603,7 @@
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>708</v>
+        <v>639</v>
       </c>
       <c r="Q1142" t="n">
         <v>18</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1143" t="n">
         <v>4</v>
@@ -82644,41 +82644,41 @@
       </c>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K1143" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="L1143" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M1143" t="n">
-        <v>10750</v>
+        <v>16500</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1143" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>597</v>
+        <v>1100</v>
       </c>
       <c r="Q1143" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1143" t="inlineStr">
         <is>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1144" t="n">
         <v>4</v>
@@ -82716,41 +82716,41 @@
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K1144" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L1144" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M1144" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1144" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>975</v>
+        <v>833</v>
       </c>
       <c r="Q1144" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1144" t="inlineStr">
         <is>
@@ -82788,29 +82788,29 @@
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K1145" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L1145" t="n">
         <v>15000</v>
       </c>
-      <c r="L1145" t="n">
-        <v>16000</v>
-      </c>
       <c r="M1145" t="n">
-        <v>15500</v>
+        <v>14750</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1145" t="inlineStr">
@@ -82819,10 +82819,10 @@
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>775</v>
+        <v>819</v>
       </c>
       <c r="Q1145" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1145" t="inlineStr">
         <is>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1146" t="n">
         <v>4</v>
@@ -82869,16 +82869,16 @@
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K1146" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="L1146" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M1146" t="n">
-        <v>17500</v>
+        <v>12750</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
@@ -82891,7 +82891,7 @@
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>972</v>
+        <v>708</v>
       </c>
       <c r="Q1146" t="n">
         <v>18</v>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1147" t="n">
         <v>4</v>
@@ -82941,16 +82941,16 @@
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K1147" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="L1147" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M1147" t="n">
-        <v>13500</v>
+        <v>10750</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
@@ -82963,7 +82963,7 @@
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>750</v>
+        <v>597</v>
       </c>
       <c r="Q1147" t="n">
         <v>18</v>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1148" t="n">
         <v>4</v>
@@ -83004,7 +83004,7 @@
       </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1148" t="inlineStr">
@@ -83013,32 +83013,32 @@
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>760</v>
+        <v>600</v>
       </c>
       <c r="K1148" t="n">
-        <v>41000</v>
+        <v>19000</v>
       </c>
       <c r="L1148" t="n">
-        <v>42000</v>
+        <v>20000</v>
       </c>
       <c r="M1148" t="n">
-        <v>41500</v>
+        <v>19500</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1148" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>2767</v>
+        <v>975</v>
       </c>
       <c r="Q1148" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1148" t="inlineStr">
         <is>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1149" t="n">
         <v>4</v>
@@ -83076,41 +83076,41 @@
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1149" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="L1149" t="n">
-        <v>43000</v>
+        <v>16000</v>
       </c>
       <c r="M1149" t="n">
-        <v>42500</v>
+        <v>15500</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1149" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>2833</v>
+        <v>775</v>
       </c>
       <c r="Q1149" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1149" t="inlineStr">
         <is>
@@ -83148,41 +83148,41 @@
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1150" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="L1150" t="n">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="M1150" t="n">
-        <v>35500</v>
+        <v>17500</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1150" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>2367</v>
+        <v>972</v>
       </c>
       <c r="Q1150" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1150" t="inlineStr">
         <is>
@@ -83220,41 +83220,41 @@
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K1151" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L1151" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M1151" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1151" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>1167</v>
+        <v>750</v>
       </c>
       <c r="Q1151" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1151" t="inlineStr">
         <is>
@@ -83292,25 +83292,25 @@
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>540</v>
+        <v>760</v>
       </c>
       <c r="K1152" t="n">
-        <v>10000</v>
+        <v>41000</v>
       </c>
       <c r="L1152" t="n">
-        <v>11000</v>
+        <v>42000</v>
       </c>
       <c r="M1152" t="n">
-        <v>10500</v>
+        <v>41500</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
@@ -83323,7 +83323,7 @@
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>700</v>
+        <v>2767</v>
       </c>
       <c r="Q1152" t="n">
         <v>15</v>
@@ -83364,25 +83364,25 @@
       </c>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1153" t="n">
-        <v>8000</v>
+        <v>42000</v>
       </c>
       <c r="L1153" t="n">
-        <v>9000</v>
+        <v>43000</v>
       </c>
       <c r="M1153" t="n">
-        <v>8500</v>
+        <v>42500</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
@@ -83395,7 +83395,7 @@
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>567</v>
+        <v>2833</v>
       </c>
       <c r="Q1153" t="n">
         <v>15</v>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1154" t="n">
         <v>4</v>
@@ -83436,41 +83436,41 @@
       </c>
       <c r="H1154" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K1154" t="n">
-        <v>11500</v>
+        <v>35000</v>
       </c>
       <c r="L1154" t="n">
-        <v>12000</v>
+        <v>36000</v>
       </c>
       <c r="M1154" t="n">
-        <v>11750</v>
+        <v>35500</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1154" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>653</v>
+        <v>2367</v>
       </c>
       <c r="Q1154" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1154" t="inlineStr">
         <is>
@@ -83493,7 +83493,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1155" t="n">
         <v>4</v>
@@ -83508,41 +83508,41 @@
       </c>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="K1155" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="L1155" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M1155" t="n">
-        <v>9750</v>
+        <v>17500</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1155" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>542</v>
+        <v>1167</v>
       </c>
       <c r="Q1155" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1155" t="inlineStr">
         <is>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1156" t="n">
         <v>4</v>
@@ -83580,41 +83580,41 @@
       </c>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1156" t="n">
+        <v>540</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N1156" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1156" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1156" t="n">
         <v>700</v>
       </c>
-      <c r="K1156" t="n">
-        <v>14500</v>
-      </c>
-      <c r="L1156" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M1156" t="n">
-        <v>14750</v>
-      </c>
-      <c r="N1156" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="O1156" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P1156" t="n">
-        <v>738</v>
-      </c>
       <c r="Q1156" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1156" t="inlineStr">
         <is>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1157" t="n">
         <v>4</v>
@@ -83652,41 +83652,41 @@
       </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K1157" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L1157" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="M1157" t="n">
-        <v>10250</v>
+        <v>8500</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1157" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>512</v>
+        <v>567</v>
       </c>
       <c r="Q1157" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1157" t="inlineStr">
         <is>
@@ -83724,7 +83724,7 @@
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1158" t="inlineStr">
@@ -83733,32 +83733,32 @@
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>660</v>
+        <v>700</v>
       </c>
       <c r="K1158" t="n">
-        <v>24000</v>
+        <v>11500</v>
       </c>
       <c r="L1158" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M1158" t="n">
-        <v>24500</v>
+        <v>11750</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1158" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>1633</v>
+        <v>653</v>
       </c>
       <c r="Q1158" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1158" t="inlineStr">
         <is>
@@ -83796,7 +83796,7 @@
       </c>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1159" t="inlineStr">
@@ -83805,32 +83805,32 @@
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K1159" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="L1159" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M1159" t="n">
-        <v>19500</v>
+        <v>9750</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1159" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>1300</v>
+        <v>542</v>
       </c>
       <c r="Q1159" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1159" t="inlineStr">
         <is>
@@ -83853,7 +83853,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1160" t="n">
         <v>4</v>
@@ -83877,20 +83877,20 @@
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K1160" t="n">
-        <v>34000</v>
+        <v>14500</v>
       </c>
       <c r="L1160" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="M1160" t="n">
-        <v>34500</v>
+        <v>14750</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1160" t="inlineStr">
@@ -83899,10 +83899,10 @@
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>1917</v>
+        <v>738</v>
       </c>
       <c r="Q1160" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1160" t="inlineStr">
         <is>
@@ -83925,7 +83925,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1161" t="n">
         <v>4</v>
@@ -83949,20 +83949,20 @@
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K1161" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="L1161" t="n">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="M1161" t="n">
-        <v>32500</v>
+        <v>10250</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1161" t="inlineStr">
@@ -83971,10 +83971,10 @@
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>1806</v>
+        <v>512</v>
       </c>
       <c r="Q1161" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1161" t="inlineStr">
         <is>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1162" t="n">
         <v>4</v>
@@ -84017,20 +84017,20 @@
       </c>
       <c r="I1162" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="K1162" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L1162" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M1162" t="n">
-        <v>28500</v>
+        <v>24500</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
@@ -84043,7 +84043,7 @@
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>1900</v>
+        <v>1633</v>
       </c>
       <c r="Q1162" t="n">
         <v>15</v>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1163" t="n">
         <v>4</v>
@@ -84089,20 +84089,20 @@
       </c>
       <c r="I1163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1163" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="L1163" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="M1163" t="n">
-        <v>25500</v>
+        <v>19500</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
@@ -84115,7 +84115,7 @@
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="Q1163" t="n">
         <v>15</v>
@@ -84156,41 +84156,41 @@
       </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K1164" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="L1164" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M1164" t="n">
-        <v>23500</v>
+        <v>34500</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1164" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>1567</v>
+        <v>1917</v>
       </c>
       <c r="Q1164" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1164" t="inlineStr">
         <is>
@@ -84228,41 +84228,41 @@
       </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1165" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1165" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="L1165" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="M1165" t="n">
-        <v>26500</v>
+        <v>32500</v>
       </c>
       <c r="N1165" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1165" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>1767</v>
+        <v>1806</v>
       </c>
       <c r="Q1165" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1165" t="inlineStr">
         <is>
@@ -84300,25 +84300,25 @@
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K1166" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L1166" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="M1166" t="n">
-        <v>23500</v>
+        <v>28500</v>
       </c>
       <c r="N1166" t="inlineStr">
         <is>
@@ -84331,7 +84331,7 @@
         </is>
       </c>
       <c r="P1166" t="n">
-        <v>1567</v>
+        <v>1900</v>
       </c>
       <c r="Q1166" t="n">
         <v>15</v>
@@ -84372,25 +84372,25 @@
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1167" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L1167" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="M1167" t="n">
-        <v>20500</v>
+        <v>25500</v>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
@@ -84403,7 +84403,7 @@
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>1367</v>
+        <v>1700</v>
       </c>
       <c r="Q1167" t="n">
         <v>15</v>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1168" t="n">
         <v>4</v>
@@ -84449,20 +84449,20 @@
       </c>
       <c r="I1168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1168" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="K1168" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L1168" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M1168" t="n">
-        <v>26500</v>
+        <v>23500</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
@@ -84475,7 +84475,7 @@
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>1767</v>
+        <v>1567</v>
       </c>
       <c r="Q1168" t="n">
         <v>15</v>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1169" t="n">
         <v>4</v>
@@ -84516,25 +84516,25 @@
       </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1169" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L1169" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="M1169" t="n">
-        <v>22500</v>
+        <v>26500</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
@@ -84547,7 +84547,7 @@
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>1500</v>
+        <v>1767</v>
       </c>
       <c r="Q1169" t="n">
         <v>15</v>
@@ -84573,7 +84573,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44194</v>
+        <v>44432</v>
       </c>
       <c r="E1170" t="n">
         <v>4</v>
@@ -84588,7 +84588,7 @@
       </c>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1170" t="inlineStr">
@@ -84597,16 +84597,16 @@
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="K1170" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L1170" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M1170" t="n">
-        <v>26500</v>
+        <v>23500</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
@@ -84619,7 +84619,7 @@
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>1767</v>
+        <v>1567</v>
       </c>
       <c r="Q1170" t="n">
         <v>15</v>
@@ -84645,7 +84645,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44194</v>
+        <v>44432</v>
       </c>
       <c r="E1171" t="n">
         <v>4</v>
@@ -84660,7 +84660,7 @@
       </c>
       <c r="H1171" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1171" t="inlineStr">
@@ -84669,16 +84669,16 @@
         </is>
       </c>
       <c r="J1171" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K1171" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L1171" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="M1171" t="n">
-        <v>22500</v>
+        <v>20500</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
@@ -84691,7 +84691,7 @@
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>1500</v>
+        <v>1367</v>
       </c>
       <c r="Q1171" t="n">
         <v>15</v>
@@ -84717,7 +84717,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44271</v>
+        <v>44181</v>
       </c>
       <c r="E1172" t="n">
         <v>4</v>
@@ -84741,16 +84741,16 @@
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K1172" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="L1172" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="M1172" t="n">
-        <v>13500</v>
+        <v>26500</v>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
@@ -84763,7 +84763,7 @@
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>900</v>
+        <v>1767</v>
       </c>
       <c r="Q1172" t="n">
         <v>15</v>
@@ -84789,7 +84789,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44271</v>
+        <v>44181</v>
       </c>
       <c r="E1173" t="n">
         <v>4</v>
@@ -84816,13 +84816,13 @@
         <v>400</v>
       </c>
       <c r="K1173" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L1173" t="n">
-        <v>10500</v>
+        <v>23000</v>
       </c>
       <c r="M1173" t="n">
-        <v>10250</v>
+        <v>22500</v>
       </c>
       <c r="N1173" t="inlineStr">
         <is>
@@ -84835,7 +84835,7 @@
         </is>
       </c>
       <c r="P1173" t="n">
-        <v>683</v>
+        <v>1500</v>
       </c>
       <c r="Q1173" t="n">
         <v>15</v>
@@ -84861,7 +84861,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44307</v>
+        <v>44194</v>
       </c>
       <c r="E1174" t="n">
         <v>4</v>
@@ -84876,7 +84876,7 @@
       </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1174" t="inlineStr">
@@ -84885,32 +84885,32 @@
         </is>
       </c>
       <c r="J1174" t="n">
-        <v>740</v>
+        <v>640</v>
       </c>
       <c r="K1174" t="n">
-        <v>8500</v>
+        <v>26000</v>
       </c>
       <c r="L1174" t="n">
-        <v>9000</v>
+        <v>27000</v>
       </c>
       <c r="M1174" t="n">
-        <v>8750</v>
+        <v>26500</v>
       </c>
       <c r="N1174" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1174" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1174" t="n">
-        <v>486</v>
+        <v>1767</v>
       </c>
       <c r="Q1174" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1174" t="inlineStr">
         <is>
@@ -84933,7 +84933,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44307</v>
+        <v>44194</v>
       </c>
       <c r="E1175" t="n">
         <v>4</v>
@@ -84948,7 +84948,7 @@
       </c>
       <c r="H1175" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1175" t="inlineStr">
@@ -84957,32 +84957,32 @@
         </is>
       </c>
       <c r="J1175" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K1175" t="n">
-        <v>6500</v>
+        <v>22000</v>
       </c>
       <c r="L1175" t="n">
-        <v>7000</v>
+        <v>23000</v>
       </c>
       <c r="M1175" t="n">
-        <v>6750</v>
+        <v>22500</v>
       </c>
       <c r="N1175" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1175" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1175" t="n">
-        <v>375</v>
+        <v>1500</v>
       </c>
       <c r="Q1175" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1175" t="inlineStr">
         <is>
@@ -85005,7 +85005,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1176" t="n">
         <v>4</v>
@@ -85020,7 +85020,7 @@
       </c>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1176" t="inlineStr">
@@ -85029,32 +85029,32 @@
         </is>
       </c>
       <c r="J1176" t="n">
-        <v>720</v>
+        <v>520</v>
       </c>
       <c r="K1176" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L1176" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M1176" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1176" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1176" t="n">
-        <v>488</v>
+        <v>900</v>
       </c>
       <c r="Q1176" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1176" t="inlineStr">
         <is>
@@ -85077,7 +85077,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1177" t="n">
         <v>4</v>
@@ -85092,7 +85092,7 @@
       </c>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1177" t="inlineStr">
@@ -85101,32 +85101,32 @@
         </is>
       </c>
       <c r="J1177" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K1177" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L1177" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M1177" t="n">
-        <v>7750</v>
+        <v>10250</v>
       </c>
       <c r="N1177" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1177" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1177" t="n">
-        <v>388</v>
+        <v>683</v>
       </c>
       <c r="Q1177" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1177" t="inlineStr">
         <is>
@@ -85164,7 +85164,7 @@
       </c>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1178" t="inlineStr">
@@ -85173,32 +85173,32 @@
         </is>
       </c>
       <c r="J1178" t="n">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="K1178" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L1178" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M1178" t="n">
-        <v>13500</v>
+        <v>8750</v>
       </c>
       <c r="N1178" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1178" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1178" t="n">
-        <v>900</v>
+        <v>486</v>
       </c>
       <c r="Q1178" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1178" t="inlineStr">
         <is>
@@ -85236,7 +85236,7 @@
       </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1179" t="inlineStr">
@@ -85245,32 +85245,32 @@
         </is>
       </c>
       <c r="J1179" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K1179" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L1179" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M1179" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1179" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1179" t="n">
-        <v>633</v>
+        <v>375</v>
       </c>
       <c r="Q1179" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1179" t="inlineStr">
         <is>
@@ -85293,7 +85293,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1180" t="n">
         <v>4</v>
@@ -85313,24 +85313,24 @@
       </c>
       <c r="I1180" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="K1180" t="n">
-        <v>24000</v>
+        <v>9500</v>
       </c>
       <c r="L1180" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M1180" t="n">
-        <v>24500</v>
+        <v>9750</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1180" t="inlineStr">
@@ -85339,10 +85339,10 @@
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>1361</v>
+        <v>488</v>
       </c>
       <c r="Q1180" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1180" t="inlineStr">
         <is>
@@ -85365,7 +85365,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1181" t="n">
         <v>4</v>
@@ -85385,24 +85385,24 @@
       </c>
       <c r="I1181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1181" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="K1181" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="L1181" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M1181" t="n">
-        <v>19500</v>
+        <v>7750</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1181" t="inlineStr">
@@ -85411,10 +85411,10 @@
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>1083</v>
+        <v>388</v>
       </c>
       <c r="Q1181" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1181" t="inlineStr">
         <is>
@@ -85437,7 +85437,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1182" t="n">
         <v>4</v>
@@ -85452,41 +85452,41 @@
       </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K1182" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L1182" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M1182" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="N1182" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1182" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1182" t="n">
-        <v>861</v>
+        <v>900</v>
       </c>
       <c r="Q1182" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1182" t="inlineStr">
         <is>
@@ -85509,7 +85509,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1183" t="n">
         <v>4</v>
@@ -85529,20 +85529,20 @@
       </c>
       <c r="I1183" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K1183" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L1183" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="M1183" t="n">
-        <v>18500</v>
+        <v>9500</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
@@ -85555,7 +85555,7 @@
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>1233</v>
+        <v>633</v>
       </c>
       <c r="Q1183" t="n">
         <v>15</v>
@@ -85596,41 +85596,41 @@
       </c>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1184" t="n">
         <v>600</v>
       </c>
       <c r="K1184" t="n">
-        <v>16500</v>
+        <v>24000</v>
       </c>
       <c r="L1184" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M1184" t="n">
-        <v>16750</v>
+        <v>24500</v>
       </c>
       <c r="N1184" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1184" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1184" t="n">
-        <v>1117</v>
+        <v>1361</v>
       </c>
       <c r="Q1184" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1184" t="inlineStr">
         <is>
@@ -85668,41 +85668,41 @@
       </c>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1185" t="n">
         <v>500</v>
       </c>
       <c r="K1185" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="L1185" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M1185" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="N1185" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1185" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1185" t="n">
-        <v>983</v>
+        <v>1083</v>
       </c>
       <c r="Q1185" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1185" t="inlineStr">
         <is>
@@ -85725,7 +85725,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1186" t="n">
         <v>4</v>
@@ -85740,25 +85740,25 @@
       </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1186" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K1186" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="L1186" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M1186" t="n">
-        <v>8750</v>
+        <v>15500</v>
       </c>
       <c r="N1186" t="inlineStr">
         <is>
@@ -85771,7 +85771,7 @@
         </is>
       </c>
       <c r="P1186" t="n">
-        <v>486</v>
+        <v>861</v>
       </c>
       <c r="Q1186" t="n">
         <v>18</v>
@@ -85797,7 +85797,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1187" t="n">
         <v>4</v>
@@ -85812,41 +85812,41 @@
       </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1187" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="K1187" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="L1187" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="M1187" t="n">
-        <v>6750</v>
+        <v>18500</v>
       </c>
       <c r="N1187" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1187" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1187" t="n">
-        <v>375</v>
+        <v>1233</v>
       </c>
       <c r="Q1187" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1187" t="inlineStr">
         <is>
@@ -85869,7 +85869,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1188" t="n">
         <v>4</v>
@@ -85884,7 +85884,7 @@
       </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1188" t="inlineStr">
@@ -85893,32 +85893,32 @@
         </is>
       </c>
       <c r="J1188" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K1188" t="n">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="L1188" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M1188" t="n">
-        <v>9750</v>
+        <v>16750</v>
       </c>
       <c r="N1188" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1188" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1188" t="n">
-        <v>488</v>
+        <v>1117</v>
       </c>
       <c r="Q1188" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1188" t="inlineStr">
         <is>
@@ -85941,7 +85941,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1189" t="n">
         <v>4</v>
@@ -85956,7 +85956,7 @@
       </c>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1189" t="inlineStr">
@@ -85968,29 +85968,29 @@
         <v>500</v>
       </c>
       <c r="K1189" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="L1189" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M1189" t="n">
-        <v>7750</v>
+        <v>14750</v>
       </c>
       <c r="N1189" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1189" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1189" t="n">
-        <v>388</v>
+        <v>983</v>
       </c>
       <c r="Q1189" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1189" t="inlineStr">
         <is>
@@ -86028,29 +86028,29 @@
       </c>
       <c r="H1190" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1190" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1190" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K1190" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L1190" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1190" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1190" t="inlineStr">
@@ -86059,10 +86059,10 @@
         </is>
       </c>
       <c r="P1190" t="n">
-        <v>288</v>
+        <v>486</v>
       </c>
       <c r="Q1190" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1190" t="inlineStr">
         <is>
@@ -86100,41 +86100,41 @@
       </c>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1191" t="n">
-        <v>660</v>
+        <v>480</v>
       </c>
       <c r="K1191" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="L1191" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M1191" t="n">
-        <v>13750</v>
+        <v>6750</v>
       </c>
       <c r="N1191" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1191" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1191" t="n">
-        <v>917</v>
+        <v>375</v>
       </c>
       <c r="Q1191" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1191" t="inlineStr">
         <is>
@@ -86172,16 +86172,16 @@
       </c>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1192" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K1192" t="n">
         <v>9500</v>
@@ -86194,19 +86194,19 @@
       </c>
       <c r="N1192" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1192" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1192" t="n">
-        <v>650</v>
+        <v>488</v>
       </c>
       <c r="Q1192" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1192" t="inlineStr">
         <is>
@@ -86229,7 +86229,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1193" t="n">
         <v>4</v>
@@ -86244,29 +86244,29 @@
       </c>
       <c r="H1193" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1193" t="n">
-        <v>720</v>
+        <v>500</v>
       </c>
       <c r="K1193" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="L1193" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="M1193" t="n">
-        <v>24500</v>
+        <v>7750</v>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1193" t="inlineStr">
@@ -86275,10 +86275,10 @@
         </is>
       </c>
       <c r="P1193" t="n">
-        <v>1361</v>
+        <v>388</v>
       </c>
       <c r="Q1193" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1193" t="inlineStr">
         <is>
@@ -86301,7 +86301,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1194" t="n">
         <v>4</v>
@@ -86316,29 +86316,29 @@
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1194" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K1194" t="n">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="L1194" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="M1194" t="n">
-        <v>19500</v>
+        <v>5750</v>
       </c>
       <c r="N1194" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1194" t="inlineStr">
@@ -86347,10 +86347,10 @@
         </is>
       </c>
       <c r="P1194" t="n">
-        <v>1083</v>
+        <v>288</v>
       </c>
       <c r="Q1194" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1194" t="inlineStr">
         <is>
@@ -86373,7 +86373,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1195" t="n">
         <v>4</v>
@@ -86397,16 +86397,16 @@
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>760</v>
+        <v>660</v>
       </c>
       <c r="K1195" t="n">
-        <v>41000</v>
+        <v>13500</v>
       </c>
       <c r="L1195" t="n">
-        <v>42000</v>
+        <v>14000</v>
       </c>
       <c r="M1195" t="n">
-        <v>41500</v>
+        <v>13750</v>
       </c>
       <c r="N1195" t="inlineStr">
         <is>
@@ -86419,7 +86419,7 @@
         </is>
       </c>
       <c r="P1195" t="n">
-        <v>2767</v>
+        <v>917</v>
       </c>
       <c r="Q1195" t="n">
         <v>15</v>
@@ -86445,7 +86445,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1196" t="n">
         <v>4</v>
@@ -86472,13 +86472,13 @@
         <v>500</v>
       </c>
       <c r="K1196" t="n">
-        <v>34000</v>
+        <v>9500</v>
       </c>
       <c r="L1196" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="M1196" t="n">
-        <v>34500</v>
+        <v>9750</v>
       </c>
       <c r="N1196" t="inlineStr">
         <is>
@@ -86491,12 +86491,300 @@
         </is>
       </c>
       <c r="P1196" t="n">
-        <v>2300</v>
+        <v>650</v>
       </c>
       <c r="Q1196" t="n">
         <v>15</v>
       </c>
       <c r="R1196" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1197" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1197" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1197" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1197" t="n">
+        <v>720</v>
+      </c>
+      <c r="K1197" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L1197" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M1197" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N1197" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1197" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P1197" t="n">
+        <v>1361</v>
+      </c>
+      <c r="Q1197" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1197" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1198" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1198" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1198" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1198" t="n">
+        <v>440</v>
+      </c>
+      <c r="K1198" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L1198" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M1198" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N1198" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1198" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P1198" t="n">
+        <v>1083</v>
+      </c>
+      <c r="Q1198" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1198" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1199" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1199" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1199" t="n">
+        <v>760</v>
+      </c>
+      <c r="K1199" t="n">
+        <v>41000</v>
+      </c>
+      <c r="L1199" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M1199" t="n">
+        <v>41500</v>
+      </c>
+      <c r="N1199" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1199" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1199" t="n">
+        <v>2767</v>
+      </c>
+      <c r="Q1199" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1199" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1200" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1200" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1200" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1200" t="n">
+        <v>500</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>34000</v>
+      </c>
+      <c r="L1200" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M1200" t="n">
+        <v>34500</v>
+      </c>
+      <c r="N1200" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1200" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1200" t="n">
+        <v>2300</v>
+      </c>
+      <c r="Q1200" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1200" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1376"/>
+  <dimension ref="A1:R1380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91629,7 +91629,7 @@
         </is>
       </c>
       <c r="D1268" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1268" t="n">
         <v>4</v>
@@ -91644,7 +91644,7 @@
       </c>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1268" t="inlineStr">
@@ -91653,32 +91653,32 @@
         </is>
       </c>
       <c r="J1268" t="n">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="K1268" t="n">
-        <v>39000</v>
+        <v>11000</v>
       </c>
       <c r="L1268" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="M1268" t="n">
-        <v>39500</v>
+        <v>11500</v>
       </c>
       <c r="N1268" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1268" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1268" t="n">
-        <v>2633</v>
+        <v>639</v>
       </c>
       <c r="Q1268" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1268" t="inlineStr">
         <is>
@@ -91701,7 +91701,7 @@
         </is>
       </c>
       <c r="D1269" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1269" t="n">
         <v>4</v>
@@ -91716,7 +91716,7 @@
       </c>
       <c r="H1269" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1269" t="inlineStr">
@@ -91725,32 +91725,32 @@
         </is>
       </c>
       <c r="J1269" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K1269" t="n">
-        <v>34000</v>
+        <v>8000</v>
       </c>
       <c r="L1269" t="n">
-        <v>35000</v>
+        <v>9000</v>
       </c>
       <c r="M1269" t="n">
-        <v>34500</v>
+        <v>8500</v>
       </c>
       <c r="N1269" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1269" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1269" t="n">
-        <v>2300</v>
+        <v>472</v>
       </c>
       <c r="Q1269" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1269" t="inlineStr">
         <is>
@@ -91773,7 +91773,7 @@
         </is>
       </c>
       <c r="D1270" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1270" t="n">
         <v>4</v>
@@ -91788,7 +91788,7 @@
       </c>
       <c r="H1270" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1270" t="inlineStr">
@@ -91797,16 +91797,16 @@
         </is>
       </c>
       <c r="J1270" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K1270" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="L1270" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="M1270" t="n">
-        <v>27500</v>
+        <v>16500</v>
       </c>
       <c r="N1270" t="inlineStr">
         <is>
@@ -91819,7 +91819,7 @@
         </is>
       </c>
       <c r="P1270" t="n">
-        <v>1833</v>
+        <v>1100</v>
       </c>
       <c r="Q1270" t="n">
         <v>15</v>
@@ -91845,7 +91845,7 @@
         </is>
       </c>
       <c r="D1271" s="2" t="n">
-        <v>44427</v>
+        <v>44578</v>
       </c>
       <c r="E1271" t="n">
         <v>4</v>
@@ -91860,41 +91860,41 @@
       </c>
       <c r="H1271" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1271" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1271" t="n">
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="K1271" t="n">
-        <v>37000</v>
+        <v>12000</v>
       </c>
       <c r="L1271" t="n">
-        <v>38000</v>
+        <v>13000</v>
       </c>
       <c r="M1271" t="n">
-        <v>37500</v>
+        <v>12500</v>
       </c>
       <c r="N1271" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1271" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1271" t="n">
-        <v>2083</v>
+        <v>833</v>
       </c>
       <c r="Q1271" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1271" t="inlineStr">
         <is>
@@ -91917,7 +91917,7 @@
         </is>
       </c>
       <c r="D1272" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1272" t="n">
         <v>4</v>
@@ -91932,7 +91932,7 @@
       </c>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1272" t="inlineStr">
@@ -91941,32 +91941,32 @@
         </is>
       </c>
       <c r="J1272" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K1272" t="n">
-        <v>34000</v>
+        <v>39000</v>
       </c>
       <c r="L1272" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M1272" t="n">
-        <v>34500</v>
+        <v>39500</v>
       </c>
       <c r="N1272" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1272" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1272" t="n">
-        <v>1917</v>
+        <v>2633</v>
       </c>
       <c r="Q1272" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1272" t="inlineStr">
         <is>
@@ -91989,7 +91989,7 @@
         </is>
       </c>
       <c r="D1273" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1273" t="n">
         <v>4</v>
@@ -92004,7 +92004,7 @@
       </c>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1273" t="inlineStr">
@@ -92013,32 +92013,32 @@
         </is>
       </c>
       <c r="J1273" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K1273" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="L1273" t="n">
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="M1273" t="n">
-        <v>30500</v>
+        <v>34500</v>
       </c>
       <c r="N1273" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1273" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1273" t="n">
-        <v>1694</v>
+        <v>2300</v>
       </c>
       <c r="Q1273" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1273" t="inlineStr">
         <is>
@@ -92061,7 +92061,7 @@
         </is>
       </c>
       <c r="D1274" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1274" t="n">
         <v>4</v>
@@ -92076,25 +92076,25 @@
       </c>
       <c r="H1274" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1274" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1274" t="n">
-        <v>760</v>
+        <v>500</v>
       </c>
       <c r="K1274" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="L1274" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="M1274" t="n">
-        <v>32500</v>
+        <v>27500</v>
       </c>
       <c r="N1274" t="inlineStr">
         <is>
@@ -92107,7 +92107,7 @@
         </is>
       </c>
       <c r="P1274" t="n">
-        <v>2167</v>
+        <v>1833</v>
       </c>
       <c r="Q1274" t="n">
         <v>15</v>
@@ -92148,41 +92148,41 @@
       </c>
       <c r="H1275" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1275" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K1275" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="L1275" t="n">
-        <v>31000</v>
+        <v>38000</v>
       </c>
       <c r="M1275" t="n">
-        <v>30500</v>
+        <v>37500</v>
       </c>
       <c r="N1275" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1275" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1275" t="n">
-        <v>2033</v>
+        <v>2083</v>
       </c>
       <c r="Q1275" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1275" t="inlineStr">
         <is>
@@ -92220,41 +92220,41 @@
       </c>
       <c r="H1276" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1276" t="n">
         <v>400</v>
       </c>
       <c r="K1276" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L1276" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M1276" t="n">
-        <v>28500</v>
+        <v>34500</v>
       </c>
       <c r="N1276" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1276" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1276" t="n">
-        <v>1900</v>
+        <v>1917</v>
       </c>
       <c r="Q1276" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1276" t="inlineStr">
         <is>
@@ -92292,41 +92292,41 @@
       </c>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1277" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1277" t="n">
-        <v>660</v>
+        <v>320</v>
       </c>
       <c r="K1277" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L1277" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="M1277" t="n">
-        <v>28500</v>
+        <v>30500</v>
       </c>
       <c r="N1277" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1277" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1277" t="n">
-        <v>1900</v>
+        <v>1694</v>
       </c>
       <c r="Q1277" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1277" t="inlineStr">
         <is>
@@ -92364,25 +92364,25 @@
       </c>
       <c r="H1278" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1278" t="n">
-        <v>440</v>
+        <v>760</v>
       </c>
       <c r="K1278" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L1278" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="M1278" t="n">
-        <v>25500</v>
+        <v>32500</v>
       </c>
       <c r="N1278" t="inlineStr">
         <is>
@@ -92395,7 +92395,7 @@
         </is>
       </c>
       <c r="P1278" t="n">
-        <v>1700</v>
+        <v>2167</v>
       </c>
       <c r="Q1278" t="n">
         <v>15</v>
@@ -92436,25 +92436,25 @@
       </c>
       <c r="H1279" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1279" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K1279" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L1279" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="M1279" t="n">
-        <v>23500</v>
+        <v>30500</v>
       </c>
       <c r="N1279" t="inlineStr">
         <is>
@@ -92467,7 +92467,7 @@
         </is>
       </c>
       <c r="P1279" t="n">
-        <v>1567</v>
+        <v>2033</v>
       </c>
       <c r="Q1279" t="n">
         <v>15</v>
@@ -92493,7 +92493,7 @@
         </is>
       </c>
       <c r="D1280" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1280" t="n">
         <v>4</v>
@@ -92513,20 +92513,20 @@
       </c>
       <c r="I1280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1280" t="n">
-        <v>640</v>
+        <v>400</v>
       </c>
       <c r="K1280" t="n">
-        <v>39000</v>
+        <v>28000</v>
       </c>
       <c r="L1280" t="n">
-        <v>40000</v>
+        <v>29000</v>
       </c>
       <c r="M1280" t="n">
-        <v>39500</v>
+        <v>28500</v>
       </c>
       <c r="N1280" t="inlineStr">
         <is>
@@ -92539,7 +92539,7 @@
         </is>
       </c>
       <c r="P1280" t="n">
-        <v>2633</v>
+        <v>1900</v>
       </c>
       <c r="Q1280" t="n">
         <v>15</v>
@@ -92565,7 +92565,7 @@
         </is>
       </c>
       <c r="D1281" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1281" t="n">
         <v>4</v>
@@ -92580,25 +92580,25 @@
       </c>
       <c r="H1281" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1281" t="n">
-        <v>460</v>
+        <v>660</v>
       </c>
       <c r="K1281" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L1281" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M1281" t="n">
-        <v>34500</v>
+        <v>28500</v>
       </c>
       <c r="N1281" t="inlineStr">
         <is>
@@ -92611,7 +92611,7 @@
         </is>
       </c>
       <c r="P1281" t="n">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="Q1281" t="n">
         <v>15</v>
@@ -92637,7 +92637,7 @@
         </is>
       </c>
       <c r="D1282" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1282" t="n">
         <v>4</v>
@@ -92661,16 +92661,16 @@
         </is>
       </c>
       <c r="J1282" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K1282" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L1282" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="M1282" t="n">
-        <v>27500</v>
+        <v>25500</v>
       </c>
       <c r="N1282" t="inlineStr">
         <is>
@@ -92683,7 +92683,7 @@
         </is>
       </c>
       <c r="P1282" t="n">
-        <v>1833</v>
+        <v>1700</v>
       </c>
       <c r="Q1282" t="n">
         <v>15</v>
@@ -92709,7 +92709,7 @@
         </is>
       </c>
       <c r="D1283" s="2" t="n">
-        <v>44293</v>
+        <v>44427</v>
       </c>
       <c r="E1283" t="n">
         <v>4</v>
@@ -92724,41 +92724,41 @@
       </c>
       <c r="H1283" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1283" t="n">
-        <v>760</v>
+        <v>360</v>
       </c>
       <c r="K1283" t="n">
-        <v>9500</v>
+        <v>23000</v>
       </c>
       <c r="L1283" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="M1283" t="n">
-        <v>9750</v>
+        <v>23500</v>
       </c>
       <c r="N1283" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1283" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1283" t="n">
-        <v>542</v>
+        <v>1567</v>
       </c>
       <c r="Q1283" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1283" t="inlineStr">
         <is>
@@ -92781,7 +92781,7 @@
         </is>
       </c>
       <c r="D1284" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1284" t="n">
         <v>4</v>
@@ -92796,41 +92796,41 @@
       </c>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1284" t="n">
-        <v>520</v>
+        <v>640</v>
       </c>
       <c r="K1284" t="n">
-        <v>7500</v>
+        <v>39000</v>
       </c>
       <c r="L1284" t="n">
-        <v>8000</v>
+        <v>40000</v>
       </c>
       <c r="M1284" t="n">
-        <v>7750</v>
+        <v>39500</v>
       </c>
       <c r="N1284" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1284" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1284" t="n">
-        <v>431</v>
+        <v>2633</v>
       </c>
       <c r="Q1284" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1284" t="inlineStr">
         <is>
@@ -92853,7 +92853,7 @@
         </is>
       </c>
       <c r="D1285" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1285" t="n">
         <v>4</v>
@@ -92868,41 +92868,41 @@
       </c>
       <c r="H1285" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1285" t="n">
-        <v>720</v>
+        <v>460</v>
       </c>
       <c r="K1285" t="n">
-        <v>9500</v>
+        <v>34000</v>
       </c>
       <c r="L1285" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="M1285" t="n">
-        <v>9750</v>
+        <v>34500</v>
       </c>
       <c r="N1285" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1285" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1285" t="n">
-        <v>542</v>
+        <v>2300</v>
       </c>
       <c r="Q1285" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1285" t="inlineStr">
         <is>
@@ -92925,7 +92925,7 @@
         </is>
       </c>
       <c r="D1286" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1286" t="n">
         <v>4</v>
@@ -92940,41 +92940,41 @@
       </c>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1286" t="n">
-        <v>460</v>
+        <v>600</v>
       </c>
       <c r="K1286" t="n">
-        <v>7500</v>
+        <v>27000</v>
       </c>
       <c r="L1286" t="n">
-        <v>8000</v>
+        <v>28000</v>
       </c>
       <c r="M1286" t="n">
-        <v>7750</v>
+        <v>27500</v>
       </c>
       <c r="N1286" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1286" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1286" t="n">
-        <v>431</v>
+        <v>1833</v>
       </c>
       <c r="Q1286" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1286" t="inlineStr">
         <is>
@@ -93012,7 +93012,7 @@
       </c>
       <c r="H1287" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1287" t="inlineStr">
@@ -93021,32 +93021,32 @@
         </is>
       </c>
       <c r="J1287" t="n">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="K1287" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L1287" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M1287" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N1287" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1287" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1287" t="n">
-        <v>967</v>
+        <v>542</v>
       </c>
       <c r="Q1287" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1287" t="inlineStr">
         <is>
@@ -93084,7 +93084,7 @@
       </c>
       <c r="H1288" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1288" t="inlineStr">
@@ -93096,29 +93096,29 @@
         <v>520</v>
       </c>
       <c r="K1288" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L1288" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M1288" t="n">
-        <v>10500</v>
+        <v>7750</v>
       </c>
       <c r="N1288" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1288" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1288" t="n">
-        <v>700</v>
+        <v>431</v>
       </c>
       <c r="Q1288" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1288" t="inlineStr">
         <is>
@@ -93141,7 +93141,7 @@
         </is>
       </c>
       <c r="D1289" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1289" t="n">
         <v>4</v>
@@ -93156,7 +93156,7 @@
       </c>
       <c r="H1289" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1289" t="inlineStr">
@@ -93165,16 +93165,16 @@
         </is>
       </c>
       <c r="J1289" t="n">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="K1289" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L1289" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M1289" t="n">
-        <v>8500</v>
+        <v>9750</v>
       </c>
       <c r="N1289" t="inlineStr">
         <is>
@@ -93187,7 +93187,7 @@
         </is>
       </c>
       <c r="P1289" t="n">
-        <v>472</v>
+        <v>542</v>
       </c>
       <c r="Q1289" t="n">
         <v>18</v>
@@ -93213,7 +93213,7 @@
         </is>
       </c>
       <c r="D1290" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1290" t="n">
         <v>4</v>
@@ -93228,7 +93228,7 @@
       </c>
       <c r="H1290" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1290" t="inlineStr">
@@ -93237,16 +93237,16 @@
         </is>
       </c>
       <c r="J1290" t="n">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="K1290" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L1290" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1290" t="n">
-        <v>5500</v>
+        <v>7750</v>
       </c>
       <c r="N1290" t="inlineStr">
         <is>
@@ -93259,7 +93259,7 @@
         </is>
       </c>
       <c r="P1290" t="n">
-        <v>306</v>
+        <v>431</v>
       </c>
       <c r="Q1290" t="n">
         <v>18</v>
@@ -93285,7 +93285,7 @@
         </is>
       </c>
       <c r="D1291" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1291" t="n">
         <v>4</v>
@@ -93300,16 +93300,16 @@
       </c>
       <c r="H1291" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1291" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1291" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="K1291" t="n">
         <v>14000</v>
@@ -93322,19 +93322,19 @@
       </c>
       <c r="N1291" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1291" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1291" t="n">
-        <v>806</v>
+        <v>967</v>
       </c>
       <c r="Q1291" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1291" t="inlineStr">
         <is>
@@ -93357,7 +93357,7 @@
         </is>
       </c>
       <c r="D1292" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1292" t="n">
         <v>4</v>
@@ -93372,41 +93372,41 @@
       </c>
       <c r="H1292" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1292" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K1292" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L1292" t="n">
         <v>11000</v>
       </c>
-      <c r="L1292" t="n">
-        <v>12000</v>
-      </c>
       <c r="M1292" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N1292" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1292" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1292" t="n">
-        <v>639</v>
+        <v>700</v>
       </c>
       <c r="Q1292" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1292" t="inlineStr">
         <is>
@@ -93444,25 +93444,25 @@
       </c>
       <c r="H1293" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1293" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="K1293" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1293" t="n">
         <v>9000</v>
       </c>
-      <c r="L1293" t="n">
-        <v>10000</v>
-      </c>
       <c r="M1293" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N1293" t="inlineStr">
         <is>
@@ -93475,7 +93475,7 @@
         </is>
       </c>
       <c r="P1293" t="n">
-        <v>528</v>
+        <v>472</v>
       </c>
       <c r="Q1293" t="n">
         <v>18</v>
@@ -93516,41 +93516,41 @@
       </c>
       <c r="H1294" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1294" t="n">
-        <v>760</v>
+        <v>480</v>
       </c>
       <c r="K1294" t="n">
-        <v>13500</v>
+        <v>5000</v>
       </c>
       <c r="L1294" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M1294" t="n">
-        <v>13750</v>
+        <v>5500</v>
       </c>
       <c r="N1294" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1294" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1294" t="n">
-        <v>917</v>
+        <v>306</v>
       </c>
       <c r="Q1294" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1294" t="inlineStr">
         <is>
@@ -93588,41 +93588,41 @@
       </c>
       <c r="H1295" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1295" t="n">
-        <v>500</v>
+        <v>640</v>
       </c>
       <c r="K1295" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L1295" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="M1295" t="n">
-        <v>11250</v>
+        <v>14500</v>
       </c>
       <c r="N1295" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1295" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1295" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="Q1295" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1295" t="inlineStr">
         <is>
@@ -93645,7 +93645,7 @@
         </is>
       </c>
       <c r="D1296" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1296" t="n">
         <v>4</v>
@@ -93660,25 +93660,25 @@
       </c>
       <c r="H1296" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1296" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1296" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1296" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L1296" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M1296" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N1296" t="inlineStr">
         <is>
@@ -93691,7 +93691,7 @@
         </is>
       </c>
       <c r="P1296" t="n">
-        <v>806</v>
+        <v>639</v>
       </c>
       <c r="Q1296" t="n">
         <v>18</v>
@@ -93717,7 +93717,7 @@
         </is>
       </c>
       <c r="D1297" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1297" t="n">
         <v>4</v>
@@ -93732,25 +93732,25 @@
       </c>
       <c r="H1297" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1297" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K1297" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L1297" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M1297" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N1297" t="inlineStr">
         <is>
@@ -93763,7 +93763,7 @@
         </is>
       </c>
       <c r="P1297" t="n">
-        <v>694</v>
+        <v>528</v>
       </c>
       <c r="Q1297" t="n">
         <v>18</v>
@@ -93789,7 +93789,7 @@
         </is>
       </c>
       <c r="D1298" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1298" t="n">
         <v>4</v>
@@ -93804,41 +93804,41 @@
       </c>
       <c r="H1298" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1298" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K1298" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="L1298" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M1298" t="n">
-        <v>9500</v>
+        <v>13750</v>
       </c>
       <c r="N1298" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1298" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1298" t="n">
-        <v>528</v>
+        <v>917</v>
       </c>
       <c r="Q1298" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1298" t="inlineStr">
         <is>
@@ -93861,7 +93861,7 @@
         </is>
       </c>
       <c r="D1299" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1299" t="n">
         <v>4</v>
@@ -93881,20 +93881,20 @@
       </c>
       <c r="I1299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1299" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K1299" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L1299" t="n">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="M1299" t="n">
-        <v>19500</v>
+        <v>11250</v>
       </c>
       <c r="N1299" t="inlineStr">
         <is>
@@ -93907,7 +93907,7 @@
         </is>
       </c>
       <c r="P1299" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="Q1299" t="n">
         <v>15</v>
@@ -93948,16 +93948,16 @@
       </c>
       <c r="H1300" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1300" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K1300" t="n">
         <v>14000</v>
@@ -93970,19 +93970,19 @@
       </c>
       <c r="N1300" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1300" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1300" t="n">
-        <v>967</v>
+        <v>806</v>
       </c>
       <c r="Q1300" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1300" t="inlineStr">
         <is>
@@ -94020,41 +94020,41 @@
       </c>
       <c r="H1301" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1301" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1301" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1301" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L1301" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M1301" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N1301" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1301" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1301" t="n">
-        <v>767</v>
+        <v>694</v>
       </c>
       <c r="Q1301" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1301" t="inlineStr">
         <is>
@@ -94092,41 +94092,41 @@
       </c>
       <c r="H1302" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1302" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1302" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="L1302" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M1302" t="n">
-        <v>10750</v>
+        <v>9500</v>
       </c>
       <c r="N1302" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1302" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1302" t="n">
-        <v>717</v>
+        <v>528</v>
       </c>
       <c r="Q1302" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1302" t="inlineStr">
         <is>
@@ -94164,25 +94164,25 @@
       </c>
       <c r="H1303" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1303" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K1303" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L1303" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M1303" t="n">
-        <v>7500</v>
+        <v>19500</v>
       </c>
       <c r="N1303" t="inlineStr">
         <is>
@@ -94195,7 +94195,7 @@
         </is>
       </c>
       <c r="P1303" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="Q1303" t="n">
         <v>15</v>
@@ -94221,7 +94221,7 @@
         </is>
       </c>
       <c r="D1304" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1304" t="n">
         <v>4</v>
@@ -94241,20 +94241,20 @@
       </c>
       <c r="I1304" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1304" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K1304" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L1304" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M1304" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N1304" t="inlineStr">
         <is>
@@ -94267,7 +94267,7 @@
         </is>
       </c>
       <c r="P1304" t="n">
-        <v>1100</v>
+        <v>967</v>
       </c>
       <c r="Q1304" t="n">
         <v>15</v>
@@ -94293,7 +94293,7 @@
         </is>
       </c>
       <c r="D1305" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1305" t="n">
         <v>4</v>
@@ -94313,20 +94313,20 @@
       </c>
       <c r="I1305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1305" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1305" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L1305" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M1305" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N1305" t="inlineStr">
         <is>
@@ -94339,7 +94339,7 @@
         </is>
       </c>
       <c r="P1305" t="n">
-        <v>967</v>
+        <v>767</v>
       </c>
       <c r="Q1305" t="n">
         <v>15</v>
@@ -94365,7 +94365,7 @@
         </is>
       </c>
       <c r="D1306" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1306" t="n">
         <v>4</v>
@@ -94380,25 +94380,25 @@
       </c>
       <c r="H1306" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1306" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1306" t="n">
+        <v>10500</v>
+      </c>
+      <c r="L1306" t="n">
         <v>11000</v>
       </c>
-      <c r="L1306" t="n">
-        <v>12000</v>
-      </c>
       <c r="M1306" t="n">
-        <v>11500</v>
+        <v>10750</v>
       </c>
       <c r="N1306" t="inlineStr">
         <is>
@@ -94411,7 +94411,7 @@
         </is>
       </c>
       <c r="P1306" t="n">
-        <v>767</v>
+        <v>717</v>
       </c>
       <c r="Q1306" t="n">
         <v>15</v>
@@ -94437,7 +94437,7 @@
         </is>
       </c>
       <c r="D1307" s="2" t="n">
-        <v>44494</v>
+        <v>44533</v>
       </c>
       <c r="E1307" t="n">
         <v>4</v>
@@ -94452,25 +94452,25 @@
       </c>
       <c r="H1307" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1307" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1307" t="n">
-        <v>40000</v>
+        <v>7000</v>
       </c>
       <c r="L1307" t="n">
-        <v>41000</v>
+        <v>8000</v>
       </c>
       <c r="M1307" t="n">
-        <v>40500</v>
+        <v>7500</v>
       </c>
       <c r="N1307" t="inlineStr">
         <is>
@@ -94483,7 +94483,7 @@
         </is>
       </c>
       <c r="P1307" t="n">
-        <v>2700</v>
+        <v>500</v>
       </c>
       <c r="Q1307" t="n">
         <v>15</v>
@@ -94509,7 +94509,7 @@
         </is>
       </c>
       <c r="D1308" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E1308" t="n">
         <v>4</v>
@@ -94529,20 +94529,20 @@
       </c>
       <c r="I1308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1308" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1308" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="L1308" t="n">
-        <v>36000</v>
+        <v>17000</v>
       </c>
       <c r="M1308" t="n">
-        <v>35500</v>
+        <v>16500</v>
       </c>
       <c r="N1308" t="inlineStr">
         <is>
@@ -94555,7 +94555,7 @@
         </is>
       </c>
       <c r="P1308" t="n">
-        <v>2367</v>
+        <v>1100</v>
       </c>
       <c r="Q1308" t="n">
         <v>15</v>
@@ -94581,7 +94581,7 @@
         </is>
       </c>
       <c r="D1309" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E1309" t="n">
         <v>4</v>
@@ -94596,7 +94596,7 @@
       </c>
       <c r="H1309" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1309" t="inlineStr">
@@ -94605,32 +94605,32 @@
         </is>
       </c>
       <c r="J1309" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K1309" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L1309" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M1309" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N1309" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1309" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1309" t="n">
-        <v>583</v>
+        <v>967</v>
       </c>
       <c r="Q1309" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1309" t="inlineStr">
         <is>
@@ -94653,7 +94653,7 @@
         </is>
       </c>
       <c r="D1310" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E1310" t="n">
         <v>4</v>
@@ -94668,7 +94668,7 @@
       </c>
       <c r="H1310" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1310" t="inlineStr">
@@ -94680,29 +94680,29 @@
         <v>400</v>
       </c>
       <c r="K1310" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L1310" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M1310" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N1310" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1310" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1310" t="n">
-        <v>417</v>
+        <v>767</v>
       </c>
       <c r="Q1310" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1310" t="inlineStr">
         <is>
@@ -94725,7 +94725,7 @@
         </is>
       </c>
       <c r="D1311" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E1311" t="n">
         <v>4</v>
@@ -94749,16 +94749,16 @@
         </is>
       </c>
       <c r="J1311" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K1311" t="n">
-        <v>14500</v>
+        <v>40000</v>
       </c>
       <c r="L1311" t="n">
-        <v>15000</v>
+        <v>41000</v>
       </c>
       <c r="M1311" t="n">
-        <v>14750</v>
+        <v>40500</v>
       </c>
       <c r="N1311" t="inlineStr">
         <is>
@@ -94771,7 +94771,7 @@
         </is>
       </c>
       <c r="P1311" t="n">
-        <v>983</v>
+        <v>2700</v>
       </c>
       <c r="Q1311" t="n">
         <v>15</v>
@@ -94797,7 +94797,7 @@
         </is>
       </c>
       <c r="D1312" s="2" t="n">
-        <v>44390</v>
+        <v>44494</v>
       </c>
       <c r="E1312" t="n">
         <v>4</v>
@@ -94812,41 +94812,41 @@
       </c>
       <c r="H1312" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1312" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K1312" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="L1312" t="n">
-        <v>17000</v>
+        <v>36000</v>
       </c>
       <c r="M1312" t="n">
-        <v>16500</v>
+        <v>35500</v>
       </c>
       <c r="N1312" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1312" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1312" t="n">
-        <v>917</v>
+        <v>2367</v>
       </c>
       <c r="Q1312" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1312" t="inlineStr">
         <is>
@@ -94869,7 +94869,7 @@
         </is>
       </c>
       <c r="D1313" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1313" t="n">
         <v>4</v>
@@ -94884,25 +94884,25 @@
       </c>
       <c r="H1313" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1313" t="n">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="K1313" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L1313" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M1313" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N1313" t="inlineStr">
         <is>
@@ -94915,7 +94915,7 @@
         </is>
       </c>
       <c r="P1313" t="n">
-        <v>806</v>
+        <v>583</v>
       </c>
       <c r="Q1313" t="n">
         <v>18</v>
@@ -94941,7 +94941,7 @@
         </is>
       </c>
       <c r="D1314" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1314" t="n">
         <v>4</v>
@@ -94956,41 +94956,41 @@
       </c>
       <c r="H1314" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1314" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1314" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K1314" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L1314" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M1314" t="n">
-        <v>15500</v>
+        <v>7500</v>
       </c>
       <c r="N1314" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1314" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1314" t="n">
-        <v>1033</v>
+        <v>417</v>
       </c>
       <c r="Q1314" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1314" t="inlineStr">
         <is>
@@ -95013,7 +95013,7 @@
         </is>
       </c>
       <c r="D1315" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1315" t="n">
         <v>4</v>
@@ -95037,16 +95037,16 @@
         </is>
       </c>
       <c r="J1315" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K1315" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="L1315" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M1315" t="n">
-        <v>13500</v>
+        <v>14750</v>
       </c>
       <c r="N1315" t="inlineStr">
         <is>
@@ -95059,7 +95059,7 @@
         </is>
       </c>
       <c r="P1315" t="n">
-        <v>900</v>
+        <v>983</v>
       </c>
       <c r="Q1315" t="n">
         <v>15</v>
@@ -95100,41 +95100,41 @@
       </c>
       <c r="H1316" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1316" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K1316" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L1316" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M1316" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="N1316" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1316" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1316" t="n">
-        <v>767</v>
+        <v>917</v>
       </c>
       <c r="Q1316" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1316" t="inlineStr">
         <is>
@@ -95157,7 +95157,7 @@
         </is>
       </c>
       <c r="D1317" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1317" t="n">
         <v>4</v>
@@ -95172,25 +95172,25 @@
       </c>
       <c r="H1317" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1317" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="K1317" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L1317" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M1317" t="n">
-        <v>7750</v>
+        <v>14500</v>
       </c>
       <c r="N1317" t="inlineStr">
         <is>
@@ -95203,7 +95203,7 @@
         </is>
       </c>
       <c r="P1317" t="n">
-        <v>431</v>
+        <v>806</v>
       </c>
       <c r="Q1317" t="n">
         <v>18</v>
@@ -95229,7 +95229,7 @@
         </is>
       </c>
       <c r="D1318" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1318" t="n">
         <v>4</v>
@@ -95244,41 +95244,41 @@
       </c>
       <c r="H1318" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1318" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K1318" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L1318" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="M1318" t="n">
-        <v>5250</v>
+        <v>15500</v>
       </c>
       <c r="N1318" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1318" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1318" t="n">
-        <v>292</v>
+        <v>1033</v>
       </c>
       <c r="Q1318" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1318" t="inlineStr">
         <is>
@@ -95301,7 +95301,7 @@
         </is>
       </c>
       <c r="D1319" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1319" t="n">
         <v>4</v>
@@ -95316,7 +95316,7 @@
       </c>
       <c r="H1319" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1319" t="inlineStr">
@@ -95325,32 +95325,32 @@
         </is>
       </c>
       <c r="J1319" t="n">
-        <v>640</v>
+        <v>500</v>
       </c>
       <c r="K1319" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L1319" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M1319" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N1319" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1319" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1319" t="n">
-        <v>639</v>
+        <v>900</v>
       </c>
       <c r="Q1319" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1319" t="inlineStr">
         <is>
@@ -95373,7 +95373,7 @@
         </is>
       </c>
       <c r="D1320" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1320" t="n">
         <v>4</v>
@@ -95388,7 +95388,7 @@
       </c>
       <c r="H1320" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1320" t="inlineStr">
@@ -95400,29 +95400,29 @@
         <v>400</v>
       </c>
       <c r="K1320" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L1320" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M1320" t="n">
-        <v>9250</v>
+        <v>11500</v>
       </c>
       <c r="N1320" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1320" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1320" t="n">
-        <v>514</v>
+        <v>767</v>
       </c>
       <c r="Q1320" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1320" t="inlineStr">
         <is>
@@ -95460,7 +95460,7 @@
       </c>
       <c r="H1321" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1321" t="inlineStr">
@@ -95469,32 +95469,32 @@
         </is>
       </c>
       <c r="J1321" t="n">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="K1321" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L1321" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M1321" t="n">
-        <v>12500</v>
+        <v>7750</v>
       </c>
       <c r="N1321" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1321" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1321" t="n">
-        <v>833</v>
+        <v>431</v>
       </c>
       <c r="Q1321" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1321" t="inlineStr">
         <is>
@@ -95532,7 +95532,7 @@
       </c>
       <c r="H1322" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1322" t="inlineStr">
@@ -95544,29 +95544,29 @@
         <v>500</v>
       </c>
       <c r="K1322" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L1322" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M1322" t="n">
-        <v>9500</v>
+        <v>5250</v>
       </c>
       <c r="N1322" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1322" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1322" t="n">
-        <v>633</v>
+        <v>292</v>
       </c>
       <c r="Q1322" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1322" t="inlineStr">
         <is>
@@ -95589,7 +95589,7 @@
         </is>
       </c>
       <c r="D1323" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1323" t="n">
         <v>4</v>
@@ -95604,7 +95604,7 @@
       </c>
       <c r="H1323" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1323" t="inlineStr">
@@ -95613,16 +95613,16 @@
         </is>
       </c>
       <c r="J1323" t="n">
-        <v>540</v>
+        <v>640</v>
       </c>
       <c r="K1323" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L1323" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M1323" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N1323" t="inlineStr">
         <is>
@@ -95635,7 +95635,7 @@
         </is>
       </c>
       <c r="P1323" t="n">
-        <v>431</v>
+        <v>639</v>
       </c>
       <c r="Q1323" t="n">
         <v>18</v>
@@ -95661,7 +95661,7 @@
         </is>
       </c>
       <c r="D1324" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1324" t="n">
         <v>4</v>
@@ -95676,7 +95676,7 @@
       </c>
       <c r="H1324" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1324" t="inlineStr">
@@ -95688,13 +95688,13 @@
         <v>400</v>
       </c>
       <c r="K1324" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L1324" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="M1324" t="n">
-        <v>5250</v>
+        <v>9250</v>
       </c>
       <c r="N1324" t="inlineStr">
         <is>
@@ -95707,7 +95707,7 @@
         </is>
       </c>
       <c r="P1324" t="n">
-        <v>292</v>
+        <v>514</v>
       </c>
       <c r="Q1324" t="n">
         <v>18</v>
@@ -95733,7 +95733,7 @@
         </is>
       </c>
       <c r="D1325" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1325" t="n">
         <v>4</v>
@@ -95757,16 +95757,16 @@
         </is>
       </c>
       <c r="J1325" t="n">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="K1325" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L1325" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M1325" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N1325" t="inlineStr">
         <is>
@@ -95779,7 +95779,7 @@
         </is>
       </c>
       <c r="P1325" t="n">
-        <v>767</v>
+        <v>833</v>
       </c>
       <c r="Q1325" t="n">
         <v>15</v>
@@ -95805,7 +95805,7 @@
         </is>
       </c>
       <c r="D1326" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1326" t="n">
         <v>4</v>
@@ -95892,41 +95892,41 @@
       </c>
       <c r="H1327" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1327" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1327" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="K1327" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L1327" t="n">
         <v>8000</v>
       </c>
       <c r="M1327" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N1327" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1327" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1327" t="n">
-        <v>500</v>
+        <v>431</v>
       </c>
       <c r="Q1327" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1327" t="inlineStr">
         <is>
@@ -95949,7 +95949,7 @@
         </is>
       </c>
       <c r="D1328" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1328" t="n">
         <v>4</v>
@@ -95969,20 +95969,20 @@
       </c>
       <c r="I1328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1328" t="n">
-        <v>660</v>
+        <v>400</v>
       </c>
       <c r="K1328" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="L1328" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="M1328" t="n">
-        <v>16500</v>
+        <v>5250</v>
       </c>
       <c r="N1328" t="inlineStr">
         <is>
@@ -95995,7 +95995,7 @@
         </is>
       </c>
       <c r="P1328" t="n">
-        <v>917</v>
+        <v>292</v>
       </c>
       <c r="Q1328" t="n">
         <v>18</v>
@@ -96021,7 +96021,7 @@
         </is>
       </c>
       <c r="D1329" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1329" t="n">
         <v>4</v>
@@ -96045,16 +96045,16 @@
         </is>
       </c>
       <c r="J1329" t="n">
-        <v>660</v>
+        <v>700</v>
       </c>
       <c r="K1329" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="L1329" t="n">
-        <v>31000</v>
+        <v>12000</v>
       </c>
       <c r="M1329" t="n">
-        <v>30500</v>
+        <v>11500</v>
       </c>
       <c r="N1329" t="inlineStr">
         <is>
@@ -96067,7 +96067,7 @@
         </is>
       </c>
       <c r="P1329" t="n">
-        <v>2033</v>
+        <v>767</v>
       </c>
       <c r="Q1329" t="n">
         <v>15</v>
@@ -96093,7 +96093,7 @@
         </is>
       </c>
       <c r="D1330" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1330" t="n">
         <v>4</v>
@@ -96117,16 +96117,16 @@
         </is>
       </c>
       <c r="J1330" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1330" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="L1330" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M1330" t="n">
-        <v>24500</v>
+        <v>9500</v>
       </c>
       <c r="N1330" t="inlineStr">
         <is>
@@ -96139,7 +96139,7 @@
         </is>
       </c>
       <c r="P1330" t="n">
-        <v>1633</v>
+        <v>633</v>
       </c>
       <c r="Q1330" t="n">
         <v>15</v>
@@ -96165,7 +96165,7 @@
         </is>
       </c>
       <c r="D1331" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1331" t="n">
         <v>4</v>
@@ -96180,25 +96180,25 @@
       </c>
       <c r="H1331" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1331" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K1331" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L1331" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M1331" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N1331" t="inlineStr">
         <is>
@@ -96211,7 +96211,7 @@
         </is>
       </c>
       <c r="P1331" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="Q1331" t="n">
         <v>15</v>
@@ -96252,41 +96252,41 @@
       </c>
       <c r="H1332" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1332" t="n">
-        <v>400</v>
+        <v>660</v>
       </c>
       <c r="K1332" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L1332" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M1332" t="n">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="N1332" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1332" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1332" t="n">
-        <v>633</v>
+        <v>917</v>
       </c>
       <c r="Q1332" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1332" t="inlineStr">
         <is>
@@ -96309,7 +96309,7 @@
         </is>
       </c>
       <c r="D1333" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1333" t="n">
         <v>4</v>
@@ -96333,16 +96333,16 @@
         </is>
       </c>
       <c r="J1333" t="n">
-        <v>500</v>
+        <v>660</v>
       </c>
       <c r="K1333" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="L1333" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="M1333" t="n">
-        <v>19500</v>
+        <v>30500</v>
       </c>
       <c r="N1333" t="inlineStr">
         <is>
@@ -96355,7 +96355,7 @@
         </is>
       </c>
       <c r="P1333" t="n">
-        <v>1300</v>
+        <v>2033</v>
       </c>
       <c r="Q1333" t="n">
         <v>15</v>
@@ -96381,7 +96381,7 @@
         </is>
       </c>
       <c r="D1334" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1334" t="n">
         <v>4</v>
@@ -96405,16 +96405,16 @@
         </is>
       </c>
       <c r="J1334" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K1334" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="L1334" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="M1334" t="n">
-        <v>15500</v>
+        <v>24500</v>
       </c>
       <c r="N1334" t="inlineStr">
         <is>
@@ -96427,7 +96427,7 @@
         </is>
       </c>
       <c r="P1334" t="n">
-        <v>1033</v>
+        <v>1633</v>
       </c>
       <c r="Q1334" t="n">
         <v>15</v>
@@ -96453,7 +96453,7 @@
         </is>
       </c>
       <c r="D1335" s="2" t="n">
-        <v>44354</v>
+        <v>44525</v>
       </c>
       <c r="E1335" t="n">
         <v>4</v>
@@ -96468,16 +96468,16 @@
       </c>
       <c r="H1335" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1335" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1335" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K1335" t="n">
         <v>13000</v>
@@ -96490,19 +96490,19 @@
       </c>
       <c r="N1335" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1335" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1335" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="Q1335" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1335" t="inlineStr">
         <is>
@@ -96525,7 +96525,7 @@
         </is>
       </c>
       <c r="D1336" s="2" t="n">
-        <v>44354</v>
+        <v>44525</v>
       </c>
       <c r="E1336" t="n">
         <v>4</v>
@@ -96540,41 +96540,41 @@
       </c>
       <c r="H1336" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1336" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K1336" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L1336" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M1336" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N1336" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1336" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1336" t="n">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="Q1336" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1336" t="inlineStr">
         <is>
@@ -96597,7 +96597,7 @@
         </is>
       </c>
       <c r="D1337" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1337" t="n">
         <v>4</v>
@@ -96612,41 +96612,41 @@
       </c>
       <c r="H1337" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1337" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1337" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L1337" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M1337" t="n">
-        <v>9500</v>
+        <v>19500</v>
       </c>
       <c r="N1337" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1337" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1337" t="n">
-        <v>528</v>
+        <v>1300</v>
       </c>
       <c r="Q1337" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1337" t="inlineStr">
         <is>
@@ -96669,7 +96669,7 @@
         </is>
       </c>
       <c r="D1338" s="2" t="n">
-        <v>44503</v>
+        <v>44327</v>
       </c>
       <c r="E1338" t="n">
         <v>4</v>
@@ -96689,20 +96689,20 @@
       </c>
       <c r="I1338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1338" t="n">
-        <v>660</v>
+        <v>340</v>
       </c>
       <c r="K1338" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="L1338" t="n">
-        <v>41000</v>
+        <v>16000</v>
       </c>
       <c r="M1338" t="n">
-        <v>40500</v>
+        <v>15500</v>
       </c>
       <c r="N1338" t="inlineStr">
         <is>
@@ -96715,7 +96715,7 @@
         </is>
       </c>
       <c r="P1338" t="n">
-        <v>2700</v>
+        <v>1033</v>
       </c>
       <c r="Q1338" t="n">
         <v>15</v>
@@ -96741,7 +96741,7 @@
         </is>
       </c>
       <c r="D1339" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E1339" t="n">
         <v>4</v>
@@ -96756,41 +96756,41 @@
       </c>
       <c r="H1339" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1339" t="n">
-        <v>440</v>
+        <v>700</v>
       </c>
       <c r="K1339" t="n">
-        <v>34000</v>
+        <v>13000</v>
       </c>
       <c r="L1339" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="M1339" t="n">
-        <v>34500</v>
+        <v>13500</v>
       </c>
       <c r="N1339" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1339" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1339" t="n">
-        <v>2300</v>
+        <v>750</v>
       </c>
       <c r="Q1339" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1339" t="inlineStr">
         <is>
@@ -96813,7 +96813,7 @@
         </is>
       </c>
       <c r="D1340" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E1340" t="n">
         <v>4</v>
@@ -96828,7 +96828,7 @@
       </c>
       <c r="H1340" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1340" t="inlineStr">
@@ -96837,32 +96837,32 @@
         </is>
       </c>
       <c r="J1340" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K1340" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="L1340" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M1340" t="n">
-        <v>24500</v>
+        <v>11500</v>
       </c>
       <c r="N1340" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1340" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1340" t="n">
-        <v>1633</v>
+        <v>639</v>
       </c>
       <c r="Q1340" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1340" t="inlineStr">
         <is>
@@ -96885,7 +96885,7 @@
         </is>
       </c>
       <c r="D1341" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E1341" t="n">
         <v>4</v>
@@ -96900,7 +96900,7 @@
       </c>
       <c r="H1341" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1341" t="inlineStr">
@@ -96909,32 +96909,32 @@
         </is>
       </c>
       <c r="J1341" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K1341" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L1341" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="M1341" t="n">
-        <v>20500</v>
+        <v>9500</v>
       </c>
       <c r="N1341" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1341" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1341" t="n">
-        <v>1367</v>
+        <v>528</v>
       </c>
       <c r="Q1341" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1341" t="inlineStr">
         <is>
@@ -96957,7 +96957,7 @@
         </is>
       </c>
       <c r="D1342" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1342" t="n">
         <v>4</v>
@@ -96977,20 +96977,20 @@
       </c>
       <c r="I1342" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1342" t="n">
-        <v>760</v>
+        <v>660</v>
       </c>
       <c r="K1342" t="n">
-        <v>39000</v>
+        <v>40000</v>
       </c>
       <c r="L1342" t="n">
-        <v>40000</v>
+        <v>41000</v>
       </c>
       <c r="M1342" t="n">
-        <v>39500</v>
+        <v>40500</v>
       </c>
       <c r="N1342" t="inlineStr">
         <is>
@@ -97003,7 +97003,7 @@
         </is>
       </c>
       <c r="P1342" t="n">
-        <v>2633</v>
+        <v>2700</v>
       </c>
       <c r="Q1342" t="n">
         <v>15</v>
@@ -97029,7 +97029,7 @@
         </is>
       </c>
       <c r="D1343" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1343" t="n">
         <v>4</v>
@@ -97049,20 +97049,20 @@
       </c>
       <c r="I1343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1343" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="K1343" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="L1343" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="M1343" t="n">
-        <v>36500</v>
+        <v>34500</v>
       </c>
       <c r="N1343" t="inlineStr">
         <is>
@@ -97075,7 +97075,7 @@
         </is>
       </c>
       <c r="P1343" t="n">
-        <v>2433</v>
+        <v>2300</v>
       </c>
       <c r="Q1343" t="n">
         <v>15</v>
@@ -97101,7 +97101,7 @@
         </is>
       </c>
       <c r="D1344" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1344" t="n">
         <v>4</v>
@@ -97116,25 +97116,25 @@
       </c>
       <c r="H1344" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1344" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K1344" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="L1344" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M1344" t="n">
-        <v>34500</v>
+        <v>24500</v>
       </c>
       <c r="N1344" t="inlineStr">
         <is>
@@ -97147,7 +97147,7 @@
         </is>
       </c>
       <c r="P1344" t="n">
-        <v>2300</v>
+        <v>1633</v>
       </c>
       <c r="Q1344" t="n">
         <v>15</v>
@@ -97173,7 +97173,7 @@
         </is>
       </c>
       <c r="D1345" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1345" t="n">
         <v>4</v>
@@ -97193,20 +97193,20 @@
       </c>
       <c r="I1345" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1345" t="n">
-        <v>680</v>
+        <v>460</v>
       </c>
       <c r="K1345" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="L1345" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="M1345" t="n">
-        <v>32500</v>
+        <v>20500</v>
       </c>
       <c r="N1345" t="inlineStr">
         <is>
@@ -97219,7 +97219,7 @@
         </is>
       </c>
       <c r="P1345" t="n">
-        <v>2167</v>
+        <v>1367</v>
       </c>
       <c r="Q1345" t="n">
         <v>15</v>
@@ -97260,25 +97260,25 @@
       </c>
       <c r="H1346" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1346" t="n">
-        <v>500</v>
+        <v>760</v>
       </c>
       <c r="K1346" t="n">
-        <v>29000</v>
+        <v>39000</v>
       </c>
       <c r="L1346" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="M1346" t="n">
-        <v>29500</v>
+        <v>39500</v>
       </c>
       <c r="N1346" t="inlineStr">
         <is>
@@ -97291,7 +97291,7 @@
         </is>
       </c>
       <c r="P1346" t="n">
-        <v>1967</v>
+        <v>2633</v>
       </c>
       <c r="Q1346" t="n">
         <v>15</v>
@@ -97332,25 +97332,25 @@
       </c>
       <c r="H1347" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1347" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K1347" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="L1347" t="n">
-        <v>26000</v>
+        <v>37000</v>
       </c>
       <c r="M1347" t="n">
-        <v>25500</v>
+        <v>36500</v>
       </c>
       <c r="N1347" t="inlineStr">
         <is>
@@ -97363,7 +97363,7 @@
         </is>
       </c>
       <c r="P1347" t="n">
-        <v>1700</v>
+        <v>2433</v>
       </c>
       <c r="Q1347" t="n">
         <v>15</v>
@@ -97389,7 +97389,7 @@
         </is>
       </c>
       <c r="D1348" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1348" t="n">
         <v>4</v>
@@ -97404,41 +97404,41 @@
       </c>
       <c r="H1348" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1348" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1348" t="n">
         <v>400</v>
       </c>
       <c r="K1348" t="n">
-        <v>17000</v>
+        <v>34000</v>
       </c>
       <c r="L1348" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M1348" t="n">
-        <v>17500</v>
+        <v>34500</v>
       </c>
       <c r="N1348" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1348" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1348" t="n">
-        <v>972</v>
+        <v>2300</v>
       </c>
       <c r="Q1348" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1348" t="inlineStr">
         <is>
@@ -97461,7 +97461,7 @@
         </is>
       </c>
       <c r="D1349" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1349" t="n">
         <v>4</v>
@@ -97476,41 +97476,41 @@
       </c>
       <c r="H1349" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1349" t="n">
-        <v>300</v>
+        <v>680</v>
       </c>
       <c r="K1349" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="L1349" t="n">
-        <v>16000</v>
+        <v>33000</v>
       </c>
       <c r="M1349" t="n">
-        <v>15500</v>
+        <v>32500</v>
       </c>
       <c r="N1349" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1349" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1349" t="n">
-        <v>861</v>
+        <v>2167</v>
       </c>
       <c r="Q1349" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1349" t="inlineStr">
         <is>
@@ -97533,7 +97533,7 @@
         </is>
       </c>
       <c r="D1350" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1350" t="n">
         <v>4</v>
@@ -97548,41 +97548,41 @@
       </c>
       <c r="H1350" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1350" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K1350" t="n">
-        <v>13000</v>
+        <v>29000</v>
       </c>
       <c r="L1350" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M1350" t="n">
-        <v>13500</v>
+        <v>29500</v>
       </c>
       <c r="N1350" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1350" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1350" t="n">
-        <v>750</v>
+        <v>1967</v>
       </c>
       <c r="Q1350" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1350" t="inlineStr">
         <is>
@@ -97605,7 +97605,7 @@
         </is>
       </c>
       <c r="D1351" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1351" t="n">
         <v>4</v>
@@ -97620,41 +97620,41 @@
       </c>
       <c r="H1351" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1351" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1351" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1351" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="L1351" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="M1351" t="n">
-        <v>17500</v>
+        <v>25500</v>
       </c>
       <c r="N1351" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1351" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1351" t="n">
-        <v>972</v>
+        <v>1700</v>
       </c>
       <c r="Q1351" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1351" t="inlineStr">
         <is>
@@ -97692,25 +97692,25 @@
       </c>
       <c r="H1352" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1352" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K1352" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L1352" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M1352" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N1352" t="inlineStr">
         <is>
@@ -97723,7 +97723,7 @@
         </is>
       </c>
       <c r="P1352" t="n">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="Q1352" t="n">
         <v>18</v>
@@ -97764,25 +97764,25 @@
       </c>
       <c r="H1353" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1353" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K1353" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1353" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="M1353" t="n">
-        <v>12250</v>
+        <v>15500</v>
       </c>
       <c r="N1353" t="inlineStr">
         <is>
@@ -97795,7 +97795,7 @@
         </is>
       </c>
       <c r="P1353" t="n">
-        <v>681</v>
+        <v>861</v>
       </c>
       <c r="Q1353" t="n">
         <v>18</v>
@@ -97836,41 +97836,41 @@
       </c>
       <c r="H1354" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1354" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1354" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K1354" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="L1354" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M1354" t="n">
-        <v>16750</v>
+        <v>13500</v>
       </c>
       <c r="N1354" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1354" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1354" t="n">
-        <v>1117</v>
+        <v>750</v>
       </c>
       <c r="Q1354" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1354" t="inlineStr">
         <is>
@@ -97908,41 +97908,41 @@
       </c>
       <c r="H1355" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1355" t="n">
         <v>600</v>
       </c>
       <c r="K1355" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L1355" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M1355" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N1355" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1355" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1355" t="n">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="Q1355" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1355" t="inlineStr">
         <is>
@@ -97980,41 +97980,41 @@
       </c>
       <c r="H1356" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1356" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1356" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1356" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M1356" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N1356" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1356" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1356" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="Q1356" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1356" t="inlineStr">
         <is>
@@ -98052,41 +98052,41 @@
       </c>
       <c r="H1357" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1357" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1357" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K1357" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L1357" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M1357" t="n">
-        <v>13786</v>
+        <v>12250</v>
       </c>
       <c r="N1357" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1357" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1357" t="n">
-        <v>919</v>
+        <v>681</v>
       </c>
       <c r="Q1357" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1357" t="inlineStr">
         <is>
@@ -98124,25 +98124,25 @@
       </c>
       <c r="H1358" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1358" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="K1358" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="L1358" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M1358" t="n">
-        <v>11556</v>
+        <v>16750</v>
       </c>
       <c r="N1358" t="inlineStr">
         <is>
@@ -98155,7 +98155,7 @@
         </is>
       </c>
       <c r="P1358" t="n">
-        <v>770</v>
+        <v>1117</v>
       </c>
       <c r="Q1358" t="n">
         <v>15</v>
@@ -98181,7 +98181,7 @@
         </is>
       </c>
       <c r="D1359" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1359" t="n">
         <v>4</v>
@@ -98196,7 +98196,7 @@
       </c>
       <c r="H1359" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1359" t="inlineStr">
@@ -98205,32 +98205,32 @@
         </is>
       </c>
       <c r="J1359" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K1359" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L1359" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M1359" t="n">
-        <v>23500</v>
+        <v>14500</v>
       </c>
       <c r="N1359" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1359" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1359" t="n">
-        <v>1306</v>
+        <v>967</v>
       </c>
       <c r="Q1359" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1359" t="inlineStr">
         <is>
@@ -98253,7 +98253,7 @@
         </is>
       </c>
       <c r="D1360" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1360" t="n">
         <v>4</v>
@@ -98268,7 +98268,7 @@
       </c>
       <c r="H1360" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1360" t="inlineStr">
@@ -98280,29 +98280,29 @@
         <v>400</v>
       </c>
       <c r="K1360" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L1360" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M1360" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="N1360" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1360" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1360" t="n">
-        <v>1028</v>
+        <v>833</v>
       </c>
       <c r="Q1360" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1360" t="inlineStr">
         <is>
@@ -98325,7 +98325,7 @@
         </is>
       </c>
       <c r="D1361" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1361" t="n">
         <v>4</v>
@@ -98340,25 +98340,25 @@
       </c>
       <c r="H1361" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1361" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="K1361" t="n">
-        <v>42000</v>
+        <v>13500</v>
       </c>
       <c r="L1361" t="n">
-        <v>43000</v>
+        <v>14000</v>
       </c>
       <c r="M1361" t="n">
-        <v>42500</v>
+        <v>13786</v>
       </c>
       <c r="N1361" t="inlineStr">
         <is>
@@ -98371,7 +98371,7 @@
         </is>
       </c>
       <c r="P1361" t="n">
-        <v>2833</v>
+        <v>919</v>
       </c>
       <c r="Q1361" t="n">
         <v>15</v>
@@ -98397,7 +98397,7 @@
         </is>
       </c>
       <c r="D1362" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1362" t="n">
         <v>4</v>
@@ -98412,25 +98412,25 @@
       </c>
       <c r="H1362" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1362" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K1362" t="n">
-        <v>35000</v>
+        <v>11000</v>
       </c>
       <c r="L1362" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="M1362" t="n">
-        <v>35500</v>
+        <v>11556</v>
       </c>
       <c r="N1362" t="inlineStr">
         <is>
@@ -98443,7 +98443,7 @@
         </is>
       </c>
       <c r="P1362" t="n">
-        <v>2367</v>
+        <v>770</v>
       </c>
       <c r="Q1362" t="n">
         <v>15</v>
@@ -98484,41 +98484,41 @@
       </c>
       <c r="H1363" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1363" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1363" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K1363" t="n">
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="L1363" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="M1363" t="n">
-        <v>31500</v>
+        <v>23500</v>
       </c>
       <c r="N1363" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1363" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1363" t="n">
-        <v>2100</v>
+        <v>1306</v>
       </c>
       <c r="Q1363" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1363" t="inlineStr">
         <is>
@@ -98556,41 +98556,41 @@
       </c>
       <c r="H1364" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1364" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K1364" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L1364" t="n">
         <v>19000</v>
       </c>
-      <c r="L1364" t="n">
-        <v>20000</v>
-      </c>
       <c r="M1364" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="N1364" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1364" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1364" t="n">
-        <v>1300</v>
+        <v>1028</v>
       </c>
       <c r="Q1364" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1364" t="inlineStr">
         <is>
@@ -98628,25 +98628,25 @@
       </c>
       <c r="H1365" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1365" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K1365" t="n">
-        <v>14000</v>
+        <v>42000</v>
       </c>
       <c r="L1365" t="n">
-        <v>15000</v>
+        <v>43000</v>
       </c>
       <c r="M1365" t="n">
-        <v>14500</v>
+        <v>42500</v>
       </c>
       <c r="N1365" t="inlineStr">
         <is>
@@ -98659,7 +98659,7 @@
         </is>
       </c>
       <c r="P1365" t="n">
-        <v>967</v>
+        <v>2833</v>
       </c>
       <c r="Q1365" t="n">
         <v>15</v>
@@ -98685,7 +98685,7 @@
         </is>
       </c>
       <c r="D1366" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1366" t="n">
         <v>4</v>
@@ -98700,41 +98700,41 @@
       </c>
       <c r="H1366" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1366" t="n">
-        <v>640</v>
+        <v>500</v>
       </c>
       <c r="K1366" t="n">
-        <v>9500</v>
+        <v>35000</v>
       </c>
       <c r="L1366" t="n">
-        <v>10000</v>
+        <v>36000</v>
       </c>
       <c r="M1366" t="n">
-        <v>9750</v>
+        <v>35500</v>
       </c>
       <c r="N1366" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1366" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1366" t="n">
-        <v>542</v>
+        <v>2367</v>
       </c>
       <c r="Q1366" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1366" t="inlineStr">
         <is>
@@ -98757,7 +98757,7 @@
         </is>
       </c>
       <c r="D1367" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1367" t="n">
         <v>4</v>
@@ -98772,41 +98772,41 @@
       </c>
       <c r="H1367" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1367" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K1367" t="n">
-        <v>7500</v>
+        <v>31000</v>
       </c>
       <c r="L1367" t="n">
-        <v>8000</v>
+        <v>32000</v>
       </c>
       <c r="M1367" t="n">
-        <v>7750</v>
+        <v>31500</v>
       </c>
       <c r="N1367" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1367" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1367" t="n">
-        <v>431</v>
+        <v>2100</v>
       </c>
       <c r="Q1367" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1367" t="inlineStr">
         <is>
@@ -98829,7 +98829,7 @@
         </is>
       </c>
       <c r="D1368" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1368" t="n">
         <v>4</v>
@@ -98844,7 +98844,7 @@
       </c>
       <c r="H1368" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1368" t="inlineStr">
@@ -98853,32 +98853,32 @@
         </is>
       </c>
       <c r="J1368" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K1368" t="n">
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="L1368" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M1368" t="n">
-        <v>9750</v>
+        <v>19500</v>
       </c>
       <c r="N1368" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1368" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1368" t="n">
-        <v>488</v>
+        <v>1300</v>
       </c>
       <c r="Q1368" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1368" t="inlineStr">
         <is>
@@ -98901,7 +98901,7 @@
         </is>
       </c>
       <c r="D1369" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1369" t="n">
         <v>4</v>
@@ -98916,7 +98916,7 @@
       </c>
       <c r="H1369" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1369" t="inlineStr">
@@ -98928,29 +98928,29 @@
         <v>400</v>
       </c>
       <c r="K1369" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L1369" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M1369" t="n">
-        <v>7750</v>
+        <v>14500</v>
       </c>
       <c r="N1369" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1369" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1369" t="n">
-        <v>388</v>
+        <v>967</v>
       </c>
       <c r="Q1369" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1369" t="inlineStr">
         <is>
@@ -98988,7 +98988,7 @@
       </c>
       <c r="H1370" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1370" t="inlineStr">
@@ -98997,32 +98997,32 @@
         </is>
       </c>
       <c r="J1370" t="n">
-        <v>700</v>
+        <v>640</v>
       </c>
       <c r="K1370" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="L1370" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M1370" t="n">
-        <v>15500</v>
+        <v>9750</v>
       </c>
       <c r="N1370" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1370" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1370" t="n">
-        <v>1033</v>
+        <v>542</v>
       </c>
       <c r="Q1370" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1370" t="inlineStr">
         <is>
@@ -99060,7 +99060,7 @@
       </c>
       <c r="H1371" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1371" t="inlineStr">
@@ -99069,32 +99069,32 @@
         </is>
       </c>
       <c r="J1371" t="n">
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="K1371" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L1371" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M1371" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N1371" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1371" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1371" t="n">
-        <v>717</v>
+        <v>431</v>
       </c>
       <c r="Q1371" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1371" t="inlineStr">
         <is>
@@ -99117,7 +99117,7 @@
         </is>
       </c>
       <c r="D1372" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1372" t="n">
         <v>4</v>
@@ -99132,7 +99132,7 @@
       </c>
       <c r="H1372" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1372" t="inlineStr">
@@ -99141,32 +99141,32 @@
         </is>
       </c>
       <c r="J1372" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="K1372" t="n">
-        <v>42000</v>
+        <v>9500</v>
       </c>
       <c r="L1372" t="n">
-        <v>43000</v>
+        <v>10000</v>
       </c>
       <c r="M1372" t="n">
-        <v>42500</v>
+        <v>9750</v>
       </c>
       <c r="N1372" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1372" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1372" t="n">
-        <v>2833</v>
+        <v>488</v>
       </c>
       <c r="Q1372" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1372" t="inlineStr">
         <is>
@@ -99189,7 +99189,7 @@
         </is>
       </c>
       <c r="D1373" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1373" t="n">
         <v>4</v>
@@ -99204,7 +99204,7 @@
       </c>
       <c r="H1373" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1373" t="inlineStr">
@@ -99213,32 +99213,32 @@
         </is>
       </c>
       <c r="J1373" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K1373" t="n">
-        <v>35000</v>
+        <v>7500</v>
       </c>
       <c r="L1373" t="n">
-        <v>36000</v>
+        <v>8000</v>
       </c>
       <c r="M1373" t="n">
-        <v>35500</v>
+        <v>7750</v>
       </c>
       <c r="N1373" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O1373" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1373" t="n">
-        <v>2367</v>
+        <v>388</v>
       </c>
       <c r="Q1373" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1373" t="inlineStr">
         <is>
@@ -99261,7 +99261,7 @@
         </is>
       </c>
       <c r="D1374" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1374" t="n">
         <v>4</v>
@@ -99281,20 +99281,20 @@
       </c>
       <c r="I1374" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1374" t="n">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="K1374" t="n">
-        <v>31000</v>
+        <v>15000</v>
       </c>
       <c r="L1374" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="M1374" t="n">
-        <v>31500</v>
+        <v>15500</v>
       </c>
       <c r="N1374" t="inlineStr">
         <is>
@@ -99307,7 +99307,7 @@
         </is>
       </c>
       <c r="P1374" t="n">
-        <v>2100</v>
+        <v>1033</v>
       </c>
       <c r="Q1374" t="n">
         <v>15</v>
@@ -99333,7 +99333,7 @@
         </is>
       </c>
       <c r="D1375" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1375" t="n">
         <v>4</v>
@@ -99348,25 +99348,25 @@
       </c>
       <c r="H1375" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1375" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="K1375" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="L1375" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M1375" t="n">
-        <v>19500</v>
+        <v>10750</v>
       </c>
       <c r="N1375" t="inlineStr">
         <is>
@@ -99379,7 +99379,7 @@
         </is>
       </c>
       <c r="P1375" t="n">
-        <v>1300</v>
+        <v>717</v>
       </c>
       <c r="Q1375" t="n">
         <v>15</v>
@@ -99420,25 +99420,25 @@
       </c>
       <c r="H1376" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1376" t="n">
-        <v>500</v>
+        <v>660</v>
       </c>
       <c r="K1376" t="n">
-        <v>14000</v>
+        <v>42000</v>
       </c>
       <c r="L1376" t="n">
-        <v>15000</v>
+        <v>43000</v>
       </c>
       <c r="M1376" t="n">
-        <v>14500</v>
+        <v>42500</v>
       </c>
       <c r="N1376" t="inlineStr">
         <is>
@@ -99451,12 +99451,300 @@
         </is>
       </c>
       <c r="P1376" t="n">
-        <v>967</v>
+        <v>2833</v>
       </c>
       <c r="Q1376" t="n">
         <v>15</v>
       </c>
       <c r="R1376" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1377" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1377" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1377" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1377" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1377" t="n">
+        <v>440</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>35000</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>36000</v>
+      </c>
+      <c r="M1377" t="n">
+        <v>35500</v>
+      </c>
+      <c r="N1377" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1377" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1377" t="n">
+        <v>2367</v>
+      </c>
+      <c r="Q1377" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1377" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1378" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1378" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1378" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1378" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1378" t="n">
+        <v>360</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>31000</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>32000</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>31500</v>
+      </c>
+      <c r="N1378" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1378" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1378" t="n">
+        <v>2100</v>
+      </c>
+      <c r="Q1378" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1378" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1379" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1379" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1379" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1379" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1379" t="n">
+        <v>700</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M1379" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N1379" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1379" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1379" t="n">
+        <v>1300</v>
+      </c>
+      <c r="Q1379" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1379" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1380" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1380" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1380" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1380" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1380" t="n">
+        <v>500</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N1380" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1380" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1380" t="n">
+        <v>967</v>
+      </c>
+      <c r="Q1380" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1380" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>
